--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -30194,7 +30194,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6867248</v>
+        <v>6867195</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30206,10 +30206,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F334" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G334" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H334">
         <v>1</v>
@@ -30221,43 +30221,43 @@
         <v>55</v>
       </c>
       <c r="K334">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L334">
+        <v>3.4</v>
+      </c>
+      <c r="M334">
+        <v>2.9</v>
+      </c>
+      <c r="N334">
+        <v>1.95</v>
+      </c>
+      <c r="O334">
+        <v>3.4</v>
+      </c>
+      <c r="P334">
         <v>4</v>
       </c>
-      <c r="M334">
-        <v>5</v>
-      </c>
-      <c r="N334">
-        <v>1.533</v>
-      </c>
-      <c r="O334">
-        <v>4.2</v>
-      </c>
-      <c r="P334">
-        <v>6</v>
-      </c>
       <c r="Q334">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R334">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S334">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T334">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U334">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V334">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W334">
-        <v>0.5329999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X334">
         <v>-1</v>
@@ -30266,16 +30266,16 @@
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA334">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30283,7 +30283,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6867976</v>
+        <v>6867248</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30295,76 +30295,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G335" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H335">
         <v>1</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K335">
+        <v>1.5</v>
+      </c>
+      <c r="L335">
+        <v>4</v>
+      </c>
+      <c r="M335">
+        <v>5</v>
+      </c>
+      <c r="N335">
+        <v>1.533</v>
+      </c>
+      <c r="O335">
+        <v>4.2</v>
+      </c>
+      <c r="P335">
+        <v>6</v>
+      </c>
+      <c r="Q335">
+        <v>-1</v>
+      </c>
+      <c r="R335">
+        <v>1.9</v>
+      </c>
+      <c r="S335">
+        <v>1.9</v>
+      </c>
+      <c r="T335">
         <v>2.5</v>
       </c>
-      <c r="L335">
-        <v>3.2</v>
-      </c>
-      <c r="M335">
-        <v>2.5</v>
-      </c>
-      <c r="N335">
-        <v>2.375</v>
-      </c>
-      <c r="O335">
-        <v>3.2</v>
-      </c>
-      <c r="P335">
-        <v>3.2</v>
-      </c>
-      <c r="Q335">
-        <v>-0.25</v>
-      </c>
-      <c r="R335">
-        <v>2</v>
-      </c>
-      <c r="S335">
-        <v>1.8</v>
-      </c>
-      <c r="T335">
-        <v>2</v>
-      </c>
       <c r="U335">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V335">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W335">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X335">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA335">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC335">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30372,7 +30372,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6871116</v>
+        <v>6867976</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30384,10 +30384,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F336" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G336" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -30399,61 +30399,61 @@
         <v>57</v>
       </c>
       <c r="K336">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L336">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M336">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N336">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O336">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P336">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q336">
+        <v>-0.25</v>
+      </c>
+      <c r="R336">
+        <v>2</v>
+      </c>
+      <c r="S336">
+        <v>1.8</v>
+      </c>
+      <c r="T336">
+        <v>2</v>
+      </c>
+      <c r="U336">
+        <v>1.825</v>
+      </c>
+      <c r="V336">
+        <v>1.975</v>
+      </c>
+      <c r="W336">
+        <v>-1</v>
+      </c>
+      <c r="X336">
+        <v>2.2</v>
+      </c>
+      <c r="Y336">
+        <v>-1</v>
+      </c>
+      <c r="Z336">
         <v>-0.5</v>
       </c>
-      <c r="R336">
-        <v>1.725</v>
-      </c>
-      <c r="S336">
-        <v>2.075</v>
-      </c>
-      <c r="T336">
-        <v>2.25</v>
-      </c>
-      <c r="U336">
-        <v>1.925</v>
-      </c>
-      <c r="V336">
-        <v>1.875</v>
-      </c>
-      <c r="W336">
-        <v>-1</v>
-      </c>
-      <c r="X336">
-        <v>2.6</v>
-      </c>
-      <c r="Y336">
-        <v>-1</v>
-      </c>
-      <c r="Z336">
-        <v>-1</v>
-      </c>
       <c r="AA336">
-        <v>1.075</v>
+        <v>0.4</v>
       </c>
       <c r="AB336">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC336">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30461,7 +30461,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6867195</v>
+        <v>6871116</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30473,76 +30473,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F337" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G337" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H337">
         <v>1</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K337">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L337">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M337">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N337">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O337">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P337">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q337">
         <v>-0.5</v>
       </c>
       <c r="R337">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S337">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T337">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U337">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V337">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W337">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC337">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -32241,7 +32241,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6867554</v>
+        <v>6867602</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32253,73 +32253,73 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F357" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G357" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J357" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K357">
+        <v>5</v>
+      </c>
+      <c r="L357">
+        <v>3.75</v>
+      </c>
+      <c r="M357">
+        <v>1.55</v>
+      </c>
+      <c r="N357">
+        <v>6.5</v>
+      </c>
+      <c r="O357">
+        <v>4</v>
+      </c>
+      <c r="P357">
+        <v>1.4</v>
+      </c>
+      <c r="Q357">
+        <v>1.25</v>
+      </c>
+      <c r="R357">
+        <v>1.85</v>
+      </c>
+      <c r="S357">
         <v>1.95</v>
       </c>
-      <c r="L357">
-        <v>3.4</v>
-      </c>
-      <c r="M357">
-        <v>3.25</v>
-      </c>
-      <c r="N357">
-        <v>2.1</v>
-      </c>
-      <c r="O357">
-        <v>3.2</v>
-      </c>
-      <c r="P357">
-        <v>3.1</v>
-      </c>
-      <c r="Q357">
-        <v>-0.25</v>
-      </c>
-      <c r="R357">
-        <v>1.9</v>
-      </c>
-      <c r="S357">
-        <v>1.9</v>
-      </c>
       <c r="T357">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U357">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V357">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W357">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X357">
         <v>-1</v>
       </c>
       <c r="Y357">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z357">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA357">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB357">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC357">
         <v>-1</v>
@@ -32330,7 +32330,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>6867602</v>
+        <v>6867554</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32342,73 +32342,73 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F358" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G358" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J358" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K358">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="L358">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M358">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N358">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O358">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P358">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q358">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R358">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S358">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T358">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U358">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V358">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W358">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X358">
         <v>-1</v>
       </c>
       <c r="Y358">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z358">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA358">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB358">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC358">
         <v>-1</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -151,10 +151,10 @@
     <t>Budafoki MTE</t>
   </si>
   <si>
-    <t>BFC Siofok</t>
+    <t>Gyori ETO</t>
   </si>
   <si>
-    <t>Gyori ETO</t>
+    <t>BFC Siofok</t>
   </si>
   <si>
     <t>Tiszakecske FC</t>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6867575</v>
+        <v>6867521</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -913,13 +913,13 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -928,25 +928,25 @@
         <v>52</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
         <v>1.8</v>
@@ -955,16 +955,16 @@
         <v>2</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>0.6499999999999999</v>
+        <v>1.875</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -979,10 +979,10 @@
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6867521</v>
+        <v>6867575</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,13 +1002,13 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1017,25 +1017,25 @@
         <v>52</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N6">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
         <v>1.8</v>
@@ -1044,16 +1044,16 @@
         <v>2</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>1.875</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1068,10 +1068,10 @@
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1094,7 +1094,7 @@
         <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -2147,7 +2147,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6867181</v>
+        <v>6867231</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2162,73 +2162,73 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P19">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2236,7 +2236,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6867231</v>
+        <v>6867181</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2251,73 +2251,73 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>3.4</v>
+      </c>
+      <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>3.2</v>
+      </c>
+      <c r="P20">
+        <v>2.4</v>
+      </c>
+      <c r="Q20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>3.25</v>
-      </c>
-      <c r="M20">
-        <v>3.25</v>
-      </c>
-      <c r="N20">
-        <v>1.533</v>
-      </c>
-      <c r="O20">
-        <v>4.333</v>
-      </c>
-      <c r="P20">
-        <v>5.5</v>
-      </c>
-      <c r="Q20">
-        <v>-1</v>
-      </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2325,7 +2325,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6867523</v>
+        <v>6867666</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2337,49 +2337,49 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
         <v>2.8</v>
       </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
       <c r="M21">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
         <v>2.75</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
         <v>1.95</v>
@@ -2388,25 +2388,25 @@
         <v>1.85</v>
       </c>
       <c r="W21">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6867666</v>
+        <v>6867523</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,49 +2426,49 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N22">
         <v>2.75</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
         <v>1.95</v>
@@ -2477,25 +2477,25 @@
         <v>1.85</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6867236</v>
+        <v>6867524</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,76 +2871,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N27">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867182</v>
+        <v>6867236</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,76 +2960,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>2.8</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M28">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6867524</v>
+        <v>6867182</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3049,76 +3049,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O29">
         <v>3.25</v>
       </c>
       <c r="P29">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T29">
         <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W29">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.5</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3227,7 +3227,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
         <v>47</v>
@@ -3393,7 +3393,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6867527</v>
+        <v>6867526</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3405,76 +3405,76 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L33">
+        <v>3.3</v>
+      </c>
+      <c r="M33">
+        <v>3.4</v>
+      </c>
+      <c r="N33">
+        <v>1.95</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>3.5</v>
+      </c>
+      <c r="Q33">
+        <v>-0.5</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1.8</v>
+      </c>
+      <c r="T33">
         <v>3.25</v>
       </c>
-      <c r="M33">
-        <v>2.6</v>
-      </c>
-      <c r="N33">
-        <v>2.7</v>
-      </c>
-      <c r="O33">
-        <v>3.4</v>
-      </c>
-      <c r="P33">
-        <v>2.5</v>
-      </c>
-      <c r="Q33">
-        <v>0.25</v>
-      </c>
-      <c r="R33">
-        <v>1.775</v>
-      </c>
-      <c r="S33">
-        <v>2.025</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X33">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6867526</v>
+        <v>6867527</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,76 +3494,76 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M34">
+        <v>2.6</v>
+      </c>
+      <c r="N34">
+        <v>2.7</v>
+      </c>
+      <c r="O34">
         <v>3.4</v>
       </c>
-      <c r="N34">
-        <v>1.95</v>
-      </c>
-      <c r="O34">
-        <v>4</v>
-      </c>
       <c r="P34">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q34">
+        <v>0.25</v>
+      </c>
+      <c r="R34">
+        <v>1.775</v>
+      </c>
+      <c r="S34">
+        <v>2.025</v>
+      </c>
+      <c r="T34">
+        <v>2.5</v>
+      </c>
+      <c r="U34">
+        <v>1.9</v>
+      </c>
+      <c r="V34">
+        <v>1.9</v>
+      </c>
+      <c r="W34">
+        <v>-1</v>
+      </c>
+      <c r="X34">
+        <v>2.4</v>
+      </c>
+      <c r="Y34">
+        <v>-1</v>
+      </c>
+      <c r="Z34">
+        <v>0.3875</v>
+      </c>
+      <c r="AA34">
         <v>-0.5</v>
       </c>
-      <c r="R34">
-        <v>2</v>
-      </c>
-      <c r="S34">
-        <v>1.8</v>
-      </c>
-      <c r="T34">
-        <v>3.25</v>
-      </c>
-      <c r="U34">
-        <v>1.925</v>
-      </c>
-      <c r="V34">
-        <v>1.875</v>
-      </c>
-      <c r="W34">
-        <v>0.95</v>
-      </c>
-      <c r="X34">
-        <v>-1</v>
-      </c>
-      <c r="Y34">
-        <v>-1</v>
-      </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AA34">
-        <v>-1</v>
-      </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3764,7 +3764,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6867237</v>
+        <v>6867668</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,76 +3939,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>4.25</v>
+        <v>3.3</v>
       </c>
       <c r="N39">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB39">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6867668</v>
+        <v>6867237</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,76 +4028,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="N40">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>-0</v>
+      </c>
+      <c r="AB40">
+        <v>0.475</v>
+      </c>
+      <c r="AC40">
         <v>-0.5</v>
-      </c>
-      <c r="AA40">
-        <v>0.5125</v>
-      </c>
-      <c r="AB40">
-        <v>-0.5</v>
-      </c>
-      <c r="AC40">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4120,7 +4120,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4384,7 +4384,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
         <v>43</v>
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6867737</v>
+        <v>6867529</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4651,55 +4651,55 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
         <v>51</v>
       </c>
       <c r="K47">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="N47">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4708,19 +4708,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6867529</v>
+        <v>6867737</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,55 +4829,55 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>51</v>
       </c>
       <c r="K49">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M49">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="N49">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4886,19 +4886,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867185</v>
+        <v>6867671</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N54">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
+        <v>0.95</v>
+      </c>
+      <c r="AB54">
         <v>-0.5</v>
       </c>
-      <c r="AA54">
-        <v>0.4375</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6867239</v>
+        <v>6867185</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q55">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5440,7 +5440,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867671</v>
+        <v>6867239</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5452,76 +5452,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K56">
+        <v>1.8</v>
+      </c>
+      <c r="L56">
+        <v>3.6</v>
+      </c>
+      <c r="M56">
+        <v>3.6</v>
+      </c>
+      <c r="N56">
+        <v>1.615</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+      <c r="P56">
+        <v>5.5</v>
+      </c>
+      <c r="Q56">
+        <v>-0.75</v>
+      </c>
+      <c r="R56">
+        <v>1.8</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>2.5</v>
+      </c>
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="L56">
-        <v>3.5</v>
-      </c>
-      <c r="M56">
-        <v>3.5</v>
-      </c>
-      <c r="N56">
-        <v>1.75</v>
-      </c>
-      <c r="O56">
-        <v>3.6</v>
-      </c>
-      <c r="P56">
-        <v>4.75</v>
-      </c>
-      <c r="Q56">
-        <v>-0.5</v>
-      </c>
-      <c r="R56">
-        <v>1.75</v>
-      </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>2.25</v>
-      </c>
-      <c r="U56">
-        <v>1.8</v>
-      </c>
-      <c r="V56">
-        <v>2</v>
-      </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.95</v>
-      </c>
-      <c r="AB56">
-        <v>-0.5</v>
-      </c>
-      <c r="AC56">
-        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5544,7 +5544,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57">
         <v>4</v>
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6867531</v>
+        <v>6867586</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,40 +5719,40 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M59">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P59">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
         <v>1.9</v>
@@ -5761,34 +5761,34 @@
         <v>1.9</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
+        <v>-0.5</v>
+      </c>
+      <c r="AA59">
+        <v>0.45</v>
+      </c>
+      <c r="AB59">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5796,7 +5796,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6867586</v>
+        <v>6867531</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5808,40 +5808,40 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O60">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
         <v>1.9</v>
@@ -5850,34 +5850,34 @@
         <v>1.9</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X60">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA60">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6867186</v>
+        <v>6867739</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,76 +5897,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
         <v>3.25</v>
       </c>
       <c r="M61">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N61">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC61">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6867739</v>
+        <v>6867186</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L62">
         <v>3.25</v>
       </c>
       <c r="M62">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N62">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6078,7 +6078,7 @@
         <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6253,7 +6253,7 @@
         <v>45172.5</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s">
         <v>48</v>
@@ -6330,7 +6330,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6867672</v>
+        <v>6867585</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6342,76 +6342,76 @@
         <v>45172.5</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L66">
         <v>3.25</v>
       </c>
       <c r="M66">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N66">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q66">
         <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X66">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA66">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6867585</v>
+        <v>6867672</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6431,76 +6431,76 @@
         <v>45172.5</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L67">
         <v>3.25</v>
       </c>
       <c r="M67">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N67">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q67">
         <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
         <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6508,7 +6508,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6867740</v>
+        <v>6871125</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6520,76 +6520,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K68">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6871125</v>
+        <v>6867740</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,76 +6609,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K69">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N69">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O69">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X69">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6775,7 +6775,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6867674</v>
+        <v>6867187</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6787,76 +6787,76 @@
         <v>45193.5</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K71">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N71">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O71">
+        <v>3.3</v>
+      </c>
+      <c r="P71">
         <v>3.75</v>
       </c>
-      <c r="P71">
-        <v>4.5</v>
-      </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
+        <v>2.25</v>
+      </c>
+      <c r="U71">
         <v>1.95</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.85</v>
       </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>1.975</v>
-      </c>
-      <c r="V71">
-        <v>1.825</v>
-      </c>
       <c r="W71">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6879,7 +6879,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6953,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6867187</v>
+        <v>6867587</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6965,28 +6965,28 @@
         <v>45193.5</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N73">
         <v>1.85</v>
@@ -6995,46 +6995,46 @@
         <v>3.3</v>
       </c>
       <c r="P73">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q73">
         <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y73">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6867587</v>
+        <v>6867675</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,76 +7054,76 @@
         <v>45193.5</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>53</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N74">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P74">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.3625</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7131,7 +7131,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867675</v>
+        <v>6867674</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7143,76 +7143,76 @@
         <v>45193.5</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N75">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
+        <v>1.95</v>
+      </c>
+      <c r="S75">
+        <v>1.85</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.975</v>
       </c>
-      <c r="S75">
-        <v>1.725</v>
-      </c>
-      <c r="T75">
-        <v>2.25</v>
-      </c>
-      <c r="U75">
-        <v>1.875</v>
-      </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X75">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7232,7 +7232,7 @@
         <v>45193.61458333334</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
         <v>48</v>
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6867241</v>
+        <v>6867534</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,73 +7588,73 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L80">
         <v>3.3</v>
       </c>
       <c r="M80">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N80">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="O80">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA80">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867534</v>
+        <v>6867241</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,73 +7677,73 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K81">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L81">
         <v>3.3</v>
       </c>
       <c r="M81">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7754,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867677</v>
+        <v>6867590</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,55 +7766,55 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>53</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L82">
         <v>3.2</v>
       </c>
       <c r="M82">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N82">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O82">
         <v>3.25</v>
       </c>
       <c r="P82">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7826,16 +7826,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB82">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7843,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867590</v>
+        <v>6867677</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,55 +7855,55 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>53</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L83">
         <v>3.2</v>
       </c>
       <c r="M83">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N83">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O83">
         <v>3.25</v>
       </c>
       <c r="P83">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
         <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7915,16 +7915,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>0.4125</v>
+      </c>
+      <c r="AA83">
         <v>-0.5</v>
       </c>
-      <c r="AA83">
-        <v>0.375</v>
-      </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8125,7 +8125,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8392,7 +8392,7 @@
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -9368,7 +9368,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9546,7 +9546,7 @@
         <v>45207.5</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
         <v>44</v>
@@ -9905,7 +9905,7 @@
         <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6867873</v>
+        <v>6871121</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45221.5</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K109">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L109">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="N109">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O109">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q109">
         <v>0</v>
       </c>
       <c r="R109">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y109">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10246,7 +10246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6867680</v>
+        <v>6867873</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10258,73 +10258,73 @@
         <v>45221.5</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
         <v>3</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>51</v>
+      </c>
+      <c r="K110">
+        <v>2.9</v>
+      </c>
+      <c r="L110">
+        <v>3.25</v>
+      </c>
+      <c r="M110">
+        <v>2.25</v>
+      </c>
+      <c r="N110">
+        <v>2.5</v>
+      </c>
+      <c r="O110">
+        <v>3.25</v>
+      </c>
+      <c r="P110">
+        <v>2.9</v>
+      </c>
+      <c r="Q110">
         <v>0</v>
       </c>
-      <c r="J110" t="s">
-        <v>52</v>
-      </c>
-      <c r="K110">
+      <c r="R110">
+        <v>1.75</v>
+      </c>
+      <c r="S110">
+        <v>2.05</v>
+      </c>
+      <c r="T110">
         <v>2.25</v>
       </c>
-      <c r="L110">
-        <v>3.4</v>
-      </c>
-      <c r="M110">
-        <v>2.8</v>
-      </c>
-      <c r="N110">
-        <v>2.25</v>
-      </c>
-      <c r="O110">
-        <v>3.5</v>
-      </c>
-      <c r="P110">
-        <v>3.1</v>
-      </c>
-      <c r="Q110">
-        <v>-0.25</v>
-      </c>
-      <c r="R110">
-        <v>1.975</v>
-      </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB110">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10335,7 +10335,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867244</v>
+        <v>6867680</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10347,76 +10347,76 @@
         <v>45221.5</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K111">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N111">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V111">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X111">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC111">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10424,7 +10424,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6871121</v>
+        <v>6867244</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10436,40 +10436,40 @@
         <v>45221.5</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>53</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N112">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
         <v>1.875</v>
@@ -10478,34 +10478,34 @@
         <v>1.925</v>
       </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10525,7 +10525,7 @@
         <v>45227.5</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G113" t="s">
         <v>42</v>
@@ -10881,7 +10881,7 @@
         <v>45228.375</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
         <v>44</v>
@@ -11329,7 +11329,7 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11863,7 +11863,7 @@
         <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867683</v>
+        <v>6867595</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,76 +12216,76 @@
         <v>45242.375</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>53</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N132">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>2.25</v>
       </c>
       <c r="U132">
+        <v>1.85</v>
+      </c>
+      <c r="V132">
         <v>1.95</v>
       </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6867595</v>
+        <v>6867683</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,76 +12305,76 @@
         <v>45242.375</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>53</v>
       </c>
       <c r="K133">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N133">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC133">
-        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12839,7 +12839,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
         <v>38</v>
@@ -12916,7 +12916,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6867546</v>
+        <v>6867194</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12928,58 +12928,58 @@
         <v>45256.375</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>52</v>
       </c>
       <c r="K140">
+        <v>2.1</v>
+      </c>
+      <c r="L140">
+        <v>3.1</v>
+      </c>
+      <c r="M140">
+        <v>3.2</v>
+      </c>
+      <c r="N140">
         <v>2.25</v>
       </c>
-      <c r="L140">
-        <v>3.25</v>
-      </c>
-      <c r="M140">
-        <v>2.75</v>
-      </c>
-      <c r="N140">
-        <v>2.5</v>
-      </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12988,16 +12988,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6867596</v>
+        <v>6867546</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,76 +13017,76 @@
         <v>45256.375</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H141">
+        <v>3</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>52</v>
+      </c>
+      <c r="K141">
+        <v>2.25</v>
+      </c>
+      <c r="L141">
+        <v>3.25</v>
+      </c>
+      <c r="M141">
+        <v>2.75</v>
+      </c>
+      <c r="N141">
+        <v>2.5</v>
+      </c>
+      <c r="O141">
+        <v>3.3</v>
+      </c>
+      <c r="P141">
+        <v>2.875</v>
+      </c>
+      <c r="Q141">
         <v>0</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-      <c r="J141" t="s">
-        <v>51</v>
-      </c>
-      <c r="K141">
-        <v>3.4</v>
-      </c>
-      <c r="L141">
-        <v>3.1</v>
-      </c>
-      <c r="M141">
-        <v>2</v>
-      </c>
-      <c r="N141">
-        <v>5.25</v>
-      </c>
-      <c r="O141">
-        <v>3.6</v>
-      </c>
-      <c r="P141">
-        <v>1.727</v>
-      </c>
-      <c r="Q141">
-        <v>0.75</v>
-      </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA141">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6867878</v>
+        <v>6867596</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,56 +13106,56 @@
         <v>45256.375</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>51</v>
       </c>
       <c r="K142">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
         <v>2</v>
       </c>
       <c r="N142">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="V142">
-        <v>1.975</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13163,19 +13163,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.825</v>
-      </c>
-      <c r="AC142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6867975</v>
+        <v>6867878</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,76 +13195,76 @@
         <v>45256.375</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="O143">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6867194</v>
+        <v>6867975</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,76 +13284,76 @@
         <v>45256.375</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K144">
         <v>2.1</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N144">
+        <v>2.5</v>
+      </c>
+      <c r="O144">
+        <v>3.3</v>
+      </c>
+      <c r="P144">
+        <v>2.875</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
         <v>2.25</v>
       </c>
-      <c r="O144">
-        <v>3.2</v>
-      </c>
-      <c r="P144">
-        <v>3.4</v>
-      </c>
-      <c r="Q144">
-        <v>-0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.875</v>
-      </c>
-      <c r="S144">
-        <v>1.925</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6867684</v>
+        <v>6867545</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13462,58 +13462,58 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H146">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>52</v>
       </c>
       <c r="K146">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L146">
+        <v>3.2</v>
+      </c>
+      <c r="M146">
+        <v>2.75</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146">
         <v>3.5</v>
       </c>
-      <c r="M146">
+      <c r="P146">
         <v>4</v>
       </c>
-      <c r="N146">
-        <v>1.75</v>
-      </c>
-      <c r="O146">
-        <v>3.6</v>
-      </c>
-      <c r="P146">
-        <v>5</v>
-      </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
+        <v>1.85</v>
+      </c>
+      <c r="V146">
         <v>1.95</v>
       </c>
-      <c r="V146">
-        <v>1.85</v>
-      </c>
       <c r="W146">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13522,13 +13522,13 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13539,7 +13539,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6867545</v>
+        <v>6867684</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13551,58 +13551,58 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>52</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
         <v>1.85</v>
       </c>
-      <c r="V147">
-        <v>1.95</v>
-      </c>
       <c r="W147">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13611,13 +13611,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13643,7 +13643,7 @@
         <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H148">
         <v>6</v>
@@ -13907,7 +13907,7 @@
         <v>45263.375</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
         <v>42</v>
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6871116</v>
+        <v>6867976</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,10 +14085,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14100,61 +14100,61 @@
         <v>53</v>
       </c>
       <c r="K153">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N153">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P153">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q153">
+        <v>-0.25</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>1.8</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>1.825</v>
+      </c>
+      <c r="V153">
+        <v>1.975</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>2.2</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
         <v>-0.5</v>
       </c>
-      <c r="R153">
-        <v>1.725</v>
-      </c>
-      <c r="S153">
-        <v>2.075</v>
-      </c>
-      <c r="T153">
-        <v>2.25</v>
-      </c>
-      <c r="U153">
-        <v>1.925</v>
-      </c>
-      <c r="V153">
-        <v>1.875</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>2.6</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>-1</v>
-      </c>
       <c r="AA153">
-        <v>1.075</v>
+        <v>0.4</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6867976</v>
+        <v>6871116</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,10 +14174,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14189,61 +14189,61 @@
         <v>53</v>
       </c>
       <c r="K154">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L154">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N154">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O154">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T154">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>1.075</v>
+      </c>
+      <c r="AB154">
         <v>-0.5</v>
       </c>
-      <c r="AA154">
-        <v>0.4</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14352,7 +14352,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6867599</v>
+        <v>6867196</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,55 +14530,55 @@
         <v>45270.375</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>51</v>
       </c>
       <c r="K158">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M158">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="N158">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="O158">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="Q158">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14587,19 +14587,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6867196</v>
+        <v>6867599</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,55 +14619,55 @@
         <v>45270.375</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
         <v>51</v>
       </c>
       <c r="K159">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M159">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="N159">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P159">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="Q159">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14676,19 +14676,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6867600</v>
+        <v>6871115</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,73 +14708,73 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K160">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N160">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O160">
         <v>3.75</v>
       </c>
       <c r="P160">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB160">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6871115</v>
+        <v>6867600</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,73 +14797,73 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K161">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M161">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N161">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O161">
         <v>3.75</v>
       </c>
       <c r="P161">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
+        <v>1.825</v>
+      </c>
+      <c r="T161">
+        <v>2</v>
+      </c>
+      <c r="U161">
         <v>1.8</v>
       </c>
-      <c r="T161">
-        <v>2.25</v>
-      </c>
-      <c r="U161">
-        <v>1.85</v>
-      </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X161">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA161">
+        <v>-1</v>
+      </c>
+      <c r="AB161">
         <v>0.8</v>
-      </c>
-      <c r="AB161">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -15245,7 +15245,7 @@
         <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15334,7 +15334,7 @@
         <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6867198</v>
+        <v>6867251</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,73 +15954,73 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K174">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L174">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N174">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R174">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
+        <v>1.825</v>
+      </c>
+      <c r="V174">
         <v>1.975</v>
       </c>
-      <c r="V174">
-        <v>1.725</v>
-      </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB174">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6867251</v>
+        <v>6867554</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,10 +16043,10 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16058,43 +16058,43 @@
         <v>52</v>
       </c>
       <c r="K175">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M175">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N175">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O175">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P175">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q175">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,13 +16103,13 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6867554</v>
+        <v>6867198</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,37 +16132,37 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M176">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N176">
         <v>2.1</v>
       </c>
       <c r="O176">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P176">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q176">
         <v>-0.25</v>
@@ -16177,28 +16177,28 @@
         <v>2</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W176">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA176">
-        <v>-1</v>
-      </c>
       <c r="AB176">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16224,7 +16224,7 @@
         <v>47</v>
       </c>
       <c r="G177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6867716</v>
+        <v>6867553</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,76 +16310,76 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>53</v>
+      </c>
+      <c r="K178">
+        <v>2.4</v>
+      </c>
+      <c r="L178">
+        <v>3.25</v>
+      </c>
+      <c r="M178">
+        <v>2.55</v>
+      </c>
+      <c r="N178">
+        <v>2.45</v>
+      </c>
+      <c r="O178">
+        <v>3.25</v>
+      </c>
+      <c r="P178">
+        <v>2.5</v>
+      </c>
+      <c r="Q178">
         <v>0</v>
       </c>
-      <c r="I178">
-        <v>2</v>
-      </c>
-      <c r="J178" t="s">
-        <v>51</v>
-      </c>
-      <c r="K178">
-        <v>1.6</v>
-      </c>
-      <c r="L178">
-        <v>3.6</v>
-      </c>
-      <c r="M178">
-        <v>4.8</v>
-      </c>
-      <c r="N178">
-        <v>1.909</v>
-      </c>
-      <c r="O178">
-        <v>3.4</v>
-      </c>
-      <c r="P178">
-        <v>3.5</v>
-      </c>
-      <c r="Q178">
-        <v>-0.5</v>
-      </c>
       <c r="R178">
+        <v>1.875</v>
+      </c>
+      <c r="S178">
         <v>1.925</v>
       </c>
-      <c r="S178">
-        <v>1.875</v>
-      </c>
       <c r="T178">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y178">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6867553</v>
+        <v>6867716</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16399,76 +16399,76 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M179">
-        <v>2.55</v>
+        <v>4.8</v>
       </c>
       <c r="N179">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P179">
+        <v>3.5</v>
+      </c>
+      <c r="Q179">
+        <v>-0.5</v>
+      </c>
+      <c r="R179">
+        <v>1.925</v>
+      </c>
+      <c r="S179">
+        <v>1.875</v>
+      </c>
+      <c r="T179">
+        <v>2</v>
+      </c>
+      <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
+        <v>1.95</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
         <v>2.5</v>
       </c>
-      <c r="Q179">
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.875</v>
+      </c>
+      <c r="AB179">
         <v>0</v>
       </c>
-      <c r="R179">
-        <v>1.875</v>
-      </c>
-      <c r="S179">
-        <v>1.925</v>
-      </c>
-      <c r="T179">
-        <v>2.5</v>
-      </c>
-      <c r="U179">
-        <v>1.9</v>
-      </c>
-      <c r="V179">
-        <v>1.9</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>2.25</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
-      <c r="Z179">
-        <v>0</v>
-      </c>
-      <c r="AA179">
+      <c r="AC179">
         <v>-0</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
-      <c r="AC179">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16577,7 +16577,7 @@
         <v>45336.52083333334</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
@@ -17114,7 +17114,7 @@
         <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6867756</v>
+        <v>6867556</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,10 +17200,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17215,43 +17215,43 @@
         <v>52</v>
       </c>
       <c r="K188">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L188">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M188">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N188">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O188">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R188">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W188">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17260,13 +17260,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6867604</v>
+        <v>6867756</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,58 +17289,58 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>52</v>
       </c>
       <c r="K189">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="L189">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M189">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N189">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P189">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S189">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17349,13 +17349,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6867556</v>
+        <v>6867604</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,58 +17378,58 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G190" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>52</v>
       </c>
       <c r="K190">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N190">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P190">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W190">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17438,13 +17438,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6867557</v>
+        <v>6871111</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,76 +17912,76 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K196">
+        <v>1.666</v>
+      </c>
+      <c r="L196">
+        <v>3.5</v>
+      </c>
+      <c r="M196">
+        <v>4.333</v>
+      </c>
+      <c r="N196">
+        <v>1.65</v>
+      </c>
+      <c r="O196">
+        <v>3.5</v>
+      </c>
+      <c r="P196">
+        <v>4.333</v>
+      </c>
+      <c r="Q196">
+        <v>-0.75</v>
+      </c>
+      <c r="R196">
+        <v>1.875</v>
+      </c>
+      <c r="S196">
+        <v>1.925</v>
+      </c>
+      <c r="T196">
         <v>2.5</v>
       </c>
-      <c r="L196">
-        <v>3</v>
-      </c>
-      <c r="M196">
-        <v>2.6</v>
-      </c>
-      <c r="N196">
-        <v>2.8</v>
-      </c>
-      <c r="O196">
-        <v>3</v>
-      </c>
-      <c r="P196">
-        <v>2.3</v>
-      </c>
-      <c r="Q196">
-        <v>0.25</v>
-      </c>
-      <c r="R196">
-        <v>1.75</v>
-      </c>
-      <c r="S196">
-        <v>2.05</v>
-      </c>
-      <c r="T196">
-        <v>2.25</v>
-      </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z196">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6871111</v>
+        <v>6867757</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,55 +18001,55 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G197" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>51</v>
       </c>
       <c r="K197">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M197">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N197">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O197">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q197">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -18058,19 +18058,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>3.333</v>
+        <v>2</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC197">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6867757</v>
+        <v>6867557</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,73 +18090,73 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K198">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L198">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M198">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N198">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P198">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S198">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
+        <v>1.975</v>
+      </c>
+      <c r="W198">
         <v>1.8</v>
       </c>
-      <c r="W198">
-        <v>-1</v>
-      </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18256,7 +18256,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6867605</v>
+        <v>6867718</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18268,67 +18268,67 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K200">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M200">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="N200">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P200">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q200">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X200">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA200">
         <v>-1</v>
@@ -18337,7 +18337,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC200">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18345,7 +18345,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6867718</v>
+        <v>6867605</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18357,67 +18357,67 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K201">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="L201">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="N201">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="O201">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA201">
         <v>-1</v>
@@ -18426,7 +18426,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC201">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18446,7 +18446,7 @@
         <v>45348.66666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G202" t="s">
         <v>31</v>
@@ -18624,7 +18624,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G204" t="s">
         <v>36</v>
@@ -19057,7 +19057,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6867254</v>
+        <v>6867509</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19069,76 +19069,76 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
         <v>0</v>
       </c>
-      <c r="I209">
-        <v>1</v>
-      </c>
       <c r="J209" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K209">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L209">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="N209">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O209">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="Q209">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V209">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6867509</v>
+        <v>6867254</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,76 +19158,76 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K210">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M210">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="N210">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P210">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V210">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19784,7 +19784,7 @@
         <v>48</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H217">
         <v>3</v>
@@ -19858,7 +19858,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6867720</v>
+        <v>6867564</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19870,13 +19870,13 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -19885,40 +19885,40 @@
         <v>52</v>
       </c>
       <c r="K218">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L218">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M218">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N218">
         <v>2.2</v>
       </c>
       <c r="O218">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q218">
         <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T218">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U218">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W218">
         <v>1.2</v>
@@ -19930,16 +19930,16 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19947,7 +19947,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6867564</v>
+        <v>6867720</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19959,13 +19959,13 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G219" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -19974,40 +19974,40 @@
         <v>52</v>
       </c>
       <c r="K219">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L219">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M219">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N219">
         <v>2.2</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P219">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U219">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V219">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W219">
         <v>1.2</v>
@@ -20019,16 +20019,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC219">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20048,7 +20048,7 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
         <v>43</v>
@@ -20125,7 +20125,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6871108</v>
+        <v>6867722</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20137,76 +20137,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L221">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N221">
         <v>1.909</v>
       </c>
       <c r="O221">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q221">
         <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S221">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V221">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W221">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20214,7 +20214,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6867722</v>
+        <v>6867721</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20226,76 +20226,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K222">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M222">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N222">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O222">
         <v>3.2</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
         <v>1.95</v>
-      </c>
-      <c r="S222">
-        <v>1.85</v>
       </c>
       <c r="T222">
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V222">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
+        <v>0.95</v>
+      </c>
+      <c r="AB222">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB222">
-        <v>-1</v>
-      </c>
       <c r="AC222">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20303,7 +20303,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6867721</v>
+        <v>6867566</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20315,76 +20315,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K223">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="L223">
         <v>3.2</v>
       </c>
       <c r="M223">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N223">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O223">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P223">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="Q223">
         <v>0.25</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S223">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y223">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA223">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB223">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20392,7 +20392,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6867566</v>
+        <v>6867514</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20404,76 +20404,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K224">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L224">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N224">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O224">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P224">
+        <v>5.5</v>
+      </c>
+      <c r="Q224">
+        <v>-1</v>
+      </c>
+      <c r="R224">
+        <v>1.875</v>
+      </c>
+      <c r="S224">
+        <v>1.925</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
         <v>1.95</v>
       </c>
-      <c r="Q224">
-        <v>0.25</v>
-      </c>
-      <c r="R224">
-        <v>2</v>
-      </c>
-      <c r="S224">
-        <v>1.8</v>
-      </c>
-      <c r="T224">
-        <v>2.25</v>
-      </c>
-      <c r="U224">
-        <v>1.975</v>
-      </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X224">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA224">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB224">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC224">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20481,7 +20481,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6867514</v>
+        <v>6867513</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20493,58 +20493,58 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>52</v>
       </c>
       <c r="K225">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M225">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N225">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O225">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P225">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R225">
+        <v>1.75</v>
+      </c>
+      <c r="S225">
+        <v>2.05</v>
+      </c>
+      <c r="T225">
+        <v>2</v>
+      </c>
+      <c r="U225">
         <v>1.875</v>
       </c>
-      <c r="S225">
+      <c r="V225">
         <v>1.925</v>
       </c>
-      <c r="T225">
-        <v>2.5</v>
-      </c>
-      <c r="U225">
-        <v>1.95</v>
-      </c>
-      <c r="V225">
-        <v>1.85</v>
-      </c>
       <c r="W225">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20553,13 +20553,13 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA225">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC225">
         <v>-1</v>
@@ -20570,7 +20570,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6867513</v>
+        <v>6871108</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20582,58 +20582,58 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G226" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>52</v>
       </c>
       <c r="K226">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L226">
+        <v>3.3</v>
+      </c>
+      <c r="M226">
         <v>3.1</v>
       </c>
-      <c r="M226">
-        <v>2.8</v>
-      </c>
       <c r="N226">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O226">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T226">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V226">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W226">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20642,13 +20642,13 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20674,7 +20674,7 @@
         <v>48</v>
       </c>
       <c r="G227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H227">
         <v>1</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC229"/>
+  <dimension ref="A1:AC230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6867521</v>
+        <v>6867575</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -913,13 +913,13 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -928,25 +928,25 @@
         <v>52</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
         <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N5">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
         <v>1.8</v>
@@ -955,16 +955,16 @@
         <v>2</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>1.875</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -979,10 +979,10 @@
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6867575</v>
+        <v>6867521</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,13 +1002,13 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1017,25 +1017,25 @@
         <v>52</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N6">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
         <v>1.8</v>
@@ -1044,16 +1044,16 @@
         <v>2</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.6499999999999999</v>
+        <v>1.875</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1068,10 +1068,10 @@
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6867524</v>
+        <v>6867236</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,76 +2871,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27">
+        <v>2.8</v>
+      </c>
+      <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
         <v>2.2</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>3.2</v>
       </c>
-      <c r="M27">
-        <v>2.9</v>
-      </c>
-      <c r="N27">
-        <v>2.3</v>
-      </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC27">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867236</v>
+        <v>6867182</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,76 +2960,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K28">
         <v>2.8</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N28">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y28">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6867182</v>
+        <v>6867524</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3049,76 +3049,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
+        <v>2.9</v>
+      </c>
+      <c r="N29">
         <v>2.3</v>
-      </c>
-      <c r="N29">
-        <v>3.1</v>
       </c>
       <c r="O29">
         <v>3.25</v>
       </c>
       <c r="P29">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
         <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X29">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>0.7250000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3393,7 +3393,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6867526</v>
+        <v>6867527</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3405,76 +3405,76 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
+        <v>2.6</v>
+      </c>
+      <c r="N33">
+        <v>2.7</v>
+      </c>
+      <c r="O33">
         <v>3.4</v>
       </c>
-      <c r="N33">
-        <v>1.95</v>
-      </c>
-      <c r="O33">
-        <v>4</v>
-      </c>
       <c r="P33">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q33">
+        <v>0.25</v>
+      </c>
+      <c r="R33">
+        <v>1.775</v>
+      </c>
+      <c r="S33">
+        <v>2.025</v>
+      </c>
+      <c r="T33">
+        <v>2.5</v>
+      </c>
+      <c r="U33">
+        <v>1.9</v>
+      </c>
+      <c r="V33">
+        <v>1.9</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>2.4</v>
+      </c>
+      <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
+        <v>0.3875</v>
+      </c>
+      <c r="AA33">
         <v>-0.5</v>
       </c>
-      <c r="R33">
-        <v>2</v>
-      </c>
-      <c r="S33">
-        <v>1.8</v>
-      </c>
-      <c r="T33">
-        <v>3.25</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
-      <c r="W33">
-        <v>0.95</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>-1</v>
-      </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6867527</v>
+        <v>6867526</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,76 +3494,76 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L34">
+        <v>3.3</v>
+      </c>
+      <c r="M34">
+        <v>3.4</v>
+      </c>
+      <c r="N34">
+        <v>1.95</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>3.5</v>
+      </c>
+      <c r="Q34">
+        <v>-0.5</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1.8</v>
+      </c>
+      <c r="T34">
         <v>3.25</v>
       </c>
-      <c r="M34">
-        <v>2.6</v>
-      </c>
-      <c r="N34">
-        <v>2.7</v>
-      </c>
-      <c r="O34">
-        <v>3.4</v>
-      </c>
-      <c r="P34">
-        <v>2.5</v>
-      </c>
-      <c r="Q34">
-        <v>0.25</v>
-      </c>
-      <c r="R34">
-        <v>1.775</v>
-      </c>
-      <c r="S34">
-        <v>2.025</v>
-      </c>
-      <c r="T34">
-        <v>2.5</v>
-      </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X34">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3838,7 +3838,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6871129</v>
+        <v>6867668</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3850,76 +3850,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>4.25</v>
+        <v>3.3</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.775</v>
+      </c>
+      <c r="S38">
+        <v>2.025</v>
+      </c>
+      <c r="T38">
+        <v>2.25</v>
+      </c>
+      <c r="U38">
+        <v>1.875</v>
+      </c>
+      <c r="V38">
+        <v>1.925</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>2.5</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
         <v>-0.5</v>
       </c>
-      <c r="R38">
-        <v>1.95</v>
-      </c>
-      <c r="S38">
-        <v>1.85</v>
-      </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.85</v>
-      </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
-      <c r="W38">
-        <v>0.95</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0.95</v>
-      </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6867668</v>
+        <v>6867237</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,76 +3939,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="N39">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X39">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>-0</v>
+      </c>
+      <c r="AB39">
+        <v>0.475</v>
+      </c>
+      <c r="AC39">
         <v>-0.5</v>
-      </c>
-      <c r="AA39">
-        <v>0.5125</v>
-      </c>
-      <c r="AB39">
-        <v>-0.5</v>
-      </c>
-      <c r="AC39">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6867237</v>
+        <v>6871129</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,10 +4028,10 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4052,34 +4052,34 @@
         <v>4.25</v>
       </c>
       <c r="N40">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
+        <v>1.85</v>
+      </c>
+      <c r="V40">
         <v>1.95</v>
       </c>
-      <c r="V40">
-        <v>1.85</v>
-      </c>
       <c r="W40">
-        <v>0.571</v>
+        <v>0.95</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4088,16 +4088,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6867582</v>
+        <v>6867184</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,76 +4473,76 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K45">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N45">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6867528</v>
+        <v>6867582</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4562,73 +4562,73 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M46">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N46">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P46">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
         <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6867529</v>
+        <v>6867528</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4651,19 +4651,19 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47">
         <v>2.4</v>
@@ -4675,49 +4675,49 @@
         <v>2.6</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O47">
         <v>3.5</v>
       </c>
       <c r="P47">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6867184</v>
+        <v>6867529</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,55 +4740,55 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
         <v>51</v>
       </c>
       <c r="K48">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L48">
         <v>3.2</v>
       </c>
       <c r="M48">
+        <v>2.6</v>
+      </c>
+      <c r="N48">
         <v>2.4</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
       </c>
       <c r="O48">
         <v>3.5</v>
       </c>
       <c r="P48">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4797,19 +4797,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867671</v>
+        <v>6867239</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
+        <v>1.8</v>
+      </c>
+      <c r="L54">
+        <v>3.6</v>
+      </c>
+      <c r="M54">
+        <v>3.6</v>
+      </c>
+      <c r="N54">
+        <v>1.615</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>5.5</v>
+      </c>
+      <c r="Q54">
+        <v>-0.75</v>
+      </c>
+      <c r="R54">
+        <v>1.8</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>2.5</v>
+      </c>
+      <c r="U54">
         <v>1.85</v>
       </c>
-      <c r="L54">
-        <v>3.5</v>
-      </c>
-      <c r="M54">
-        <v>3.5</v>
-      </c>
-      <c r="N54">
-        <v>1.75</v>
-      </c>
-      <c r="O54">
-        <v>3.6</v>
-      </c>
-      <c r="P54">
-        <v>4.75</v>
-      </c>
-      <c r="Q54">
-        <v>-0.5</v>
-      </c>
-      <c r="R54">
-        <v>1.75</v>
-      </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.95</v>
       </c>
-      <c r="T54">
-        <v>2.25</v>
-      </c>
-      <c r="U54">
-        <v>1.8</v>
-      </c>
-      <c r="V54">
-        <v>2</v>
-      </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA54">
+        <v>-1</v>
+      </c>
+      <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.95</v>
-      </c>
-      <c r="AB54">
-        <v>-0.5</v>
-      </c>
-      <c r="AC54">
-        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6867185</v>
+        <v>6867671</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N55">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
+        <v>0.95</v>
+      </c>
+      <c r="AB55">
         <v>-0.5</v>
       </c>
-      <c r="AA55">
-        <v>0.4375</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
       <c r="AC55">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5440,7 +5440,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867239</v>
+        <v>6867185</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5452,76 +5452,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N56">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6867585</v>
+        <v>6867672</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6342,76 +6342,76 @@
         <v>45172.5</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
         <v>3.25</v>
       </c>
       <c r="M66">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N66">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P66">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q66">
         <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
         <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W66">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6867672</v>
+        <v>6867585</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6431,76 +6431,76 @@
         <v>45172.5</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K67">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>3.25</v>
       </c>
       <c r="M67">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N67">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O67">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q67">
         <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
         <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA67">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6867534</v>
+        <v>6867241</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,73 +7588,73 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K80">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L80">
         <v>3.3</v>
       </c>
       <c r="M80">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867241</v>
+        <v>6867534</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,73 +7677,73 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L81">
         <v>3.3</v>
       </c>
       <c r="M81">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N81">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA81">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7754,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867590</v>
+        <v>6867677</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,55 +7766,55 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>53</v>
       </c>
       <c r="K82">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L82">
         <v>3.2</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N82">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O82">
         <v>3.25</v>
       </c>
       <c r="P82">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7826,16 +7826,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
+        <v>0.4125</v>
+      </c>
+      <c r="AA82">
         <v>-0.5</v>
       </c>
-      <c r="AA82">
-        <v>0.375</v>
-      </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7843,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867677</v>
+        <v>6867590</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,55 +7855,55 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>53</v>
       </c>
       <c r="K83">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
         <v>3.2</v>
       </c>
       <c r="M83">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O83">
         <v>3.25</v>
       </c>
       <c r="P83">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T83">
         <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7915,16 +7915,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6871121</v>
+        <v>6867873</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45221.5</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K109">
+        <v>2.9</v>
+      </c>
+      <c r="L109">
+        <v>3.25</v>
+      </c>
+      <c r="M109">
+        <v>2.25</v>
+      </c>
+      <c r="N109">
         <v>2.5</v>
       </c>
-      <c r="L109">
-        <v>3.2</v>
-      </c>
-      <c r="M109">
-        <v>2.6</v>
-      </c>
-      <c r="N109">
-        <v>2.625</v>
-      </c>
       <c r="O109">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P109">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q109">
         <v>0</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10246,7 +10246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6867873</v>
+        <v>6867680</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10258,73 +10258,73 @@
         <v>45221.5</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K110">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
+        <v>2.8</v>
+      </c>
+      <c r="N110">
         <v>2.25</v>
       </c>
-      <c r="N110">
+      <c r="O110">
+        <v>3.5</v>
+      </c>
+      <c r="P110">
+        <v>3.1</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.975</v>
+      </c>
+      <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
         <v>2.5</v>
       </c>
-      <c r="O110">
-        <v>3.25</v>
-      </c>
-      <c r="P110">
-        <v>2.9</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>1.75</v>
-      </c>
-      <c r="S110">
-        <v>2.05</v>
-      </c>
-      <c r="T110">
-        <v>2.25</v>
-      </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA110">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10335,7 +10335,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867680</v>
+        <v>6867244</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10347,76 +10347,76 @@
         <v>45221.5</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K111">
+        <v>2.7</v>
+      </c>
+      <c r="L111">
+        <v>3.25</v>
+      </c>
+      <c r="M111">
+        <v>2.4</v>
+      </c>
+      <c r="N111">
+        <v>3.25</v>
+      </c>
+      <c r="O111">
+        <v>3.4</v>
+      </c>
+      <c r="P111">
         <v>2.25</v>
       </c>
-      <c r="L111">
-        <v>3.4</v>
-      </c>
-      <c r="M111">
-        <v>2.8</v>
-      </c>
-      <c r="N111">
-        <v>2.25</v>
-      </c>
-      <c r="O111">
-        <v>3.5</v>
-      </c>
-      <c r="P111">
-        <v>3.1</v>
-      </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W111">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10424,7 +10424,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867244</v>
+        <v>6871121</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10436,40 +10436,40 @@
         <v>45221.5</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>53</v>
       </c>
       <c r="K112">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N112">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
         <v>1.875</v>
@@ -10478,34 +10478,34 @@
         <v>1.925</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10958,7 +10958,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6867191</v>
+        <v>6871120</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10970,10 +10970,10 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10985,40 +10985,40 @@
         <v>51</v>
       </c>
       <c r="K118">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L118">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N118">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11027,19 +11027,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11225,7 +11225,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6871120</v>
+        <v>6867191</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11237,10 +11237,10 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11252,40 +11252,40 @@
         <v>51</v>
       </c>
       <c r="K121">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N121">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11294,19 +11294,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867595</v>
+        <v>6867683</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,76 +12216,76 @@
         <v>45242.375</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>53</v>
       </c>
       <c r="K132">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N132">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
         <v>2.25</v>
       </c>
       <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC132">
-        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6867683</v>
+        <v>6867595</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,76 +12305,76 @@
         <v>45242.375</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>53</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L133">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N133">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
+        <v>1.85</v>
+      </c>
+      <c r="V133">
         <v>1.95</v>
       </c>
-      <c r="V133">
-        <v>1.85</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12916,7 +12916,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6867194</v>
+        <v>6867596</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12928,76 +12928,76 @@
         <v>45256.375</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L140">
         <v>3.1</v>
       </c>
       <c r="M140">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N140">
+        <v>5.25</v>
+      </c>
+      <c r="O140">
+        <v>3.6</v>
+      </c>
+      <c r="P140">
+        <v>1.727</v>
+      </c>
+      <c r="Q140">
+        <v>0.75</v>
+      </c>
+      <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
+        <v>1.95</v>
+      </c>
+      <c r="T140">
         <v>2.25</v>
       </c>
-      <c r="O140">
-        <v>3.2</v>
-      </c>
-      <c r="P140">
-        <v>3.4</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.875</v>
-      </c>
-      <c r="S140">
-        <v>1.925</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z140">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6867596</v>
+        <v>6867878</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,56 +13106,56 @@
         <v>45256.375</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J142" t="s">
         <v>51</v>
       </c>
       <c r="K142">
+        <v>3.3</v>
+      </c>
+      <c r="L142">
+        <v>3.2</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>3.8</v>
+      </c>
+      <c r="O142">
         <v>3.4</v>
       </c>
-      <c r="L142">
-        <v>3.1</v>
-      </c>
-      <c r="M142">
-        <v>2</v>
-      </c>
-      <c r="N142">
-        <v>5.25</v>
-      </c>
-      <c r="O142">
-        <v>3.6</v>
-      </c>
       <c r="P142">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="Q142">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13163,19 +13163,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.7270000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6867878</v>
+        <v>6867975</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,76 +13195,76 @@
         <v>45256.375</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K143">
+        <v>2.1</v>
+      </c>
+      <c r="L143">
+        <v>3.25</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>2.5</v>
+      </c>
+      <c r="O143">
         <v>3.3</v>
       </c>
-      <c r="L143">
-        <v>3.2</v>
-      </c>
-      <c r="M143">
-        <v>2</v>
-      </c>
-      <c r="N143">
-        <v>3.8</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
       <c r="P143">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="V143">
-        <v>1.975</v>
-      </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
         <v>0.825</v>
-      </c>
-      <c r="AC143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6867975</v>
+        <v>6867194</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,76 +13284,76 @@
         <v>45256.375</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K144">
         <v>2.1</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O144">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X144">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6867545</v>
+        <v>6867684</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13462,58 +13462,58 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>52</v>
       </c>
       <c r="K146">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N146">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O146">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
+        <v>1.95</v>
+      </c>
+      <c r="V146">
         <v>1.85</v>
       </c>
-      <c r="V146">
-        <v>1.95</v>
-      </c>
       <c r="W146">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13522,13 +13522,13 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13539,7 +13539,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6867684</v>
+        <v>6867545</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13551,58 +13551,58 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H147">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>52</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
+        <v>3.2</v>
+      </c>
+      <c r="M147">
+        <v>2.75</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147">
         <v>3.5</v>
       </c>
-      <c r="M147">
+      <c r="P147">
         <v>4</v>
       </c>
-      <c r="N147">
-        <v>1.75</v>
-      </c>
-      <c r="O147">
-        <v>3.6</v>
-      </c>
-      <c r="P147">
-        <v>5</v>
-      </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
       <c r="W147">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13611,13 +13611,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6867976</v>
+        <v>6871116</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,10 +14085,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14100,61 +14100,61 @@
         <v>53</v>
       </c>
       <c r="K153">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L153">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N153">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O153">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S153">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>1.075</v>
+      </c>
+      <c r="AB153">
         <v>-0.5</v>
       </c>
-      <c r="AA153">
-        <v>0.4</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
-      </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6871116</v>
+        <v>6867976</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,10 +14174,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14189,61 +14189,61 @@
         <v>53</v>
       </c>
       <c r="K154">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M154">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N154">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P154">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q154">
+        <v>-0.25</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>1.8</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
+        <v>1.825</v>
+      </c>
+      <c r="V154">
+        <v>1.975</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>2.2</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
         <v>-0.5</v>
       </c>
-      <c r="R154">
-        <v>1.725</v>
-      </c>
-      <c r="S154">
-        <v>2.075</v>
-      </c>
-      <c r="T154">
-        <v>2.25</v>
-      </c>
-      <c r="U154">
-        <v>1.925</v>
-      </c>
-      <c r="V154">
-        <v>1.875</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
-        <v>2.6</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
-      </c>
       <c r="AA154">
-        <v>1.075</v>
+        <v>0.4</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14251,7 +14251,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6867195</v>
+        <v>6867248</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14263,10 +14263,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14278,43 +14278,43 @@
         <v>52</v>
       </c>
       <c r="K155">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M155">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N155">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="O155">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P155">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S155">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T155">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W155">
-        <v>0.95</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14323,16 +14323,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6867248</v>
+        <v>6867195</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,10 +14352,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14367,43 +14367,43 @@
         <v>52</v>
       </c>
       <c r="K156">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L156">
+        <v>3.4</v>
+      </c>
+      <c r="M156">
+        <v>2.9</v>
+      </c>
+      <c r="N156">
+        <v>1.95</v>
+      </c>
+      <c r="O156">
+        <v>3.4</v>
+      </c>
+      <c r="P156">
         <v>4</v>
       </c>
-      <c r="M156">
-        <v>5</v>
-      </c>
-      <c r="N156">
-        <v>1.533</v>
-      </c>
-      <c r="O156">
-        <v>4.2</v>
-      </c>
-      <c r="P156">
-        <v>6</v>
-      </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W156">
-        <v>0.5329999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14412,16 +14412,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6867601</v>
+        <v>6867197</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,76 +15064,76 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K164">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L164">
         <v>3.4</v>
       </c>
       <c r="M164">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N164">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O164">
         <v>3.8</v>
       </c>
       <c r="P164">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
         <v>2.25</v>
       </c>
       <c r="U164">
+        <v>2</v>
+      </c>
+      <c r="V164">
         <v>1.8</v>
       </c>
-      <c r="V164">
-        <v>2</v>
-      </c>
       <c r="W164">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC164">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15141,7 +15141,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6867688</v>
+        <v>6867601</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15153,13 +15153,13 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15168,43 +15168,43 @@
         <v>52</v>
       </c>
       <c r="K165">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="L165">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N165">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q165">
         <v>-1</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>0.5329999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15213,16 +15213,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6867197</v>
+        <v>6867688</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,49 +15242,49 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K166">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M166">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N166">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P166">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
         <v>2</v>
@@ -15293,25 +15293,25 @@
         <v>1.8</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X166">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6867251</v>
+        <v>6867198</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,73 +15954,73 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K174">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M174">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N174">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V174">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="W174">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB174">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6867554</v>
+        <v>6867251</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,10 +16043,10 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16058,43 +16058,43 @@
         <v>52</v>
       </c>
       <c r="K175">
+        <v>1.5</v>
+      </c>
+      <c r="L175">
+        <v>3.75</v>
+      </c>
+      <c r="M175">
+        <v>5.5</v>
+      </c>
+      <c r="N175">
+        <v>1.4</v>
+      </c>
+      <c r="O175">
+        <v>4.2</v>
+      </c>
+      <c r="P175">
+        <v>6.5</v>
+      </c>
+      <c r="Q175">
+        <v>-1.25</v>
+      </c>
+      <c r="R175">
+        <v>1.85</v>
+      </c>
+      <c r="S175">
         <v>1.95</v>
       </c>
-      <c r="L175">
-        <v>3.4</v>
-      </c>
-      <c r="M175">
-        <v>3.25</v>
-      </c>
-      <c r="N175">
-        <v>2.1</v>
-      </c>
-      <c r="O175">
-        <v>3.2</v>
-      </c>
-      <c r="P175">
-        <v>3.1</v>
-      </c>
-      <c r="Q175">
-        <v>-0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.9</v>
-      </c>
-      <c r="S175">
-        <v>1.9</v>
-      </c>
       <c r="T175">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,13 +16103,13 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB175">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6867198</v>
+        <v>6867554</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,37 +16132,37 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K176">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L176">
+        <v>3.4</v>
+      </c>
+      <c r="M176">
         <v>3.25</v>
-      </c>
-      <c r="M176">
-        <v>3</v>
       </c>
       <c r="N176">
         <v>2.1</v>
       </c>
       <c r="O176">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P176">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q176">
         <v>-0.25</v>
@@ -16177,28 +16177,28 @@
         <v>2</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
+        <v>-1</v>
+      </c>
+      <c r="AB176">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB176">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -20919,6 +20919,80 @@
       </c>
       <c r="AC229">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>7978503</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45382.5</v>
+      </c>
+      <c r="F230" t="s">
+        <v>34</v>
+      </c>
+      <c r="G230" t="s">
+        <v>39</v>
+      </c>
+      <c r="K230">
+        <v>2.5</v>
+      </c>
+      <c r="L230">
+        <v>3.2</v>
+      </c>
+      <c r="M230">
+        <v>2.5</v>
+      </c>
+      <c r="N230">
+        <v>2.9</v>
+      </c>
+      <c r="O230">
+        <v>3.25</v>
+      </c>
+      <c r="P230">
+        <v>2.25</v>
+      </c>
+      <c r="Q230">
+        <v>0.25</v>
+      </c>
+      <c r="R230">
+        <v>1.775</v>
+      </c>
+      <c r="S230">
+        <v>2.025</v>
+      </c>
+      <c r="T230">
+        <v>2.25</v>
+      </c>
+      <c r="U230">
+        <v>1.9</v>
+      </c>
+      <c r="V230">
+        <v>1.9</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -13450,7 +13450,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6867545</v>
+        <v>6867684</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13462,58 +13462,58 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>52</v>
       </c>
       <c r="K146">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N146">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O146">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
+        <v>1.95</v>
+      </c>
+      <c r="V146">
         <v>1.85</v>
       </c>
-      <c r="V146">
-        <v>1.95</v>
-      </c>
       <c r="W146">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13522,13 +13522,13 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13539,7 +13539,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6867684</v>
+        <v>6867545</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13551,58 +13551,58 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H147">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>52</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
+        <v>3.2</v>
+      </c>
+      <c r="M147">
+        <v>2.75</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147">
         <v>3.5</v>
       </c>
-      <c r="M147">
+      <c r="P147">
         <v>4</v>
       </c>
-      <c r="N147">
-        <v>1.75</v>
-      </c>
-      <c r="O147">
-        <v>3.6</v>
-      </c>
-      <c r="P147">
-        <v>5</v>
-      </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
       <c r="W147">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13611,13 +13611,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13717,7 +13717,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6867547</v>
+        <v>6867597</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13729,49 +13729,49 @@
         <v>45263.375</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K149">
+        <v>2.375</v>
+      </c>
+      <c r="L149">
         <v>3.3</v>
       </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
       <c r="M149">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N149">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="O149">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P149">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q149">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
         <v>1.875</v>
@@ -13780,25 +13780,25 @@
         <v>1.925</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X149">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13806,7 +13806,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6867598</v>
+        <v>6867547</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13818,76 +13818,76 @@
         <v>45263.375</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K150">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N150">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P150">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T150">
         <v>2.5</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y150">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6867597</v>
+        <v>6867598</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45263.375</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K151">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L151">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N151">
+        <v>1.95</v>
+      </c>
+      <c r="O151">
+        <v>3.5</v>
+      </c>
+      <c r="P151">
+        <v>4</v>
+      </c>
+      <c r="Q151">
+        <v>-0.5</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>1.8</v>
+      </c>
+      <c r="T151">
         <v>2.5</v>
       </c>
-      <c r="O151">
-        <v>3.3</v>
-      </c>
-      <c r="P151">
-        <v>2.875</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151">
-        <v>1.775</v>
-      </c>
-      <c r="S151">
-        <v>2.025</v>
-      </c>
-      <c r="T151">
-        <v>2.25</v>
-      </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W151">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z151">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB151">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC151">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6867599</v>
+        <v>6867196</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,55 +14530,55 @@
         <v>45270.375</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>51</v>
       </c>
       <c r="K158">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M158">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="N158">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="O158">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="Q158">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14587,19 +14587,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6867196</v>
+        <v>6867599</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,55 +14619,55 @@
         <v>45270.375</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
         <v>51</v>
       </c>
       <c r="K159">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M159">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="N159">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P159">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="Q159">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14676,19 +14676,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15141,7 +15141,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6867601</v>
+        <v>6867250</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15153,10 +15153,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15168,43 +15168,43 @@
         <v>52</v>
       </c>
       <c r="K165">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N165">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T165">
         <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W165">
-        <v>0.55</v>
+        <v>3.75</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15213,16 +15213,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6867688</v>
+        <v>6867745</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,58 +15242,58 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>52</v>
       </c>
       <c r="K166">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N166">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>0.5329999999999999</v>
+        <v>1</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15302,16 +15302,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,7 +15319,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6867745</v>
+        <v>6867688</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15331,58 +15331,58 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>52</v>
       </c>
       <c r="K167">
+        <v>1.4</v>
+      </c>
+      <c r="L167">
+        <v>4.333</v>
+      </c>
+      <c r="M167">
+        <v>6</v>
+      </c>
+      <c r="N167">
+        <v>1.533</v>
+      </c>
+      <c r="O167">
+        <v>4.2</v>
+      </c>
+      <c r="P167">
+        <v>5.75</v>
+      </c>
+      <c r="Q167">
+        <v>-1</v>
+      </c>
+      <c r="R167">
+        <v>1.875</v>
+      </c>
+      <c r="S167">
+        <v>1.925</v>
+      </c>
+      <c r="T167">
         <v>2.5</v>
       </c>
-      <c r="L167">
-        <v>3.2</v>
-      </c>
-      <c r="M167">
-        <v>2.5</v>
-      </c>
-      <c r="N167">
-        <v>2</v>
-      </c>
-      <c r="O167">
-        <v>3.3</v>
-      </c>
-      <c r="P167">
-        <v>4</v>
-      </c>
-      <c r="Q167">
-        <v>-0.5</v>
-      </c>
-      <c r="R167">
-        <v>1.975</v>
-      </c>
-      <c r="S167">
-        <v>1.825</v>
-      </c>
-      <c r="T167">
-        <v>2</v>
-      </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15391,16 +15391,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15408,7 +15408,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6867250</v>
+        <v>6867601</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15420,10 +15420,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15435,43 +15435,43 @@
         <v>52</v>
       </c>
       <c r="K168">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L168">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M168">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N168">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P168">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q168">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>3.75</v>
+        <v>0.55</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15480,16 +15480,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6867717</v>
+        <v>6867756</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K185">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M185">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N185">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P185">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q185">
         <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X185">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA185">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC185">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6867756</v>
+        <v>6867717</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L186">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N186">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O186">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q186">
         <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W186">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6867556</v>
+        <v>6867604</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,58 +17111,58 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>52</v>
       </c>
       <c r="K187">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N187">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O187">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P187">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W187">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17171,13 +17171,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA187">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6867507</v>
+        <v>6867252</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,10 +17200,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17215,43 +17215,43 @@
         <v>52</v>
       </c>
       <c r="K188">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N188">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O188">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P188">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q188">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17260,16 +17260,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6867604</v>
+        <v>6867507</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,13 +17289,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -17304,43 +17304,43 @@
         <v>52</v>
       </c>
       <c r="K189">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L189">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N189">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P189">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17349,16 +17349,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6867252</v>
+        <v>6867556</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,58 +17378,58 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>52</v>
       </c>
       <c r="K190">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="L190">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N190">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O190">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17438,16 +17438,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18167,7 +18167,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6867558</v>
+        <v>6867605</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18179,76 +18179,76 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K199">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L199">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
+        <v>1.85</v>
+      </c>
+      <c r="N199">
+        <v>4.333</v>
+      </c>
+      <c r="O199">
         <v>3.6</v>
       </c>
-      <c r="N199">
-        <v>2.2</v>
-      </c>
-      <c r="O199">
-        <v>3.1</v>
-      </c>
       <c r="P199">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R199">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T199">
         <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18256,7 +18256,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6867605</v>
+        <v>6867718</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18268,67 +18268,67 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K200">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M200">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="N200">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P200">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q200">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X200">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA200">
         <v>-1</v>
@@ -18337,7 +18337,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC200">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18345,7 +18345,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6867718</v>
+        <v>6867558</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18357,58 +18357,58 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H201">
         <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>52</v>
       </c>
       <c r="K201">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L201">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M201">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N201">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O201">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P201">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W201">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18417,16 +18417,16 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7083112</v>
+        <v>6867254</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18980,76 +18980,76 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F208" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G208" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K208">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="L208">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="N208">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O208">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R208">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z208">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6867254</v>
+        <v>7083112</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,76 +19158,76 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G210" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K210">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="L210">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="N210">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P210">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="Q210">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6867565</v>
+        <v>6867691</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,49 +19514,49 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G214" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K214">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L214">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O214">
         <v>3.3</v>
       </c>
       <c r="P214">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q214">
         <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
         <v>2</v>
@@ -19565,25 +19565,25 @@
         <v>1.8</v>
       </c>
       <c r="W214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6867564</v>
+        <v>6867565</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,58 +19603,58 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>52</v>
       </c>
       <c r="K215">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L215">
         <v>3.3</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N215">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O215">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
+        <v>1.9</v>
+      </c>
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
+        <v>2</v>
+      </c>
+      <c r="V215">
         <v>1.8</v>
       </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>1.95</v>
-      </c>
-      <c r="V215">
-        <v>1.85</v>
-      </c>
       <c r="W215">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19663,16 +19663,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC215">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19680,7 +19680,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6867512</v>
+        <v>6867564</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19692,10 +19692,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19707,31 +19707,31 @@
         <v>52</v>
       </c>
       <c r="K216">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M216">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N216">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O216">
         <v>3.2</v>
       </c>
       <c r="P216">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
         <v>2.25</v>
@@ -19743,7 +19743,7 @@
         <v>1.85</v>
       </c>
       <c r="W216">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19752,7 +19752,7 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA216">
         <v>-1</v>
@@ -19769,7 +19769,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6867691</v>
+        <v>6867512</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19781,76 +19781,76 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K217">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L217">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M217">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N217">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="O217">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T217">
         <v>2.25</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
+        <v>1.85</v>
+      </c>
+      <c r="W217">
         <v>1.8</v>
       </c>
-      <c r="W217">
-        <v>-1</v>
-      </c>
       <c r="X217">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA217">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20392,7 +20392,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6871108</v>
+        <v>6867721</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20404,73 +20404,73 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K224">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="L224">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M224">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N224">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R224">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W224">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z224">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB224">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC224">
         <v>-1</v>
@@ -20481,7 +20481,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6867721</v>
+        <v>6867722</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20493,76 +20493,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K225">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="L225">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M225">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N225">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O225">
         <v>3.2</v>
       </c>
       <c r="P225">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
+        <v>1.95</v>
+      </c>
+      <c r="S225">
         <v>1.85</v>
-      </c>
-      <c r="S225">
-        <v>1.95</v>
       </c>
       <c r="T225">
         <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y225">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20570,7 +20570,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6867722</v>
+        <v>6871108</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20582,76 +20582,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G226" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K226">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L226">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M226">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N226">
         <v>1.909</v>
       </c>
       <c r="O226">
+        <v>3.6</v>
+      </c>
+      <c r="P226">
         <v>3.2</v>
-      </c>
-      <c r="P226">
-        <v>3.75</v>
       </c>
       <c r="Q226">
         <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S226">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T226">
         <v>2.25</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V226">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X226">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC226">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6867692</v>
+        <v>6867255</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,73 +20760,73 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K228">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="L228">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N228">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O228">
         <v>3.2</v>
       </c>
       <c r="P228">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R228">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S228">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V228">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z228">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB228">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6867255</v>
+        <v>6867692</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,73 +20849,73 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229" t="s">
+        <v>53</v>
+      </c>
+      <c r="K229">
+        <v>2.55</v>
+      </c>
+      <c r="L229">
         <v>3</v>
       </c>
-      <c r="J229" t="s">
-        <v>51</v>
-      </c>
-      <c r="K229">
-        <v>3.1</v>
-      </c>
-      <c r="L229">
-        <v>3.2</v>
-      </c>
       <c r="M229">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N229">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O229">
         <v>3.2</v>
       </c>
       <c r="P229">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="Q229">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S229">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB229">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>-1</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -13450,7 +13450,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6867684</v>
+        <v>6867545</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13462,58 +13462,58 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H146">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>52</v>
       </c>
       <c r="K146">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L146">
+        <v>3.2</v>
+      </c>
+      <c r="M146">
+        <v>2.75</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146">
         <v>3.5</v>
       </c>
-      <c r="M146">
+      <c r="P146">
         <v>4</v>
       </c>
-      <c r="N146">
-        <v>1.75</v>
-      </c>
-      <c r="O146">
-        <v>3.6</v>
-      </c>
-      <c r="P146">
-        <v>5</v>
-      </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
+        <v>1.85</v>
+      </c>
+      <c r="V146">
         <v>1.95</v>
       </c>
-      <c r="V146">
-        <v>1.85</v>
-      </c>
       <c r="W146">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13522,13 +13522,13 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13539,7 +13539,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6867545</v>
+        <v>6867684</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13551,58 +13551,58 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>52</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
         <v>1.85</v>
       </c>
-      <c r="V147">
-        <v>1.95</v>
-      </c>
       <c r="W147">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13611,13 +13611,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13717,7 +13717,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6867597</v>
+        <v>6867547</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13729,49 +13729,49 @@
         <v>45263.375</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K149">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L149">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N149">
+        <v>4.75</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>1.727</v>
+      </c>
+      <c r="Q149">
+        <v>0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.875</v>
+      </c>
+      <c r="S149">
+        <v>1.925</v>
+      </c>
+      <c r="T149">
         <v>2.5</v>
-      </c>
-      <c r="O149">
-        <v>3.3</v>
-      </c>
-      <c r="P149">
-        <v>2.875</v>
-      </c>
-      <c r="Q149">
-        <v>0</v>
-      </c>
-      <c r="R149">
-        <v>1.775</v>
-      </c>
-      <c r="S149">
-        <v>2.025</v>
-      </c>
-      <c r="T149">
-        <v>2.25</v>
       </c>
       <c r="U149">
         <v>1.875</v>
@@ -13780,25 +13780,25 @@
         <v>1.925</v>
       </c>
       <c r="W149">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13806,7 +13806,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6867547</v>
+        <v>6867598</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13818,76 +13818,76 @@
         <v>45263.375</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K150">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="L150">
+        <v>3.4</v>
+      </c>
+      <c r="M150">
+        <v>3.1</v>
+      </c>
+      <c r="N150">
+        <v>1.95</v>
+      </c>
+      <c r="O150">
         <v>3.5</v>
       </c>
-      <c r="M150">
-        <v>1.909</v>
-      </c>
-      <c r="N150">
-        <v>4.75</v>
-      </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
       <c r="P150">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q150">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T150">
         <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC150">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6867598</v>
+        <v>6867597</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45263.375</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M151">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N151">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P151">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>1.775</v>
+      </c>
+      <c r="S151">
+        <v>2.025</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>1.875</v>
+      </c>
+      <c r="V151">
+        <v>1.925</v>
+      </c>
+      <c r="W151">
+        <v>1.5</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
         <v>-0.5</v>
       </c>
-      <c r="R151">
-        <v>2</v>
-      </c>
-      <c r="S151">
-        <v>1.8</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
-      <c r="U151">
-        <v>2</v>
-      </c>
-      <c r="V151">
-        <v>1.8</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>3</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
-      <c r="AA151">
-        <v>0.8</v>
-      </c>
-      <c r="AB151">
-        <v>1</v>
-      </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6867196</v>
+        <v>6867599</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,55 +14530,55 @@
         <v>45270.375</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
         <v>51</v>
       </c>
       <c r="K158">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="L158">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M158">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P158">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="Q158">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14587,19 +14587,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6867599</v>
+        <v>6867196</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,55 +14619,55 @@
         <v>45270.375</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>51</v>
       </c>
       <c r="K159">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="L159">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M159">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="N159">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="O159">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="Q159">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R159">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14676,19 +14676,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6867756</v>
+        <v>6867717</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K185">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L185">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N185">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O185">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P185">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q185">
         <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T185">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W185">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB185">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6867717</v>
+        <v>6867756</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K186">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L186">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M186">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P186">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q186">
         <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X186">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA186">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6867604</v>
+        <v>6867556</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,58 +17111,58 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>52</v>
       </c>
       <c r="K187">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N187">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O187">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P187">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R187">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V187">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W187">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17171,13 +17171,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB187">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6867252</v>
+        <v>6867507</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,10 +17200,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17215,43 +17215,43 @@
         <v>52</v>
       </c>
       <c r="K188">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N188">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P188">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17260,16 +17260,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6867507</v>
+        <v>6867604</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,13 +17289,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -17304,43 +17304,43 @@
         <v>52</v>
       </c>
       <c r="K189">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L189">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M189">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N189">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O189">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W189">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17349,16 +17349,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6867556</v>
+        <v>6867252</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,58 +17378,58 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>52</v>
       </c>
       <c r="K190">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M190">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N190">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P190">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
+        <v>1.8</v>
+      </c>
+      <c r="T190">
+        <v>2.25</v>
+      </c>
+      <c r="U190">
         <v>1.85</v>
       </c>
-      <c r="S190">
+      <c r="V190">
         <v>1.95</v>
       </c>
-      <c r="T190">
-        <v>2.5</v>
-      </c>
-      <c r="U190">
-        <v>1.875</v>
-      </c>
-      <c r="V190">
-        <v>1.925</v>
-      </c>
       <c r="W190">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17438,16 +17438,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18167,7 +18167,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6867605</v>
+        <v>6867558</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18179,76 +18179,76 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199">
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K199">
+        <v>1.909</v>
+      </c>
+      <c r="L199">
+        <v>3.2</v>
+      </c>
+      <c r="M199">
         <v>3.6</v>
       </c>
-      <c r="L199">
-        <v>3.4</v>
-      </c>
-      <c r="M199">
+      <c r="N199">
+        <v>2.2</v>
+      </c>
+      <c r="O199">
+        <v>3.1</v>
+      </c>
+      <c r="P199">
+        <v>3</v>
+      </c>
+      <c r="Q199">
+        <v>-0.25</v>
+      </c>
+      <c r="R199">
+        <v>1.95</v>
+      </c>
+      <c r="S199">
         <v>1.85</v>
-      </c>
-      <c r="N199">
-        <v>4.333</v>
-      </c>
-      <c r="O199">
-        <v>3.6</v>
-      </c>
-      <c r="P199">
-        <v>1.615</v>
-      </c>
-      <c r="Q199">
-        <v>0.75</v>
-      </c>
-      <c r="R199">
-        <v>1.975</v>
-      </c>
-      <c r="S199">
-        <v>1.825</v>
       </c>
       <c r="T199">
         <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X199">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC199">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18256,7 +18256,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6867718</v>
+        <v>6867605</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18268,67 +18268,67 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K200">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="L200">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="N200">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="O200">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V200">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W200">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA200">
         <v>-1</v>
@@ -18337,7 +18337,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC200">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18345,7 +18345,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6867558</v>
+        <v>6867718</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18357,58 +18357,58 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F201" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H201">
         <v>2</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>52</v>
       </c>
       <c r="K201">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L201">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M201">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N201">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P201">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18417,16 +18417,16 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6867254</v>
+        <v>7083112</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18980,76 +18980,76 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F208" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G208" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K208">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="L208">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="N208">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="O208">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P208">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="Q208">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7083112</v>
+        <v>6867254</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,76 +19158,76 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K210">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="L210">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M210">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="N210">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O210">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P210">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6867691</v>
+        <v>6867565</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,49 +19514,49 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K214">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N214">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O214">
         <v>3.3</v>
       </c>
       <c r="P214">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q214">
         <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
         <v>2</v>
@@ -19565,25 +19565,25 @@
         <v>1.8</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X214">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC214">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6867565</v>
+        <v>6867564</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,76 +19603,76 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>52</v>
       </c>
       <c r="K215">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L215">
         <v>3.3</v>
       </c>
       <c r="M215">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N215">
+        <v>2.2</v>
+      </c>
+      <c r="O215">
+        <v>3.2</v>
+      </c>
+      <c r="P215">
+        <v>2.875</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>1.8</v>
+      </c>
+      <c r="T215">
+        <v>2.25</v>
+      </c>
+      <c r="U215">
+        <v>1.95</v>
+      </c>
+      <c r="V215">
         <v>1.85</v>
       </c>
-      <c r="O215">
-        <v>3.3</v>
-      </c>
-      <c r="P215">
-        <v>3.75</v>
-      </c>
-      <c r="Q215">
-        <v>-0.5</v>
-      </c>
-      <c r="R215">
-        <v>1.9</v>
-      </c>
-      <c r="S215">
-        <v>1.9</v>
-      </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
-      <c r="U215">
-        <v>2</v>
-      </c>
-      <c r="V215">
-        <v>1.8</v>
-      </c>
       <c r="W215">
+        <v>1.2</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>1</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X215">
-        <v>-1</v>
-      </c>
-      <c r="Y215">
-        <v>-1</v>
-      </c>
-      <c r="Z215">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA215">
-        <v>-1</v>
-      </c>
-      <c r="AB215">
-        <v>1</v>
-      </c>
-      <c r="AC215">
-        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19680,7 +19680,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6867564</v>
+        <v>6867512</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19692,10 +19692,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19707,31 +19707,31 @@
         <v>52</v>
       </c>
       <c r="K216">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L216">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N216">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O216">
         <v>3.2</v>
       </c>
       <c r="P216">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
         <v>2.25</v>
@@ -19743,7 +19743,7 @@
         <v>1.85</v>
       </c>
       <c r="W216">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19752,7 +19752,7 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA216">
         <v>-1</v>
@@ -19769,7 +19769,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6867512</v>
+        <v>6867691</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19781,76 +19781,76 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K217">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L217">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N217">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P217">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
         <v>2.25</v>
       </c>
       <c r="U217">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20392,7 +20392,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6867721</v>
+        <v>6871108</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20404,73 +20404,73 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K224">
+        <v>2.05</v>
+      </c>
+      <c r="L224">
         <v>3.3</v>
       </c>
-      <c r="L224">
+      <c r="M224">
+        <v>3.1</v>
+      </c>
+      <c r="N224">
+        <v>1.909</v>
+      </c>
+      <c r="O224">
+        <v>3.6</v>
+      </c>
+      <c r="P224">
         <v>3.2</v>
       </c>
-      <c r="M224">
-        <v>2</v>
-      </c>
-      <c r="N224">
-        <v>2.9</v>
-      </c>
-      <c r="O224">
-        <v>3.2</v>
-      </c>
-      <c r="P224">
-        <v>2.15</v>
-      </c>
       <c r="Q224">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S224">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V224">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA224">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC224">
         <v>-1</v>
@@ -20481,7 +20481,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6867722</v>
+        <v>6867721</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20493,76 +20493,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K225">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="L225">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M225">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N225">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O225">
         <v>3.2</v>
       </c>
       <c r="P225">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
         <v>1.95</v>
-      </c>
-      <c r="S225">
-        <v>1.85</v>
       </c>
       <c r="T225">
         <v>2.25</v>
       </c>
       <c r="U225">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
+        <v>0.95</v>
+      </c>
+      <c r="AB225">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB225">
-        <v>-1</v>
-      </c>
       <c r="AC225">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20570,7 +20570,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6871108</v>
+        <v>6867722</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20582,76 +20582,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K226">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L226">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M226">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N226">
         <v>1.909</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P226">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q226">
         <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S226">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T226">
         <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W226">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6867255</v>
+        <v>6867692</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,73 +20760,73 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G228" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>53</v>
+      </c>
+      <c r="K228">
+        <v>2.55</v>
+      </c>
+      <c r="L228">
         <v>3</v>
       </c>
-      <c r="J228" t="s">
-        <v>51</v>
-      </c>
-      <c r="K228">
-        <v>3.1</v>
-      </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
       <c r="M228">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N228">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O228">
         <v>3.2</v>
       </c>
       <c r="P228">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U228">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA228">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB228">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6867692</v>
+        <v>6867255</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,73 +20849,73 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="L229">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N229">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O229">
         <v>3.2</v>
       </c>
       <c r="P229">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R229">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S229">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB229">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC229">
         <v>-1</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -118,22 +118,22 @@
     <t>BVSC Zuglo</t>
   </si>
   <si>
+    <t>Kozarmisleny SE</t>
+  </si>
+  <si>
     <t>Vasas SC</t>
   </si>
   <si>
-    <t>Kozarmisleny SE</t>
-  </si>
-  <si>
-    <t>Pecsi MFC</t>
+    <t>FC Ajka</t>
   </si>
   <si>
     <t>Kazincbarcikai BSC</t>
   </si>
   <si>
-    <t>FC Ajka</t>
+    <t>Csakvari Tk</t>
   </si>
   <si>
-    <t>Csakvari Tk</t>
+    <t>Pecsi MFC</t>
   </si>
   <si>
     <t>SzegedCsanad Grosics</t>
@@ -151,13 +151,13 @@
     <t>MTE 1904</t>
   </si>
   <si>
-    <t>BFC Siofok</t>
+    <t>Tiszakecske FC</t>
   </si>
   <si>
     <t>Gyori ETO</t>
   </si>
   <si>
-    <t>Tiszakecske FC</t>
+    <t>BFC Siofok</t>
   </si>
   <si>
     <t>Szombathelyi Haladas</t>
@@ -649,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6867869</v>
+        <v>6867868</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,52 +1183,52 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
       </c>
       <c r="K8">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1237,19 +1237,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6867868</v>
+        <v>6867869</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,52 +1272,52 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L9">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P9">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1326,19 +1326,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6867180</v>
+        <v>6867734</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,73 +1361,73 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3.4</v>
+      </c>
+      <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
         <v>1.8</v>
-      </c>
-      <c r="L10">
-        <v>3.5</v>
-      </c>
-      <c r="M10">
-        <v>3.75</v>
-      </c>
-      <c r="N10">
-        <v>1.95</v>
       </c>
       <c r="O10">
         <v>3.6</v>
       </c>
       <c r="P10">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q10">
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6867734</v>
+        <v>6871132</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1539,73 +1539,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="N12">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6871132</v>
+        <v>6867180</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1628,73 +1628,73 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L13">
         <v>3.5</v>
       </c>
       <c r="M13">
+        <v>3.75</v>
+      </c>
+      <c r="N13">
+        <v>1.95</v>
+      </c>
+      <c r="O13">
+        <v>3.6</v>
+      </c>
+      <c r="P13">
+        <v>3.8</v>
+      </c>
+      <c r="Q13">
+        <v>-0.5</v>
+      </c>
+      <c r="R13">
+        <v>1.95</v>
+      </c>
+      <c r="S13">
         <v>1.85</v>
       </c>
-      <c r="N13">
-        <v>3.75</v>
-      </c>
-      <c r="O13">
-        <v>3.75</v>
-      </c>
-      <c r="P13">
-        <v>1.909</v>
-      </c>
-      <c r="Q13">
-        <v>0.5</v>
-      </c>
-      <c r="R13">
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
         <v>1.85</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.95</v>
       </c>
-      <c r="T13">
-        <v>2.5</v>
-      </c>
-      <c r="U13">
-        <v>1.95</v>
-      </c>
-      <c r="V13">
-        <v>1.85</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>0.95</v>
-      </c>
-      <c r="AB13">
-        <v>0.95</v>
-      </c>
-      <c r="AC13">
-        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1717,7 +1717,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1806,7 +1806,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1895,7 +1895,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6867523</v>
+        <v>6867666</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,49 +2159,49 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19">
+        <v>2.5</v>
+      </c>
+      <c r="L19">
         <v>2.8</v>
       </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
       <c r="M19">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N19">
         <v>2.75</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
         <v>1.95</v>
@@ -2210,25 +2210,25 @@
         <v>1.85</v>
       </c>
       <c r="W19">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2236,7 +2236,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6867181</v>
+        <v>6867231</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2248,76 +2248,76 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P20">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2325,7 +2325,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6867231</v>
+        <v>6867523</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2337,58 +2337,58 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H21">
         <v>4</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>52</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N21">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.85</v>
       </c>
-      <c r="S21">
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
         <v>1.95</v>
       </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.825</v>
-      </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.5329999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2397,13 +2397,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6867666</v>
+        <v>6867181</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,73 +2429,73 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M22">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6867182</v>
+        <v>6867577</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L26">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M26">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N26">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O26">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R26">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X26">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6867577</v>
+        <v>6867578</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,76 +2871,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N27">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867578</v>
+        <v>6867667</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,76 +2960,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>53</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6867667</v>
+        <v>6867236</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3052,73 +3052,73 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M29">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N29">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O29">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
         <v>2.25</v>
       </c>
       <c r="U29">
+        <v>1.85</v>
+      </c>
+      <c r="V29">
         <v>1.95</v>
       </c>
-      <c r="V29">
-        <v>1.85</v>
-      </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3126,7 +3126,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6867236</v>
+        <v>6867524</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3138,76 +3138,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N30">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3215,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6867524</v>
+        <v>6867182</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3227,76 +3227,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N31">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O31">
         <v>3.25</v>
       </c>
       <c r="P31">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W31">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.5</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3319,7 +3319,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6867527</v>
+        <v>6867736</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3405,76 +3405,76 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L33">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N33">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X33">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
         <v>-0.5</v>
       </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
       <c r="AC33">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6867736</v>
+        <v>6867526</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,10 +3494,10 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3509,25 +3509,25 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N34">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
         <v>2</v>
@@ -3536,16 +3536,16 @@
         <v>1.8</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3560,10 +3560,10 @@
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6867526</v>
+        <v>6867527</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,76 +3583,76 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
+        <v>2.6</v>
+      </c>
+      <c r="N35">
+        <v>2.7</v>
+      </c>
+      <c r="O35">
         <v>3.4</v>
       </c>
-      <c r="N35">
-        <v>1.95</v>
-      </c>
-      <c r="O35">
-        <v>4</v>
-      </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q35">
+        <v>0.25</v>
+      </c>
+      <c r="R35">
+        <v>1.775</v>
+      </c>
+      <c r="S35">
+        <v>2.025</v>
+      </c>
+      <c r="T35">
+        <v>2.5</v>
+      </c>
+      <c r="U35">
+        <v>1.9</v>
+      </c>
+      <c r="V35">
+        <v>1.9</v>
+      </c>
+      <c r="W35">
+        <v>-1</v>
+      </c>
+      <c r="X35">
+        <v>2.4</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
+        <v>0.3875</v>
+      </c>
+      <c r="AA35">
         <v>-0.5</v>
       </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
-        <v>1.8</v>
-      </c>
-      <c r="T35">
-        <v>3.25</v>
-      </c>
-      <c r="U35">
-        <v>1.925</v>
-      </c>
-      <c r="V35">
-        <v>1.875</v>
-      </c>
-      <c r="W35">
-        <v>0.95</v>
-      </c>
-      <c r="X35">
-        <v>-1</v>
-      </c>
-      <c r="Y35">
-        <v>-1</v>
-      </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-      <c r="AA35">
-        <v>-1</v>
-      </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3672,10 +3672,10 @@
         <v>45154.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3853,7 +3853,7 @@
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4031,7 +4031,7 @@
         <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4384,7 +4384,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4473,7 +4473,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4562,7 +4562,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
@@ -4651,7 +4651,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4740,10 +4740,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4829,7 +4829,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s">
         <v>42</v>
@@ -4995,7 +4995,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6867584</v>
+        <v>6867738</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5007,40 +5007,40 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K51">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
+        <v>3.5</v>
+      </c>
+      <c r="M51">
+        <v>3.3</v>
+      </c>
+      <c r="N51">
+        <v>2.05</v>
+      </c>
+      <c r="O51">
+        <v>3.75</v>
+      </c>
+      <c r="P51">
         <v>3.4</v>
       </c>
-      <c r="M51">
-        <v>2.75</v>
-      </c>
-      <c r="N51">
-        <v>2.375</v>
-      </c>
-      <c r="O51">
-        <v>3.6</v>
-      </c>
-      <c r="P51">
-        <v>2.875</v>
-      </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
         <v>2.025</v>
@@ -5052,28 +5052,28 @@
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6867738</v>
+        <v>6867584</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,40 +5096,40 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K52">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N52">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
         <v>2.025</v>
@@ -5141,28 +5141,28 @@
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y52">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB52">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867185</v>
+        <v>6867671</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5185,76 +5185,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N53">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
+        <v>0.95</v>
+      </c>
+      <c r="AB53">
         <v>-0.5</v>
       </c>
-      <c r="AA53">
-        <v>0.4375</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867239</v>
+        <v>6867670</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,13 +5274,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
         <v>47</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -5289,31 +5289,31 @@
         <v>52</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N54">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="O54">
         <v>4</v>
       </c>
       <c r="P54">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q54">
         <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>2.5</v>
@@ -5325,7 +5325,7 @@
         <v>1.95</v>
       </c>
       <c r="W54">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5334,16 +5334,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6867583</v>
+        <v>6867185</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>3.1</v>
+      </c>
+      <c r="N55">
+        <v>2.2</v>
+      </c>
+      <c r="O55">
         <v>3.3</v>
       </c>
-      <c r="M55">
-        <v>2.75</v>
-      </c>
-      <c r="N55">
-        <v>2.25</v>
-      </c>
-      <c r="O55">
+      <c r="P55">
         <v>3.4</v>
-      </c>
-      <c r="P55">
-        <v>3.1</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5440,7 +5440,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867670</v>
+        <v>6867239</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5452,13 +5452,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5467,31 +5467,31 @@
         <v>52</v>
       </c>
       <c r="K56">
+        <v>1.8</v>
+      </c>
+      <c r="L56">
+        <v>3.6</v>
+      </c>
+      <c r="M56">
+        <v>3.6</v>
+      </c>
+      <c r="N56">
         <v>1.615</v>
-      </c>
-      <c r="L56">
-        <v>3.75</v>
-      </c>
-      <c r="M56">
-        <v>4.333</v>
-      </c>
-      <c r="N56">
-        <v>1.65</v>
       </c>
       <c r="O56">
         <v>4</v>
       </c>
       <c r="P56">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q56">
         <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T56">
         <v>2.5</v>
@@ -5503,7 +5503,7 @@
         <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.6499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5512,16 +5512,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5529,7 +5529,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6867671</v>
+        <v>6867583</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5541,76 +5541,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K57">
+        <v>2.25</v>
+      </c>
+      <c r="L57">
+        <v>3.3</v>
+      </c>
+      <c r="M57">
+        <v>2.75</v>
+      </c>
+      <c r="N57">
+        <v>2.25</v>
+      </c>
+      <c r="O57">
+        <v>3.4</v>
+      </c>
+      <c r="P57">
+        <v>3.1</v>
+      </c>
+      <c r="Q57">
+        <v>-0.25</v>
+      </c>
+      <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
         <v>1.85</v>
       </c>
-      <c r="L57">
-        <v>3.5</v>
-      </c>
-      <c r="M57">
-        <v>3.5</v>
-      </c>
-      <c r="N57">
-        <v>1.75</v>
-      </c>
-      <c r="O57">
-        <v>3.6</v>
-      </c>
-      <c r="P57">
-        <v>4.75</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>1.75</v>
-      </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5808,7 +5808,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
         <v>43</v>
@@ -5900,7 +5900,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>45172.5</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
         <v>44</v>
@@ -6241,7 +6241,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867532</v>
+        <v>6867672</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6253,10 +6253,10 @@
         <v>45172.5</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6268,22 +6268,22 @@
         <v>53</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
         <v>3.25</v>
       </c>
       <c r="M65">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N65">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O65">
         <v>3.3</v>
       </c>
       <c r="P65">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q65">
         <v>-0.25</v>
@@ -6292,16 +6292,16 @@
         <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T65">
         <v>2.5</v>
       </c>
       <c r="U65">
+        <v>1.925</v>
+      </c>
+      <c r="V65">
         <v>1.875</v>
-      </c>
-      <c r="V65">
-        <v>1.925</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6316,13 +6316,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>0.4125</v>
+        <v>0.3625</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6867672</v>
+        <v>6867673</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6342,76 +6342,76 @@
         <v>45172.5</v>
       </c>
       <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
         <v>35</v>
       </c>
-      <c r="G66" t="s">
-        <v>40</v>
-      </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L66">
         <v>3.25</v>
       </c>
       <c r="M66">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
         <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6867673</v>
+        <v>6867532</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6431,76 +6431,76 @@
         <v>45172.5</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K67">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>3.25</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N67">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
         <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6523,7 +6523,7 @@
         <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6612,7 +6612,7 @@
         <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6876,10 +6876,10 @@
         <v>45193.5</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>45193.5</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>32</v>
@@ -7143,10 +7143,10 @@
         <v>45193.5</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867534</v>
+        <v>6867241</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,73 +7677,73 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K81">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L81">
         <v>3.3</v>
       </c>
       <c r="M81">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7754,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867241</v>
+        <v>6867590</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,40 +7766,40 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K82">
+        <v>2.1</v>
+      </c>
+      <c r="L82">
+        <v>3.2</v>
+      </c>
+      <c r="M82">
+        <v>3.1</v>
+      </c>
+      <c r="N82">
+        <v>2.4</v>
+      </c>
+      <c r="O82">
+        <v>3.25</v>
+      </c>
+      <c r="P82">
         <v>3</v>
       </c>
-      <c r="L82">
-        <v>3.3</v>
-      </c>
-      <c r="M82">
-        <v>2.1</v>
-      </c>
-      <c r="N82">
-        <v>4.75</v>
-      </c>
-      <c r="O82">
-        <v>3.6</v>
-      </c>
-      <c r="P82">
-        <v>1.75</v>
-      </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
         <v>2.05</v>
@@ -7808,34 +7808,34 @@
         <v>1.75</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y82">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AB82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7843,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867590</v>
+        <v>6867188</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,76 +7855,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
         <v>39</v>
       </c>
-      <c r="G83" t="s">
-        <v>37</v>
-      </c>
       <c r="H83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M83">
+        <v>2.75</v>
+      </c>
+      <c r="N83">
+        <v>2.3</v>
+      </c>
+      <c r="O83">
         <v>3.1</v>
       </c>
-      <c r="N83">
-        <v>2.4</v>
-      </c>
-      <c r="O83">
-        <v>3.25</v>
-      </c>
       <c r="P83">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
         <v>2.25</v>
       </c>
       <c r="U83">
+        <v>2</v>
+      </c>
+      <c r="V83">
         <v>1.8</v>
       </c>
-      <c r="V83">
-        <v>2</v>
-      </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X83">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7932,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6867188</v>
+        <v>6867534</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7944,58 +7944,58 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>52</v>
       </c>
       <c r="K84">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
         <v>2.75</v>
       </c>
       <c r="N84">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O84">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -8004,13 +8004,13 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8125,7 +8125,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8303,7 +8303,7 @@
         <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8478,7 +8478,7 @@
         <v>45200.49652777778</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -8567,10 +8567,10 @@
         <v>45200.5</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6871123</v>
+        <v>6867591</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,10 +8656,10 @@
         <v>45200.5</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8671,43 +8671,43 @@
         <v>52</v>
       </c>
       <c r="K92">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L92">
         <v>3.1</v>
       </c>
       <c r="M92">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N92">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
         <v>3.3</v>
       </c>
       <c r="P92">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8716,7 +8716,7 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8725,7 +8725,7 @@
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8733,7 +8733,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6867591</v>
+        <v>6871123</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8745,10 +8745,10 @@
         <v>45200.5</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8760,43 +8760,43 @@
         <v>52</v>
       </c>
       <c r="K93">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L93">
         <v>3.1</v>
       </c>
       <c r="M93">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N93">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O93">
         <v>3.3</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
         <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8805,16 +8805,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
-      <c r="AC93">
-        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8834,7 +8834,7 @@
         <v>45201.625</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
         <v>31</v>
@@ -8923,10 +8923,10 @@
         <v>45207.41319444445</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9101,10 +9101,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F97" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" t="s">
         <v>35</v>
-      </c>
-      <c r="G97" t="s">
-        <v>34</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -9279,7 +9279,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s">
         <v>43</v>
@@ -9368,10 +9368,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9905,7 +9905,7 @@
         <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9994,7 +9994,7 @@
         <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10083,7 +10083,7 @@
         <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10169,7 +10169,7 @@
         <v>45221.5</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>42</v>
@@ -10258,10 +10258,10 @@
         <v>45221.5</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10347,7 +10347,7 @@
         <v>45221.5</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -10614,7 +10614,7 @@
         <v>45228.375</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -10691,7 +10691,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6867874</v>
+        <v>6867541</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10703,76 +10703,76 @@
         <v>45228.375</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K115">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L115">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N115">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P115">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
         <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA115">
+        <v>-0</v>
+      </c>
+      <c r="AB115">
         <v>-0.5</v>
       </c>
-      <c r="AB115">
-        <v>0.8</v>
-      </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10780,7 +10780,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6867541</v>
+        <v>6867744</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10792,34 +10792,34 @@
         <v>45228.375</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K116">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
+        <v>2.375</v>
+      </c>
+      <c r="N116">
         <v>2.5</v>
       </c>
-      <c r="N116">
-        <v>2.7</v>
-      </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
         <v>2.75</v>
@@ -10828,40 +10828,40 @@
         <v>0</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X116">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10869,7 +10869,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6867744</v>
+        <v>6867874</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10881,13 +10881,13 @@
         <v>45228.375</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -10896,25 +10896,25 @@
         <v>52</v>
       </c>
       <c r="K117">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M117">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="N117">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
         <v>1.8</v>
@@ -10926,13 +10926,13 @@
         <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10941,13 +10941,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
+        <v>0.4</v>
+      </c>
+      <c r="AA117">
+        <v>-0.5</v>
+      </c>
+      <c r="AB117">
         <v>0.8</v>
-      </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
-      <c r="AB117">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11062,7 +11062,7 @@
         <v>48</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11148,10 +11148,10 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11237,7 +11237,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
         <v>32</v>
@@ -11314,7 +11314,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6867971</v>
+        <v>6867543</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11326,16 +11326,16 @@
         <v>45235.375</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
         <v>51</v>
@@ -11350,31 +11350,31 @@
         <v>2.375</v>
       </c>
       <c r="N122">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P122">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11383,19 +11383,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11403,7 +11403,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867543</v>
+        <v>6867972</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11415,46 +11415,46 @@
         <v>45235.375</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
         <v>51</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N123">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="O123">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P123">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
         <v>2.25</v>
@@ -11472,19 +11472,19 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.3</v>
+        <v>1.625</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11492,7 +11492,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867972</v>
+        <v>6867971</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11504,55 +11504,55 @@
         <v>45235.375</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
         <v>51</v>
       </c>
       <c r="K124">
+        <v>2.6</v>
+      </c>
+      <c r="L124">
+        <v>3.25</v>
+      </c>
+      <c r="M124">
+        <v>2.375</v>
+      </c>
+      <c r="N124">
+        <v>2.9</v>
+      </c>
+      <c r="O124">
+        <v>3.3</v>
+      </c>
+      <c r="P124">
         <v>2.5</v>
       </c>
-      <c r="L124">
-        <v>3.2</v>
-      </c>
-      <c r="M124">
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
+        <v>1.75</v>
+      </c>
+      <c r="T124">
         <v>2.5</v>
       </c>
-      <c r="N124">
-        <v>2.875</v>
-      </c>
-      <c r="O124">
-        <v>3.1</v>
-      </c>
-      <c r="P124">
-        <v>2.625</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>1.975</v>
-      </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11561,19 +11561,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11593,7 +11593,7 @@
         <v>45235.375</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
         <v>46</v>
@@ -11860,10 +11860,10 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11949,10 +11949,10 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12038,7 +12038,7 @@
         <v>45236.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
         <v>42</v>
@@ -12308,7 +12308,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12394,7 +12394,7 @@
         <v>45242.375</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G134" t="s">
         <v>40</v>
@@ -12486,7 +12486,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12572,7 +12572,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
         <v>32</v>
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6867544</v>
+        <v>6867877</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>53</v>
       </c>
       <c r="K137">
+        <v>2.1</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>3.3</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137">
         <v>3.5</v>
       </c>
-      <c r="L137">
-        <v>3.25</v>
-      </c>
-      <c r="M137">
-        <v>2</v>
-      </c>
-      <c r="N137">
-        <v>3.3</v>
-      </c>
-      <c r="O137">
-        <v>3.4</v>
-      </c>
       <c r="P137">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6867877</v>
+        <v>6867246</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,76 +12750,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O138">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P138">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X138">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6867246</v>
+        <v>6867544</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12839,76 +12839,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N139">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>2.4</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
         <v>0.45</v>
       </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
-      <c r="Z139">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12916,7 +12916,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6867975</v>
+        <v>6867596</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12928,46 +12928,46 @@
         <v>45256.375</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R140">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
         <v>2.25</v>
@@ -12982,16 +12982,16 @@
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6867878</v>
+        <v>6867975</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,76 +13017,76 @@
         <v>45256.375</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K141">
+        <v>2.1</v>
+      </c>
+      <c r="L141">
+        <v>3.25</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>2.5</v>
+      </c>
+      <c r="O141">
         <v>3.3</v>
       </c>
-      <c r="L141">
-        <v>3.2</v>
-      </c>
-      <c r="M141">
-        <v>2</v>
-      </c>
-      <c r="N141">
-        <v>3.8</v>
-      </c>
-      <c r="O141">
-        <v>3.4</v>
-      </c>
       <c r="P141">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
+        <v>1.975</v>
+      </c>
+      <c r="V141">
         <v>1.825</v>
       </c>
-      <c r="V141">
-        <v>1.975</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.825</v>
-      </c>
-      <c r="AC141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6867596</v>
+        <v>6867878</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,56 +13106,56 @@
         <v>45256.375</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J142" t="s">
         <v>51</v>
       </c>
       <c r="K142">
+        <v>3.3</v>
+      </c>
+      <c r="L142">
+        <v>3.2</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>3.8</v>
+      </c>
+      <c r="O142">
         <v>3.4</v>
       </c>
-      <c r="L142">
-        <v>3.1</v>
-      </c>
-      <c r="M142">
-        <v>2</v>
-      </c>
-      <c r="N142">
-        <v>5.25</v>
-      </c>
-      <c r="O142">
-        <v>3.6</v>
-      </c>
       <c r="P142">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="Q142">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13163,19 +13163,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.7270000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6867194</v>
+        <v>6871117</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,76 +13284,76 @@
         <v>45256.375</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
+        <v>2.5</v>
+      </c>
+      <c r="O144">
+        <v>3.4</v>
+      </c>
+      <c r="P144">
+        <v>2.8</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
         <v>2.25</v>
       </c>
-      <c r="O144">
-        <v>3.2</v>
-      </c>
-      <c r="P144">
-        <v>3.4</v>
-      </c>
-      <c r="Q144">
-        <v>-0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.875</v>
-      </c>
-      <c r="S144">
-        <v>1.925</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13361,7 +13361,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6871117</v>
+        <v>6867194</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13373,76 +13373,76 @@
         <v>45256.375</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K145">
+        <v>2.1</v>
+      </c>
+      <c r="L145">
+        <v>3.1</v>
+      </c>
+      <c r="M145">
+        <v>3.2</v>
+      </c>
+      <c r="N145">
         <v>2.25</v>
       </c>
-      <c r="L145">
+      <c r="O145">
         <v>3.2</v>
       </c>
-      <c r="M145">
-        <v>2.8</v>
-      </c>
-      <c r="N145">
-        <v>2.5</v>
-      </c>
-      <c r="O145">
+      <c r="P145">
         <v>3.4</v>
       </c>
-      <c r="P145">
-        <v>2.8</v>
-      </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13462,7 +13462,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
         <v>48</v>
@@ -13551,10 +13551,10 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H147">
         <v>7</v>
@@ -13640,7 +13640,7 @@
         <v>45257.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
         <v>46</v>
@@ -13732,7 +13732,7 @@
         <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13907,7 +13907,7 @@
         <v>45263.375</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G151" t="s">
         <v>44</v>
@@ -14085,10 +14085,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14266,7 +14266,7 @@
         <v>46</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14355,7 +14355,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14444,7 +14444,7 @@
         <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>5</v>
@@ -14533,7 +14533,7 @@
         <v>44</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14619,7 +14619,7 @@
         <v>45270.375</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G159" t="s">
         <v>31</v>
@@ -14711,7 +14711,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14886,7 +14886,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
         <v>42</v>
@@ -14975,10 +14975,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15242,7 +15242,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
         <v>41</v>
@@ -15334,7 +15334,7 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15598,7 +15598,7 @@
         <v>45327.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
         <v>40</v>
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6867746</v>
+        <v>6867602</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,10 +15687,10 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15702,40 +15702,40 @@
         <v>51</v>
       </c>
       <c r="K171">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L171">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M171">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="N171">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O171">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P171">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q171">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R171">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V171">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15744,16 +15744,16 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB171">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6867602</v>
+        <v>6867746</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,10 +15776,10 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15791,40 +15791,40 @@
         <v>51</v>
       </c>
       <c r="K172">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="N172">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P172">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q172">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S172">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V172">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15833,16 +15833,16 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB172">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -16132,7 +16132,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
         <v>37</v>
@@ -16224,7 +16224,7 @@
         <v>48</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16310,10 +16310,10 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F178" t="s">
+        <v>45</v>
+      </c>
+      <c r="G178" t="s">
         <v>47</v>
-      </c>
-      <c r="G178" t="s">
-        <v>45</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16402,7 +16402,7 @@
         <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16491,7 +16491,7 @@
         <v>43</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16669,7 +16669,7 @@
         <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16844,10 +16844,10 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16933,7 +16933,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
         <v>44</v>
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6867717</v>
+        <v>6867556</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,76 +17022,76 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K186">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L186">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P186">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U186">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V186">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X186">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA186">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC186">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6867556</v>
+        <v>6867604</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,58 +17111,58 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G187" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>52</v>
       </c>
       <c r="K187">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N187">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O187">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P187">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W187">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17171,13 +17171,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA187">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6867604</v>
+        <v>6867717</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,46 +17200,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K188">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L188">
+        <v>3.4</v>
+      </c>
+      <c r="M188">
         <v>3.1</v>
       </c>
-      <c r="M188">
-        <v>2.1</v>
-      </c>
       <c r="N188">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O188">
+        <v>3.4</v>
+      </c>
+      <c r="P188">
         <v>3.1</v>
       </c>
-      <c r="P188">
-        <v>2.4</v>
-      </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S188">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T188">
         <v>2.25</v>
@@ -17251,25 +17251,25 @@
         <v>1.8</v>
       </c>
       <c r="W188">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17378,7 +17378,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
         <v>46</v>
@@ -17467,7 +17467,7 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G191" t="s">
         <v>42</v>
@@ -17645,10 +17645,10 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H193">
         <v>4</v>
@@ -17734,10 +17734,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F194" t="s">
+        <v>39</v>
+      </c>
+      <c r="G194" t="s">
         <v>36</v>
-      </c>
-      <c r="G194" t="s">
-        <v>38</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17811,7 +17811,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6867508</v>
+        <v>6867557</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17823,73 +17823,73 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K195">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M195">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N195">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P195">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q195">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
+        <v>1.75</v>
+      </c>
+      <c r="S195">
         <v>2.05</v>
-      </c>
-      <c r="S195">
-        <v>1.75</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6867557</v>
+        <v>6867508</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,73 +17912,73 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>2</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K196">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L196">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M196">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N196">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="O196">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R196">
+        <v>2.05</v>
+      </c>
+      <c r="S196">
         <v>1.75</v>
-      </c>
-      <c r="S196">
-        <v>2.05</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18004,7 +18004,7 @@
         <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18271,7 +18271,7 @@
         <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18360,7 +18360,7 @@
         <v>48</v>
       </c>
       <c r="G201" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18535,7 +18535,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18624,10 +18624,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6867510</v>
+        <v>6867201</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,58 +18713,58 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>52</v>
       </c>
       <c r="K205">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N205">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O205">
+        <v>3.25</v>
+      </c>
+      <c r="P205">
         <v>3.5</v>
-      </c>
-      <c r="P205">
-        <v>3.6</v>
       </c>
       <c r="Q205">
         <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V205">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W205">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18773,16 +18773,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC205">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6867201</v>
+        <v>6867510</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,58 +18802,58 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>52</v>
       </c>
       <c r="K206">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L206">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M206">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N206">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O206">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q206">
         <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S206">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T206">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V206">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18862,16 +18862,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19069,7 +19069,7 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G209" t="s">
         <v>37</v>
@@ -19158,7 +19158,7 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G210" t="s">
         <v>46</v>
@@ -19324,7 +19324,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6867511</v>
+        <v>6867690</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19336,76 +19336,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K212">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L212">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N212">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O212">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T212">
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V212">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19413,7 +19413,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6867690</v>
+        <v>6867511</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19425,76 +19425,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>51</v>
+      </c>
+      <c r="K213">
         <v>3</v>
       </c>
-      <c r="I213">
-        <v>2</v>
-      </c>
-      <c r="J213" t="s">
-        <v>52</v>
-      </c>
-      <c r="K213">
-        <v>2.75</v>
-      </c>
       <c r="L213">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M213">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
         <v>1.8</v>
       </c>
-      <c r="V213">
-        <v>2</v>
-      </c>
       <c r="W213">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z213">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>0.8</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6867564</v>
+        <v>6867720</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,13 +19514,13 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -19529,40 +19529,40 @@
         <v>52</v>
       </c>
       <c r="K214">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L214">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N214">
         <v>2.2</v>
       </c>
       <c r="O214">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q214">
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V214">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W214">
         <v>1.2</v>
@@ -19574,16 +19574,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19680,7 +19680,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6867720</v>
+        <v>6867564</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19692,13 +19692,13 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -19707,40 +19707,40 @@
         <v>52</v>
       </c>
       <c r="K216">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M216">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N216">
         <v>2.2</v>
       </c>
       <c r="O216">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q216">
         <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
         <v>1.2</v>
@@ -19752,16 +19752,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19781,7 +19781,7 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G217" t="s">
         <v>33</v>
@@ -19873,7 +19873,7 @@
         <v>48</v>
       </c>
       <c r="G218" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H218">
         <v>3</v>
@@ -19959,10 +19959,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20125,7 +20125,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6867513</v>
+        <v>6871108</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20137,58 +20137,58 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
         <v>52</v>
       </c>
       <c r="K221">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L221">
+        <v>3.3</v>
+      </c>
+      <c r="M221">
         <v>3.1</v>
       </c>
-      <c r="M221">
-        <v>2.8</v>
-      </c>
       <c r="N221">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O221">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P221">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V221">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W221">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20197,13 +20197,13 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20214,7 +20214,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6871108</v>
+        <v>6867722</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20226,76 +20226,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K222">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L222">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N222">
         <v>1.909</v>
       </c>
       <c r="O222">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P222">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q222">
         <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T222">
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W222">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20303,7 +20303,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6867722</v>
+        <v>6867721</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20315,76 +20315,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K223">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="L223">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N223">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O223">
         <v>3.2</v>
       </c>
       <c r="P223">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
+        <v>1.85</v>
+      </c>
+      <c r="S223">
         <v>1.95</v>
-      </c>
-      <c r="S223">
-        <v>1.85</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V223">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
+        <v>0.95</v>
+      </c>
+      <c r="AB223">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB223">
-        <v>-1</v>
-      </c>
       <c r="AC223">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20392,7 +20392,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6867721</v>
+        <v>6867566</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20404,76 +20404,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H224">
         <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K224">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="L224">
         <v>3.2</v>
       </c>
       <c r="M224">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N224">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P224">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="Q224">
         <v>0.25</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S224">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y224">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA224">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB224">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20481,7 +20481,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6867566</v>
+        <v>6867514</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20493,76 +20493,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K225">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L225">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N225">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O225">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P225">
+        <v>5.5</v>
+      </c>
+      <c r="Q225">
+        <v>-1</v>
+      </c>
+      <c r="R225">
+        <v>1.875</v>
+      </c>
+      <c r="S225">
+        <v>1.925</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
         <v>1.95</v>
       </c>
-      <c r="Q225">
-        <v>0.25</v>
-      </c>
-      <c r="R225">
-        <v>2</v>
-      </c>
-      <c r="S225">
-        <v>1.8</v>
-      </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>1.975</v>
-      </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X225">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA225">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB225">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC225">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20570,7 +20570,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6867514</v>
+        <v>6867513</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20582,58 +20582,58 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G226" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>52</v>
       </c>
       <c r="K226">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L226">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M226">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N226">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O226">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q226">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R226">
+        <v>1.75</v>
+      </c>
+      <c r="S226">
+        <v>2.05</v>
+      </c>
+      <c r="T226">
+        <v>2</v>
+      </c>
+      <c r="U226">
         <v>1.875</v>
       </c>
-      <c r="S226">
+      <c r="V226">
         <v>1.925</v>
       </c>
-      <c r="T226">
-        <v>2.5</v>
-      </c>
-      <c r="U226">
-        <v>1.95</v>
-      </c>
-      <c r="V226">
-        <v>1.85</v>
-      </c>
       <c r="W226">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20642,13 +20642,13 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA226">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20760,7 +20760,7 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G228" t="s">
         <v>41</v>
@@ -20852,7 +20852,7 @@
         <v>49</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7978507</v>
+        <v>7978506</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,49 +21205,49 @@
         <v>45382.5</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K233">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M233">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N233">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O233">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P233">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q233">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
         <v>1.9</v>
@@ -21256,19 +21256,19 @@
         <v>1.9</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA233">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
         <v>-1</v>
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7978506</v>
+        <v>7978505</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,13 +21294,13 @@
         <v>45382.5</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -21309,43 +21309,43 @@
         <v>52</v>
       </c>
       <c r="K234">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L234">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
+        <v>6</v>
+      </c>
+      <c r="N234">
+        <v>1.5</v>
+      </c>
+      <c r="O234">
+        <v>3.6</v>
+      </c>
+      <c r="P234">
+        <v>6</v>
+      </c>
+      <c r="Q234">
+        <v>-1.25</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
+        <v>1.8</v>
+      </c>
+      <c r="T234">
         <v>2.75</v>
       </c>
-      <c r="N234">
-        <v>2.15</v>
-      </c>
-      <c r="O234">
-        <v>3.1</v>
-      </c>
-      <c r="P234">
-        <v>3.1</v>
-      </c>
-      <c r="Q234">
-        <v>-0.25</v>
-      </c>
-      <c r="R234">
-        <v>1.9</v>
-      </c>
-      <c r="S234">
-        <v>1.9</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
-      </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W234">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21354,7 +21354,7 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA234">
         <v>-1</v>
@@ -21363,7 +21363,7 @@
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21371,7 +21371,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7978505</v>
+        <v>7978507</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21383,76 +21383,76 @@
         <v>45382.5</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K235">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L235">
         <v>3.4</v>
       </c>
       <c r="M235">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N235">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P235">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q235">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U235">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21460,7 +21460,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7978503</v>
+        <v>7978504</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21472,76 +21472,76 @@
         <v>45382.5</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
         <v>53</v>
       </c>
       <c r="K236">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L236">
         <v>3.2</v>
       </c>
       <c r="M236">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N236">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O236">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P236">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
         <v>1.975</v>
       </c>
       <c r="S236">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V236">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA236">
-        <v>-0</v>
+        <v>0.3625</v>
       </c>
       <c r="AB236">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21549,7 +21549,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7978504</v>
+        <v>7978503</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21561,76 +21561,76 @@
         <v>45382.5</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G237" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>53</v>
       </c>
       <c r="K237">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L237">
         <v>3.2</v>
       </c>
       <c r="M237">
+        <v>2.5</v>
+      </c>
+      <c r="N237">
         <v>2.625</v>
       </c>
-      <c r="N237">
-        <v>2.3</v>
-      </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R237">
         <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA237">
-        <v>0.3625</v>
+        <v>-0</v>
       </c>
       <c r="AB237">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC237">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21653,7 +21653,7 @@
         <v>46</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H238">
         <v>4</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -118,19 +118,19 @@
     <t>Gyirmot SE</t>
   </si>
   <si>
-    <t>Kozarmisleny SE</t>
+    <t>Kazincbarcikai BSC</t>
   </si>
   <si>
-    <t>Csakvari Tk</t>
+    <t>Kozarmisleny SE</t>
   </si>
   <si>
     <t>FC Ajka</t>
   </si>
   <si>
-    <t>Kazincbarcikai BSC</t>
+    <t>Pecsi MFC</t>
   </si>
   <si>
-    <t>Pecsi MFC</t>
+    <t>Csakvari Tk</t>
   </si>
   <si>
     <t>Vasas SC</t>
@@ -142,10 +142,10 @@
     <t>Budafoki MTE</t>
   </si>
   <si>
-    <t>Soroksar</t>
+    <t>Budapest Honved</t>
   </si>
   <si>
-    <t>Budapest Honved</t>
+    <t>Soroksar</t>
   </si>
   <si>
     <t>MTE 1904</t>
@@ -738,7 +738,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6867868</v>
+        <v>6867664</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,52 +1183,52 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
       </c>
       <c r="K8">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L8">
         <v>3.3</v>
       </c>
       <c r="M8">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O8">
         <v>3.5</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1237,19 +1237,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6871132</v>
+        <v>6867868</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,7 +1272,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1284,41 +1284,41 @@
         <v>51</v>
       </c>
       <c r="K9">
+        <v>2.25</v>
+      </c>
+      <c r="L9">
+        <v>3.3</v>
+      </c>
+      <c r="M9">
+        <v>2.75</v>
+      </c>
+      <c r="N9">
+        <v>2.1</v>
+      </c>
+      <c r="O9">
         <v>3.5</v>
       </c>
-      <c r="L9">
-        <v>3.5</v>
-      </c>
-      <c r="M9">
+      <c r="P9">
+        <v>3.4</v>
+      </c>
+      <c r="Q9">
+        <v>-0.25</v>
+      </c>
+      <c r="R9">
+        <v>1.775</v>
+      </c>
+      <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="N9">
-        <v>3.75</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
-      <c r="P9">
-        <v>1.909</v>
-      </c>
-      <c r="Q9">
-        <v>0.5</v>
-      </c>
-      <c r="R9">
-        <v>1.85</v>
-      </c>
-      <c r="S9">
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="T9">
-        <v>2.5</v>
-      </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
-      <c r="V9">
-        <v>1.85</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
@@ -1326,16 +1326,16 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.909</v>
+        <v>2.4</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1361,7 +1361,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6867664</v>
+        <v>6867180</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1450,73 +1450,73 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N11">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6867180</v>
+        <v>6871132</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1539,73 +1539,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
         <v>3.5</v>
       </c>
       <c r="M12">
+        <v>1.85</v>
+      </c>
+      <c r="N12">
         <v>3.75</v>
       </c>
-      <c r="N12">
+      <c r="O12">
+        <v>3.75</v>
+      </c>
+      <c r="P12">
+        <v>1.909</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>1.85</v>
+      </c>
+      <c r="S12">
         <v>1.95</v>
       </c>
-      <c r="O12">
-        <v>3.6</v>
-      </c>
-      <c r="P12">
-        <v>3.8</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
-      </c>
-      <c r="R12">
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
         <v>1.95</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>1.85</v>
       </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>1.95</v>
-      </c>
       <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>0.909</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.95</v>
       </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>0.95</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6867522</v>
+        <v>6871131</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1895,73 +1895,73 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L16">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N16">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
+        <v>1.75</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="V16">
-        <v>1.85</v>
-      </c>
       <c r="W16">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6871131</v>
+        <v>6867522</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,73 +1984,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="L17">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O17">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2073,7 +2073,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6867666</v>
+        <v>6867523</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,49 +2159,49 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L19">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N19">
         <v>2.75</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
         <v>1.95</v>
@@ -2210,25 +2210,25 @@
         <v>1.85</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2236,7 +2236,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6867231</v>
+        <v>6867666</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2248,76 +2248,76 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M20">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R20">
+        <v>1.9</v>
+      </c>
+      <c r="S20">
+        <v>1.9</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
+        <v>1.95</v>
+      </c>
+      <c r="V20">
         <v>1.85</v>
       </c>
-      <c r="S20">
-        <v>1.95</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
-      <c r="U20">
-        <v>1.825</v>
-      </c>
-      <c r="V20">
-        <v>1.975</v>
-      </c>
       <c r="W20">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2325,7 +2325,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6867181</v>
+        <v>6867231</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2337,76 +2337,76 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6867523</v>
+        <v>6867181</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,76 +2426,76 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L22">
+        <v>3.1</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
         <v>3</v>
-      </c>
-      <c r="M22">
-        <v>2.375</v>
-      </c>
-      <c r="N22">
-        <v>2.75</v>
       </c>
       <c r="O22">
         <v>3.2</v>
       </c>
       <c r="P22">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2518,7 +2518,7 @@
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2782,7 +2782,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6867667</v>
+        <v>6867236</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,76 +2871,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L27">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N27">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.85</v>
+      </c>
+      <c r="V27">
         <v>1.95</v>
       </c>
-      <c r="V27">
-        <v>1.85</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867236</v>
+        <v>6867578</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,76 +2960,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K28">
+        <v>2.25</v>
+      </c>
+      <c r="L28">
+        <v>3.2</v>
+      </c>
+      <c r="M28">
         <v>2.8</v>
       </c>
-      <c r="L28">
+      <c r="N28">
+        <v>2.2</v>
+      </c>
+      <c r="O28">
         <v>3.3</v>
       </c>
-      <c r="M28">
-        <v>2.2</v>
-      </c>
-      <c r="N28">
-        <v>3.2</v>
-      </c>
-      <c r="O28">
+      <c r="P28">
         <v>3.4</v>
       </c>
-      <c r="P28">
-        <v>2.25</v>
-      </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y28">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6867578</v>
+        <v>6867667</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3049,76 +3049,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>53</v>
       </c>
       <c r="K29">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N29">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3138,10 +3138,10 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
         <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6867526</v>
+        <v>6867527</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3316,76 +3316,76 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M32">
+        <v>2.6</v>
+      </c>
+      <c r="N32">
+        <v>2.7</v>
+      </c>
+      <c r="O32">
         <v>3.4</v>
       </c>
-      <c r="N32">
-        <v>1.95</v>
-      </c>
-      <c r="O32">
-        <v>4</v>
-      </c>
       <c r="P32">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q32">
+        <v>0.25</v>
+      </c>
+      <c r="R32">
+        <v>1.775</v>
+      </c>
+      <c r="S32">
+        <v>2.025</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
+        <v>1.9</v>
+      </c>
+      <c r="V32">
+        <v>1.9</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>2.4</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
+        <v>0.3875</v>
+      </c>
+      <c r="AA32">
         <v>-0.5</v>
       </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
-        <v>1.8</v>
-      </c>
-      <c r="T32">
-        <v>3.25</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
-      <c r="W32">
-        <v>0.95</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3393,7 +3393,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6867527</v>
+        <v>6867580</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3405,76 +3405,76 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="L33">
         <v>3.25</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N33">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q33">
         <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z33">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
+        <v>0.825</v>
+      </c>
+      <c r="AB33">
         <v>-0.5</v>
       </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
       <c r="AC33">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6867580</v>
+        <v>6867526</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,76 +3494,76 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="L34">
+        <v>3.3</v>
+      </c>
+      <c r="M34">
+        <v>3.4</v>
+      </c>
+      <c r="N34">
+        <v>1.95</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>3.5</v>
+      </c>
+      <c r="Q34">
+        <v>-0.5</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1.8</v>
+      </c>
+      <c r="T34">
         <v>3.25</v>
       </c>
-      <c r="M34">
-        <v>2.25</v>
-      </c>
-      <c r="N34">
-        <v>3.4</v>
-      </c>
-      <c r="O34">
-        <v>3.3</v>
-      </c>
-      <c r="P34">
-        <v>2.2</v>
-      </c>
-      <c r="Q34">
-        <v>0.25</v>
-      </c>
-      <c r="R34">
-        <v>1.975</v>
-      </c>
-      <c r="S34">
-        <v>1.825</v>
-      </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3672,7 +3672,7 @@
         <v>45154.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -3761,7 +3761,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -3939,7 +3939,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4031,7 +4031,7 @@
         <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4384,7 +4384,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4476,7 +4476,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4651,10 +4651,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4743,7 +4743,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5010,7 +5010,7 @@
         <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5096,7 +5096,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
         <v>31</v>
@@ -5188,7 +5188,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5363,7 +5363,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
         <v>36</v>
@@ -5452,7 +5452,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5630,7 +5630,7 @@
         <v>45166.625</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
         <v>48</v>
@@ -5722,7 +5722,7 @@
         <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5811,7 +5811,7 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5900,7 +5900,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5986,7 +5986,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6253,7 +6253,7 @@
         <v>45172.5</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -6342,7 +6342,7 @@
         <v>45172.5</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>44</v>
@@ -6520,10 +6520,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F68" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" t="s">
         <v>42</v>
-      </c>
-      <c r="G68" t="s">
-        <v>43</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6612,7 +6612,7 @@
         <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6876,10 +6876,10 @@
         <v>45193.5</v>
       </c>
       <c r="F72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
         <v>38</v>
-      </c>
-      <c r="G72" t="s">
-        <v>35</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>45193.5</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7309,7 +7309,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867741</v>
+        <v>6867676</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7321,76 +7321,76 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K77">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="N77">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="O77">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867676</v>
+        <v>6867741</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="N78">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P78">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7677,10 +7677,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7769,7 +7769,7 @@
         <v>48</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7855,10 +7855,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8033,7 +8033,7 @@
         <v>45197.61458333334</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
         <v>41</v>
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6867535</v>
+        <v>6867242</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,76 +8300,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L88">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M88">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N88">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O88">
         <v>3.6</v>
       </c>
       <c r="P88">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6867242</v>
+        <v>6867535</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K89">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M89">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O89">
         <v>3.6</v>
       </c>
       <c r="P89">
+        <v>4.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.8</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>2.5</v>
+      </c>
+      <c r="U89">
         <v>1.95</v>
       </c>
-      <c r="Q89">
-        <v>0.5</v>
-      </c>
-      <c r="R89">
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.925</v>
-      </c>
-      <c r="V89">
-        <v>1.875</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8570,7 +8570,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8659,7 +8659,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8745,10 +8745,10 @@
         <v>45200.5</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>45201.625</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
         <v>31</v>
@@ -8923,7 +8923,7 @@
         <v>45207.41319444445</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>36</v>
@@ -9101,7 +9101,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>39</v>
@@ -9193,7 +9193,7 @@
         <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9267,7 +9267,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6867538</v>
+        <v>6871122</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9279,76 +9279,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9356,7 +9356,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6867190</v>
+        <v>6867538</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9368,76 +9368,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K100">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N100">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q100">
         <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6871122</v>
+        <v>6867190</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9457,76 +9457,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>53</v>
+      </c>
+      <c r="K101">
+        <v>2.45</v>
+      </c>
+      <c r="L101">
         <v>3</v>
       </c>
-      <c r="I101">
+      <c r="M101">
+        <v>3.2</v>
+      </c>
+      <c r="N101">
+        <v>2.15</v>
+      </c>
+      <c r="O101">
+        <v>3.1</v>
+      </c>
+      <c r="P101">
+        <v>3.75</v>
+      </c>
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
+        <v>2</v>
+      </c>
+      <c r="U101">
+        <v>1.8</v>
+      </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>2.1</v>
+      </c>
+      <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
+        <v>-0.5</v>
+      </c>
+      <c r="AA101">
+        <v>0.5</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>1</v>
-      </c>
-      <c r="J101" t="s">
-        <v>52</v>
-      </c>
-      <c r="K101">
-        <v>1.4</v>
-      </c>
-      <c r="L101">
-        <v>4.5</v>
-      </c>
-      <c r="M101">
-        <v>8.5</v>
-      </c>
-      <c r="N101">
-        <v>1.5</v>
-      </c>
-      <c r="O101">
-        <v>4.2</v>
-      </c>
-      <c r="P101">
-        <v>7.5</v>
-      </c>
-      <c r="Q101">
-        <v>-1.25</v>
-      </c>
-      <c r="R101">
-        <v>2</v>
-      </c>
-      <c r="S101">
-        <v>1.8</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>1.775</v>
-      </c>
-      <c r="V101">
-        <v>1.925</v>
-      </c>
-      <c r="W101">
-        <v>0.5</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
-      <c r="Z101">
-        <v>1</v>
-      </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
-      <c r="AB101">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC101">
-        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9727,7 +9727,7 @@
         <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9991,7 +9991,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
         <v>45</v>
@@ -10083,7 +10083,7 @@
         <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10172,7 +10172,7 @@
         <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>45221.5</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>45228.375</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
         <v>40</v>
@@ -10703,7 +10703,7 @@
         <v>45228.375</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10970,10 +10970,10 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>48</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
         <v>33</v>
@@ -11326,7 +11326,7 @@
         <v>45235.375</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>48</v>
@@ -11418,7 +11418,7 @@
         <v>44</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>45235.375</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
         <v>46</v>
@@ -11685,7 +11685,7 @@
         <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11860,7 +11860,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
         <v>47</v>
@@ -12041,7 +12041,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12216,10 +12216,10 @@
         <v>45242.375</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6867246</v>
+        <v>6871118</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12483,13 +12483,13 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -12498,43 +12498,43 @@
         <v>52</v>
       </c>
       <c r="K135">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
         <v>1.925</v>
       </c>
       <c r="W135">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12543,7 +12543,7 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.7250000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA135">
         <v>-1</v>
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6871118</v>
+        <v>6867974</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,76 +12572,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N136">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
         <v>1.875</v>
       </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
-      <c r="W136">
-        <v>1.05</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
       <c r="Z136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12661,10 +12661,10 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6867974</v>
+        <v>6867246</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,76 +12750,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K138">
+        <v>1.7</v>
+      </c>
+      <c r="L138">
+        <v>3.6</v>
+      </c>
+      <c r="M138">
+        <v>4.333</v>
+      </c>
+      <c r="N138">
+        <v>1.45</v>
+      </c>
+      <c r="O138">
+        <v>4.2</v>
+      </c>
+      <c r="P138">
+        <v>8</v>
+      </c>
+      <c r="Q138">
+        <v>-1</v>
+      </c>
+      <c r="R138">
+        <v>1.725</v>
+      </c>
+      <c r="S138">
+        <v>1.975</v>
+      </c>
+      <c r="T138">
         <v>2.5</v>
       </c>
-      <c r="L138">
-        <v>3.1</v>
-      </c>
-      <c r="M138">
-        <v>2.7</v>
-      </c>
-      <c r="N138">
-        <v>2.5</v>
-      </c>
-      <c r="O138">
-        <v>3.25</v>
-      </c>
-      <c r="P138">
-        <v>2.875</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>1.8</v>
-      </c>
-      <c r="S138">
-        <v>2</v>
-      </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
       <c r="U138">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12928,7 +12928,7 @@
         <v>45256.375</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
         <v>41</v>
@@ -13106,10 +13106,10 @@
         <v>45256.375</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13195,7 +13195,7 @@
         <v>45256.375</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
         <v>31</v>
@@ -13287,7 +13287,7 @@
         <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13551,7 +13551,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
         <v>47</v>
@@ -13732,7 +13732,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13818,7 +13818,7 @@
         <v>45263.375</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G150" t="s">
         <v>39</v>
@@ -13999,7 +13999,7 @@
         <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6867248</v>
+        <v>6871116</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,49 +14085,49 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K153">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N153">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
         <v>1.925</v>
@@ -14136,25 +14136,25 @@
         <v>1.875</v>
       </c>
       <c r="W153">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0</v>
+        <v>1.075</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6871116</v>
+        <v>6867248</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,49 +14174,49 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K154">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N154">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P154">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
         <v>1.925</v>
@@ -14225,25 +14225,25 @@
         <v>1.875</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X154">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA154">
-        <v>1.075</v>
+        <v>-0</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14355,7 +14355,7 @@
         <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14444,7 +14444,7 @@
         <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>5</v>
@@ -14533,7 +14533,7 @@
         <v>44</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14711,7 +14711,7 @@
         <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>3</v>
@@ -14797,10 +14797,10 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14886,10 +14886,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15067,7 +15067,7 @@
         <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15153,7 +15153,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
         <v>44</v>
@@ -15420,7 +15420,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
         <v>47</v>
@@ -15687,7 +15687,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
         <v>31</v>
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6867198</v>
+        <v>6867251</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,73 +15776,73 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L172">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N172">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O172">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
+        <v>1.825</v>
+      </c>
+      <c r="V172">
         <v>1.975</v>
       </c>
-      <c r="V172">
-        <v>1.725</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB172">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6867746</v>
+        <v>6867198</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,13 +15865,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>3</v>
@@ -15880,40 +15880,40 @@
         <v>51</v>
       </c>
       <c r="K173">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L173">
         <v>3.25</v>
       </c>
       <c r="M173">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O173">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P173">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15922,16 +15922,16 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB173">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6867554</v>
+        <v>6867602</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,73 +15954,73 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K174">
+        <v>5</v>
+      </c>
+      <c r="L174">
+        <v>3.75</v>
+      </c>
+      <c r="M174">
+        <v>1.55</v>
+      </c>
+      <c r="N174">
+        <v>6.5</v>
+      </c>
+      <c r="O174">
+        <v>4</v>
+      </c>
+      <c r="P174">
+        <v>1.4</v>
+      </c>
+      <c r="Q174">
+        <v>1.25</v>
+      </c>
+      <c r="R174">
+        <v>1.85</v>
+      </c>
+      <c r="S174">
         <v>1.95</v>
       </c>
-      <c r="L174">
-        <v>3.4</v>
-      </c>
-      <c r="M174">
-        <v>3.25</v>
-      </c>
-      <c r="N174">
-        <v>2.1</v>
-      </c>
-      <c r="O174">
-        <v>3.2</v>
-      </c>
-      <c r="P174">
-        <v>3.1</v>
-      </c>
-      <c r="Q174">
-        <v>-0.25</v>
-      </c>
-      <c r="R174">
-        <v>1.9</v>
-      </c>
-      <c r="S174">
-        <v>1.9</v>
-      </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W174">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z174">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB174">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6867251</v>
+        <v>6867746</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,73 +16043,73 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M175">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N175">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O175">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q175">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W175">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AB175">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6867602</v>
+        <v>6867554</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,73 +16132,73 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>3</v>
-      </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K176">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N176">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O176">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P176">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q176">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16402,7 +16402,7 @@
         <v>48</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16488,7 +16488,7 @@
         <v>45336.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s">
         <v>36</v>
@@ -16847,7 +16847,7 @@
         <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16933,7 +16933,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
         <v>46</v>
@@ -17025,7 +17025,7 @@
         <v>47</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H186">
         <v>3</v>
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6867556</v>
+        <v>6867507</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,55 +17289,55 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>52</v>
       </c>
       <c r="K189">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N189">
         <v>1.5</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P189">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q189">
         <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
+        <v>1.925</v>
+      </c>
+      <c r="V189">
         <v>1.875</v>
-      </c>
-      <c r="V189">
-        <v>1.925</v>
       </c>
       <c r="W189">
         <v>0.5</v>
@@ -17355,10 +17355,10 @@
         <v>-0</v>
       </c>
       <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
         <v>0.875</v>
-      </c>
-      <c r="AC189">
-        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6867507</v>
+        <v>6867556</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,55 +17378,55 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
         <v>1</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>52</v>
       </c>
       <c r="K190">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L190">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N190">
         <v>1.5</v>
       </c>
       <c r="O190">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q190">
         <v>-1</v>
       </c>
       <c r="R190">
+        <v>1.85</v>
+      </c>
+      <c r="S190">
+        <v>1.95</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.875</v>
+      </c>
+      <c r="V190">
         <v>1.925</v>
-      </c>
-      <c r="S190">
-        <v>1.875</v>
-      </c>
-      <c r="T190">
-        <v>2.25</v>
-      </c>
-      <c r="U190">
-        <v>1.925</v>
-      </c>
-      <c r="V190">
-        <v>1.875</v>
       </c>
       <c r="W190">
         <v>0.5</v>
@@ -17444,10 +17444,10 @@
         <v>-0</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17470,7 +17470,7 @@
         <v>45</v>
       </c>
       <c r="G191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17559,7 +17559,7 @@
         <v>49</v>
       </c>
       <c r="G192" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17648,7 +17648,7 @@
         <v>39</v>
       </c>
       <c r="G193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H193">
         <v>4</v>
@@ -17734,10 +17734,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17912,7 +17912,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
         <v>36</v>
@@ -18090,7 +18090,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
         <v>47</v>
@@ -18179,7 +18179,7 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
         <v>39</v>
@@ -18535,7 +18535,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18805,7 +18805,7 @@
         <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18894,7 +18894,7 @@
         <v>48</v>
       </c>
       <c r="G207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -19161,7 +19161,7 @@
         <v>36</v>
       </c>
       <c r="G210" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19250,7 +19250,7 @@
         <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19514,7 +19514,7 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G214" t="s">
         <v>45</v>
@@ -19603,7 +19603,7 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
         <v>32</v>
@@ -19692,7 +19692,7 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
         <v>33</v>
@@ -19962,7 +19962,7 @@
         <v>40</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20051,7 +20051,7 @@
         <v>46</v>
       </c>
       <c r="G220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20137,10 +20137,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F221" t="s">
+        <v>42</v>
+      </c>
+      <c r="G221" t="s">
         <v>43</v>
-      </c>
-      <c r="G221" t="s">
-        <v>42</v>
       </c>
       <c r="H221">
         <v>4</v>
@@ -20493,7 +20493,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
         <v>44</v>
@@ -20585,7 +20585,7 @@
         <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H226">
         <v>3</v>
@@ -20852,7 +20852,7 @@
         <v>49</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21027,7 +21027,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G231" t="s">
         <v>48</v>
@@ -21119,7 +21119,7 @@
         <v>41</v>
       </c>
       <c r="G232" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21205,7 +21205,7 @@
         <v>45382.5</v>
       </c>
       <c r="F233" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
         <v>49</v>
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7978505</v>
+        <v>7978503</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,76 +21294,76 @@
         <v>45382.5</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H234">
         <v>2</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K234">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M234">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N234">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O234">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P234">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q234">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S234">
+        <v>1.825</v>
+      </c>
+      <c r="T234">
+        <v>2</v>
+      </c>
+      <c r="U234">
         <v>1.8</v>
       </c>
-      <c r="T234">
-        <v>2.75</v>
-      </c>
-      <c r="U234">
-        <v>1.875</v>
-      </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC234">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21549,7 +21549,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7978503</v>
+        <v>7978505</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21561,76 +21561,76 @@
         <v>45382.5</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G237" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L237">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N237">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O237">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X237">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA237">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21816,7 +21816,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6871106</v>
+        <v>6867895</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21828,16 +21828,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G240" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>51</v>
@@ -21846,28 +21846,28 @@
         <v>2.6</v>
       </c>
       <c r="L240">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M240">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N240">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O240">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P240">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S240">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T240">
         <v>1.75</v>
@@ -21885,19 +21885,19 @@
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC240">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21905,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6867895</v>
+        <v>6871106</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21917,16 +21917,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H241">
         <v>0</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>51</v>
@@ -21935,28 +21935,28 @@
         <v>2.6</v>
       </c>
       <c r="L241">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M241">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N241">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O241">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P241">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R241">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S241">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T241">
         <v>1.75</v>
@@ -21974,19 +21974,19 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB241">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22098,7 +22098,7 @@
         <v>46</v>
       </c>
       <c r="G243" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22276,7 +22276,7 @@
         <v>31</v>
       </c>
       <c r="G245" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H245">
         <v>2</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -112,16 +112,16 @@
     <t>Nyiregyhaza Spartacus</t>
   </si>
   <si>
+    <t>BVSC Zuglo</t>
+  </si>
+  <si>
     <t>Gyirmot SE</t>
   </si>
   <si>
-    <t>BVSC Zuglo</t>
+    <t>Vasas SC</t>
   </si>
   <si>
     <t>Kozarmisleny SE</t>
-  </si>
-  <si>
-    <t>Vasas SC</t>
   </si>
   <si>
     <t>Pecsi MFC</t>
@@ -130,10 +130,10 @@
     <t>Csakvari Tk</t>
   </si>
   <si>
-    <t>FC Ajka</t>
+    <t>Kazincbarcikai BSC</t>
   </si>
   <si>
-    <t>Kazincbarcikai BSC</t>
+    <t>FC Ajka</t>
   </si>
   <si>
     <t>SzegedCsanad Grosics</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC254"/>
+  <dimension ref="A1:AC262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6867230</v>
+        <v>6867521</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N5">
+        <v>2.875</v>
+      </c>
+      <c r="O5">
+        <v>3.75</v>
+      </c>
+      <c r="P5">
         <v>2.3</v>
       </c>
-      <c r="O5">
-        <v>3.4</v>
-      </c>
-      <c r="P5">
-        <v>3.1</v>
-      </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.85</v>
+      </c>
+      <c r="V5">
+        <v>1.95</v>
+      </c>
+      <c r="W5">
         <v>1.875</v>
       </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.875</v>
-      </c>
-      <c r="V5">
-        <v>1.925</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6867521</v>
+        <v>6867230</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,73 +1005,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N6">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6867868</v>
+        <v>6867869</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,52 +1183,52 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
       </c>
       <c r="K8">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1237,19 +1237,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6867869</v>
+        <v>6867868</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,52 +1272,52 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
       <c r="K9">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M9">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1326,19 +1326,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6867734</v>
+        <v>6867664</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1539,73 +1539,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N12">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
+        <v>1.975</v>
+      </c>
+      <c r="V12">
         <v>1.825</v>
       </c>
-      <c r="V12">
-        <v>1.975</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6867664</v>
+        <v>6867734</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1628,73 +1628,73 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N13">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
+        <v>1.825</v>
+      </c>
+      <c r="V13">
         <v>1.975</v>
       </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y13">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1717,7 +1717,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1806,7 +1806,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1895,7 +1895,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1984,7 +1984,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2073,7 +2073,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6871130</v>
+        <v>6867525</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N23">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O23">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2592,7 +2592,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6867525</v>
+        <v>6871130</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2604,76 +2604,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>3.3</v>
+      </c>
+      <c r="M24">
+        <v>2.1</v>
+      </c>
+      <c r="N24">
+        <v>2.55</v>
+      </c>
+      <c r="O24">
+        <v>3.25</v>
+      </c>
+      <c r="P24">
+        <v>2.8</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.8</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>2.25</v>
+      </c>
+      <c r="U24">
+        <v>1.8</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>2.25</v>
+      </c>
+      <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>-0</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>1</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24">
-        <v>2.6</v>
-      </c>
-      <c r="L24">
-        <v>3.2</v>
-      </c>
-      <c r="M24">
-        <v>2.4</v>
-      </c>
-      <c r="N24">
-        <v>2.6</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
-      </c>
-      <c r="P24">
-        <v>2.7</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1.85</v>
-      </c>
-      <c r="S24">
-        <v>1.95</v>
-      </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>1.95</v>
-      </c>
-      <c r="V24">
-        <v>1.85</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>1.7</v>
-      </c>
-      <c r="Z24">
-        <v>-1</v>
-      </c>
-      <c r="AA24">
-        <v>0.95</v>
-      </c>
-      <c r="AB24">
-        <v>0.95</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2693,7 +2693,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6867667</v>
+        <v>6867524</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N26">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O26">
         <v>3.25</v>
       </c>
       <c r="P26">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X26">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867524</v>
+        <v>6867667</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,76 +2960,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N28">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O28">
         <v>3.25</v>
       </c>
       <c r="P28">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3049,7 +3049,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -3126,7 +3126,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6867578</v>
+        <v>6867182</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3138,76 +3138,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>53</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M30">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N30">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3215,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6867182</v>
+        <v>6867578</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3227,76 +3227,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>53</v>
       </c>
       <c r="K31">
+        <v>2.25</v>
+      </c>
+      <c r="L31">
+        <v>3.2</v>
+      </c>
+      <c r="M31">
         <v>2.8</v>
       </c>
-      <c r="L31">
-        <v>3.1</v>
-      </c>
-      <c r="M31">
-        <v>2.3</v>
-      </c>
       <c r="N31">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3319,7 +3319,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3675,7 +3675,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6871129</v>
+        <v>6867668</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3761,76 +3761,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>4.25</v>
+        <v>3.3</v>
       </c>
       <c r="N37">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O37">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
+        <v>1.775</v>
+      </c>
+      <c r="S37">
+        <v>2.025</v>
+      </c>
+      <c r="T37">
+        <v>2.25</v>
+      </c>
+      <c r="U37">
+        <v>1.875</v>
+      </c>
+      <c r="V37">
+        <v>1.925</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>2.5</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.95</v>
-      </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
-      <c r="T37">
-        <v>2.5</v>
-      </c>
-      <c r="U37">
-        <v>1.85</v>
-      </c>
-      <c r="V37">
-        <v>1.95</v>
-      </c>
-      <c r="W37">
-        <v>0.95</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.95</v>
-      </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3838,7 +3838,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6867668</v>
+        <v>6867237</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3850,76 +3850,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R38">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>-0</v>
+      </c>
+      <c r="AB38">
+        <v>0.475</v>
+      </c>
+      <c r="AC38">
         <v>-0.5</v>
-      </c>
-      <c r="AA38">
-        <v>0.5125</v>
-      </c>
-      <c r="AB38">
-        <v>-0.5</v>
-      </c>
-      <c r="AC38">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6867237</v>
+        <v>6871129</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,10 +3939,10 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3963,34 +3963,34 @@
         <v>4.25</v>
       </c>
       <c r="N39">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
-        <v>0.571</v>
+        <v>0.95</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3999,16 +3999,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4028,7 +4028,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4206,7 +4206,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4295,7 +4295,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>40</v>
@@ -4384,10 +4384,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4651,7 +4651,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>42</v>
@@ -4740,7 +4740,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4921,7 +4921,7 @@
         <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5099,7 +5099,7 @@
         <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867185</v>
+        <v>6867671</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N54">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
+        <v>0.95</v>
+      </c>
+      <c r="AB54">
         <v>-0.5</v>
       </c>
-      <c r="AA54">
-        <v>0.4375</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6867671</v>
+        <v>6867185</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K55">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T55">
         <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y55">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5452,10 +5452,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" t="s">
         <v>39</v>
-      </c>
-      <c r="G56" t="s">
-        <v>38</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5719,7 +5719,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>36</v>
@@ -5897,10 +5897,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6241,7 +6241,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867585</v>
+        <v>6867672</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6253,76 +6253,76 @@
         <v>45172.5</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
         <v>3.25</v>
       </c>
       <c r="M65">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N65">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q65">
         <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
         <v>1.925</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W65">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6330,7 +6330,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6867672</v>
+        <v>6867673</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6342,76 +6342,76 @@
         <v>45172.5</v>
       </c>
       <c r="F66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" t="s">
         <v>34</v>
-      </c>
-      <c r="G66" t="s">
-        <v>40</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L66">
         <v>3.25</v>
       </c>
       <c r="M66">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
         <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6867673</v>
+        <v>6867585</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6431,76 +6431,76 @@
         <v>45172.5</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K67">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>3.25</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N67">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O67">
         <v>3.4</v>
       </c>
       <c r="P67">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6523,7 +6523,7 @@
         <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6871125</v>
+        <v>6867740</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,76 +6609,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K69">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N69">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O69">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X69">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6867740</v>
+        <v>6871125</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,76 +6698,76 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K70">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N70">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6876,10 +6876,10 @@
         <v>45193.5</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6965,10 +6965,10 @@
         <v>45193.5</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7143,7 +7143,7 @@
         <v>45193.5</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7309,7 +7309,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867676</v>
+        <v>6867589</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7321,76 +7321,76 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K77">
+        <v>1.5</v>
+      </c>
+      <c r="L77">
+        <v>3.6</v>
+      </c>
+      <c r="M77">
+        <v>6</v>
+      </c>
+      <c r="N77">
+        <v>1.5</v>
+      </c>
+      <c r="O77">
         <v>4</v>
       </c>
-      <c r="L77">
-        <v>3.5</v>
-      </c>
-      <c r="M77">
-        <v>1.75</v>
-      </c>
-      <c r="N77">
-        <v>5.25</v>
-      </c>
-      <c r="O77">
-        <v>3.75</v>
-      </c>
       <c r="P77">
-        <v>1.666</v>
+        <v>8</v>
       </c>
       <c r="Q77">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867589</v>
+        <v>6867676</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,76 +7410,76 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K78">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N78">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>8</v>
+        <v>1.666</v>
       </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7499,10 +7499,10 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6867590</v>
+        <v>6867534</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,76 +7588,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N80">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O80">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X80">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA80">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867534</v>
+        <v>6867590</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>53</v>
+      </c>
+      <c r="K81">
+        <v>2.1</v>
+      </c>
+      <c r="L81">
+        <v>3.2</v>
+      </c>
+      <c r="M81">
+        <v>3.1</v>
+      </c>
+      <c r="N81">
+        <v>2.4</v>
+      </c>
+      <c r="O81">
+        <v>3.25</v>
+      </c>
+      <c r="P81">
+        <v>3</v>
+      </c>
+      <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
+        <v>2.05</v>
+      </c>
+      <c r="S81">
+        <v>1.75</v>
+      </c>
+      <c r="T81">
+        <v>2.25</v>
+      </c>
+      <c r="U81">
+        <v>1.8</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>2.25</v>
+      </c>
+      <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
+        <v>-0.5</v>
+      </c>
+      <c r="AA81">
+        <v>0.375</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>1</v>
-      </c>
-      <c r="J81" t="s">
-        <v>52</v>
-      </c>
-      <c r="K81">
-        <v>2.25</v>
-      </c>
-      <c r="L81">
-        <v>3.3</v>
-      </c>
-      <c r="M81">
-        <v>2.75</v>
-      </c>
-      <c r="N81">
-        <v>2</v>
-      </c>
-      <c r="O81">
-        <v>3.5</v>
-      </c>
-      <c r="P81">
-        <v>3.75</v>
-      </c>
-      <c r="Q81">
-        <v>-0.5</v>
-      </c>
-      <c r="R81">
-        <v>2</v>
-      </c>
-      <c r="S81">
-        <v>1.8</v>
-      </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.875</v>
-      </c>
-      <c r="V81">
-        <v>1.925</v>
-      </c>
-      <c r="W81">
-        <v>1</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
-        <v>1</v>
-      </c>
-      <c r="AA81">
-        <v>-1</v>
-      </c>
-      <c r="AB81">
-        <v>0.875</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7855,7 +7855,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -8110,7 +8110,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6867242</v>
+        <v>6867592</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8122,56 +8122,56 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L86">
         <v>3.2</v>
       </c>
       <c r="M86">
+        <v>2.4</v>
+      </c>
+      <c r="N86">
+        <v>2.7</v>
+      </c>
+      <c r="O86">
+        <v>3.4</v>
+      </c>
+      <c r="P86">
+        <v>2.55</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>1.95</v>
+      </c>
+      <c r="S86">
+        <v>1.85</v>
+      </c>
+      <c r="T86">
         <v>2.25</v>
       </c>
-      <c r="N86">
-        <v>4</v>
-      </c>
-      <c r="O86">
-        <v>3.6</v>
-      </c>
-      <c r="P86">
+      <c r="U86">
         <v>1.95</v>
       </c>
-      <c r="Q86">
-        <v>0.5</v>
-      </c>
-      <c r="R86">
+      <c r="V86">
         <v>1.85</v>
       </c>
-      <c r="S86">
-        <v>1.95</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.925</v>
-      </c>
-      <c r="V86">
-        <v>1.875</v>
-      </c>
       <c r="W86">
         <v>-1</v>
       </c>
@@ -8179,19 +8179,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6867592</v>
+        <v>6867536</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,55 +8211,55 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>51</v>
       </c>
       <c r="K87">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L87">
         <v>3.2</v>
       </c>
       <c r="M87">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N87">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P87">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
         <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8268,19 +8268,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6867536</v>
+        <v>6867535</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,46 +8300,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N88">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O88">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T88">
         <v>2.5</v>
@@ -8348,28 +8348,28 @@
         <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6867535</v>
+        <v>6867242</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L89">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N89">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O89">
         <v>3.6</v>
       </c>
       <c r="P89">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8478,10 +8478,10 @@
         <v>45200.49652777778</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>45200.5</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>37</v>
@@ -8656,10 +8656,10 @@
         <v>45200.5</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8926,7 +8926,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9012,10 +9012,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F96" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" t="s">
         <v>33</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9282,7 +9282,7 @@
         <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9368,10 +9368,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F100" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" t="s">
         <v>34</v>
-      </c>
-      <c r="G100" t="s">
-        <v>35</v>
       </c>
       <c r="H100">
         <v>4</v>
@@ -9902,7 +9902,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
         <v>37</v>
@@ -9991,7 +9991,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>46</v>
@@ -10080,7 +10080,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
         <v>45</v>
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6867680</v>
+        <v>6867244</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,76 +10169,76 @@
         <v>45221.5</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K109">
+        <v>2.7</v>
+      </c>
+      <c r="L109">
+        <v>3.25</v>
+      </c>
+      <c r="M109">
+        <v>2.4</v>
+      </c>
+      <c r="N109">
+        <v>3.25</v>
+      </c>
+      <c r="O109">
+        <v>3.4</v>
+      </c>
+      <c r="P109">
         <v>2.25</v>
       </c>
-      <c r="L109">
-        <v>3.4</v>
-      </c>
-      <c r="M109">
-        <v>2.8</v>
-      </c>
-      <c r="N109">
-        <v>2.25</v>
-      </c>
-      <c r="O109">
-        <v>3.5</v>
-      </c>
-      <c r="P109">
-        <v>3.1</v>
-      </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T109">
         <v>2.5</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W109">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10246,7 +10246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6867244</v>
+        <v>6867680</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10258,76 +10258,76 @@
         <v>45221.5</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K110">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N110">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
         <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V110">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X110">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC110">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10347,10 +10347,10 @@
         <v>45221.5</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10617,7 +10617,7 @@
         <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10973,7 +10973,7 @@
         <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6867970</v>
+        <v>6867681</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11059,73 +11059,73 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F119" t="s">
+        <v>45</v>
+      </c>
+      <c r="G119" t="s">
         <v>34</v>
       </c>
-      <c r="G119" t="s">
-        <v>32</v>
-      </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K119">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N119">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="O119">
         <v>3.5</v>
       </c>
       <c r="P119">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
         <v>1.975</v>
       </c>
-      <c r="S119">
-        <v>1.725</v>
-      </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11136,7 +11136,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6867681</v>
+        <v>6867191</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11148,49 +11148,49 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>1</v>
-      </c>
-      <c r="I120">
-        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>51</v>
       </c>
       <c r="K120">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U120">
         <v>1.8</v>
@@ -11205,19 +11205,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
+        <v>3</v>
+      </c>
+      <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>1.025</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>1</v>
-      </c>
-      <c r="Z120">
-        <v>-1</v>
-      </c>
-      <c r="AA120">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB120">
-        <v>0.8</v>
-      </c>
-      <c r="AC120">
-        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11225,7 +11225,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6867191</v>
+        <v>6867970</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11237,76 +11237,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N121">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>0.3625</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC121">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6867542</v>
+        <v>6867972</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11326,73 +11326,73 @@
         <v>45235.375</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J122" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P122">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
         <v>1.975</v>
       </c>
       <c r="S122">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.3625</v>
+        <v>0.825</v>
       </c>
       <c r="AB122">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11403,7 +11403,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867192</v>
+        <v>6867542</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11415,76 +11415,76 @@
         <v>45235.375</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K123">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N123">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T123">
         <v>2.25</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>-0.5</v>
+      </c>
+      <c r="AA123">
+        <v>0.3625</v>
+      </c>
+      <c r="AB123">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
-      <c r="AA123">
-        <v>0.875</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
-      </c>
       <c r="AC123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11492,7 +11492,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867972</v>
+        <v>6867192</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11504,55 +11504,55 @@
         <v>45235.375</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
         <v>51</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
         <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11561,19 +11561,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11581,7 +11581,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867971</v>
+        <v>6867543</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11593,16 +11593,16 @@
         <v>45235.375</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>51</v>
@@ -11617,31 +11617,31 @@
         <v>2.375</v>
       </c>
       <c r="N125">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11650,19 +11650,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC125">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11670,7 +11670,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6867543</v>
+        <v>6867971</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11682,16 +11682,16 @@
         <v>45235.375</v>
       </c>
       <c r="F126" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>51</v>
@@ -11706,32 +11706,32 @@
         <v>2.375</v>
       </c>
       <c r="N126">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O126">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P126">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>1.75</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
         <v>1.85</v>
       </c>
-      <c r="S126">
-        <v>1.95</v>
-      </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
-      <c r="U126">
-        <v>1.825</v>
-      </c>
-      <c r="V126">
-        <v>1.975</v>
-      </c>
       <c r="W126">
         <v>-1</v>
       </c>
@@ -11739,19 +11739,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11759,7 +11759,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6867682</v>
+        <v>6867876</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11771,10 +11771,10 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11786,53 +11786,53 @@
         <v>52</v>
       </c>
       <c r="K127">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N127">
+        <v>2.15</v>
+      </c>
+      <c r="O127">
+        <v>3.3</v>
+      </c>
+      <c r="P127">
+        <v>3.5</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
         <v>1.85</v>
       </c>
-      <c r="O127">
-        <v>3.4</v>
-      </c>
-      <c r="P127">
-        <v>4.5</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.9</v>
-      </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
+        <v>1.15</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
-      <c r="Z127">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA127">
         <v>-1</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11937,7 +11937,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867876</v>
+        <v>6867682</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11949,10 +11949,10 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11964,43 +11964,43 @@
         <v>52</v>
       </c>
       <c r="K129">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O129">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
         <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12009,7 +12009,7 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
@@ -12018,7 +12018,7 @@
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12038,7 +12038,7 @@
         <v>45236.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
         <v>41</v>
@@ -12130,7 +12130,7 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12486,7 +12486,7 @@
         <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12575,7 +12575,7 @@
         <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12661,7 +12661,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>37</v>
@@ -12753,7 +12753,7 @@
         <v>48</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12842,7 +12842,7 @@
         <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13017,7 +13017,7 @@
         <v>45256.375</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13106,7 +13106,7 @@
         <v>45256.375</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
         <v>45</v>
@@ -13284,7 +13284,7 @@
         <v>45256.375</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
         <v>42</v>
@@ -13462,7 +13462,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
         <v>48</v>
@@ -13551,7 +13551,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
         <v>46</v>
@@ -13640,7 +13640,7 @@
         <v>45257.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
         <v>47</v>
@@ -13821,7 +13821,7 @@
         <v>43</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13910,7 +13910,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14088,7 +14088,7 @@
         <v>47</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14177,7 +14177,7 @@
         <v>48</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14355,7 +14355,7 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14444,7 +14444,7 @@
         <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>5</v>
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6871115</v>
+        <v>6867600</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,73 +14708,73 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K160">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M160">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O160">
         <v>3.75</v>
       </c>
       <c r="P160">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
+        <v>1.825</v>
+      </c>
+      <c r="T160">
+        <v>2</v>
+      </c>
+      <c r="U160">
         <v>1.8</v>
       </c>
-      <c r="T160">
-        <v>2.25</v>
-      </c>
-      <c r="U160">
-        <v>1.85</v>
-      </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X160">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
+        <v>-1</v>
+      </c>
+      <c r="AB160">
         <v>0.8</v>
-      </c>
-      <c r="AB160">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6867600</v>
+        <v>6871115</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,73 +14797,73 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K161">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L161">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N161">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O161">
         <v>3.75</v>
       </c>
       <c r="P161">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V161">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14886,7 +14886,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
         <v>41</v>
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6867745</v>
+        <v>6867688</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,58 +15064,58 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>52</v>
       </c>
       <c r="K164">
+        <v>1.4</v>
+      </c>
+      <c r="L164">
+        <v>4.333</v>
+      </c>
+      <c r="M164">
+        <v>6</v>
+      </c>
+      <c r="N164">
+        <v>1.533</v>
+      </c>
+      <c r="O164">
+        <v>4.2</v>
+      </c>
+      <c r="P164">
+        <v>5.75</v>
+      </c>
+      <c r="Q164">
+        <v>-1</v>
+      </c>
+      <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
+        <v>1.925</v>
+      </c>
+      <c r="T164">
         <v>2.5</v>
       </c>
-      <c r="L164">
-        <v>3.2</v>
-      </c>
-      <c r="M164">
-        <v>2.5</v>
-      </c>
-      <c r="N164">
-        <v>2</v>
-      </c>
-      <c r="O164">
-        <v>3.3</v>
-      </c>
-      <c r="P164">
-        <v>4</v>
-      </c>
-      <c r="Q164">
-        <v>-0.5</v>
-      </c>
-      <c r="R164">
-        <v>1.975</v>
-      </c>
-      <c r="S164">
-        <v>1.825</v>
-      </c>
-      <c r="T164">
-        <v>2</v>
-      </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15124,16 +15124,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15141,7 +15141,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6867688</v>
+        <v>6867601</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15153,13 +15153,13 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15168,43 +15168,43 @@
         <v>52</v>
       </c>
       <c r="K165">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="L165">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N165">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q165">
         <v>-1</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>0.5329999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15213,16 +15213,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6867601</v>
+        <v>6867551</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,10 +15242,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15257,25 +15257,25 @@
         <v>52</v>
       </c>
       <c r="K166">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>1.85</v>
+      </c>
+      <c r="O166">
+        <v>3.5</v>
+      </c>
+      <c r="P166">
         <v>4.2</v>
       </c>
-      <c r="N166">
-        <v>1.55</v>
-      </c>
-      <c r="O166">
-        <v>3.8</v>
-      </c>
-      <c r="P166">
-        <v>6.5</v>
-      </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
         <v>1.9</v>
@@ -15287,13 +15287,13 @@
         <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V166">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15302,16 +15302,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,7 +15319,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6867551</v>
+        <v>6867250</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15334,7 +15334,7 @@
         <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15346,43 +15346,43 @@
         <v>52</v>
       </c>
       <c r="K167">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="N167">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
         <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W167">
-        <v>0.8500000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15391,7 +15391,7 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA167">
         <v>-1</v>
@@ -15400,7 +15400,7 @@
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15408,7 +15408,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6867250</v>
+        <v>6867745</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15420,58 +15420,58 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H168">
+        <v>3</v>
+      </c>
+      <c r="I168">
         <v>1</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>52</v>
       </c>
       <c r="K168">
+        <v>2.5</v>
+      </c>
+      <c r="L168">
+        <v>3.2</v>
+      </c>
+      <c r="M168">
+        <v>2.5</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168">
+        <v>3.3</v>
+      </c>
+      <c r="P168">
         <v>4</v>
       </c>
-      <c r="L168">
-        <v>3.75</v>
-      </c>
-      <c r="M168">
-        <v>1.666</v>
-      </c>
-      <c r="N168">
-        <v>4.75</v>
-      </c>
-      <c r="O168">
-        <v>3.75</v>
-      </c>
-      <c r="P168">
-        <v>1.7</v>
-      </c>
       <c r="Q168">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U168">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>3.75</v>
+        <v>1</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15480,16 +15480,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC168">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>45327.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
         <v>40</v>
@@ -15690,7 +15690,7 @@
         <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15779,7 +15779,7 @@
         <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15957,7 +15957,7 @@
         <v>36</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16135,7 +16135,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6867553</v>
+        <v>6867603</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L177">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N177">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O177">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6867603</v>
+        <v>6867716</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,56 +16310,56 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M178">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="N178">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O178">
         <v>3.4</v>
       </c>
       <c r="P178">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U178">
+        <v>1.85</v>
+      </c>
+      <c r="V178">
         <v>1.95</v>
       </c>
-      <c r="V178">
-        <v>1.85</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
@@ -16367,19 +16367,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6867716</v>
+        <v>6867553</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16399,76 +16399,76 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K179">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L179">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M179">
-        <v>4.8</v>
+        <v>2.55</v>
       </c>
       <c r="N179">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P179">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R179">
+        <v>1.875</v>
+      </c>
+      <c r="S179">
         <v>1.925</v>
       </c>
-      <c r="S179">
-        <v>1.875</v>
-      </c>
       <c r="T179">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y179">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16491,7 +16491,7 @@
         <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16580,7 +16580,7 @@
         <v>47</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16669,7 +16669,7 @@
         <v>43</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16758,7 +16758,7 @@
         <v>48</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16847,7 +16847,7 @@
         <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16933,7 +16933,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>43</v>
@@ -17022,7 +17022,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
         <v>40</v>
@@ -17114,7 +17114,7 @@
         <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17289,7 +17289,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
         <v>44</v>
@@ -17378,7 +17378,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
         <v>47</v>
@@ -17455,7 +17455,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6867555</v>
+        <v>6871112</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17467,76 +17467,76 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G191" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>1</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K191">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M191">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N191">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O191">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P191">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q191">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y191">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA191">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB191">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17544,7 +17544,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6871112</v>
+        <v>6867555</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17556,76 +17556,76 @@
         <v>45340.54166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K192">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M192">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N192">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O192">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q192">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V192">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB192">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC192">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17645,7 +17645,7 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
         <v>36</v>
@@ -17737,7 +17737,7 @@
         <v>42</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -18004,7 +18004,7 @@
         <v>36</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18093,7 +18093,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18179,10 +18179,10 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18271,7 +18271,7 @@
         <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18523,7 +18523,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6867758</v>
+        <v>6867510</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18535,13 +18535,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18550,19 +18550,19 @@
         <v>52</v>
       </c>
       <c r="K203">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M203">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N203">
         <v>1.85</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
         <v>3.6</v>
@@ -18571,19 +18571,19 @@
         <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S203">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
         <v>0.8500000000000001</v>
@@ -18595,7 +18595,7 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA203">
         <v>-1</v>
@@ -18604,7 +18604,7 @@
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18612,7 +18612,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6867510</v>
+        <v>6867758</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18624,13 +18624,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -18639,19 +18639,19 @@
         <v>52</v>
       </c>
       <c r="K204">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L204">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M204">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N204">
         <v>1.85</v>
       </c>
       <c r="O204">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P204">
         <v>3.6</v>
@@ -18660,19 +18660,19 @@
         <v>-0.5</v>
       </c>
       <c r="R204">
+        <v>1.875</v>
+      </c>
+      <c r="S204">
+        <v>1.925</v>
+      </c>
+      <c r="T204">
+        <v>2.5</v>
+      </c>
+      <c r="U204">
         <v>1.9</v>
       </c>
-      <c r="S204">
+      <c r="V204">
         <v>1.9</v>
-      </c>
-      <c r="T204">
-        <v>2.25</v>
-      </c>
-      <c r="U204">
-        <v>2</v>
-      </c>
-      <c r="V204">
-        <v>1.8</v>
       </c>
       <c r="W204">
         <v>0.8500000000000001</v>
@@ -18684,16 +18684,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
+        <v>0.875</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>-1</v>
-      </c>
-      <c r="AC204">
-        <v>0.8</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18716,7 +18716,7 @@
         <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18802,7 +18802,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
         <v>36</v>
@@ -18891,10 +18891,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F207" t="s">
+        <v>39</v>
+      </c>
+      <c r="G207" t="s">
         <v>38</v>
-      </c>
-      <c r="G207" t="s">
-        <v>39</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -19057,7 +19057,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6867719</v>
+        <v>6867254</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19069,10 +19069,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19084,40 +19084,40 @@
         <v>51</v>
       </c>
       <c r="K209">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M209">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="N209">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O209">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P209">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R209">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
         <v>-1</v>
@@ -19126,19 +19126,19 @@
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>1.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19146,7 +19146,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6867254</v>
+        <v>6867719</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19158,10 +19158,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G210" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19173,40 +19173,40 @@
         <v>51</v>
       </c>
       <c r="K210">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="L210">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N210">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P210">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q210">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W210">
         <v>-1</v>
@@ -19215,19 +19215,19 @@
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0.8500000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="Z210">
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19603,10 +19603,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19695,7 +19695,7 @@
         <v>40</v>
       </c>
       <c r="G216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -19873,7 +19873,7 @@
         <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -19959,10 +19959,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20137,10 +20137,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -20226,7 +20226,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20303,7 +20303,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6867722</v>
+        <v>6867721</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20315,76 +20315,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K223">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="L223">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N223">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O223">
         <v>3.2</v>
       </c>
       <c r="P223">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
+        <v>1.85</v>
+      </c>
+      <c r="S223">
         <v>1.95</v>
-      </c>
-      <c r="S223">
-        <v>1.85</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V223">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
+        <v>0.95</v>
+      </c>
+      <c r="AB223">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB223">
-        <v>-1</v>
-      </c>
       <c r="AC223">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20392,7 +20392,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6867721</v>
+        <v>6867566</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20404,76 +20404,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H224">
         <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K224">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="L224">
         <v>3.2</v>
       </c>
       <c r="M224">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N224">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P224">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="Q224">
         <v>0.25</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S224">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y224">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA224">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB224">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20481,7 +20481,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6867566</v>
+        <v>6871108</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20493,76 +20493,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I225">
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K225">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L225">
+        <v>3.3</v>
+      </c>
+      <c r="M225">
+        <v>3.1</v>
+      </c>
+      <c r="N225">
+        <v>1.909</v>
+      </c>
+      <c r="O225">
+        <v>3.6</v>
+      </c>
+      <c r="P225">
         <v>3.2</v>
       </c>
-      <c r="M225">
-        <v>2.3</v>
-      </c>
-      <c r="N225">
-        <v>3.4</v>
-      </c>
-      <c r="O225">
-        <v>3.4</v>
-      </c>
-      <c r="P225">
-        <v>1.95</v>
-      </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S225">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T225">
         <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X225">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC225">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20570,7 +20570,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6871108</v>
+        <v>6867722</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20582,76 +20582,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K226">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L226">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M226">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N226">
         <v>1.909</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P226">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q226">
         <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S226">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T226">
         <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W226">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20659,7 +20659,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6867692</v>
+        <v>6867255</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20671,73 +20671,73 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K227">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="L227">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N227">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O227">
         <v>3.2</v>
       </c>
       <c r="P227">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R227">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S227">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T227">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V227">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB227">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6867255</v>
+        <v>6867692</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,73 +20849,73 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229" t="s">
+        <v>53</v>
+      </c>
+      <c r="K229">
+        <v>2.55</v>
+      </c>
+      <c r="L229">
         <v>3</v>
       </c>
-      <c r="J229" t="s">
-        <v>51</v>
-      </c>
-      <c r="K229">
-        <v>3.1</v>
-      </c>
-      <c r="L229">
-        <v>3.2</v>
-      </c>
       <c r="M229">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N229">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O229">
         <v>3.2</v>
       </c>
       <c r="P229">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="Q229">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S229">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB229">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -21208,7 +21208,7 @@
         <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H233">
         <v>2</v>
@@ -21294,7 +21294,7 @@
         <v>45382.5</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
         <v>49</v>
@@ -21383,10 +21383,10 @@
         <v>45382.5</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21460,7 +21460,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7978506</v>
+        <v>7978507</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21472,49 +21472,49 @@
         <v>45382.5</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K236">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L236">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N236">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O236">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P236">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R236">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S236">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
         <v>1.9</v>
@@ -21523,19 +21523,19 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB236">
         <v>-1</v>
@@ -21549,7 +21549,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7978507</v>
+        <v>7978506</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21561,49 +21561,49 @@
         <v>45382.5</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G237" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K237">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M237">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N237">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O237">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P237">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q237">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T237">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
         <v>1.9</v>
@@ -21612,19 +21612,19 @@
         <v>1.9</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
         <v>-1</v>
@@ -21828,10 +21828,10 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G240" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -21920,7 +21920,7 @@
         <v>46</v>
       </c>
       <c r="G241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -22187,7 +22187,7 @@
         <v>49</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22350,7 +22350,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6867896</v>
+        <v>6871105</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22362,46 +22362,46 @@
         <v>45396.5</v>
       </c>
       <c r="F246" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G246" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H246">
         <v>0</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
         <v>51</v>
       </c>
       <c r="K246">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L246">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M246">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N246">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="O246">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q246">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T246">
         <v>2.25</v>
@@ -22419,19 +22419,19 @@
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>4</v>
+        <v>0.909</v>
       </c>
       <c r="Z246">
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC246">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22439,7 +22439,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6871105</v>
+        <v>6867896</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22451,46 +22451,46 @@
         <v>45396.5</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H247">
         <v>0</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>51</v>
       </c>
       <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>3.25</v>
+      </c>
+      <c r="M247">
+        <v>3.5</v>
+      </c>
+      <c r="N247">
+        <v>1.615</v>
+      </c>
+      <c r="O247">
         <v>3.6</v>
       </c>
-      <c r="L247">
-        <v>3.4</v>
-      </c>
-      <c r="M247">
-        <v>1.909</v>
-      </c>
-      <c r="N247">
-        <v>3.6</v>
-      </c>
-      <c r="O247">
-        <v>3.4</v>
-      </c>
       <c r="P247">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q247">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T247">
         <v>2.25</v>
@@ -22508,19 +22508,19 @@
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0.909</v>
+        <v>4</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22540,10 +22540,10 @@
         <v>45396.5</v>
       </c>
       <c r="F248" t="s">
+        <v>33</v>
+      </c>
+      <c r="G248" t="s">
         <v>32</v>
-      </c>
-      <c r="G248" t="s">
-        <v>33</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22795,7 +22795,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6867258</v>
+        <v>6867519</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22807,49 +22807,49 @@
         <v>45396.5</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G251" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K251">
+        <v>3.6</v>
+      </c>
+      <c r="L251">
         <v>3.4</v>
       </c>
-      <c r="L251">
-        <v>3.3</v>
-      </c>
       <c r="M251">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N251">
+        <v>4.5</v>
+      </c>
+      <c r="O251">
         <v>3.4</v>
       </c>
-      <c r="O251">
-        <v>3.3</v>
-      </c>
       <c r="P251">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="Q251">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R251">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
         <v>2</v>
@@ -22858,25 +22858,25 @@
         <v>1.8</v>
       </c>
       <c r="W251">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z251">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22884,7 +22884,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6867206</v>
+        <v>6867258</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22896,49 +22896,49 @@
         <v>45396.5</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H252">
+        <v>2</v>
+      </c>
+      <c r="I252">
         <v>1</v>
-      </c>
-      <c r="I252">
-        <v>0</v>
       </c>
       <c r="J252" t="s">
         <v>52</v>
       </c>
       <c r="K252">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L252">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M252">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N252">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O252">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P252">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T252">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U252">
         <v>2</v>
@@ -22947,7 +22947,7 @@
         <v>1.8</v>
       </c>
       <c r="W252">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="X252">
         <v>-1</v>
@@ -22956,16 +22956,16 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6867519</v>
+        <v>6867206</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22985,40 +22985,40 @@
         <v>45396.5</v>
       </c>
       <c r="F253" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G253" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K253">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L253">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M253">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N253">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O253">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P253">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="Q253">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R253">
         <v>1.825</v>
@@ -23027,7 +23027,7 @@
         <v>1.975</v>
       </c>
       <c r="T253">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U253">
         <v>2</v>
@@ -23036,19 +23036,19 @@
         <v>1.8</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA253">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
         <v>-1</v>
@@ -23074,10 +23074,10 @@
         <v>45397.625</v>
       </c>
       <c r="F254" t="s">
+        <v>34</v>
+      </c>
+      <c r="G254" t="s">
         <v>35</v>
-      </c>
-      <c r="G254" t="s">
-        <v>34</v>
       </c>
       <c r="H254">
         <v>2</v>
@@ -23144,6 +23144,598 @@
       </c>
       <c r="AC254">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>6867695</v>
+      </c>
+      <c r="C255" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F255" t="s">
+        <v>46</v>
+      </c>
+      <c r="G255" t="s">
+        <v>32</v>
+      </c>
+      <c r="K255">
+        <v>2.3</v>
+      </c>
+      <c r="L255">
+        <v>3.25</v>
+      </c>
+      <c r="M255">
+        <v>2.65</v>
+      </c>
+      <c r="N255">
+        <v>2.3</v>
+      </c>
+      <c r="O255">
+        <v>3.25</v>
+      </c>
+      <c r="P255">
+        <v>2.625</v>
+      </c>
+      <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="R255">
+        <v>1.775</v>
+      </c>
+      <c r="S255">
+        <v>2.025</v>
+      </c>
+      <c r="T255">
+        <v>2.5</v>
+      </c>
+      <c r="U255">
+        <v>1.9</v>
+      </c>
+      <c r="V255">
+        <v>1.9</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>6871104</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F256" t="s">
+        <v>41</v>
+      </c>
+      <c r="G256" t="s">
+        <v>36</v>
+      </c>
+      <c r="K256">
+        <v>1.9</v>
+      </c>
+      <c r="L256">
+        <v>3.4</v>
+      </c>
+      <c r="M256">
+        <v>3.4</v>
+      </c>
+      <c r="N256">
+        <v>1.727</v>
+      </c>
+      <c r="O256">
+        <v>3.5</v>
+      </c>
+      <c r="P256">
+        <v>4.2</v>
+      </c>
+      <c r="Q256">
+        <v>-0.75</v>
+      </c>
+      <c r="R256">
+        <v>2</v>
+      </c>
+      <c r="S256">
+        <v>1.8</v>
+      </c>
+      <c r="T256">
+        <v>2.25</v>
+      </c>
+      <c r="U256">
+        <v>1.975</v>
+      </c>
+      <c r="V256">
+        <v>1.825</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>0</v>
+      </c>
+      <c r="Z256">
+        <v>0</v>
+      </c>
+      <c r="AA256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>6867898</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F257" t="s">
+        <v>35</v>
+      </c>
+      <c r="G257" t="s">
+        <v>39</v>
+      </c>
+      <c r="K257">
+        <v>2.2</v>
+      </c>
+      <c r="L257">
+        <v>3.6</v>
+      </c>
+      <c r="M257">
+        <v>2.6</v>
+      </c>
+      <c r="N257">
+        <v>2.2</v>
+      </c>
+      <c r="O257">
+        <v>3.6</v>
+      </c>
+      <c r="P257">
+        <v>2.625</v>
+      </c>
+      <c r="Q257">
+        <v>-0.25</v>
+      </c>
+      <c r="R257">
+        <v>2</v>
+      </c>
+      <c r="S257">
+        <v>1.8</v>
+      </c>
+      <c r="T257">
+        <v>2.5</v>
+      </c>
+      <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
+        <v>1.85</v>
+      </c>
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AA257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>6867897</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F258" t="s">
+        <v>49</v>
+      </c>
+      <c r="G258" t="s">
+        <v>33</v>
+      </c>
+      <c r="K258">
+        <v>2.5</v>
+      </c>
+      <c r="L258">
+        <v>3.25</v>
+      </c>
+      <c r="M258">
+        <v>2.45</v>
+      </c>
+      <c r="N258">
+        <v>2.5</v>
+      </c>
+      <c r="O258">
+        <v>3.25</v>
+      </c>
+      <c r="P258">
+        <v>2.45</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>1.925</v>
+      </c>
+      <c r="S258">
+        <v>1.875</v>
+      </c>
+      <c r="T258">
+        <v>2.5</v>
+      </c>
+      <c r="U258">
+        <v>2</v>
+      </c>
+      <c r="V258">
+        <v>1.8</v>
+      </c>
+      <c r="W258">
+        <v>0</v>
+      </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
+      <c r="Y258">
+        <v>0</v>
+      </c>
+      <c r="Z258">
+        <v>0</v>
+      </c>
+      <c r="AA258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>6867696</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F259" t="s">
+        <v>48</v>
+      </c>
+      <c r="G259" t="s">
+        <v>44</v>
+      </c>
+      <c r="K259">
+        <v>1.6</v>
+      </c>
+      <c r="L259">
+        <v>3.75</v>
+      </c>
+      <c r="M259">
+        <v>4.5</v>
+      </c>
+      <c r="N259">
+        <v>1.5</v>
+      </c>
+      <c r="O259">
+        <v>3.75</v>
+      </c>
+      <c r="P259">
+        <v>5.25</v>
+      </c>
+      <c r="Q259">
+        <v>-1</v>
+      </c>
+      <c r="R259">
+        <v>1.85</v>
+      </c>
+      <c r="S259">
+        <v>1.95</v>
+      </c>
+      <c r="T259">
+        <v>2.75</v>
+      </c>
+      <c r="U259">
+        <v>1.925</v>
+      </c>
+      <c r="V259">
+        <v>1.875</v>
+      </c>
+      <c r="W259">
+        <v>0</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>0</v>
+      </c>
+      <c r="Z259">
+        <v>0</v>
+      </c>
+      <c r="AA259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>6867572</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F260" t="s">
+        <v>42</v>
+      </c>
+      <c r="G260" t="s">
+        <v>43</v>
+      </c>
+      <c r="K260">
+        <v>2.1</v>
+      </c>
+      <c r="L260">
+        <v>3.3</v>
+      </c>
+      <c r="M260">
+        <v>3</v>
+      </c>
+      <c r="N260">
+        <v>2.1</v>
+      </c>
+      <c r="O260">
+        <v>3.3</v>
+      </c>
+      <c r="P260">
+        <v>3</v>
+      </c>
+      <c r="Q260">
+        <v>-0.25</v>
+      </c>
+      <c r="R260">
+        <v>1.9</v>
+      </c>
+      <c r="S260">
+        <v>1.9</v>
+      </c>
+      <c r="T260">
+        <v>2.25</v>
+      </c>
+      <c r="U260">
+        <v>1.975</v>
+      </c>
+      <c r="V260">
+        <v>1.825</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AA260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>6867520</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F261" t="s">
+        <v>45</v>
+      </c>
+      <c r="G261" t="s">
+        <v>38</v>
+      </c>
+      <c r="K261">
+        <v>2.25</v>
+      </c>
+      <c r="L261">
+        <v>3.25</v>
+      </c>
+      <c r="M261">
+        <v>2.75</v>
+      </c>
+      <c r="N261">
+        <v>2.25</v>
+      </c>
+      <c r="O261">
+        <v>3.25</v>
+      </c>
+      <c r="P261">
+        <v>2.75</v>
+      </c>
+      <c r="Q261">
+        <v>-0.25</v>
+      </c>
+      <c r="R261">
+        <v>2.025</v>
+      </c>
+      <c r="S261">
+        <v>1.775</v>
+      </c>
+      <c r="T261">
+        <v>2.25</v>
+      </c>
+      <c r="U261">
+        <v>2</v>
+      </c>
+      <c r="V261">
+        <v>1.8</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <v>0</v>
+      </c>
+      <c r="AA261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>8100650</v>
+      </c>
+      <c r="C262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45404.625</v>
+      </c>
+      <c r="F262" t="s">
+        <v>47</v>
+      </c>
+      <c r="G262" t="s">
+        <v>40</v>
+      </c>
+      <c r="K262">
+        <v>2.05</v>
+      </c>
+      <c r="L262">
+        <v>3.25</v>
+      </c>
+      <c r="M262">
+        <v>3.1</v>
+      </c>
+      <c r="N262">
+        <v>2.05</v>
+      </c>
+      <c r="O262">
+        <v>3.25</v>
+      </c>
+      <c r="P262">
+        <v>3.1</v>
+      </c>
+      <c r="Q262">
+        <v>-0.25</v>
+      </c>
+      <c r="R262">
+        <v>1.825</v>
+      </c>
+      <c r="S262">
+        <v>1.975</v>
+      </c>
+      <c r="T262">
+        <v>2.5</v>
+      </c>
+      <c r="U262">
+        <v>1.9</v>
+      </c>
+      <c r="V262">
+        <v>1.9</v>
+      </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>0</v>
+      </c>
+      <c r="AA262">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -151,10 +151,10 @@
     <t>Tiszakecske FC</t>
   </si>
   <si>
-    <t>Gyori ETO</t>
+    <t>BFC Siofok</t>
   </si>
   <si>
-    <t>BFC Siofok</t>
+    <t>Gyori ETO</t>
   </si>
   <si>
     <t>Szombathelyi Haladas</t>
@@ -898,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2090,7 +2090,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6867523</v>
+        <v>6867666</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2099,49 +2099,49 @@
         <v>45144.58333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J19">
+        <v>2.5</v>
+      </c>
+      <c r="K19">
         <v>2.8</v>
       </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
       <c r="L19">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="M19">
         <v>2.75</v>
       </c>
       <c r="N19">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O19">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T19">
         <v>1.95</v>
@@ -2150,25 +2150,25 @@
         <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2176,7 +2176,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6867666</v>
+        <v>6867523</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2185,49 +2185,49 @@
         <v>45144.58333333334</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="K20">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="M20">
         <v>2.75</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O20">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T20">
         <v>1.95</v>
@@ -2236,25 +2236,25 @@
         <v>1.85</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2262,7 +2262,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6867231</v>
+        <v>6867181</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2274,73 +2274,73 @@
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K21">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O21">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2348,7 +2348,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6867181</v>
+        <v>6867231</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2360,73 +2360,73 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N22">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O22">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T22">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2434,7 +2434,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6867525</v>
+        <v>6871130</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2443,76 +2443,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J23">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L23">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O23">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X23">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2520,7 +2520,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6871130</v>
+        <v>6867525</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2529,76 +2529,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L24">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M24">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N24">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O24">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T24">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
         <v>-1</v>
       </c>
       <c r="W24">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2864,7 +2864,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867667</v>
+        <v>6867578</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2873,76 +2873,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>52</v>
       </c>
       <c r="J28">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="K28">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L28">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M28">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N28">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O28">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
         <v>2.25</v>
       </c>
       <c r="T28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
         <v>-1</v>
       </c>
       <c r="W28">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2950,7 +2950,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6867578</v>
+        <v>6867667</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2959,76 +2959,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>52</v>
       </c>
       <c r="J29">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="K29">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L29">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M29">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N29">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S29">
         <v>2.25</v>
       </c>
       <c r="T29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
         <v>-1</v>
       </c>
       <c r="W29">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3048,7 +3048,7 @@
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3647,7 +3647,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
         <v>36</v>
@@ -3908,7 +3908,7 @@
         <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4080,7 +4080,7 @@
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4421,7 +4421,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
         <v>40</v>
@@ -5014,7 +5014,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867185</v>
+        <v>6867583</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -5023,76 +5023,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K53">
+        <v>3.3</v>
+      </c>
+      <c r="L53">
+        <v>2.75</v>
+      </c>
+      <c r="M53">
+        <v>2.25</v>
+      </c>
+      <c r="N53">
         <v>3.4</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>3.1</v>
-      </c>
-      <c r="M53">
-        <v>2.2</v>
-      </c>
-      <c r="N53">
-        <v>3.3</v>
-      </c>
-      <c r="O53">
-        <v>3.4</v>
       </c>
       <c r="P53">
         <v>-0.25</v>
       </c>
       <c r="Q53">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W53">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z53">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5100,7 +5100,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867583</v>
+        <v>6867185</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5109,76 +5109,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K54">
+        <v>3.4</v>
+      </c>
+      <c r="L54">
+        <v>3.1</v>
+      </c>
+      <c r="M54">
+        <v>2.2</v>
+      </c>
+      <c r="N54">
         <v>3.3</v>
       </c>
-      <c r="L54">
-        <v>2.75</v>
-      </c>
-      <c r="M54">
-        <v>2.25</v>
-      </c>
-      <c r="N54">
+      <c r="O54">
         <v>3.4</v>
-      </c>
-      <c r="O54">
-        <v>3.1</v>
       </c>
       <c r="P54">
         <v>-0.25</v>
       </c>
       <c r="Q54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T54">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5186,7 +5186,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6867671</v>
+        <v>6867670</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5195,76 +5195,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J55">
+        <v>1.615</v>
+      </c>
+      <c r="K55">
+        <v>3.75</v>
+      </c>
+      <c r="L55">
+        <v>4.333</v>
+      </c>
+      <c r="M55">
+        <v>1.65</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <v>-0.75</v>
+      </c>
+      <c r="Q55">
+        <v>1.825</v>
+      </c>
+      <c r="R55">
+        <v>1.975</v>
+      </c>
+      <c r="S55">
+        <v>2.5</v>
+      </c>
+      <c r="T55">
         <v>1.85</v>
       </c>
-      <c r="K55">
-        <v>3.5</v>
-      </c>
-      <c r="L55">
-        <v>3.5</v>
-      </c>
-      <c r="M55">
-        <v>1.75</v>
-      </c>
-      <c r="N55">
-        <v>3.6</v>
-      </c>
-      <c r="O55">
-        <v>4.75</v>
-      </c>
-      <c r="P55">
-        <v>-0.5</v>
-      </c>
-      <c r="Q55">
-        <v>1.75</v>
-      </c>
-      <c r="R55">
+      <c r="U55">
         <v>1.95</v>
       </c>
-      <c r="S55">
-        <v>2.25</v>
-      </c>
-      <c r="T55">
-        <v>1.8</v>
-      </c>
-      <c r="U55">
-        <v>2</v>
-      </c>
       <c r="V55">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5272,7 +5272,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867670</v>
+        <v>6867671</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5281,76 +5281,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J56">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="K56">
+        <v>3.5</v>
+      </c>
+      <c r="L56">
+        <v>3.5</v>
+      </c>
+      <c r="M56">
+        <v>1.75</v>
+      </c>
+      <c r="N56">
+        <v>3.6</v>
+      </c>
+      <c r="O56">
+        <v>4.75</v>
+      </c>
+      <c r="P56">
+        <v>-0.5</v>
+      </c>
+      <c r="Q56">
+        <v>1.75</v>
+      </c>
+      <c r="R56">
+        <v>1.95</v>
+      </c>
+      <c r="S56">
+        <v>2.25</v>
+      </c>
+      <c r="T56">
+        <v>1.8</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>-1</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
         <v>3.75</v>
       </c>
-      <c r="L56">
-        <v>4.333</v>
-      </c>
-      <c r="M56">
-        <v>1.65</v>
-      </c>
-      <c r="N56">
-        <v>4</v>
-      </c>
-      <c r="O56">
-        <v>5</v>
-      </c>
-      <c r="P56">
-        <v>-0.75</v>
-      </c>
-      <c r="Q56">
-        <v>1.825</v>
-      </c>
-      <c r="R56">
-        <v>1.975</v>
-      </c>
-      <c r="S56">
-        <v>2.5</v>
-      </c>
-      <c r="T56">
-        <v>1.85</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
-      <c r="V56">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
       <c r="Y56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA56">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5367,7 +5367,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s">
         <v>44</v>
@@ -5530,7 +5530,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6867586</v>
+        <v>6867186</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5539,49 +5539,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>52</v>
       </c>
       <c r="J59">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="K59">
         <v>3.25</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N59">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O59">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="P59">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T59">
         <v>1.9</v>
@@ -5593,22 +5593,22 @@
         <v>-1</v>
       </c>
       <c r="W59">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z59">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA59">
+        <v>-1</v>
+      </c>
+      <c r="AB59">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5616,7 +5616,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6867186</v>
+        <v>6867586</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5625,49 +5625,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="s">
         <v>52</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="K60">
         <v>3.25</v>
       </c>
       <c r="L60">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N60">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O60">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T60">
         <v>1.9</v>
@@ -5679,22 +5679,22 @@
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5800,7 +5800,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6055,7 +6055,7 @@
         <v>45172.5</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
         <v>47</v>
@@ -6746,7 +6746,7 @@
         <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>45193.61458333334</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
         <v>47</v>
@@ -7345,10 +7345,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" t="s">
         <v>46</v>
-      </c>
-      <c r="F80" t="s">
-        <v>45</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7508,7 +7508,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867590</v>
+        <v>6867534</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -7517,76 +7517,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J82">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K82">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L82">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M82">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q82">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T82">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V82">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W82">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z82">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB82">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7594,7 +7594,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867534</v>
+        <v>6867188</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7603,58 +7603,58 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
         <v>51</v>
       </c>
       <c r="J83">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="K83">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L83">
         <v>2.75</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N83">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R83">
+        <v>1.85</v>
+      </c>
+      <c r="S83">
+        <v>2.25</v>
+      </c>
+      <c r="T83">
+        <v>2</v>
+      </c>
+      <c r="U83">
         <v>1.8</v>
       </c>
-      <c r="S83">
-        <v>2.5</v>
-      </c>
-      <c r="T83">
-        <v>1.875</v>
-      </c>
-      <c r="U83">
-        <v>1.925</v>
-      </c>
       <c r="V83">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7663,13 +7663,13 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -7680,7 +7680,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6867188</v>
+        <v>6867590</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7689,76 +7689,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>52</v>
+      </c>
+      <c r="J84">
+        <v>2.1</v>
+      </c>
+      <c r="K84">
+        <v>3.2</v>
+      </c>
+      <c r="L84">
+        <v>3.1</v>
+      </c>
+      <c r="M84">
+        <v>2.4</v>
+      </c>
+      <c r="N84">
+        <v>3.25</v>
+      </c>
+      <c r="O84">
         <v>3</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>51</v>
-      </c>
-      <c r="J84">
-        <v>2.4</v>
-      </c>
-      <c r="K84">
-        <v>3</v>
-      </c>
-      <c r="L84">
-        <v>2.75</v>
-      </c>
-      <c r="M84">
-        <v>2.3</v>
-      </c>
-      <c r="N84">
-        <v>3.1</v>
-      </c>
-      <c r="O84">
-        <v>3.4</v>
       </c>
       <c r="P84">
         <v>-0.25</v>
       </c>
       <c r="Q84">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
         <v>2.25</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -8036,7 +8036,7 @@
         <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8122,7 +8122,7 @@
         <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8721,7 +8721,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
         <v>43</v>
@@ -9323,7 +9323,7 @@
         <v>45207.5</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -9756,7 +9756,7 @@
         <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9842,7 +9842,7 @@
         <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10183,7 +10183,7 @@
         <v>45227.5</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F113" t="s">
         <v>41</v>
@@ -10269,7 +10269,7 @@
         <v>45228.375</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -11304,7 +11304,7 @@
         <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11476,7 +11476,7 @@
         <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11817,7 +11817,7 @@
         <v>45242.375</v>
       </c>
       <c r="E132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F132" t="s">
         <v>39</v>
@@ -12333,7 +12333,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F138" t="s">
         <v>35</v>
@@ -13110,7 +13110,7 @@
         <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G147">
         <v>7</v>
@@ -13196,7 +13196,7 @@
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G148">
         <v>6</v>
@@ -13279,7 +13279,7 @@
         <v>45263.375</v>
       </c>
       <c r="E149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F149" t="s">
         <v>41</v>
@@ -13623,7 +13623,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F153" t="s">
         <v>37</v>
@@ -14053,7 +14053,7 @@
         <v>45270.375</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F158" t="s">
         <v>30</v>
@@ -14486,7 +14486,7 @@
         <v>34</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14572,7 +14572,7 @@
         <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15601,7 +15601,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F176" t="s">
         <v>48</v>
@@ -15776,7 +15776,7 @@
         <v>44</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -16031,7 +16031,7 @@
         <v>45336.52083333334</v>
       </c>
       <c r="E181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
         <v>31</v>
@@ -16461,7 +16461,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F186" t="s">
         <v>35</v>
@@ -16722,7 +16722,7 @@
         <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -17496,7 +17496,7 @@
         <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17837,7 +17837,7 @@
         <v>45348.66666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F202" t="s">
         <v>30</v>
@@ -17923,7 +17923,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F203" t="s">
         <v>38</v>
@@ -18356,7 +18356,7 @@
         <v>44</v>
       </c>
       <c r="F208" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -19302,7 +19302,7 @@
         <v>47</v>
       </c>
       <c r="F219" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G219">
         <v>3</v>
@@ -19385,7 +19385,7 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F220" t="s">
         <v>40</v>
@@ -19815,7 +19815,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F225" t="s">
         <v>37</v>
@@ -20162,7 +20162,7 @@
         <v>47</v>
       </c>
       <c r="F229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20933,10 +20933,10 @@
         <v>45383.625</v>
       </c>
       <c r="E238" t="s">
+        <v>46</v>
+      </c>
+      <c r="F238" t="s">
         <v>45</v>
-      </c>
-      <c r="F238" t="s">
-        <v>46</v>
       </c>
       <c r="G238">
         <v>4</v>
@@ -21019,7 +21019,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F239" t="s">
         <v>31</v>
@@ -21363,7 +21363,7 @@
         <v>45389.5</v>
       </c>
       <c r="E243" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F243" t="s">
         <v>43</v>
@@ -21624,7 +21624,7 @@
         <v>42</v>
       </c>
       <c r="F246" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -21710,7 +21710,7 @@
         <v>43</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -22825,7 +22825,7 @@
         <v>45403.5</v>
       </c>
       <c r="E260" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F260" t="s">
         <v>32</v>
@@ -23083,7 +23083,7 @@
         <v>45404.625</v>
       </c>
       <c r="E263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F263" t="s">
         <v>39</v>
@@ -23258,7 +23258,7 @@
         <v>41</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23344,7 +23344,7 @@
         <v>42</v>
       </c>
       <c r="F266" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G266">
         <v>1</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -151,10 +151,10 @@
     <t>Tiszakecske FC</t>
   </si>
   <si>
-    <t>BFC Siofok</t>
+    <t>Gyori ETO</t>
   </si>
   <si>
-    <t>Gyori ETO</t>
+    <t>BFC Siofok</t>
   </si>
   <si>
     <t>Szombathelyi Haladas</t>
@@ -898,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2090,7 +2090,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6867666</v>
+        <v>6867523</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2099,49 +2099,49 @@
         <v>45144.58333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="K19">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="M19">
         <v>2.75</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O19">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T19">
         <v>1.95</v>
@@ -2150,25 +2150,25 @@
         <v>1.85</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2176,7 +2176,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6867523</v>
+        <v>6867666</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2185,49 +2185,49 @@
         <v>45144.58333333334</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20">
+        <v>2.5</v>
+      </c>
+      <c r="K20">
         <v>2.8</v>
       </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
       <c r="L20">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="M20">
         <v>2.75</v>
       </c>
       <c r="N20">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O20">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T20">
         <v>1.95</v>
@@ -2236,25 +2236,25 @@
         <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2262,7 +2262,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6867181</v>
+        <v>6867231</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2274,73 +2274,73 @@
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J21">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N21">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O21">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T21">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2348,7 +2348,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6867231</v>
+        <v>6867181</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2360,73 +2360,73 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K22">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O22">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2434,7 +2434,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6871130</v>
+        <v>6867525</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2443,76 +2443,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M23">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N23">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O23">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2520,7 +2520,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6867525</v>
+        <v>6871130</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2529,76 +2529,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J24">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L24">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="M24">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N24">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O24">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V24">
         <v>-1</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X24">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2864,7 +2864,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867578</v>
+        <v>6867667</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2873,76 +2873,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>52</v>
       </c>
       <c r="J28">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="K28">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L28">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M28">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N28">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S28">
         <v>2.25</v>
       </c>
       <c r="T28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
         <v>-1</v>
       </c>
       <c r="W28">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2950,7 +2950,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6867667</v>
+        <v>6867578</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2959,76 +2959,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>52</v>
       </c>
       <c r="J29">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="K29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L29">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M29">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N29">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O29">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
         <v>2.25</v>
       </c>
       <c r="T29">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
         <v>-1</v>
       </c>
       <c r="W29">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3048,7 +3048,7 @@
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3647,7 +3647,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
         <v>36</v>
@@ -3908,7 +3908,7 @@
         <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4080,7 +4080,7 @@
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4421,7 +4421,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
         <v>40</v>
@@ -5014,7 +5014,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867583</v>
+        <v>6867185</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -5023,76 +5023,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K53">
+        <v>3.4</v>
+      </c>
+      <c r="L53">
+        <v>3.1</v>
+      </c>
+      <c r="M53">
+        <v>2.2</v>
+      </c>
+      <c r="N53">
         <v>3.3</v>
       </c>
-      <c r="L53">
-        <v>2.75</v>
-      </c>
-      <c r="M53">
-        <v>2.25</v>
-      </c>
-      <c r="N53">
+      <c r="O53">
         <v>3.4</v>
-      </c>
-      <c r="O53">
-        <v>3.1</v>
       </c>
       <c r="P53">
         <v>-0.25</v>
       </c>
       <c r="Q53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T53">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V53">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5100,7 +5100,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867185</v>
+        <v>6867583</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5109,76 +5109,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K54">
+        <v>3.3</v>
+      </c>
+      <c r="L54">
+        <v>2.75</v>
+      </c>
+      <c r="M54">
+        <v>2.25</v>
+      </c>
+      <c r="N54">
         <v>3.4</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>3.1</v>
-      </c>
-      <c r="M54">
-        <v>2.2</v>
-      </c>
-      <c r="N54">
-        <v>3.3</v>
-      </c>
-      <c r="O54">
-        <v>3.4</v>
       </c>
       <c r="P54">
         <v>-0.25</v>
       </c>
       <c r="Q54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R54">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W54">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z54">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5186,7 +5186,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6867670</v>
+        <v>6867671</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5195,76 +5195,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J55">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="K55">
+        <v>3.5</v>
+      </c>
+      <c r="L55">
+        <v>3.5</v>
+      </c>
+      <c r="M55">
+        <v>1.75</v>
+      </c>
+      <c r="N55">
+        <v>3.6</v>
+      </c>
+      <c r="O55">
+        <v>4.75</v>
+      </c>
+      <c r="P55">
+        <v>-0.5</v>
+      </c>
+      <c r="Q55">
+        <v>1.75</v>
+      </c>
+      <c r="R55">
+        <v>1.95</v>
+      </c>
+      <c r="S55">
+        <v>2.25</v>
+      </c>
+      <c r="T55">
+        <v>1.8</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
+        <v>-1</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>3.75</v>
       </c>
-      <c r="L55">
-        <v>4.333</v>
-      </c>
-      <c r="M55">
-        <v>1.65</v>
-      </c>
-      <c r="N55">
-        <v>4</v>
-      </c>
-      <c r="O55">
-        <v>5</v>
-      </c>
-      <c r="P55">
-        <v>-0.75</v>
-      </c>
-      <c r="Q55">
-        <v>1.825</v>
-      </c>
-      <c r="R55">
-        <v>1.975</v>
-      </c>
-      <c r="S55">
-        <v>2.5</v>
-      </c>
-      <c r="T55">
-        <v>1.85</v>
-      </c>
-      <c r="U55">
-        <v>1.95</v>
-      </c>
-      <c r="V55">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5272,7 +5272,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867671</v>
+        <v>6867670</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5281,76 +5281,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J56">
+        <v>1.615</v>
+      </c>
+      <c r="K56">
+        <v>3.75</v>
+      </c>
+      <c r="L56">
+        <v>4.333</v>
+      </c>
+      <c r="M56">
+        <v>1.65</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="P56">
+        <v>-0.75</v>
+      </c>
+      <c r="Q56">
+        <v>1.825</v>
+      </c>
+      <c r="R56">
+        <v>1.975</v>
+      </c>
+      <c r="S56">
+        <v>2.5</v>
+      </c>
+      <c r="T56">
         <v>1.85</v>
       </c>
-      <c r="K56">
-        <v>3.5</v>
-      </c>
-      <c r="L56">
-        <v>3.5</v>
-      </c>
-      <c r="M56">
-        <v>1.75</v>
-      </c>
-      <c r="N56">
-        <v>3.6</v>
-      </c>
-      <c r="O56">
-        <v>4.75</v>
-      </c>
-      <c r="P56">
-        <v>-0.5</v>
-      </c>
-      <c r="Q56">
-        <v>1.75</v>
-      </c>
-      <c r="R56">
+      <c r="U56">
         <v>1.95</v>
       </c>
-      <c r="S56">
-        <v>2.25</v>
-      </c>
-      <c r="T56">
-        <v>1.8</v>
-      </c>
-      <c r="U56">
-        <v>2</v>
-      </c>
       <c r="V56">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5367,7 +5367,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
         <v>44</v>
@@ -5530,7 +5530,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6867186</v>
+        <v>6867586</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5539,49 +5539,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
         <v>52</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="K59">
         <v>3.25</v>
       </c>
       <c r="L59">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N59">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O59">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q59">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T59">
         <v>1.9</v>
@@ -5593,22 +5593,22 @@
         <v>-1</v>
       </c>
       <c r="W59">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5616,7 +5616,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6867586</v>
+        <v>6867186</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5625,49 +5625,49 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
         <v>52</v>
       </c>
       <c r="J60">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="K60">
         <v>3.25</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M60">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N60">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O60">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="P60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T60">
         <v>1.9</v>
@@ -5679,22 +5679,22 @@
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA60">
+        <v>-1</v>
+      </c>
+      <c r="AB60">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5800,7 +5800,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6055,7 +6055,7 @@
         <v>45172.5</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
         <v>47</v>
@@ -6746,7 +6746,7 @@
         <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>45193.61458333334</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
         <v>47</v>
@@ -7345,10 +7345,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" t="s">
         <v>45</v>
-      </c>
-      <c r="F80" t="s">
-        <v>46</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7508,7 +7508,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867534</v>
+        <v>6867590</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -7517,76 +7517,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J82">
+        <v>2.1</v>
+      </c>
+      <c r="K82">
+        <v>3.2</v>
+      </c>
+      <c r="L82">
+        <v>3.1</v>
+      </c>
+      <c r="M82">
+        <v>2.4</v>
+      </c>
+      <c r="N82">
+        <v>3.25</v>
+      </c>
+      <c r="O82">
+        <v>3</v>
+      </c>
+      <c r="P82">
+        <v>-0.25</v>
+      </c>
+      <c r="Q82">
+        <v>2.05</v>
+      </c>
+      <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
         <v>2.25</v>
       </c>
-      <c r="K82">
-        <v>3.3</v>
-      </c>
-      <c r="L82">
-        <v>2.75</v>
-      </c>
-      <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="N82">
-        <v>3.5</v>
-      </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
-      <c r="P82">
+      <c r="T82">
+        <v>1.8</v>
+      </c>
+      <c r="U82">
+        <v>2</v>
+      </c>
+      <c r="V82">
+        <v>-1</v>
+      </c>
+      <c r="W82">
+        <v>2.25</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
         <v>-0.5</v>
       </c>
-      <c r="Q82">
-        <v>2</v>
-      </c>
-      <c r="R82">
-        <v>1.8</v>
-      </c>
-      <c r="S82">
-        <v>2.5</v>
-      </c>
-      <c r="T82">
-        <v>1.875</v>
-      </c>
-      <c r="U82">
-        <v>1.925</v>
-      </c>
-      <c r="V82">
-        <v>1</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>1</v>
-      </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7594,7 +7594,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867188</v>
+        <v>6867534</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7603,58 +7603,58 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
         <v>51</v>
       </c>
       <c r="J83">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L83">
         <v>2.75</v>
       </c>
       <c r="M83">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N83">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q83">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T83">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7663,13 +7663,13 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -7680,7 +7680,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6867590</v>
+        <v>6867188</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7689,76 +7689,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J84">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K84">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L84">
+        <v>2.75</v>
+      </c>
+      <c r="M84">
+        <v>2.3</v>
+      </c>
+      <c r="N84">
         <v>3.1</v>
       </c>
-      <c r="M84">
-        <v>2.4</v>
-      </c>
-      <c r="N84">
-        <v>3.25</v>
-      </c>
       <c r="O84">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
         <v>-0.25</v>
       </c>
       <c r="Q84">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R84">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
         <v>2.25</v>
       </c>
       <c r="T84">
+        <v>2</v>
+      </c>
+      <c r="U84">
         <v>1.8</v>
       </c>
-      <c r="U84">
-        <v>2</v>
-      </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W84">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z84">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -8036,7 +8036,7 @@
         <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8122,7 +8122,7 @@
         <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8721,7 +8721,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F96" t="s">
         <v>43</v>
@@ -9323,7 +9323,7 @@
         <v>45207.5</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -9756,7 +9756,7 @@
         <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9842,7 +9842,7 @@
         <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10183,7 +10183,7 @@
         <v>45227.5</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
         <v>41</v>
@@ -10269,7 +10269,7 @@
         <v>45228.375</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -11304,7 +11304,7 @@
         <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11476,7 +11476,7 @@
         <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11817,7 +11817,7 @@
         <v>45242.375</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
         <v>39</v>
@@ -12333,7 +12333,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
         <v>35</v>
@@ -13110,7 +13110,7 @@
         <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G147">
         <v>7</v>
@@ -13196,7 +13196,7 @@
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G148">
         <v>6</v>
@@ -13279,7 +13279,7 @@
         <v>45263.375</v>
       </c>
       <c r="E149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F149" t="s">
         <v>41</v>
@@ -13623,7 +13623,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F153" t="s">
         <v>37</v>
@@ -14053,7 +14053,7 @@
         <v>45270.375</v>
       </c>
       <c r="E158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F158" t="s">
         <v>30</v>
@@ -14486,7 +14486,7 @@
         <v>34</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14572,7 +14572,7 @@
         <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15601,7 +15601,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F176" t="s">
         <v>48</v>
@@ -15776,7 +15776,7 @@
         <v>44</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -16031,7 +16031,7 @@
         <v>45336.52083333334</v>
       </c>
       <c r="E181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F181" t="s">
         <v>31</v>
@@ -16461,7 +16461,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F186" t="s">
         <v>35</v>
@@ -16722,7 +16722,7 @@
         <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -17496,7 +17496,7 @@
         <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17837,7 +17837,7 @@
         <v>45348.66666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F202" t="s">
         <v>30</v>
@@ -17923,7 +17923,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F203" t="s">
         <v>38</v>
@@ -18356,7 +18356,7 @@
         <v>44</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -19302,7 +19302,7 @@
         <v>47</v>
       </c>
       <c r="F219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G219">
         <v>3</v>
@@ -19385,7 +19385,7 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F220" t="s">
         <v>40</v>
@@ -19815,7 +19815,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F225" t="s">
         <v>37</v>
@@ -20162,7 +20162,7 @@
         <v>47</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20494,7 +20494,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7978504</v>
+        <v>7978503</v>
       </c>
       <c r="C233" t="s">
         <v>27</v>
@@ -20503,76 +20503,76 @@
         <v>45382.5</v>
       </c>
       <c r="E233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F233" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="s">
         <v>52</v>
       </c>
       <c r="J233">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="K233">
         <v>3.2</v>
       </c>
       <c r="L233">
+        <v>2.5</v>
+      </c>
+      <c r="M233">
         <v>2.625</v>
       </c>
-      <c r="M233">
-        <v>2.3</v>
-      </c>
       <c r="N233">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O233">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="P233">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q233">
         <v>1.975</v>
       </c>
       <c r="R233">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S233">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T233">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U233">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V233">
         <v>-1</v>
       </c>
       <c r="W233">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z233">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB233">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -20580,7 +20580,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7978503</v>
+        <v>7978506</v>
       </c>
       <c r="C234" t="s">
         <v>27</v>
@@ -20589,76 +20589,76 @@
         <v>45382.5</v>
       </c>
       <c r="E234" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K234">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L234">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M234">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="N234">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O234">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="P234">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q234">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R234">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T234">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W234">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -20752,7 +20752,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7978506</v>
+        <v>7978507</v>
       </c>
       <c r="C236" t="s">
         <v>27</v>
@@ -20761,49 +20761,49 @@
         <v>45382.5</v>
       </c>
       <c r="E236" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J236">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="K236">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L236">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M236">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="N236">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O236">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P236">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q236">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R236">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S236">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T236">
         <v>1.9</v>
@@ -20812,19 +20812,19 @@
         <v>1.9</v>
       </c>
       <c r="V236">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA236">
         <v>-1</v>
@@ -20838,7 +20838,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7978507</v>
+        <v>7978504</v>
       </c>
       <c r="C237" t="s">
         <v>27</v>
@@ -20847,76 +20847,76 @@
         <v>45382.5</v>
       </c>
       <c r="E237" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J237">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K237">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L237">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="M237">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="N237">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O237">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="P237">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q237">
+        <v>1.975</v>
+      </c>
+      <c r="R237">
+        <v>1.725</v>
+      </c>
+      <c r="S237">
+        <v>2.25</v>
+      </c>
+      <c r="T237">
         <v>1.925</v>
       </c>
-      <c r="R237">
+      <c r="U237">
         <v>1.875</v>
       </c>
-      <c r="S237">
-        <v>2.5</v>
-      </c>
-      <c r="T237">
-        <v>1.9</v>
-      </c>
-      <c r="U237">
-        <v>1.9</v>
-      </c>
       <c r="V237">
         <v>-1</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X237">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z237">
-        <v>0.875</v>
+        <v>0.3625</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB237">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20933,10 +20933,10 @@
         <v>45383.625</v>
       </c>
       <c r="E238" t="s">
+        <v>45</v>
+      </c>
+      <c r="F238" t="s">
         <v>46</v>
-      </c>
-      <c r="F238" t="s">
-        <v>45</v>
       </c>
       <c r="G238">
         <v>4</v>
@@ -21019,7 +21019,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F239" t="s">
         <v>31</v>
@@ -21363,7 +21363,7 @@
         <v>45389.5</v>
       </c>
       <c r="E243" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F243" t="s">
         <v>43</v>
@@ -21624,7 +21624,7 @@
         <v>42</v>
       </c>
       <c r="F246" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -21698,7 +21698,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6867571</v>
+        <v>6867570</v>
       </c>
       <c r="C247" t="s">
         <v>27</v>
@@ -21707,76 +21707,76 @@
         <v>45396.5</v>
       </c>
       <c r="E247" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F247" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G247">
         <v>2</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="s">
         <v>51</v>
       </c>
       <c r="J247">
+        <v>1.666</v>
+      </c>
+      <c r="K247">
+        <v>3.6</v>
+      </c>
+      <c r="L247">
+        <v>4.75</v>
+      </c>
+      <c r="M247">
+        <v>1.666</v>
+      </c>
+      <c r="N247">
+        <v>3.6</v>
+      </c>
+      <c r="O247">
+        <v>4.75</v>
+      </c>
+      <c r="P247">
+        <v>-0.75</v>
+      </c>
+      <c r="Q247">
+        <v>1.875</v>
+      </c>
+      <c r="R247">
+        <v>1.925</v>
+      </c>
+      <c r="S247">
         <v>2.25</v>
       </c>
-      <c r="K247">
-        <v>3.3</v>
-      </c>
-      <c r="L247">
-        <v>2.875</v>
-      </c>
-      <c r="M247">
-        <v>1.85</v>
-      </c>
-      <c r="N247">
-        <v>3.4</v>
-      </c>
-      <c r="O247">
-        <v>3.5</v>
-      </c>
-      <c r="P247">
+      <c r="T247">
+        <v>1.875</v>
+      </c>
+      <c r="U247">
+        <v>1.925</v>
+      </c>
+      <c r="V247">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
+        <v>-1</v>
+      </c>
+      <c r="Y247">
+        <v>0.4375</v>
+      </c>
+      <c r="Z247">
         <v>-0.5</v>
       </c>
-      <c r="Q247">
-        <v>1.95</v>
-      </c>
-      <c r="R247">
-        <v>1.85</v>
-      </c>
-      <c r="S247">
-        <v>2.5</v>
-      </c>
-      <c r="T247">
-        <v>1.95</v>
-      </c>
-      <c r="U247">
-        <v>1.85</v>
-      </c>
-      <c r="V247">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W247">
-        <v>-1</v>
-      </c>
-      <c r="X247">
-        <v>-1</v>
-      </c>
-      <c r="Y247">
-        <v>0.95</v>
-      </c>
-      <c r="Z247">
-        <v>-1</v>
-      </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB247">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:28">
@@ -21784,7 +21784,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6871105</v>
+        <v>6867896</v>
       </c>
       <c r="C248" t="s">
         <v>27</v>
@@ -21793,46 +21793,46 @@
         <v>45396.5</v>
       </c>
       <c r="E248" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G248">
         <v>0</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="s">
         <v>50</v>
       </c>
       <c r="J248">
+        <v>2</v>
+      </c>
+      <c r="K248">
+        <v>3.25</v>
+      </c>
+      <c r="L248">
+        <v>3.5</v>
+      </c>
+      <c r="M248">
+        <v>1.615</v>
+      </c>
+      <c r="N248">
         <v>3.6</v>
       </c>
-      <c r="K248">
-        <v>3.4</v>
-      </c>
-      <c r="L248">
-        <v>1.909</v>
-      </c>
-      <c r="M248">
-        <v>3.6</v>
-      </c>
-      <c r="N248">
-        <v>3.4</v>
-      </c>
       <c r="O248">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="P248">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q248">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R248">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S248">
         <v>2.25</v>
@@ -21850,19 +21850,19 @@
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>0.909</v>
+        <v>4</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21870,7 +21870,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6867896</v>
+        <v>6871105</v>
       </c>
       <c r="C249" t="s">
         <v>27</v>
@@ -21879,46 +21879,46 @@
         <v>45396.5</v>
       </c>
       <c r="E249" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F249" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G249">
         <v>0</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="s">
         <v>50</v>
       </c>
       <c r="J249">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="K249">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L249">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="M249">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="N249">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O249">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="P249">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q249">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S249">
         <v>2.25</v>
@@ -21936,19 +21936,19 @@
         <v>-1</v>
       </c>
       <c r="X249">
-        <v>4</v>
+        <v>0.909</v>
       </c>
       <c r="Y249">
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA249">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB249">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -21956,7 +21956,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6867694</v>
+        <v>6867571</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -21965,58 +21965,58 @@
         <v>45396.5</v>
       </c>
       <c r="E250" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F250" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G250">
         <v>2</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="s">
         <v>51</v>
       </c>
       <c r="J250">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="K250">
+        <v>3.3</v>
+      </c>
+      <c r="L250">
+        <v>2.875</v>
+      </c>
+      <c r="M250">
+        <v>1.85</v>
+      </c>
+      <c r="N250">
+        <v>3.4</v>
+      </c>
+      <c r="O250">
         <v>3.5</v>
       </c>
-      <c r="L250">
-        <v>4.333</v>
-      </c>
-      <c r="M250">
-        <v>2.05</v>
-      </c>
-      <c r="N250">
-        <v>3.25</v>
-      </c>
-      <c r="O250">
-        <v>3.3</v>
-      </c>
       <c r="P250">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q250">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R250">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S250">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T250">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U250">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V250">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W250">
         <v>-1</v>
@@ -22025,16 +22025,16 @@
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z250">
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22042,7 +22042,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6867570</v>
+        <v>6867519</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
@@ -22051,76 +22051,76 @@
         <v>45396.5</v>
       </c>
       <c r="E251" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F251" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H251">
         <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J251">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="K251">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L251">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="M251">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="N251">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O251">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="P251">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q251">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S251">
         <v>2.25</v>
       </c>
       <c r="T251">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U251">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V251">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y251">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="Z251">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AA251">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22128,7 +22128,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6867519</v>
+        <v>6867206</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
@@ -22137,40 +22137,40 @@
         <v>45396.5</v>
       </c>
       <c r="E252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J252">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K252">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L252">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="M252">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N252">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O252">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="P252">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q252">
         <v>1.825</v>
@@ -22179,7 +22179,7 @@
         <v>1.975</v>
       </c>
       <c r="S252">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T252">
         <v>2</v>
@@ -22188,19 +22188,19 @@
         <v>1.8</v>
       </c>
       <c r="V252">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W252">
         <v>-1</v>
       </c>
       <c r="X252">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z252">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
         <v>-1</v>
@@ -22214,7 +22214,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6867206</v>
+        <v>6867694</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
@@ -22223,58 +22223,58 @@
         <v>45396.5</v>
       </c>
       <c r="E253" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="s">
         <v>51</v>
       </c>
       <c r="J253">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K253">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L253">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M253">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N253">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O253">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P253">
         <v>-0.25</v>
       </c>
       <c r="Q253">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R253">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S253">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T253">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U253">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V253">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="W253">
         <v>-1</v>
@@ -22283,16 +22283,16 @@
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z253">
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:28">
@@ -22825,7 +22825,7 @@
         <v>45403.5</v>
       </c>
       <c r="E260" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F260" t="s">
         <v>32</v>
@@ -23083,7 +23083,7 @@
         <v>45404.625</v>
       </c>
       <c r="E263" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F263" t="s">
         <v>39</v>
@@ -23258,7 +23258,7 @@
         <v>41</v>
       </c>
       <c r="F265" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23344,7 +23344,7 @@
         <v>42</v>
       </c>
       <c r="F266" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G266">
         <v>1</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -148,16 +148,16 @@
     <t>Budapest Honved</t>
   </si>
   <si>
+    <t>MTE 1904</t>
+  </si>
+  <si>
     <t>Soroksar</t>
   </si>
   <si>
-    <t>MTE 1904</t>
+    <t>Gyori ETO</t>
   </si>
   <si>
     <t>BFC Siofok</t>
-  </si>
-  <si>
-    <t>Gyori ETO</t>
   </si>
   <si>
     <t>Tiszakecske FC</t>
@@ -1020,7 +1020,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1112,7 +1112,7 @@
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6867522</v>
+        <v>6867576</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2032,79 +2032,79 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17">
+        <v>2.25</v>
+      </c>
+      <c r="M17">
+        <v>3.2</v>
+      </c>
+      <c r="N17">
         <v>2.8</v>
       </c>
-      <c r="M17">
-        <v>2.8</v>
-      </c>
-      <c r="N17">
-        <v>2.5</v>
-      </c>
       <c r="O17">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S17">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U17">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X17">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA17">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AD17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2112,7 +2112,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6867576</v>
+        <v>6867522</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2124,79 +2124,79 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18">
+        <v>2.8</v>
+      </c>
+      <c r="M18">
+        <v>2.8</v>
+      </c>
+      <c r="N18">
+        <v>2.5</v>
+      </c>
+      <c r="O18">
+        <v>2.6</v>
+      </c>
+      <c r="P18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18">
-        <v>2.25</v>
-      </c>
-      <c r="M18">
-        <v>3.2</v>
-      </c>
-      <c r="N18">
-        <v>2.8</v>
-      </c>
-      <c r="O18">
-        <v>2.25</v>
-      </c>
-      <c r="P18">
-        <v>3.4</v>
-      </c>
       <c r="Q18">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="R18">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T18">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V18">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2296,7 +2296,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6867181</v>
+        <v>6867231</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2308,79 +2308,79 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="P20">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q20">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2388,7 +2388,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6867231</v>
+        <v>6867181</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2400,79 +2400,79 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N21">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O21">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U21">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X21">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD21">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2676,7 +2676,7 @@
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2940,7 +2940,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6867577</v>
+        <v>6867236</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -2949,79 +2949,79 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="M27">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="R27">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U27">
         <v>2.25</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X27">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD27">
         <v>-1</v>
@@ -3032,7 +3032,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867236</v>
+        <v>6867577</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3041,79 +3041,79 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L28">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="P28">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="R28">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U28">
         <v>2.25</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD28">
         <v>-1</v>
@@ -3216,7 +3216,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6867578</v>
+        <v>6867182</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3225,82 +3225,82 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
         <v>54</v>
       </c>
       <c r="L30">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O30">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q30">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="R30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U30">
         <v>2.25</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W30">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD30">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3308,7 +3308,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6867182</v>
+        <v>6867578</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3317,82 +3317,82 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
         <v>54</v>
       </c>
       <c r="L31">
+        <v>2.25</v>
+      </c>
+      <c r="M31">
+        <v>3.2</v>
+      </c>
+      <c r="N31">
         <v>2.8</v>
       </c>
-      <c r="M31">
-        <v>3.1</v>
-      </c>
-      <c r="N31">
-        <v>2.3</v>
-      </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="P31">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q31">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U31">
         <v>2.25</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD31">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3492,7 +3492,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6867736</v>
+        <v>6867580</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3501,82 +3501,82 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="M33">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N33">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O33">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q33">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="R33">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U33">
         <v>2.25</v>
       </c>
       <c r="V33">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X33">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC33">
         <v>-0.5</v>
       </c>
       <c r="AD33">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3584,7 +3584,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6867580</v>
+        <v>6867736</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3593,82 +3593,82 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L34">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="M34">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N34">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="P34">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q34">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="R34">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U34">
         <v>2.25</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
         <v>-0.5</v>
       </c>
       <c r="AD34">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3685,7 +3685,7 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
         <v>37</v>
@@ -4056,7 +4056,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4145,7 +4145,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
         <v>36</v>
@@ -4240,7 +4240,7 @@
         <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4332,7 +4332,7 @@
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4513,7 +4513,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
         <v>43</v>
@@ -4884,7 +4884,7 @@
         <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -5065,7 +5065,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
         <v>32</v>
@@ -5157,7 +5157,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
         <v>33</v>
@@ -5525,7 +5525,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
         <v>48</v>
@@ -5712,7 +5712,7 @@
         <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G57">
         <v>4</v>
@@ -5896,7 +5896,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -6172,7 +6172,7 @@
         <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6353,7 +6353,7 @@
         <v>45172.5</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
         <v>49</v>
@@ -6448,7 +6448,7 @@
         <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6813,7 +6813,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
         <v>43</v>
@@ -6905,7 +6905,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
         <v>36</v>
@@ -7276,7 +7276,7 @@
         <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -7457,7 +7457,7 @@
         <v>45193.61458333334</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
         <v>49</v>
@@ -7644,7 +7644,7 @@
         <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -8009,10 +8009,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" t="s">
         <v>46</v>
-      </c>
-      <c r="F82" t="s">
-        <v>47</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -8377,10 +8377,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
         <v>48</v>
@@ -8656,7 +8656,7 @@
         <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -9392,7 +9392,7 @@
         <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9573,10 +9573,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -9941,7 +9941,7 @@
         <v>45207.5</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -10033,7 +10033,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
         <v>49</v>
@@ -10128,7 +10128,7 @@
         <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -10404,7 +10404,7 @@
         <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -10588,7 +10588,7 @@
         <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -10861,10 +10861,10 @@
         <v>45227.5</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -11045,7 +11045,7 @@
         <v>45228.375</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>
@@ -11137,7 +11137,7 @@
         <v>45228.375</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
         <v>41</v>
@@ -11781,10 +11781,10 @@
         <v>45235.375</v>
       </c>
       <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
         <v>45</v>
-      </c>
-      <c r="F123" t="s">
-        <v>44</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -12060,7 +12060,7 @@
         <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -12336,7 +12336,7 @@
         <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -12517,7 +12517,7 @@
         <v>45242.375</v>
       </c>
       <c r="E131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F131" t="s">
         <v>41</v>
@@ -12701,7 +12701,7 @@
         <v>45242.375</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
         <v>35</v>
@@ -12796,7 +12796,7 @@
         <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12876,7 +12876,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6867877</v>
+        <v>6867974</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12885,13 +12885,13 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12903,64 +12903,64 @@
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L135">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M135">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N135">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O135">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P135">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q135">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="R135">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
+        <v>2</v>
+      </c>
+      <c r="U135">
+        <v>2.25</v>
+      </c>
+      <c r="V135">
         <v>1.8</v>
       </c>
-      <c r="U135">
-        <v>2.5</v>
-      </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC135">
         <v>-1</v>
       </c>
       <c r="AD135">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -12968,7 +12968,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6867974</v>
+        <v>6867246</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12977,82 +12977,82 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L136">
+        <v>1.7</v>
+      </c>
+      <c r="M136">
+        <v>3.6</v>
+      </c>
+      <c r="N136">
+        <v>4.333</v>
+      </c>
+      <c r="O136">
+        <v>1.45</v>
+      </c>
+      <c r="P136">
+        <v>4.2</v>
+      </c>
+      <c r="Q136">
+        <v>8</v>
+      </c>
+      <c r="R136">
+        <v>-1</v>
+      </c>
+      <c r="S136">
+        <v>1.725</v>
+      </c>
+      <c r="T136">
+        <v>1.975</v>
+      </c>
+      <c r="U136">
         <v>2.5</v>
       </c>
-      <c r="M136">
-        <v>3.1</v>
-      </c>
-      <c r="N136">
-        <v>2.7</v>
-      </c>
-      <c r="O136">
-        <v>2.5</v>
-      </c>
-      <c r="P136">
-        <v>3.25</v>
-      </c>
-      <c r="Q136">
-        <v>2.875</v>
-      </c>
-      <c r="R136">
-        <v>0</v>
-      </c>
-      <c r="S136">
-        <v>1.8</v>
-      </c>
-      <c r="T136">
-        <v>2</v>
-      </c>
-      <c r="U136">
-        <v>2.25</v>
-      </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
         <v>-1</v>
       </c>
       <c r="AD136">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13060,7 +13060,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6867246</v>
+        <v>6867544</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13069,82 +13069,82 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L137">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N137">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="O137">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q137">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="R137">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S137">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U137">
         <v>2.5</v>
       </c>
       <c r="V137">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>2.4</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
         <v>0.45</v>
       </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
-      </c>
-      <c r="AA137">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13152,7 +13152,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6867544</v>
+        <v>6867877</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13161,19 +13161,19 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13182,61 +13182,61 @@
         <v>54</v>
       </c>
       <c r="L138">
+        <v>2.1</v>
+      </c>
+      <c r="M138">
+        <v>3.2</v>
+      </c>
+      <c r="N138">
+        <v>3.3</v>
+      </c>
+      <c r="O138">
+        <v>2</v>
+      </c>
+      <c r="P138">
         <v>3.5</v>
       </c>
-      <c r="M138">
-        <v>3.25</v>
-      </c>
-      <c r="N138">
-        <v>2</v>
-      </c>
-      <c r="O138">
-        <v>3.3</v>
-      </c>
-      <c r="P138">
-        <v>3.4</v>
-      </c>
       <c r="Q138">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="R138">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T138">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U138">
         <v>2.5</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13345,7 +13345,7 @@
         <v>45256.375</v>
       </c>
       <c r="E140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F140" t="s">
         <v>41</v>
@@ -13716,7 +13716,7 @@
         <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -13888,7 +13888,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6867545</v>
+        <v>6867684</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13897,19 +13897,19 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -13918,43 +13918,43 @@
         <v>53</v>
       </c>
       <c r="L146">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="M146">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N146">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O146">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P146">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R146">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V146">
+        <v>1.95</v>
+      </c>
+      <c r="W146">
         <v>1.85</v>
       </c>
-      <c r="W146">
-        <v>1.95</v>
-      </c>
       <c r="X146">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13963,13 +13963,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD146">
         <v>-1</v>
@@ -13980,7 +13980,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6867684</v>
+        <v>6867545</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13989,19 +13989,19 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G147">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -14010,43 +14010,43 @@
         <v>53</v>
       </c>
       <c r="L147">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="M147">
+        <v>3.2</v>
+      </c>
+      <c r="N147">
+        <v>2.75</v>
+      </c>
+      <c r="O147">
+        <v>2</v>
+      </c>
+      <c r="P147">
         <v>3.5</v>
       </c>
-      <c r="N147">
+      <c r="Q147">
         <v>4</v>
       </c>
-      <c r="O147">
-        <v>1.75</v>
-      </c>
-      <c r="P147">
-        <v>3.6</v>
-      </c>
-      <c r="Q147">
-        <v>5</v>
-      </c>
       <c r="R147">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V147">
+        <v>1.85</v>
+      </c>
+      <c r="W147">
         <v>1.95</v>
       </c>
-      <c r="W147">
-        <v>1.85</v>
-      </c>
       <c r="X147">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
@@ -14055,13 +14055,13 @@
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD147">
         <v>-1</v>
@@ -14084,7 +14084,7 @@
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G148">
         <v>6</v>
@@ -14265,10 +14265,10 @@
         <v>45263.375</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -14357,7 +14357,7 @@
         <v>45263.375</v>
       </c>
       <c r="E151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
         <v>38</v>
@@ -14541,7 +14541,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F153" t="s">
         <v>39</v>
@@ -15001,7 +15001,7 @@
         <v>45270.375</v>
       </c>
       <c r="E158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F158" t="s">
         <v>35</v>
@@ -15093,7 +15093,7 @@
         <v>45270.375</v>
       </c>
       <c r="E159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F159" t="s">
         <v>32</v>
@@ -15464,7 +15464,7 @@
         <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -15544,7 +15544,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6867601</v>
+        <v>6867551</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15553,7 +15553,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F164" t="s">
         <v>45</v>
@@ -15574,25 +15574,25 @@
         <v>53</v>
       </c>
       <c r="L164">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M164">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164">
+        <v>1.85</v>
+      </c>
+      <c r="P164">
+        <v>3.5</v>
+      </c>
+      <c r="Q164">
         <v>4.2</v>
       </c>
-      <c r="O164">
-        <v>1.55</v>
-      </c>
-      <c r="P164">
-        <v>3.8</v>
-      </c>
-      <c r="Q164">
-        <v>6.5</v>
-      </c>
       <c r="R164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S164">
         <v>1.9</v>
@@ -15604,13 +15604,13 @@
         <v>2.25</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X164">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15619,16 +15619,16 @@
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
         <v>-1</v>
       </c>
       <c r="AD164">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15820,7 +15820,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6867551</v>
+        <v>6867601</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -15829,7 +15829,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F167" t="s">
         <v>44</v>
@@ -15850,25 +15850,25 @@
         <v>53</v>
       </c>
       <c r="L167">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M167">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O167">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="P167">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q167">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="R167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S167">
         <v>1.9</v>
@@ -15880,13 +15880,13 @@
         <v>2.25</v>
       </c>
       <c r="V167">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X167">
-        <v>0.8500000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15895,16 +15895,16 @@
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC167">
         <v>-1</v>
       </c>
       <c r="AD167">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -15924,7 +15924,7 @@
         <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -16372,7 +16372,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6867554</v>
+        <v>6867602</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16384,13 +16384,13 @@
         <v>44</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -16399,61 +16399,61 @@
         <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L173">
+        <v>5</v>
+      </c>
+      <c r="M173">
+        <v>3.75</v>
+      </c>
+      <c r="N173">
+        <v>1.55</v>
+      </c>
+      <c r="O173">
+        <v>6.5</v>
+      </c>
+      <c r="P173">
+        <v>4</v>
+      </c>
+      <c r="Q173">
+        <v>1.4</v>
+      </c>
+      <c r="R173">
+        <v>1.25</v>
+      </c>
+      <c r="S173">
+        <v>1.85</v>
+      </c>
+      <c r="T173">
         <v>1.95</v>
       </c>
-      <c r="M173">
-        <v>3.4</v>
-      </c>
-      <c r="N173">
-        <v>3.25</v>
-      </c>
-      <c r="O173">
-        <v>2.1</v>
-      </c>
-      <c r="P173">
-        <v>3.2</v>
-      </c>
-      <c r="Q173">
-        <v>3.1</v>
-      </c>
-      <c r="R173">
-        <v>-0.25</v>
-      </c>
-      <c r="S173">
-        <v>1.9</v>
-      </c>
-      <c r="T173">
-        <v>1.9</v>
-      </c>
       <c r="U173">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X173">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA173">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD173">
         <v>-1</v>
@@ -16464,7 +16464,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6867251</v>
+        <v>6867554</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16473,10 +16473,10 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F174" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -16485,7 +16485,7 @@
         <v>1</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174">
         <v>1</v>
@@ -16494,43 +16494,43 @@
         <v>53</v>
       </c>
       <c r="L174">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="M174">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N174">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="O174">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="P174">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q174">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="R174">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S174">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T174">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U174">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X174">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
@@ -16539,13 +16539,13 @@
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB174">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD174">
         <v>-1</v>
@@ -16556,7 +16556,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6867602</v>
+        <v>6867251</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16565,46 +16565,46 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175">
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L175">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="M175">
         <v>3.75</v>
       </c>
       <c r="N175">
-        <v>1.55</v>
+        <v>5.5</v>
       </c>
       <c r="O175">
+        <v>1.4</v>
+      </c>
+      <c r="P175">
+        <v>4.2</v>
+      </c>
+      <c r="Q175">
         <v>6.5</v>
       </c>
-      <c r="P175">
-        <v>4</v>
-      </c>
-      <c r="Q175">
-        <v>1.4</v>
-      </c>
       <c r="R175">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S175">
         <v>1.85</v>
@@ -16622,19 +16622,19 @@
         <v>1.975</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB175">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC175">
         <v>0.825</v>
@@ -16936,7 +16936,7 @@
         <v>48</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -17025,7 +17025,7 @@
         <v>45336.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
         <v>39</v>
@@ -17117,7 +17117,7 @@
         <v>45336.52083333334</v>
       </c>
       <c r="E181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
         <v>34</v>
@@ -17200,7 +17200,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7820057</v>
+        <v>7820058</v>
       </c>
       <c r="C182" t="s">
         <v>29</v>
@@ -17209,13 +17209,13 @@
         <v>45336.54166666666</v>
       </c>
       <c r="E182" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -17227,37 +17227,37 @@
         <v>0</v>
       </c>
       <c r="K182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L182">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="M182">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N182">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="O182">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="P182">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q182">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="R182">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U182">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V182">
         <v>2</v>
@@ -17266,16 +17266,16 @@
         <v>1.8</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y182">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
         <v>-1</v>
@@ -17292,7 +17292,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7820058</v>
+        <v>7820057</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17301,13 +17301,13 @@
         <v>45336.54166666666</v>
       </c>
       <c r="E183" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -17319,37 +17319,37 @@
         <v>0</v>
       </c>
       <c r="K183" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L183">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="M183">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N183">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="O183">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="P183">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q183">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="R183">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U183">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V183">
         <v>2</v>
@@ -17358,16 +17358,16 @@
         <v>1.8</v>
       </c>
       <c r="X183">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB183">
         <v>-1</v>
@@ -17580,7 +17580,7 @@
         <v>39</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -17764,7 +17764,7 @@
         <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -17945,7 +17945,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
         <v>40</v>
@@ -18132,7 +18132,7 @@
         <v>50</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -18304,7 +18304,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6867557</v>
+        <v>6867200</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18313,82 +18313,82 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>1</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L194">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="M194">
         <v>3</v>
       </c>
       <c r="N194">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O194">
         <v>2.8</v>
       </c>
       <c r="P194">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q194">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="R194">
         <v>0.25</v>
       </c>
       <c r="S194">
+        <v>1.7</v>
+      </c>
+      <c r="T194">
+        <v>2</v>
+      </c>
+      <c r="U194">
         <v>1.75</v>
       </c>
-      <c r="T194">
-        <v>2.05</v>
-      </c>
-      <c r="U194">
-        <v>2.25</v>
-      </c>
       <c r="V194">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X194">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA194">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC194">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD194">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18396,7 +18396,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6867757</v>
+        <v>6867557</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18405,79 +18405,79 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F195" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
       <c r="K195" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L195">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="M195">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N195">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O195">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="P195">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q195">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R195">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T195">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U195">
         <v>2.25</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W195">
+        <v>1.975</v>
+      </c>
+      <c r="X195">
         <v>1.8</v>
       </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB195">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AD195">
         <v>-1</v>
@@ -18500,7 +18500,7 @@
         <v>43</v>
       </c>
       <c r="F196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -18580,7 +18580,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6867508</v>
+        <v>6867757</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18589,79 +18589,79 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>2</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="M197">
         <v>3.3</v>
       </c>
       <c r="N197">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O197">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="P197">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q197">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="R197">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S197">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T197">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U197">
         <v>2.25</v>
       </c>
       <c r="V197">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W197">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA197">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC197">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD197">
         <v>-1</v>
@@ -18672,7 +18672,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6867200</v>
+        <v>6867508</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18681,82 +18681,82 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K198" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L198">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="M198">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N198">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O198">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="P198">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q198">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="R198">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S198">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="T198">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U198">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z198">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -19049,7 +19049,7 @@
         <v>45348.66666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F202" t="s">
         <v>32</v>
@@ -19144,7 +19144,7 @@
         <v>33</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -19417,7 +19417,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F206" t="s">
         <v>38</v>
@@ -19604,7 +19604,7 @@
         <v>48</v>
       </c>
       <c r="F208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -19880,7 +19880,7 @@
         <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -19969,7 +19969,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F212" t="s">
         <v>50</v>
@@ -20420,7 +20420,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6867565</v>
+        <v>6867202</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20429,82 +20429,82 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E217" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L217">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="M217">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N217">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="O217">
+        <v>2.2</v>
+      </c>
+      <c r="P217">
+        <v>3.1</v>
+      </c>
+      <c r="Q217">
+        <v>3.1</v>
+      </c>
+      <c r="R217">
+        <v>-0.25</v>
+      </c>
+      <c r="S217">
+        <v>1.975</v>
+      </c>
+      <c r="T217">
+        <v>1.825</v>
+      </c>
+      <c r="U217">
+        <v>1.75</v>
+      </c>
+      <c r="V217">
+        <v>1.95</v>
+      </c>
+      <c r="W217">
         <v>1.85</v>
       </c>
-      <c r="P217">
-        <v>3.3</v>
-      </c>
-      <c r="Q217">
-        <v>3.75</v>
-      </c>
-      <c r="R217">
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
+        <v>2.1</v>
+      </c>
+      <c r="Z217">
+        <v>-1</v>
+      </c>
+      <c r="AA217">
         <v>-0.5</v>
       </c>
-      <c r="S217">
-        <v>1.9</v>
-      </c>
-      <c r="T217">
-        <v>1.9</v>
-      </c>
-      <c r="U217">
-        <v>2.5</v>
-      </c>
-      <c r="V217">
-        <v>2</v>
-      </c>
-      <c r="W217">
-        <v>1.8</v>
-      </c>
-      <c r="X217">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y217">
-        <v>-1</v>
-      </c>
-      <c r="Z217">
-        <v>-1</v>
-      </c>
-      <c r="AA217">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC217">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AD217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20512,7 +20512,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6867202</v>
+        <v>6867564</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20521,16 +20521,16 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E218" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G218">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -20539,37 +20539,37 @@
         <v>0</v>
       </c>
       <c r="K218" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L218">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="M218">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N218">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="O218">
         <v>2.2</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q218">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="R218">
         <v>-0.25</v>
       </c>
       <c r="S218">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T218">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U218">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V218">
         <v>1.95</v>
@@ -20578,25 +20578,25 @@
         <v>1.85</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y218">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB218">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD218">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -20604,7 +20604,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6867564</v>
+        <v>6867565</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20613,64 +20613,64 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219" t="s">
         <v>53</v>
       </c>
       <c r="L219">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="M219">
         <v>3.3</v>
       </c>
       <c r="N219">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O219">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="P219">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q219">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="R219">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S219">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
+        <v>1.9</v>
+      </c>
+      <c r="U219">
+        <v>2.5</v>
+      </c>
+      <c r="V219">
+        <v>2</v>
+      </c>
+      <c r="W219">
         <v>1.8</v>
       </c>
-      <c r="U219">
-        <v>2.25</v>
-      </c>
-      <c r="V219">
-        <v>1.95</v>
-      </c>
-      <c r="W219">
-        <v>1.85</v>
-      </c>
       <c r="X219">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y219">
         <v>-1</v>
@@ -20679,16 +20679,16 @@
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB219">
         <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD219">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -20705,7 +20705,7 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F220" t="s">
         <v>43</v>
@@ -20800,7 +20800,7 @@
         <v>43</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G221">
         <v>4</v>
@@ -20892,7 +20892,7 @@
         <v>36</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -20981,7 +20981,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F223" t="s">
         <v>39</v>
@@ -21444,7 +21444,7 @@
         <v>49</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -21625,7 +21625,7 @@
         <v>45381.5</v>
       </c>
       <c r="E230" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F230" t="s">
         <v>32</v>
@@ -21717,7 +21717,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E231" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F231" t="s">
         <v>49</v>
@@ -22361,10 +22361,10 @@
         <v>45383.625</v>
       </c>
       <c r="E238" t="s">
+        <v>46</v>
+      </c>
+      <c r="F238" t="s">
         <v>47</v>
-      </c>
-      <c r="F238" t="s">
-        <v>46</v>
       </c>
       <c r="G238">
         <v>4</v>
@@ -22637,7 +22637,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E241" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F241" t="s">
         <v>34</v>
@@ -22729,10 +22729,10 @@
         <v>45389.5</v>
       </c>
       <c r="E242" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F242" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G242">
         <v>2</v>
@@ -23189,7 +23189,7 @@
         <v>45396.5</v>
       </c>
       <c r="E247" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F247" t="s">
         <v>43</v>
@@ -23465,10 +23465,10 @@
         <v>45396.5</v>
       </c>
       <c r="E250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F250" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -23560,7 +23560,7 @@
         <v>42</v>
       </c>
       <c r="F251" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -24008,7 +24008,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6867696</v>
+        <v>6867897</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -24017,61 +24017,61 @@
         <v>45403.5</v>
       </c>
       <c r="E256" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F256" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256">
         <v>0</v>
       </c>
       <c r="J256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K256" t="s">
         <v>52</v>
       </c>
       <c r="L256">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="M256">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N256">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="O256">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="P256">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q256">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="R256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S256">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T256">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U256">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V256">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W256">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X256">
         <v>-1</v>
@@ -24080,19 +24080,19 @@
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>4.25</v>
+        <v>1.45</v>
       </c>
       <c r="AA256">
         <v>-1</v>
       </c>
       <c r="AB256">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC256">
         <v>-1</v>
       </c>
       <c r="AD256">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -24100,7 +24100,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6867695</v>
+        <v>6867696</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24109,16 +24109,16 @@
         <v>45403.5</v>
       </c>
       <c r="E257" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -24127,64 +24127,64 @@
         <v>0</v>
       </c>
       <c r="K257" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L257">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="M257">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N257">
-        <v>2.65</v>
+        <v>4.5</v>
       </c>
       <c r="O257">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="P257">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q257">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="R257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S257">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T257">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U257">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W257">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X257">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="AA257">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC257">
         <v>-1</v>
       </c>
       <c r="AD257">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24192,7 +24192,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6867572</v>
+        <v>6867695</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -24201,64 +24201,64 @@
         <v>45403.5</v>
       </c>
       <c r="E258" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F258" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K258" t="s">
         <v>53</v>
       </c>
       <c r="L258">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M258">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N258">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="O258">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P258">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q258">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="R258">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S258">
+        <v>1.775</v>
+      </c>
+      <c r="T258">
+        <v>2.025</v>
+      </c>
+      <c r="U258">
+        <v>2.5</v>
+      </c>
+      <c r="V258">
         <v>1.9</v>
       </c>
-      <c r="T258">
+      <c r="W258">
         <v>1.9</v>
       </c>
-      <c r="U258">
-        <v>2.25</v>
-      </c>
-      <c r="V258">
-        <v>1.975</v>
-      </c>
-      <c r="W258">
-        <v>1.825</v>
-      </c>
       <c r="X258">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="Y258">
         <v>-1</v>
@@ -24267,16 +24267,16 @@
         <v>-1</v>
       </c>
       <c r="AA258">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
+        <v>-1</v>
+      </c>
+      <c r="AD258">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB258">
-        <v>-1</v>
-      </c>
-      <c r="AC258">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AD258">
-        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -24284,7 +24284,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6867520</v>
+        <v>6867572</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24293,64 +24293,64 @@
         <v>45403.5</v>
       </c>
       <c r="E259" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K259" t="s">
         <v>53</v>
       </c>
       <c r="L259">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M259">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N259">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O259">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P259">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q259">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R259">
         <v>-0.25</v>
       </c>
       <c r="S259">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T259">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U259">
         <v>2.25</v>
       </c>
       <c r="V259">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W259">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X259">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Y259">
         <v>-1</v>
@@ -24359,16 +24359,16 @@
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD259">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24376,7 +24376,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6867897</v>
+        <v>6867520</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -24385,55 +24385,55 @@
         <v>45403.5</v>
       </c>
       <c r="E260" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K260" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L260">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M260">
         <v>3.25</v>
       </c>
       <c r="N260">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O260">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P260">
         <v>3.25</v>
       </c>
       <c r="Q260">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="R260">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T260">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U260">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V260">
         <v>2</v>
@@ -24442,25 +24442,25 @@
         <v>1.8</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB260">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD260">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="261" spans="1:30">
@@ -24468,7 +24468,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6867898</v>
+        <v>6871104</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -24477,19 +24477,19 @@
         <v>45403.5</v>
       </c>
       <c r="E261" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H261">
         <v>0</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J261">
         <v>0</v>
@@ -24498,43 +24498,43 @@
         <v>53</v>
       </c>
       <c r="L261">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="M261">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N261">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="O261">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="P261">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q261">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="R261">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S261">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T261">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U261">
         <v>2.25</v>
       </c>
       <c r="V261">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W261">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X261">
-        <v>1.25</v>
+        <v>0.833</v>
       </c>
       <c r="Y261">
         <v>-1</v>
@@ -24543,16 +24543,16 @@
         <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB261">
         <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD261">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:30">
@@ -24560,7 +24560,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6871104</v>
+        <v>6867898</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -24569,19 +24569,19 @@
         <v>45403.5</v>
       </c>
       <c r="E262" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F262" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H262">
         <v>0</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262">
         <v>0</v>
@@ -24590,43 +24590,43 @@
         <v>53</v>
       </c>
       <c r="L262">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="M262">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N262">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="O262">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="P262">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q262">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="R262">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S262">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T262">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U262">
         <v>2.25</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W262">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X262">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="Y262">
         <v>-1</v>
@@ -24635,16 +24635,16 @@
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB262">
         <v>-1</v>
       </c>
       <c r="AC262">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD262">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -24661,7 +24661,7 @@
         <v>45404.625</v>
       </c>
       <c r="E263" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F263" t="s">
         <v>41</v>
@@ -25020,7 +25020,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6867574</v>
+        <v>6867754</v>
       </c>
       <c r="C267" t="s">
         <v>29</v>
@@ -25029,46 +25029,46 @@
         <v>45410.5</v>
       </c>
       <c r="E267" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F267" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
+        <v>1</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267" t="s">
+        <v>54</v>
+      </c>
+      <c r="L267">
+        <v>1.3</v>
+      </c>
+      <c r="M267">
         <v>5</v>
       </c>
-      <c r="I267">
-        <v>0</v>
-      </c>
-      <c r="J267">
-        <v>4</v>
-      </c>
-      <c r="K267" t="s">
-        <v>52</v>
-      </c>
-      <c r="L267">
-        <v>7.5</v>
-      </c>
-      <c r="M267">
-        <v>4.5</v>
-      </c>
       <c r="N267">
-        <v>1.4</v>
+        <v>10</v>
       </c>
       <c r="O267">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="P267">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q267">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="R267">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S267">
         <v>1.825</v>
@@ -25080,19 +25080,19 @@
         <v>2.75</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W267">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z267">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
         <v>-1</v>
@@ -25101,10 +25101,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AC267">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD267">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="268" spans="1:30">
@@ -25112,7 +25112,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6867899</v>
+        <v>6867574</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -25121,82 +25121,82 @@
         <v>45410.5</v>
       </c>
       <c r="E268" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F268" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I268">
         <v>0</v>
       </c>
       <c r="J268">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K268" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L268">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="M268">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N268">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O268">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="P268">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q268">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="R268">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="S268">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T268">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U268">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V268">
+        <v>1.825</v>
+      </c>
+      <c r="W268">
         <v>1.975</v>
       </c>
-      <c r="W268">
-        <v>1.725</v>
-      </c>
       <c r="X268">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="AA268">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD268">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -25204,7 +25204,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6867698</v>
+        <v>6867899</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25213,10 +25213,10 @@
         <v>45410.5</v>
       </c>
       <c r="E269" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F269" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -25234,43 +25234,43 @@
         <v>53</v>
       </c>
       <c r="L269">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M269">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N269">
+        <v>3.2</v>
+      </c>
+      <c r="O269">
+        <v>2.1</v>
+      </c>
+      <c r="P269">
+        <v>3.1</v>
+      </c>
+      <c r="Q269">
         <v>3.6</v>
-      </c>
-      <c r="O269">
-        <v>2.2</v>
-      </c>
-      <c r="P269">
-        <v>3.3</v>
-      </c>
-      <c r="Q269">
-        <v>3.2</v>
       </c>
       <c r="R269">
         <v>-0.25</v>
       </c>
       <c r="S269">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T269">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U269">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V269">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W269">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="X269">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
@@ -25279,7 +25279,7 @@
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB269">
         <v>-1</v>
@@ -25288,7 +25288,7 @@
         <v>-1</v>
       </c>
       <c r="AD269">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -25296,7 +25296,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6867754</v>
+        <v>6867698</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -25305,16 +25305,16 @@
         <v>45410.5</v>
       </c>
       <c r="E270" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F270" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G270">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -25323,64 +25323,64 @@
         <v>0</v>
       </c>
       <c r="K270" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L270">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="M270">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N270">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="O270">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="P270">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q270">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="R270">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S270">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T270">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U270">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V270">
+        <v>1.925</v>
+      </c>
+      <c r="W270">
         <v>1.875</v>
       </c>
-      <c r="W270">
-        <v>1.925</v>
-      </c>
       <c r="X270">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y270">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
         <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB270">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
         <v>-1</v>
       </c>
       <c r="AD270">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -25400,7 +25400,7 @@
         <v>41</v>
       </c>
       <c r="F271" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -25673,10 +25673,10 @@
         <v>45417.5</v>
       </c>
       <c r="E274" t="s">
+        <v>45</v>
+      </c>
+      <c r="F274" t="s">
         <v>44</v>
-      </c>
-      <c r="F274" t="s">
-        <v>45</v>
       </c>
       <c r="G274">
         <v>3</v>
@@ -25765,7 +25765,7 @@
         <v>45417.5</v>
       </c>
       <c r="E275" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F275" t="s">
         <v>35</v>
@@ -26133,7 +26133,7 @@
         <v>45417.5</v>
       </c>
       <c r="E279" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F279" t="s">
         <v>50</v>
@@ -26412,7 +26412,7 @@
         <v>35</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -26596,7 +26596,7 @@
         <v>41</v>
       </c>
       <c r="F284" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -26964,7 +26964,7 @@
         <v>40</v>
       </c>
       <c r="F288" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G288">
         <v>2</v>
@@ -27053,7 +27053,7 @@
         <v>45424.5</v>
       </c>
       <c r="E289" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F289" t="s">
         <v>42</v>
@@ -27320,7 +27320,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>8214051</v>
+        <v>8214048</v>
       </c>
       <c r="C292" t="s">
         <v>29</v>
@@ -27329,79 +27329,79 @@
         <v>45431.5</v>
       </c>
       <c r="E292" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F292" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
         <v>3</v>
       </c>
-      <c r="H292">
-        <v>2</v>
-      </c>
       <c r="I292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J292">
         <v>0</v>
       </c>
       <c r="K292" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L292">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="M292">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N292">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="O292">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="P292">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q292">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="R292">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S292">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T292">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U292">
         <v>2.25</v>
       </c>
       <c r="V292">
+        <v>1.875</v>
+      </c>
+      <c r="W292">
         <v>1.925</v>
       </c>
-      <c r="W292">
-        <v>1.875</v>
-      </c>
       <c r="X292">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
         <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA292">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AC292">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD292">
         <v>-1</v>
@@ -27412,7 +27412,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8214050</v>
+        <v>8214051</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27421,19 +27421,19 @@
         <v>45431.5</v>
       </c>
       <c r="E293" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F293" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G293">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J293">
         <v>0</v>
@@ -27442,43 +27442,43 @@
         <v>53</v>
       </c>
       <c r="L293">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="M293">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N293">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="O293">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="P293">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q293">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="R293">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S293">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T293">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U293">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V293">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W293">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X293">
-        <v>1</v>
+        <v>0.363</v>
       </c>
       <c r="Y293">
         <v>-1</v>
@@ -27487,16 +27487,16 @@
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC293">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD293">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -27504,7 +27504,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8214049</v>
+        <v>8214050</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27513,19 +27513,19 @@
         <v>45431.5</v>
       </c>
       <c r="E294" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F294" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G294">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J294">
         <v>0</v>
@@ -27534,40 +27534,40 @@
         <v>53</v>
       </c>
       <c r="L294">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="M294">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N294">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O294">
         <v>2</v>
       </c>
       <c r="P294">
+        <v>3.1</v>
+      </c>
+      <c r="Q294">
         <v>3.4</v>
-      </c>
-      <c r="Q294">
-        <v>3.1</v>
       </c>
       <c r="R294">
         <v>-0.25</v>
       </c>
       <c r="S294">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T294">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U294">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V294">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W294">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X294">
         <v>1</v>
@@ -27579,16 +27579,16 @@
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB294">
         <v>-1</v>
       </c>
       <c r="AC294">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD294">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -27596,7 +27596,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8214048</v>
+        <v>8214049</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -27605,79 +27605,79 @@
         <v>45431.5</v>
       </c>
       <c r="E295" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F295" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G295">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J295">
         <v>0</v>
       </c>
       <c r="K295" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L295">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M295">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N295">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O295">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="P295">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q295">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R295">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S295">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T295">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U295">
         <v>2.25</v>
       </c>
       <c r="V295">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W295">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB295">
+        <v>-1</v>
+      </c>
+      <c r="AC295">
         <v>0.825</v>
-      </c>
-      <c r="AC295">
-        <v>0.875</v>
       </c>
       <c r="AD295">
         <v>-1</v>
@@ -27881,7 +27881,7 @@
         <v>45431.5</v>
       </c>
       <c r="E298" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F298" t="s">
         <v>36</v>
@@ -27973,7 +27973,7 @@
         <v>45432.625</v>
       </c>
       <c r="E299" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F299" t="s">
         <v>38</v>
@@ -28329,10 +28329,10 @@
         <v>45438.5</v>
       </c>
       <c r="E303" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F303" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G303">
         <v>1</v>
@@ -28676,7 +28676,7 @@
         <v>39</v>
       </c>
       <c r="F307" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -28762,7 +28762,7 @@
         <v>38</v>
       </c>
       <c r="F308" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G308">
         <v>4</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -115,28 +115,28 @@
     <t>Nyiregyhaza Spartacus</t>
   </si>
   <si>
-    <t>BVSC Zuglo</t>
+    <t>Gyirmot SE</t>
   </si>
   <si>
-    <t>Gyirmot SE</t>
+    <t>BVSC Zuglo</t>
   </si>
   <si>
     <t>Vasas SC</t>
   </si>
   <si>
-    <t>FC Ajka</t>
+    <t>Pecsi MFC</t>
   </si>
   <si>
     <t>Kozarmisleny SE</t>
   </si>
   <si>
-    <t>Kazincbarcikai BSC</t>
+    <t>FC Ajka</t>
   </si>
   <si>
     <t>Csakvari Tk</t>
   </si>
   <si>
-    <t>Pecsi MFC</t>
+    <t>Kazincbarcikai BSC</t>
   </si>
   <si>
     <t>SzegedCsanad Grosics</t>
@@ -145,13 +145,13 @@
     <t>Soroksar</t>
   </si>
   <si>
+    <t>Budapest Honved</t>
+  </si>
+  <si>
     <t>MTE 1904</t>
   </si>
   <si>
     <t>Budafoki MTE</t>
-  </si>
-  <si>
-    <t>Budapest Honved</t>
   </si>
   <si>
     <t>Gyori ETO</t>
@@ -744,7 +744,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6867575</v>
+        <v>6867230</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -925,82 +925,82 @@
         <v>45137.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O5">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="R5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U5">
         <v>2.25</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X5">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1017,7 +1017,7 @@
         <v>45137.52083333334</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6867230</v>
+        <v>6867575</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1109,82 +1109,82 @@
         <v>45137.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O7">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="P7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q7">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U7">
         <v>2.25</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AD7">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1204,7 +1204,7 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6867734</v>
+        <v>6867180</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1296,13 +1296,13 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1311,64 +1311,64 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="P9">
         <v>3.6</v>
       </c>
       <c r="Q9">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="R9">
         <v>-0.5</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD9">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1468,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6867664</v>
+        <v>6867734</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1480,79 +1480,79 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L11">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O11">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="P11">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q11">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="U11">
         <v>2.25</v>
       </c>
       <c r="V11">
+        <v>1.825</v>
+      </c>
+      <c r="W11">
         <v>1.975</v>
       </c>
-      <c r="W11">
-        <v>1.825</v>
-      </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z11">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD11">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1572,7 +1572,7 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1652,7 +1652,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6867180</v>
+        <v>6867664</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1664,79 +1664,79 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L13">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="M13">
+        <v>3.3</v>
+      </c>
+      <c r="N13">
+        <v>2.25</v>
+      </c>
+      <c r="O13">
+        <v>2.9</v>
+      </c>
+      <c r="P13">
         <v>3.5</v>
       </c>
-      <c r="N13">
-        <v>3.75</v>
-      </c>
-      <c r="O13">
-        <v>1.95</v>
-      </c>
-      <c r="P13">
-        <v>3.6</v>
-      </c>
       <c r="Q13">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="R13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC13">
         <v>-1</v>
       </c>
       <c r="AD13">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1848,7 +1848,7 @@
         <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6867576</v>
+        <v>6871131</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1940,58 +1940,58 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>52</v>
       </c>
       <c r="L16">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N16">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="O16">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="P16">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q16">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="R16">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V16">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="W16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -2000,19 +2000,19 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC16">
-        <v>0.7250000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AD16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -2020,7 +2020,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6867870</v>
+        <v>6867576</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2032,79 +2032,79 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="M17">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N17">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O17">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S17">
+        <v>1.925</v>
+      </c>
+      <c r="T17">
+        <v>1.875</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.725</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <v>1.975</v>
       </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <v>1.775</v>
-      </c>
-      <c r="W17">
-        <v>2.025</v>
-      </c>
       <c r="X17">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
+        <v>0.875</v>
+      </c>
+      <c r="AC17">
         <v>0.7250000000000001</v>
       </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
       <c r="AD17">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2112,7 +2112,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6871131</v>
+        <v>6867870</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2124,79 +2124,79 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L18">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N18">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="P18">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q18">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T18">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U18">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2216,7 +2216,7 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2308,7 +2308,7 @@
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2765,10 +2765,10 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2857,7 +2857,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
@@ -3133,10 +3133,10 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -3409,10 +3409,10 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3501,10 +3501,10 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>45154.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
         <v>35</v>
@@ -3860,7 +3860,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6867237</v>
+        <v>6867668</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3869,82 +3869,82 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L37">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="M37">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N37">
-        <v>4.25</v>
+        <v>3.3</v>
       </c>
       <c r="O37">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="P37">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q37">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U37">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X37">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AC37">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AD37">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -3952,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6867579</v>
+        <v>6871129</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -3961,82 +3961,82 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="M38">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="O38">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P38">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="R38">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V38">
+        <v>1.85</v>
+      </c>
+      <c r="W38">
         <v>1.95</v>
       </c>
-      <c r="W38">
-        <v>1.85</v>
-      </c>
       <c r="X38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y38">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD38">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4044,7 +4044,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6867668</v>
+        <v>6867237</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4053,82 +4053,82 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L39">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="M39">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="O39">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="P39">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q39">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="R39">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y39">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0.475</v>
+      </c>
+      <c r="AD39">
         <v>-0.5</v>
-      </c>
-      <c r="AB39">
-        <v>0.5125</v>
-      </c>
-      <c r="AC39">
-        <v>-0.5</v>
-      </c>
-      <c r="AD39">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4136,7 +4136,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6871129</v>
+        <v>6867579</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4145,82 +4145,82 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L40">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N40">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="O40">
+        <v>2.1</v>
+      </c>
+      <c r="P40">
+        <v>3.3</v>
+      </c>
+      <c r="Q40">
+        <v>3.6</v>
+      </c>
+      <c r="R40">
+        <v>-0.25</v>
+      </c>
+      <c r="S40">
+        <v>1.8</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>2.25</v>
+      </c>
+      <c r="V40">
         <v>1.95</v>
       </c>
-      <c r="P40">
-        <v>3.75</v>
-      </c>
-      <c r="Q40">
-        <v>3.8</v>
-      </c>
-      <c r="R40">
+      <c r="W40">
+        <v>1.85</v>
+      </c>
+      <c r="X40">
+        <v>-1</v>
+      </c>
+      <c r="Y40">
+        <v>2.3</v>
+      </c>
+      <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
         <v>-0.5</v>
       </c>
-      <c r="S40">
-        <v>1.95</v>
-      </c>
-      <c r="T40">
-        <v>1.85</v>
-      </c>
-      <c r="U40">
-        <v>2.5</v>
-      </c>
-      <c r="V40">
-        <v>1.85</v>
-      </c>
-      <c r="W40">
-        <v>1.95</v>
-      </c>
-      <c r="X40">
-        <v>0.95</v>
-      </c>
-      <c r="Y40">
-        <v>-1</v>
-      </c>
-      <c r="Z40">
-        <v>-1</v>
-      </c>
-      <c r="AA40">
-        <v>0.95</v>
-      </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4320,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6867669</v>
+        <v>6867581</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4332,79 +4332,79 @@
         <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="M42">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N42">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q42">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="R42">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S42">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z42">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4412,7 +4412,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6867581</v>
+        <v>6867669</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4424,79 +4424,79 @@
         <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L43">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N43">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O43">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q43">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="R43">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4516,7 +4516,7 @@
         <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4608,7 +4608,7 @@
         <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4973,10 +4973,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
         <v>36</v>
-      </c>
-      <c r="F49" t="s">
-        <v>40</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5065,7 +5065,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
         <v>37</v>
@@ -5157,10 +5157,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5332,7 +5332,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867583</v>
+        <v>6867239</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5341,13 +5341,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5362,43 +5362,43 @@
         <v>53</v>
       </c>
       <c r="L53">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M53">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O53">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q53">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="R53">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S53">
+        <v>1.8</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>2.5</v>
+      </c>
+      <c r="V53">
+        <v>1.85</v>
+      </c>
+      <c r="W53">
         <v>1.95</v>
       </c>
-      <c r="T53">
-        <v>1.85</v>
-      </c>
-      <c r="U53">
-        <v>2</v>
-      </c>
-      <c r="V53">
-        <v>1.775</v>
-      </c>
-      <c r="W53">
-        <v>2.025</v>
-      </c>
       <c r="X53">
-        <v>1.25</v>
+        <v>0.615</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5407,16 +5407,16 @@
         <v>-1</v>
       </c>
       <c r="AA53">
+        <v>0.8</v>
+      </c>
+      <c r="AB53">
+        <v>-1</v>
+      </c>
+      <c r="AC53">
+        <v>-1</v>
+      </c>
+      <c r="AD53">
         <v>0.95</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
-      <c r="AC53">
-        <v>-1</v>
-      </c>
-      <c r="AD53">
-        <v>1.025</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5424,7 +5424,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867239</v>
+        <v>6867583</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5433,13 +5433,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5454,43 +5454,43 @@
         <v>53</v>
       </c>
       <c r="L54">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N54">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O54">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q54">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="R54">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U54">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W54">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X54">
-        <v>0.615</v>
+        <v>1.25</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
         <v>-1</v>
@@ -5508,7 +5508,7 @@
         <v>-1</v>
       </c>
       <c r="AD54">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5709,10 +5709,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5801,7 +5801,7 @@
         <v>45166.625</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
         <v>49</v>
@@ -5893,10 +5893,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
         <v>46</v>
@@ -6077,10 +6077,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -6172,7 +6172,7 @@
         <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6445,7 +6445,7 @@
         <v>45172.5</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
         <v>35</v>
@@ -6540,7 +6540,7 @@
         <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6721,7 +6721,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
         <v>37</v>
@@ -6816,7 +6816,7 @@
         <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6905,7 +6905,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
         <v>48</v>
@@ -6997,7 +6997,7 @@
         <v>45193.5</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
         <v>39</v>
@@ -7089,10 +7089,10 @@
         <v>45193.5</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -7172,7 +7172,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6867533</v>
+        <v>6867675</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7181,16 +7181,16 @@
         <v>45193.5</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -7199,64 +7199,64 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L73">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M73">
         <v>3.2</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O73">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="P73">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q73">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="R73">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S73">
         <v>1.975</v>
       </c>
       <c r="T73">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="U73">
         <v>2.25</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z73">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>0.3625</v>
       </c>
       <c r="AC73">
         <v>-0.5</v>
       </c>
       <c r="AD73">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7264,7 +7264,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6867674</v>
+        <v>6867533</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7273,82 +7273,82 @@
         <v>45193.5</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L74">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="M74">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="P74">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q74">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="R74">
         <v>-0.75</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X74">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD74">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7356,7 +7356,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867675</v>
+        <v>6867674</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7365,82 +7365,82 @@
         <v>45193.5</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L75">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N75">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O75">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="P75">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q75">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="R75">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
+        <v>1.85</v>
+      </c>
+      <c r="U75">
+        <v>2.5</v>
+      </c>
+      <c r="V75">
         <v>1.975</v>
       </c>
-      <c r="T75">
-        <v>1.725</v>
-      </c>
-      <c r="U75">
-        <v>2.25</v>
-      </c>
-      <c r="V75">
-        <v>1.875</v>
-      </c>
       <c r="W75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y75">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD75">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7540,7 +7540,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867741</v>
+        <v>6867589</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7549,19 +7549,19 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -7570,25 +7570,25 @@
         <v>53</v>
       </c>
       <c r="L77">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N77">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="O77">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="R77">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S77">
         <v>2</v>
@@ -7600,13 +7600,13 @@
         <v>2.5</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X77">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="Y77">
         <v>-1</v>
@@ -7621,10 +7621,10 @@
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7632,7 +7632,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867589</v>
+        <v>6867741</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7641,19 +7641,19 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -7662,25 +7662,25 @@
         <v>53</v>
       </c>
       <c r="L78">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="M78">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="O78">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q78">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="R78">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S78">
         <v>2</v>
@@ -7692,13 +7692,13 @@
         <v>2.5</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X78">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7713,10 +7713,10 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -7733,7 +7733,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
         <v>35</v>
@@ -7816,7 +7816,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6867534</v>
+        <v>6867241</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7825,79 +7825,79 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L80">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="M80">
         <v>3.3</v>
       </c>
       <c r="N80">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O80">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="P80">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q80">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="R80">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T80">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U80">
         <v>2.5</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AD80">
         <v>-1</v>
@@ -7920,7 +7920,7 @@
         <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -8104,7 +8104,7 @@
         <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -8184,7 +8184,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6867241</v>
+        <v>6867534</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8193,79 +8193,79 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G84">
         <v>2</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="M84">
         <v>3.3</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O84">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q84">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="R84">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U84">
         <v>2.5</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AD84">
         <v>-1</v>
@@ -8285,10 +8285,10 @@
         <v>45197.61458333334</v>
       </c>
       <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
         <v>45</v>
-      </c>
-      <c r="F85" t="s">
-        <v>44</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8377,7 +8377,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
         <v>48</v>
@@ -8469,7 +8469,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
         <v>49</v>
@@ -8561,7 +8561,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
         <v>47</v>
@@ -8745,10 +8745,10 @@
         <v>45200.49652777778</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -9021,7 +9021,7 @@
         <v>45200.5</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
         <v>37</v>
@@ -9113,7 +9113,7 @@
         <v>45201.625</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
         <v>32</v>
@@ -9208,7 +9208,7 @@
         <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9392,7 +9392,7 @@
         <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9481,10 +9481,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G98">
         <v>3</v>
@@ -9668,7 +9668,7 @@
         <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9757,10 +9757,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E101" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" t="s">
         <v>33</v>
-      </c>
-      <c r="F101" t="s">
-        <v>34</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G103">
         <v>4</v>
@@ -10033,7 +10033,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
         <v>39</v>
@@ -10125,7 +10125,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
         <v>47</v>
@@ -10217,7 +10217,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
         <v>48</v>
@@ -10309,7 +10309,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -10401,7 +10401,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
         <v>49</v>
@@ -10677,7 +10677,7 @@
         <v>45221.5</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
         <v>37</v>
@@ -10769,10 +10769,10 @@
         <v>45221.5</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -10956,7 +10956,7 @@
         <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -11048,7 +11048,7 @@
         <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -11140,7 +11140,7 @@
         <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -11508,7 +11508,7 @@
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -11597,10 +11597,10 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -11689,7 +11689,7 @@
         <v>45235.375</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
         <v>49</v>
@@ -11781,7 +11781,7 @@
         <v>45235.375</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
         <v>37</v>
@@ -11873,7 +11873,7 @@
         <v>45235.375</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
         <v>32</v>
@@ -11965,7 +11965,7 @@
         <v>45235.375</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F125" t="s">
         <v>42</v>
@@ -12057,7 +12057,7 @@
         <v>45235.375</v>
       </c>
       <c r="E126" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
         <v>46</v>
@@ -12152,7 +12152,7 @@
         <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -12333,7 +12333,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
         <v>48</v>
@@ -12428,7 +12428,7 @@
         <v>35</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -12517,10 +12517,10 @@
         <v>45242.375</v>
       </c>
       <c r="E131" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" t="s">
         <v>44</v>
-      </c>
-      <c r="F131" t="s">
-        <v>43</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -12704,7 +12704,7 @@
         <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -12796,7 +12796,7 @@
         <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>48</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12968,7 +12968,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6867246</v>
+        <v>6871118</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12977,19 +12977,19 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
         <v>38</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -12998,43 +12998,43 @@
         <v>53</v>
       </c>
       <c r="L136">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O136">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q136">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="R136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S136">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V136">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
         <v>1.925</v>
       </c>
       <c r="X136">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="Y136">
         <v>-1</v>
@@ -13043,7 +13043,7 @@
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.7250000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -13060,7 +13060,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6867877</v>
+        <v>6867544</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13069,19 +13069,19 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -13090,61 +13090,61 @@
         <v>54</v>
       </c>
       <c r="L137">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137">
         <v>3.3</v>
       </c>
-      <c r="O137">
-        <v>2</v>
-      </c>
       <c r="P137">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q137">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="R137">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U137">
         <v>2.5</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB137">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13152,7 +13152,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6867544</v>
+        <v>6867877</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13161,19 +13161,19 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13182,61 +13182,61 @@
         <v>54</v>
       </c>
       <c r="L138">
+        <v>2.1</v>
+      </c>
+      <c r="M138">
+        <v>3.2</v>
+      </c>
+      <c r="N138">
+        <v>3.3</v>
+      </c>
+      <c r="O138">
+        <v>2</v>
+      </c>
+      <c r="P138">
         <v>3.5</v>
       </c>
-      <c r="M138">
-        <v>3.25</v>
-      </c>
-      <c r="N138">
-        <v>2</v>
-      </c>
-      <c r="O138">
-        <v>3.3</v>
-      </c>
-      <c r="P138">
-        <v>3.4</v>
-      </c>
       <c r="Q138">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="R138">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T138">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U138">
         <v>2.5</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13244,7 +13244,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6871118</v>
+        <v>6867246</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13253,19 +13253,19 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -13274,43 +13274,43 @@
         <v>53</v>
       </c>
       <c r="L139">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="M139">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N139">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O139">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="P139">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="R139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S139">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T139">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W139">
         <v>1.925</v>
       </c>
       <c r="X139">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="Y139">
         <v>-1</v>
@@ -13319,7 +13319,7 @@
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>1.05</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB139">
         <v>-1</v>
@@ -13345,7 +13345,7 @@
         <v>45256.375</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F140" t="s">
         <v>41</v>
@@ -13437,10 +13437,10 @@
         <v>45256.375</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -13529,7 +13529,7 @@
         <v>45256.375</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
         <v>42</v>
@@ -13621,10 +13621,10 @@
         <v>45256.375</v>
       </c>
       <c r="E143" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -13805,7 +13805,7 @@
         <v>45256.375</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
         <v>48</v>
@@ -13888,7 +13888,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6867684</v>
+        <v>6867545</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13897,19 +13897,19 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G146">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -13918,43 +13918,43 @@
         <v>53</v>
       </c>
       <c r="L146">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="M146">
+        <v>3.2</v>
+      </c>
+      <c r="N146">
+        <v>2.75</v>
+      </c>
+      <c r="O146">
+        <v>2</v>
+      </c>
+      <c r="P146">
         <v>3.5</v>
       </c>
-      <c r="N146">
+      <c r="Q146">
         <v>4</v>
       </c>
-      <c r="O146">
-        <v>1.75</v>
-      </c>
-      <c r="P146">
-        <v>3.6</v>
-      </c>
-      <c r="Q146">
-        <v>5</v>
-      </c>
       <c r="R146">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T146">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V146">
+        <v>1.85</v>
+      </c>
+      <c r="W146">
         <v>1.95</v>
       </c>
-      <c r="W146">
-        <v>1.85</v>
-      </c>
       <c r="X146">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13963,13 +13963,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD146">
         <v>-1</v>
@@ -13980,7 +13980,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6867545</v>
+        <v>6867684</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13989,19 +13989,19 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G147">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -14010,43 +14010,43 @@
         <v>53</v>
       </c>
       <c r="L147">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="M147">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N147">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O147">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P147">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R147">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T147">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
         <v>1.85</v>
       </c>
-      <c r="W147">
-        <v>1.95</v>
-      </c>
       <c r="X147">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y147">
         <v>-1</v>
@@ -14055,13 +14055,13 @@
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD147">
         <v>-1</v>
@@ -14176,7 +14176,7 @@
         <v>47</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -14265,10 +14265,10 @@
         <v>45263.375</v>
       </c>
       <c r="E150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -14452,7 +14452,7 @@
         <v>49</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -14532,7 +14532,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6867248</v>
+        <v>6867976</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14541,16 +14541,16 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14559,64 +14559,64 @@
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L153">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M153">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N153">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O153">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="P153">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q153">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="R153">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T153">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U153">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X153">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD153">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14633,10 +14633,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -14716,7 +14716,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6867976</v>
+        <v>6867248</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14725,16 +14725,16 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G155">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14743,64 +14743,64 @@
         <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L155">
+        <v>1.5</v>
+      </c>
+      <c r="M155">
+        <v>4</v>
+      </c>
+      <c r="N155">
+        <v>5</v>
+      </c>
+      <c r="O155">
+        <v>1.533</v>
+      </c>
+      <c r="P155">
+        <v>4.2</v>
+      </c>
+      <c r="Q155">
+        <v>6</v>
+      </c>
+      <c r="R155">
+        <v>-1</v>
+      </c>
+      <c r="S155">
+        <v>1.9</v>
+      </c>
+      <c r="T155">
+        <v>1.9</v>
+      </c>
+      <c r="U155">
         <v>2.5</v>
       </c>
-      <c r="M155">
-        <v>3.2</v>
-      </c>
-      <c r="N155">
-        <v>2.5</v>
-      </c>
-      <c r="O155">
-        <v>2.375</v>
-      </c>
-      <c r="P155">
-        <v>3.2</v>
-      </c>
-      <c r="Q155">
-        <v>3.2</v>
-      </c>
-      <c r="R155">
-        <v>-0.25</v>
-      </c>
-      <c r="S155">
-        <v>2</v>
-      </c>
-      <c r="T155">
-        <v>1.8</v>
-      </c>
-      <c r="U155">
-        <v>2</v>
-      </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W155">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y155">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB155">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD155">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14820,7 +14820,7 @@
         <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -15093,10 +15093,10 @@
         <v>45270.375</v>
       </c>
       <c r="E159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -15185,7 +15185,7 @@
         <v>45270.54166666666</v>
       </c>
       <c r="E160" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F160" t="s">
         <v>39</v>
@@ -15280,7 +15280,7 @@
         <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -15372,7 +15372,7 @@
         <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -15461,7 +15461,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
         <v>47</v>
@@ -15553,7 +15553,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
         <v>42</v>
@@ -15645,7 +15645,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
         <v>46</v>
@@ -15737,10 +15737,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -15829,10 +15829,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -16197,7 +16197,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
         <v>32</v>
@@ -16381,10 +16381,10 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E173" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173" t="s">
         <v>40</v>
-      </c>
-      <c r="F173" t="s">
-        <v>38</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -16473,10 +16473,10 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F175" t="s">
         <v>35</v>
@@ -16660,7 +16660,7 @@
         <v>42</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -16752,7 +16752,7 @@
         <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -17028,7 +17028,7 @@
         <v>42</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -17120,7 +17120,7 @@
         <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -17209,7 +17209,7 @@
         <v>45336.54166666666</v>
       </c>
       <c r="E182" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F182" t="s">
         <v>35</v>
@@ -17304,7 +17304,7 @@
         <v>49</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -17485,7 +17485,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F185" t="s">
         <v>41</v>
@@ -17577,10 +17577,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -17669,10 +17669,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -17948,7 +17948,7 @@
         <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -18040,7 +18040,7 @@
         <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -18224,7 +18224,7 @@
         <v>35</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>4</v>
@@ -18313,7 +18313,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F194" t="s">
         <v>47</v>
@@ -18405,7 +18405,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F195" t="s">
         <v>50</v>
@@ -18589,10 +18589,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -18681,10 +18681,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -18773,7 +18773,7 @@
         <v>45347.54166666666</v>
       </c>
       <c r="E199" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F199" t="s">
         <v>35</v>
@@ -18960,7 +18960,7 @@
         <v>41</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -19144,7 +19144,7 @@
         <v>37</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -19325,10 +19325,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -19417,10 +19417,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -19500,7 +19500,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6867509</v>
+        <v>7083112</v>
       </c>
       <c r="C207" t="s">
         <v>29</v>
@@ -19509,10 +19509,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -19521,7 +19521,7 @@
         <v>0</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -19530,25 +19530,25 @@
         <v>53</v>
       </c>
       <c r="L207">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M207">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N207">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="O207">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="P207">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q207">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="R207">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S207">
         <v>1.8</v>
@@ -19557,16 +19557,16 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V207">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X207">
-        <v>0.75</v>
+        <v>1.45</v>
       </c>
       <c r="Y207">
         <v>-1</v>
@@ -19584,7 +19584,7 @@
         <v>-1</v>
       </c>
       <c r="AD207">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -19592,7 +19592,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7083112</v>
+        <v>6867719</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -19601,82 +19601,82 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F208" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L208">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="M208">
         <v>3.25</v>
       </c>
       <c r="N208">
+        <v>2.375</v>
+      </c>
+      <c r="O208">
         <v>2.75</v>
-      </c>
-      <c r="O208">
-        <v>2.45</v>
       </c>
       <c r="P208">
         <v>3.25</v>
       </c>
       <c r="Q208">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="R208">
         <v>0</v>
       </c>
       <c r="S208">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U208">
         <v>2.25</v>
       </c>
       <c r="V208">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W208">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X208">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA208">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC208">
         <v>-1</v>
       </c>
       <c r="AD208">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -19684,7 +19684,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6867719</v>
+        <v>6867254</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -19693,10 +19693,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E209" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -19708,46 +19708,46 @@
         <v>0</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K209" t="s">
         <v>52</v>
       </c>
       <c r="L209">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M209">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N209">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O209">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P209">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q209">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="R209">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S209">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T209">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U209">
         <v>2.25</v>
       </c>
       <c r="V209">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W209">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19756,19 +19756,19 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>1.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
         <v>-1</v>
       </c>
       <c r="AD209">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -19776,7 +19776,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6867254</v>
+        <v>6867509</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -19785,82 +19785,82 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F210" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
         <v>0</v>
       </c>
       <c r="J210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L210">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="M210">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N210">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="O210">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="P210">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q210">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="R210">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T210">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W210">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
         <v>-1</v>
       </c>
       <c r="AD210">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -19969,7 +19969,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F212" t="s">
         <v>50</v>
@@ -20061,7 +20061,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F213" t="s">
         <v>32</v>
@@ -20245,10 +20245,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E215" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -20432,7 +20432,7 @@
         <v>35</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -20613,10 +20613,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -20708,7 +20708,7 @@
         <v>46</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -20788,7 +20788,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6871108</v>
+        <v>6867513</v>
       </c>
       <c r="C221" t="s">
         <v>29</v>
@@ -20797,19 +20797,19 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -20818,43 +20818,43 @@
         <v>53</v>
       </c>
       <c r="L221">
+        <v>2.3</v>
+      </c>
+      <c r="M221">
+        <v>3.1</v>
+      </c>
+      <c r="N221">
+        <v>2.8</v>
+      </c>
+      <c r="O221">
+        <v>2.375</v>
+      </c>
+      <c r="P221">
+        <v>3.1</v>
+      </c>
+      <c r="Q221">
+        <v>2.75</v>
+      </c>
+      <c r="R221">
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <v>1.75</v>
+      </c>
+      <c r="T221">
         <v>2.05</v>
       </c>
-      <c r="M221">
-        <v>3.3</v>
-      </c>
-      <c r="N221">
-        <v>3.1</v>
-      </c>
-      <c r="O221">
-        <v>1.909</v>
-      </c>
-      <c r="P221">
-        <v>3.6</v>
-      </c>
-      <c r="Q221">
-        <v>3.2</v>
-      </c>
-      <c r="R221">
-        <v>-0.5</v>
-      </c>
-      <c r="S221">
-        <v>1.975</v>
-      </c>
-      <c r="T221">
-        <v>1.825</v>
-      </c>
       <c r="U221">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X221">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="Y221">
         <v>-1</v>
@@ -20863,13 +20863,13 @@
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AD221">
         <v>-1</v>
@@ -20880,7 +20880,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6867513</v>
+        <v>6867514</v>
       </c>
       <c r="C222" t="s">
         <v>29</v>
@@ -20889,19 +20889,19 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -20910,43 +20910,43 @@
         <v>53</v>
       </c>
       <c r="L222">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="M222">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N222">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="O222">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="P222">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q222">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="R222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S222">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V222">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W222">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X222">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="Y222">
         <v>-1</v>
@@ -20955,13 +20955,13 @@
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC222">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AD222">
         <v>-1</v>
@@ -20972,7 +20972,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6867514</v>
+        <v>6867566</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20981,13 +20981,13 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20999,64 +20999,64 @@
         <v>0</v>
       </c>
       <c r="K223" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L223">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="M223">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N223">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="O223">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="P223">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q223">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="R223">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S223">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T223">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W223">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X223">
+        <v>-1</v>
+      </c>
+      <c r="Y223">
+        <v>2.4</v>
+      </c>
+      <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
         <v>0.5</v>
       </c>
-      <c r="Y223">
-        <v>-1</v>
-      </c>
-      <c r="Z223">
-        <v>-1</v>
-      </c>
-      <c r="AA223">
-        <v>0</v>
-      </c>
       <c r="AB223">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC223">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD223">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -21064,7 +21064,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6867566</v>
+        <v>6867721</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21073,82 +21073,82 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G224">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L224">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="M224">
         <v>3.2</v>
       </c>
       <c r="N224">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O224">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P224">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q224">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R224">
         <v>0.25</v>
       </c>
       <c r="S224">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U224">
         <v>2.25</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W224">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA224">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC224">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD224">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21156,7 +21156,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6867721</v>
+        <v>6871108</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -21165,79 +21165,79 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L225">
+        <v>2.05</v>
+      </c>
+      <c r="M225">
         <v>3.3</v>
       </c>
-      <c r="M225">
+      <c r="N225">
+        <v>3.1</v>
+      </c>
+      <c r="O225">
+        <v>1.909</v>
+      </c>
+      <c r="P225">
+        <v>3.6</v>
+      </c>
+      <c r="Q225">
         <v>3.2</v>
       </c>
-      <c r="N225">
-        <v>2</v>
-      </c>
-      <c r="O225">
-        <v>2.9</v>
-      </c>
-      <c r="P225">
-        <v>3.2</v>
-      </c>
-      <c r="Q225">
-        <v>2.15</v>
-      </c>
       <c r="R225">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S225">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U225">
         <v>2.25</v>
       </c>
       <c r="V225">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W225">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB225">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD225">
         <v>-1</v>
@@ -21352,7 +21352,7 @@
         <v>50</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -21536,7 +21536,7 @@
         <v>48</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -21625,7 +21625,7 @@
         <v>45381.5</v>
       </c>
       <c r="E230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F230" t="s">
         <v>32</v>
@@ -21708,7 +21708,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6871107</v>
+        <v>6867567</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -21717,16 +21717,16 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E231" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G231">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -21735,64 +21735,64 @@
         <v>0</v>
       </c>
       <c r="K231" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L231">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="M231">
         <v>3.25</v>
       </c>
       <c r="N231">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O231">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="P231">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q231">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R231">
         <v>0</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U231">
         <v>2.5</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X231">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC231">
         <v>-1</v>
       </c>
       <c r="AD231">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -21800,7 +21800,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6867567</v>
+        <v>6871107</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
@@ -21809,16 +21809,16 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E232" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F232" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G232">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -21827,64 +21827,64 @@
         <v>0</v>
       </c>
       <c r="K232" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L232">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="M232">
         <v>3.25</v>
       </c>
       <c r="N232">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O232">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="P232">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q232">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R232">
         <v>0</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U232">
         <v>2.5</v>
       </c>
       <c r="V232">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W232">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y232">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
         <v>-1</v>
       </c>
       <c r="AD232">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:30">
@@ -21892,7 +21892,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7978503</v>
+        <v>7978504</v>
       </c>
       <c r="C233" t="s">
         <v>29</v>
@@ -21904,79 +21904,79 @@
         <v>40</v>
       </c>
       <c r="F233" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K233" t="s">
         <v>54</v>
       </c>
       <c r="L233">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="M233">
         <v>3.2</v>
       </c>
       <c r="N233">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O233">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="P233">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q233">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="R233">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S233">
         <v>1.975</v>
       </c>
       <c r="T233">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W233">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB233">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD233">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="234" spans="1:30">
@@ -21993,10 +21993,10 @@
         <v>45382.5</v>
       </c>
       <c r="E234" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -22076,7 +22076,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7978504</v>
+        <v>7978503</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22085,82 +22085,82 @@
         <v>45382.5</v>
       </c>
       <c r="E235" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F235" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K235" t="s">
         <v>54</v>
       </c>
       <c r="L235">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="M235">
         <v>3.2</v>
       </c>
       <c r="N235">
+        <v>2.5</v>
+      </c>
+      <c r="O235">
         <v>2.625</v>
       </c>
-      <c r="O235">
-        <v>2.3</v>
-      </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q235">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="R235">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S235">
         <v>1.975</v>
       </c>
       <c r="T235">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="U235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V235">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W235">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB235">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AC235">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD235">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22272,7 +22272,7 @@
         <v>35</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -22444,7 +22444,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6867569</v>
+        <v>6871106</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22453,16 +22453,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E239" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -22474,40 +22474,40 @@
         <v>52</v>
       </c>
       <c r="L239">
+        <v>2.6</v>
+      </c>
+      <c r="M239">
         <v>2.8</v>
       </c>
-      <c r="M239">
-        <v>3.2</v>
-      </c>
       <c r="N239">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P239">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q239">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="R239">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U239">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W239">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -22516,19 +22516,19 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD239">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22536,7 +22536,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6871106</v>
+        <v>6867569</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22545,16 +22545,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -22566,40 +22566,40 @@
         <v>52</v>
       </c>
       <c r="L240">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M240">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N240">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O240">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P240">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q240">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="R240">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S240">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U240">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -22608,19 +22608,19 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD240">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22637,10 +22637,10 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E241" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -22824,7 +22824,7 @@
         <v>49</v>
       </c>
       <c r="F243" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -23008,7 +23008,7 @@
         <v>32</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -23097,7 +23097,7 @@
         <v>45396.5</v>
       </c>
       <c r="E246" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F246" t="s">
         <v>50</v>
@@ -23180,7 +23180,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6867571</v>
+        <v>6867694</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23189,19 +23189,19 @@
         <v>45396.5</v>
       </c>
       <c r="E247" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G247">
         <v>2</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -23210,43 +23210,43 @@
         <v>53</v>
       </c>
       <c r="L247">
+        <v>1.727</v>
+      </c>
+      <c r="M247">
+        <v>3.5</v>
+      </c>
+      <c r="N247">
+        <v>4.333</v>
+      </c>
+      <c r="O247">
+        <v>2.05</v>
+      </c>
+      <c r="P247">
+        <v>3.25</v>
+      </c>
+      <c r="Q247">
+        <v>3.3</v>
+      </c>
+      <c r="R247">
+        <v>-0.25</v>
+      </c>
+      <c r="S247">
+        <v>1.8</v>
+      </c>
+      <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
         <v>2.25</v>
       </c>
-      <c r="M247">
-        <v>3.3</v>
-      </c>
-      <c r="N247">
-        <v>2.875</v>
-      </c>
-      <c r="O247">
-        <v>1.85</v>
-      </c>
-      <c r="P247">
-        <v>3.4</v>
-      </c>
-      <c r="Q247">
-        <v>3.5</v>
-      </c>
-      <c r="R247">
-        <v>-0.5</v>
-      </c>
-      <c r="S247">
-        <v>1.95</v>
-      </c>
-      <c r="T247">
-        <v>1.85</v>
-      </c>
-      <c r="U247">
-        <v>2.5</v>
-      </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W247">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X247">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -23255,16 +23255,16 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD247">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23272,7 +23272,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6871105</v>
+        <v>6867570</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23281,16 +23281,16 @@
         <v>45396.5</v>
       </c>
       <c r="E248" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F248" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -23299,64 +23299,64 @@
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L248">
+        <v>1.666</v>
+      </c>
+      <c r="M248">
         <v>3.6</v>
       </c>
-      <c r="M248">
-        <v>3.4</v>
-      </c>
       <c r="N248">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O248">
+        <v>1.666</v>
+      </c>
+      <c r="P248">
         <v>3.6</v>
       </c>
-      <c r="P248">
-        <v>3.4</v>
-      </c>
       <c r="Q248">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="R248">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S248">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T248">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U248">
         <v>2.25</v>
       </c>
       <c r="V248">
+        <v>1.875</v>
+      </c>
+      <c r="W248">
         <v>1.925</v>
       </c>
-      <c r="W248">
-        <v>1.875</v>
-      </c>
       <c r="X248">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB248">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC248">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD248">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23364,7 +23364,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6867570</v>
+        <v>6867571</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23373,64 +23373,64 @@
         <v>45396.5</v>
       </c>
       <c r="E249" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F249" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G249">
         <v>2</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K249" t="s">
         <v>53</v>
       </c>
       <c r="L249">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="M249">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N249">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="O249">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="P249">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q249">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="R249">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S249">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T249">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U249">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V249">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X249">
-        <v>0.6659999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y249">
         <v>-1</v>
@@ -23439,16 +23439,16 @@
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB249">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD249">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23456,7 +23456,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6867694</v>
+        <v>6867519</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23465,13 +23465,13 @@
         <v>45396.5</v>
       </c>
       <c r="E250" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23480,67 +23480,67 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L250">
+        <v>3.6</v>
+      </c>
+      <c r="M250">
+        <v>3.4</v>
+      </c>
+      <c r="N250">
+        <v>1.909</v>
+      </c>
+      <c r="O250">
+        <v>4.5</v>
+      </c>
+      <c r="P250">
+        <v>3.4</v>
+      </c>
+      <c r="Q250">
         <v>1.727</v>
       </c>
-      <c r="M250">
-        <v>3.5</v>
-      </c>
-      <c r="N250">
-        <v>4.333</v>
-      </c>
-      <c r="O250">
-        <v>2.05</v>
-      </c>
-      <c r="P250">
-        <v>3.25</v>
-      </c>
-      <c r="Q250">
-        <v>3.3</v>
-      </c>
       <c r="R250">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S250">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U250">
         <v>2.25</v>
       </c>
       <c r="V250">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W250">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X250">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA250">
+        <v>-0.5</v>
+      </c>
+      <c r="AB250">
+        <v>0.4875</v>
+      </c>
+      <c r="AC250">
+        <v>-1</v>
+      </c>
+      <c r="AD250">
         <v>0.8</v>
-      </c>
-      <c r="AB250">
-        <v>-1</v>
-      </c>
-      <c r="AC250">
-        <v>0.925</v>
-      </c>
-      <c r="AD250">
-        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -23548,7 +23548,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6867519</v>
+        <v>6867258</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23557,13 +23557,13 @@
         <v>45396.5</v>
       </c>
       <c r="E251" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -23572,40 +23572,40 @@
         <v>0</v>
       </c>
       <c r="J251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K251" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M251">
+        <v>3.3</v>
+      </c>
+      <c r="N251">
+        <v>2</v>
+      </c>
+      <c r="O251">
         <v>3.4</v>
       </c>
-      <c r="N251">
-        <v>1.909</v>
-      </c>
-      <c r="O251">
-        <v>4.5</v>
-      </c>
       <c r="P251">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q251">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="R251">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S251">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T251">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U251">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V251">
         <v>2</v>
@@ -23614,25 +23614,25 @@
         <v>1.8</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB251">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -23640,7 +23640,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6867258</v>
+        <v>6867206</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23649,19 +23649,19 @@
         <v>45396.5</v>
       </c>
       <c r="E252" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252">
         <v>0</v>
@@ -23670,34 +23670,34 @@
         <v>53</v>
       </c>
       <c r="L252">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="M252">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N252">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O252">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="P252">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q252">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R252">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S252">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T252">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U252">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V252">
         <v>2</v>
@@ -23706,7 +23706,7 @@
         <v>1.8</v>
       </c>
       <c r="X252">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
@@ -23715,16 +23715,16 @@
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -23732,7 +23732,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6867206</v>
+        <v>6871105</v>
       </c>
       <c r="C253" t="s">
         <v>29</v>
@@ -23741,82 +23741,82 @@
         <v>45396.5</v>
       </c>
       <c r="E253" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F253" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L253">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="M253">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N253">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O253">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="P253">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q253">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="R253">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S253">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T253">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U253">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V253">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W253">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X253">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA253">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD253">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="254" spans="1:30">
@@ -24020,7 +24020,7 @@
         <v>49</v>
       </c>
       <c r="F256" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -24112,7 +24112,7 @@
         <v>48</v>
       </c>
       <c r="F257" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G257">
         <v>2</v>
@@ -24204,7 +24204,7 @@
         <v>42</v>
       </c>
       <c r="F258" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G258">
         <v>3</v>
@@ -24296,7 +24296,7 @@
         <v>47</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -24385,10 +24385,10 @@
         <v>45403.5</v>
       </c>
       <c r="E260" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G260">
         <v>4</v>
@@ -24480,7 +24480,7 @@
         <v>37</v>
       </c>
       <c r="F261" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -24572,7 +24572,7 @@
         <v>50</v>
       </c>
       <c r="F262" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -24753,7 +24753,7 @@
         <v>45410.5</v>
       </c>
       <c r="E264" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F264" t="s">
         <v>47</v>
@@ -24845,10 +24845,10 @@
         <v>45410.5</v>
       </c>
       <c r="E265" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -24937,7 +24937,7 @@
         <v>45410.5</v>
       </c>
       <c r="E266" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F266" t="s">
         <v>37</v>
@@ -25029,7 +25029,7 @@
         <v>45410.5</v>
       </c>
       <c r="E267" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F267" t="s">
         <v>49</v>
@@ -25121,7 +25121,7 @@
         <v>45410.5</v>
       </c>
       <c r="E268" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F268" t="s">
         <v>50</v>
@@ -25305,7 +25305,7 @@
         <v>45410.5</v>
       </c>
       <c r="E270" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F270" t="s">
         <v>46</v>
@@ -25489,7 +25489,7 @@
         <v>45411.625</v>
       </c>
       <c r="E272" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F272" t="s">
         <v>32</v>
@@ -25584,7 +25584,7 @@
         <v>48</v>
       </c>
       <c r="F273" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -25768,7 +25768,7 @@
         <v>37</v>
       </c>
       <c r="F275" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -25860,7 +25860,7 @@
         <v>32</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G276">
         <v>3</v>
@@ -25952,7 +25952,7 @@
         <v>49</v>
       </c>
       <c r="F277" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -26044,7 +26044,7 @@
         <v>42</v>
       </c>
       <c r="F278" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G278">
         <v>3</v>
@@ -26136,7 +26136,7 @@
         <v>46</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G279">
         <v>3</v>
@@ -26225,7 +26225,7 @@
         <v>45417.5</v>
       </c>
       <c r="E280" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F280" t="s">
         <v>41</v>
@@ -26317,7 +26317,7 @@
         <v>45418.625</v>
       </c>
       <c r="E281" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F281" t="s">
         <v>35</v>
@@ -26409,7 +26409,7 @@
         <v>45423.5</v>
       </c>
       <c r="E282" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F282" t="s">
         <v>42</v>
@@ -26501,7 +26501,7 @@
         <v>45424.5</v>
       </c>
       <c r="E283" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F283" t="s">
         <v>32</v>
@@ -26593,7 +26593,7 @@
         <v>45424.5</v>
       </c>
       <c r="E284" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F284" t="s">
         <v>48</v>
@@ -26685,10 +26685,10 @@
         <v>45424.5</v>
       </c>
       <c r="E285" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F285" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -26961,7 +26961,7 @@
         <v>45424.5</v>
       </c>
       <c r="E288" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F288" t="s">
         <v>46</v>
@@ -27053,10 +27053,10 @@
         <v>45424.5</v>
       </c>
       <c r="E289" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F289" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -27332,7 +27332,7 @@
         <v>41</v>
       </c>
       <c r="F292" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G292">
         <v>3</v>
@@ -27504,7 +27504,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8214046</v>
+        <v>8214050</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27513,16 +27513,16 @@
         <v>45431.5</v>
       </c>
       <c r="E294" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F294" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -27531,37 +27531,37 @@
         <v>0</v>
       </c>
       <c r="K294" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L294">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="M294">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N294">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O294">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="P294">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q294">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="R294">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S294">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T294">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U294">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V294">
         <v>1.85</v>
@@ -27570,25 +27570,25 @@
         <v>1.95</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y294">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD294">
-        <v>0.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -27596,7 +27596,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8214047</v>
+        <v>8214049</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -27605,55 +27605,55 @@
         <v>45431.5</v>
       </c>
       <c r="E295" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F295" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K295" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L295">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M295">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N295">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O295">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P295">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q295">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R295">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S295">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T295">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U295">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V295">
         <v>1.825</v>
@@ -27662,19 +27662,19 @@
         <v>1.975</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y295">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB295">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
         <v>0.825</v>
@@ -27700,7 +27700,7 @@
         <v>49</v>
       </c>
       <c r="F296" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -27780,7 +27780,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>8214049</v>
+        <v>8214047</v>
       </c>
       <c r="C297" t="s">
         <v>29</v>
@@ -27789,55 +27789,55 @@
         <v>45431.5</v>
       </c>
       <c r="E297" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F297" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G297">
+        <v>2</v>
+      </c>
+      <c r="H297">
+        <v>2</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297" t="s">
+        <v>54</v>
+      </c>
+      <c r="L297">
+        <v>2.3</v>
+      </c>
+      <c r="M297">
         <v>3</v>
       </c>
-      <c r="H297">
-        <v>1</v>
-      </c>
-      <c r="I297">
-        <v>2</v>
-      </c>
-      <c r="J297">
-        <v>0</v>
-      </c>
-      <c r="K297" t="s">
-        <v>53</v>
-      </c>
-      <c r="L297">
-        <v>2.2</v>
-      </c>
-      <c r="M297">
-        <v>3.25</v>
-      </c>
       <c r="N297">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O297">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P297">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q297">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R297">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S297">
+        <v>2</v>
+      </c>
+      <c r="T297">
         <v>1.8</v>
       </c>
-      <c r="T297">
-        <v>2</v>
-      </c>
       <c r="U297">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V297">
         <v>1.825</v>
@@ -27846,19 +27846,19 @@
         <v>1.975</v>
       </c>
       <c r="X297">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z297">
         <v>-1</v>
       </c>
       <c r="AA297">
+        <v>-1</v>
+      </c>
+      <c r="AB297">
         <v>0.8</v>
-      </c>
-      <c r="AB297">
-        <v>-1</v>
       </c>
       <c r="AC297">
         <v>0.825</v>
@@ -27872,7 +27872,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>8214050</v>
+        <v>8214046</v>
       </c>
       <c r="C298" t="s">
         <v>29</v>
@@ -27881,16 +27881,16 @@
         <v>45431.5</v>
       </c>
       <c r="E298" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F298" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298">
         <v>0</v>
@@ -27899,37 +27899,37 @@
         <v>0</v>
       </c>
       <c r="K298" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L298">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="M298">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N298">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O298">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="P298">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q298">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="R298">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S298">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T298">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U298">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V298">
         <v>1.85</v>
@@ -27938,25 +27938,25 @@
         <v>1.95</v>
       </c>
       <c r="X298">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC298">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD298">
-        <v>0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="299" spans="1:30">
@@ -28243,10 +28243,10 @@
         <v>45438.5</v>
       </c>
       <c r="E302" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F302" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -28320,7 +28320,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6870614</v>
+        <v>6869722</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28329,49 +28329,49 @@
         <v>45438.5</v>
       </c>
       <c r="E303" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F303" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K303" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L303">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="M303">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N303">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O303">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="P303">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q303">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="R303">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S303">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T303">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U303">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V303">
         <v>1.975</v>
@@ -28380,25 +28380,25 @@
         <v>1.825</v>
       </c>
       <c r="X303">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA303">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC303">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD303">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28406,7 +28406,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6869722</v>
+        <v>6869718</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28415,40 +28415,40 @@
         <v>45438.5</v>
       </c>
       <c r="E304" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F304" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G304">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K304" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L304">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M304">
         <v>3.2</v>
       </c>
       <c r="N304">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O304">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P304">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q304">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="R304">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S304">
         <v>1.825</v>
@@ -28457,7 +28457,7 @@
         <v>1.975</v>
       </c>
       <c r="U304">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V304">
         <v>1.975</v>
@@ -28469,22 +28469,22 @@
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z304">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB304">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC304">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD304">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28492,7 +28492,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6869718</v>
+        <v>6869719</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28504,7 +28504,7 @@
         <v>40</v>
       </c>
       <c r="F305" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -28516,61 +28516,61 @@
         <v>54</v>
       </c>
       <c r="L305">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M305">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N305">
+        <v>3</v>
+      </c>
+      <c r="O305">
+        <v>2.1</v>
+      </c>
+      <c r="P305">
+        <v>3.4</v>
+      </c>
+      <c r="Q305">
         <v>2.9</v>
       </c>
-      <c r="O305">
+      <c r="R305">
+        <v>-0.25</v>
+      </c>
+      <c r="S305">
+        <v>1.875</v>
+      </c>
+      <c r="T305">
+        <v>1.925</v>
+      </c>
+      <c r="U305">
         <v>2.5</v>
       </c>
-      <c r="P305">
-        <v>3.2</v>
-      </c>
-      <c r="Q305">
-        <v>2.625</v>
-      </c>
-      <c r="R305">
-        <v>0</v>
-      </c>
-      <c r="S305">
-        <v>1.825</v>
-      </c>
-      <c r="T305">
-        <v>1.975</v>
-      </c>
-      <c r="U305">
-        <v>2</v>
-      </c>
       <c r="V305">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W305">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z305">
         <v>-1</v>
       </c>
       <c r="AA305">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB305">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD305">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -28578,7 +28578,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6869719</v>
+        <v>6870614</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28587,76 +28587,76 @@
         <v>45438.5</v>
       </c>
       <c r="E306" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F306" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="K306" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L306">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="M306">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N306">
+        <v>4.2</v>
+      </c>
+      <c r="O306">
+        <v>1.533</v>
+      </c>
+      <c r="P306">
+        <v>4.2</v>
+      </c>
+      <c r="Q306">
+        <v>4.5</v>
+      </c>
+      <c r="R306">
+        <v>-1</v>
+      </c>
+      <c r="S306">
+        <v>1.85</v>
+      </c>
+      <c r="T306">
+        <v>1.95</v>
+      </c>
+      <c r="U306">
         <v>3</v>
       </c>
-      <c r="O306">
-        <v>2.1</v>
-      </c>
-      <c r="P306">
-        <v>3.4</v>
-      </c>
-      <c r="Q306">
-        <v>2.9</v>
-      </c>
-      <c r="R306">
-        <v>-0.25</v>
-      </c>
-      <c r="S306">
-        <v>1.875</v>
-      </c>
-      <c r="T306">
-        <v>1.925</v>
-      </c>
-      <c r="U306">
-        <v>2.5</v>
-      </c>
       <c r="V306">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W306">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y306">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB306">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD306">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -28673,7 +28673,7 @@
         <v>45438.52083333334</v>
       </c>
       <c r="E307" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F307" t="s">
         <v>46</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -121,19 +121,19 @@
     <t>BVSC Zuglo</t>
   </si>
   <si>
-    <t>Vasas SC</t>
+    <t>Pecsi MFC</t>
   </si>
   <si>
-    <t>Pecsi MFC</t>
+    <t>Csakvari Tk</t>
+  </si>
+  <si>
+    <t>FC Ajka</t>
   </si>
   <si>
     <t>Kozarmisleny SE</t>
   </si>
   <si>
-    <t>FC Ajka</t>
-  </si>
-  <si>
-    <t>Csakvari Tk</t>
+    <t>Vasas SC</t>
   </si>
   <si>
     <t>Kazincbarcikai BSC</t>
@@ -145,13 +145,13 @@
     <t>Soroksar</t>
   </si>
   <si>
-    <t>Budapest Honved</t>
-  </si>
-  <si>
     <t>MTE 1904</t>
   </si>
   <si>
     <t>Budafoki MTE</t>
+  </si>
+  <si>
+    <t>Budapest Honved</t>
   </si>
   <si>
     <t>Gyori ETO</t>
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6867521</v>
+        <v>6867575</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1017,19 +1017,19 @@
         <v>45137.52083333334</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1038,25 +1038,25 @@
         <v>53</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M6">
         <v>3.5</v>
       </c>
       <c r="N6">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O6">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="P6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S6">
         <v>1.8</v>
@@ -1065,16 +1065,16 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>1.875</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1089,10 +1089,10 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD6">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6867575</v>
+        <v>6867521</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1109,19 +1109,19 @@
         <v>45137.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         <v>53</v>
       </c>
       <c r="L7">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>3.5</v>
       </c>
       <c r="N7">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="R7">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S7">
         <v>1.8</v>
@@ -1157,16 +1157,16 @@
         <v>2</v>
       </c>
       <c r="U7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X7">
-        <v>0.6499999999999999</v>
+        <v>1.875</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1181,10 +1181,10 @@
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD7">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1192,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6867869</v>
+        <v>6867180</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1204,79 +1204,79 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O8">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q8">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S8">
+        <v>1.95</v>
+      </c>
+      <c r="T8">
         <v>1.85</v>
       </c>
-      <c r="T8">
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>1.85</v>
+      </c>
+      <c r="W8">
         <v>1.95</v>
       </c>
-      <c r="U8">
-        <v>2.25</v>
-      </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
-      <c r="W8">
-        <v>1.925</v>
-      </c>
       <c r="X8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
+        <v>-1</v>
+      </c>
+      <c r="AD8">
         <v>0.95</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
-      </c>
-      <c r="AD8">
-        <v>0.925</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6867180</v>
+        <v>6871132</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1296,79 +1296,79 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
         <v>3.5</v>
       </c>
       <c r="N9">
+        <v>1.85</v>
+      </c>
+      <c r="O9">
         <v>3.75</v>
       </c>
-      <c r="O9">
+      <c r="P9">
+        <v>3.75</v>
+      </c>
+      <c r="Q9">
+        <v>1.909</v>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>1.85</v>
+      </c>
+      <c r="T9">
         <v>1.95</v>
       </c>
-      <c r="P9">
-        <v>3.6</v>
-      </c>
-      <c r="Q9">
-        <v>3.8</v>
-      </c>
-      <c r="R9">
-        <v>-0.5</v>
-      </c>
-      <c r="S9">
+      <c r="U9">
+        <v>2.5</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>1.85</v>
       </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>1.85</v>
-      </c>
-      <c r="W9">
-        <v>1.95</v>
-      </c>
       <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>0.909</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
         <v>0.95</v>
       </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>-1</v>
-      </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>0.95</v>
       </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
-      </c>
       <c r="AD9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6867868</v>
+        <v>6867734</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1388,79 +1388,79 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N10">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="O10">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q10">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="R10">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S10">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>2.25</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD10">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1468,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6867734</v>
+        <v>6867868</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1480,79 +1480,79 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M11">
+        <v>3.3</v>
+      </c>
+      <c r="N11">
+        <v>2.75</v>
+      </c>
+      <c r="O11">
+        <v>2.1</v>
+      </c>
+      <c r="P11">
+        <v>3.5</v>
+      </c>
+      <c r="Q11">
         <v>3.4</v>
       </c>
-      <c r="N11">
-        <v>3.2</v>
-      </c>
-      <c r="O11">
-        <v>1.8</v>
-      </c>
-      <c r="P11">
-        <v>3.6</v>
-      </c>
-      <c r="Q11">
-        <v>4.5</v>
-      </c>
       <c r="R11">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U11">
         <v>2.25</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD11">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6871132</v>
+        <v>6867869</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1572,13 +1572,13 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>52</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="M12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q12">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="R12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S12">
         <v>1.85</v>
@@ -1617,13 +1617,13 @@
         <v>1.95</v>
       </c>
       <c r="U12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1632,7 +1632,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.909</v>
+        <v>5.5</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1641,10 +1641,10 @@
         <v>0.95</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1756,7 +1756,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1928,7 +1928,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6871131</v>
+        <v>6867576</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1940,58 +1940,58 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
         <v>52</v>
       </c>
       <c r="L16">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="M16">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N16">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="O16">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="P16">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q16">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U16">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="W16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -2000,19 +2000,19 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC16">
-        <v>0.375</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AD16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -2020,7 +2020,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6867576</v>
+        <v>6867870</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2032,79 +2032,79 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17">
-        <v>2.25</v>
-      </c>
       <c r="M17">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N17">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O17">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P17">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="R17">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T17">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U17">
         <v>2</v>
       </c>
       <c r="V17">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="W17">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2112,7 +2112,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6867870</v>
+        <v>6871131</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2127,76 +2127,76 @@
         <v>38</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="M18">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="O18">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q18">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S18">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V18">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W18">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA18">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2308,7 +2308,7 @@
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>45144.58333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
@@ -2584,7 +2584,7 @@
         <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2857,7 +2857,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
@@ -2949,7 +2949,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
         <v>46</v>
@@ -3041,7 +3041,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
         <v>49</v>
@@ -3136,7 +3136,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3225,10 +3225,10 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -3409,7 +3409,7 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -3501,10 +3501,10 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3777,10 +3777,10 @@
         <v>45154.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
         <v>48</v>
@@ -4056,7 +4056,7 @@
         <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4332,7 +4332,7 @@
         <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4516,7 +4516,7 @@
         <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4605,10 +4605,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
         <v>40</v>
@@ -4789,7 +4789,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -4973,10 +4973,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
@@ -5436,7 +5436,7 @@
         <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5525,7 +5525,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
         <v>47</v>
@@ -5620,7 +5620,7 @@
         <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
         <v>33</v>
@@ -5801,7 +5801,7 @@
         <v>45166.625</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
         <v>49</v>
@@ -5896,7 +5896,7 @@
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
         <v>46</v>
@@ -6172,7 +6172,7 @@
         <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6353,7 +6353,7 @@
         <v>45172.5</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
@@ -6445,10 +6445,10 @@
         <v>45172.5</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6537,10 +6537,10 @@
         <v>45172.5</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6721,10 +6721,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6816,7 +6816,7 @@
         <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6905,7 +6905,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
         <v>48</v>
@@ -6997,10 +6997,10 @@
         <v>45193.5</v>
       </c>
       <c r="E71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" t="s">
         <v>36</v>
-      </c>
-      <c r="F71" t="s">
-        <v>39</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6867675</v>
+        <v>6867533</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7181,16 +7181,16 @@
         <v>45193.5</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -7199,64 +7199,64 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L73">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M73">
         <v>3.2</v>
       </c>
       <c r="N73">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="P73">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q73">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="R73">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S73">
         <v>1.975</v>
       </c>
       <c r="T73">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="U73">
         <v>2.25</v>
       </c>
       <c r="V73">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.3625</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
         <v>-0.5</v>
       </c>
       <c r="AD73">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7264,7 +7264,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6867533</v>
+        <v>6867674</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7273,82 +7273,82 @@
         <v>45193.5</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L74">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="M74">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O74">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P74">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q74">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="R74">
         <v>-0.75</v>
       </c>
       <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
+        <v>1.85</v>
+      </c>
+      <c r="U74">
+        <v>2.5</v>
+      </c>
+      <c r="V74">
         <v>1.975</v>
       </c>
-      <c r="T74">
+      <c r="W74">
         <v>1.825</v>
       </c>
-      <c r="U74">
-        <v>2.25</v>
-      </c>
-      <c r="V74">
-        <v>1.9</v>
-      </c>
-      <c r="W74">
-        <v>1.9</v>
-      </c>
       <c r="X74">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
+        <v>-1</v>
+      </c>
+      <c r="AD74">
         <v>0.825</v>
-      </c>
-      <c r="AC74">
-        <v>-0.5</v>
-      </c>
-      <c r="AD74">
-        <v>0.45</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7356,7 +7356,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867674</v>
+        <v>6867675</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7365,82 +7365,82 @@
         <v>45193.5</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L75">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="M75">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O75">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="P75">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q75">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="R75">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="U75">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X75">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD75">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7540,7 +7540,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867589</v>
+        <v>6867741</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7549,19 +7549,19 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -7570,25 +7570,25 @@
         <v>53</v>
       </c>
       <c r="L77">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="M77">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="O77">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="R77">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S77">
         <v>2</v>
@@ -7600,13 +7600,13 @@
         <v>2.5</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X77">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Y77">
         <v>-1</v>
@@ -7621,10 +7621,10 @@
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7632,7 +7632,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867741</v>
+        <v>6867589</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7641,19 +7641,19 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -7662,25 +7662,25 @@
         <v>53</v>
       </c>
       <c r="L78">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N78">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="O78">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="P78">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q78">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="R78">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S78">
         <v>2</v>
@@ -7692,13 +7692,13 @@
         <v>2.5</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X78">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7713,10 +7713,10 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -7736,7 +7736,7 @@
         <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6867241</v>
+        <v>6867534</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7825,79 +7825,79 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="M80">
         <v>3.3</v>
       </c>
       <c r="N80">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O80">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="P80">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q80">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="R80">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S80">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U80">
         <v>2.5</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB80">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AD80">
         <v>-1</v>
@@ -7917,7 +7917,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
         <v>40</v>
@@ -8101,10 +8101,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -8184,7 +8184,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6867534</v>
+        <v>6867241</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8193,79 +8193,79 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <v>2</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L84">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="M84">
         <v>3.3</v>
       </c>
       <c r="N84">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="P84">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="R84">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U84">
         <v>2.5</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AD84">
         <v>-1</v>
@@ -8285,10 +8285,10 @@
         <v>45197.61458333334</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8377,7 +8377,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
         <v>48</v>
@@ -8469,7 +8469,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
         <v>49</v>
@@ -8745,7 +8745,7 @@
         <v>45200.49652777778</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
         <v>34</v>
@@ -8837,10 +8837,10 @@
         <v>45200.5</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -9024,7 +9024,7 @@
         <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -9113,7 +9113,7 @@
         <v>45201.625</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
         <v>32</v>
@@ -9205,10 +9205,10 @@
         <v>45207.41319444445</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9392,7 +9392,7 @@
         <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9481,10 +9481,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E98" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" t="s">
         <v>43</v>
-      </c>
-      <c r="F98" t="s">
-        <v>44</v>
       </c>
       <c r="G98">
         <v>3</v>
@@ -9573,10 +9573,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -9944,7 +9944,7 @@
         <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G103">
         <v>4</v>
@@ -10036,7 +10036,7 @@
         <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -10309,7 +10309,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -10401,7 +10401,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
         <v>49</v>
@@ -10585,7 +10585,7 @@
         <v>45221.5</v>
       </c>
       <c r="E110" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
         <v>32</v>
@@ -10677,10 +10677,10 @@
         <v>45221.5</v>
       </c>
       <c r="E111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" t="s">
         <v>38</v>
-      </c>
-      <c r="F111" t="s">
-        <v>37</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10769,10 +10769,10 @@
         <v>45221.5</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -10956,7 +10956,7 @@
         <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -11048,7 +11048,7 @@
         <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -11137,7 +11137,7 @@
         <v>45228.375</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
         <v>34</v>
@@ -11321,7 +11321,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F118" t="s">
         <v>33</v>
@@ -11416,7 +11416,7 @@
         <v>48</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -11508,7 +11508,7 @@
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
         <v>40</v>
@@ -11784,7 +11784,7 @@
         <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11965,7 +11965,7 @@
         <v>45235.375</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F125" t="s">
         <v>42</v>
@@ -12057,7 +12057,7 @@
         <v>45235.375</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
         <v>46</v>
@@ -12152,7 +12152,7 @@
         <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -12241,7 +12241,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
         <v>47</v>
@@ -12333,7 +12333,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
         <v>48</v>
@@ -12425,10 +12425,10 @@
         <v>45236.66666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -12517,10 +12517,10 @@
         <v>45242.375</v>
       </c>
       <c r="E131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -12796,7 +12796,7 @@
         <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12968,7 +12968,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6871118</v>
+        <v>6867246</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12977,19 +12977,19 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -12998,43 +12998,43 @@
         <v>53</v>
       </c>
       <c r="L136">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O136">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="P136">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q136">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="R136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S136">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W136">
         <v>1.925</v>
       </c>
       <c r="X136">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="Y136">
         <v>-1</v>
@@ -13043,7 +13043,7 @@
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>1.05</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -13072,7 +13072,7 @@
         <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -13152,7 +13152,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6867877</v>
+        <v>6871118</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13161,40 +13161,40 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E138" t="s">
+        <v>45</v>
+      </c>
+      <c r="F138" t="s">
         <v>37</v>
       </c>
-      <c r="F138" t="s">
-        <v>39</v>
-      </c>
       <c r="G138">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L138">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O138">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -13203,40 +13203,40 @@
         <v>-0.5</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y138">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
         <v>-1</v>
       </c>
       <c r="AD138">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13244,7 +13244,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6867246</v>
+        <v>6867877</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13253,82 +13253,82 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L139">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="M139">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N139">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O139">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="P139">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q139">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="R139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S139">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U139">
         <v>2.5</v>
       </c>
       <c r="V139">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X139">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC139">
         <v>-1</v>
       </c>
       <c r="AD139">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13336,7 +13336,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6867596</v>
+        <v>6867975</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13345,52 +13345,52 @@
         <v>45256.375</v>
       </c>
       <c r="E140" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O140">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q140">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="R140">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U140">
         <v>2.25</v>
@@ -13405,16 +13405,16 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z140">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB140">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13440,7 +13440,7 @@
         <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -13612,7 +13612,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6867194</v>
+        <v>6867878</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13624,79 +13624,79 @@
         <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K143" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L143">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O143">
+        <v>3.8</v>
+      </c>
+      <c r="P143">
+        <v>3.4</v>
+      </c>
+      <c r="Q143">
+        <v>2</v>
+      </c>
+      <c r="R143">
+        <v>0.5</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>2.25</v>
       </c>
-      <c r="P143">
-        <v>3.2</v>
-      </c>
-      <c r="Q143">
-        <v>3.4</v>
-      </c>
-      <c r="R143">
-        <v>-0.25</v>
-      </c>
-      <c r="S143">
-        <v>1.875</v>
-      </c>
-      <c r="T143">
-        <v>1.925</v>
-      </c>
-      <c r="U143">
-        <v>2</v>
-      </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X143">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13704,7 +13704,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6867878</v>
+        <v>6867194</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13713,82 +13713,82 @@
         <v>45256.375</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G144">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="M144">
+        <v>3.1</v>
+      </c>
+      <c r="N144">
         <v>3.2</v>
       </c>
-      <c r="N144">
-        <v>2</v>
-      </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="P144">
+        <v>3.2</v>
+      </c>
+      <c r="Q144">
         <v>3.4</v>
       </c>
-      <c r="Q144">
-        <v>2</v>
-      </c>
       <c r="R144">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -13796,7 +13796,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6867975</v>
+        <v>6867596</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13805,52 +13805,52 @@
         <v>45256.375</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L145">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O145">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="P145">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q145">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S145">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U145">
         <v>2.25</v>
@@ -13865,16 +13865,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA145">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13897,7 +13897,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
         <v>49</v>
@@ -13989,7 +13989,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
         <v>47</v>
@@ -14081,7 +14081,7 @@
         <v>45257.66666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
         <v>46</v>
@@ -14176,7 +14176,7 @@
         <v>47</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -14265,7 +14265,7 @@
         <v>45263.375</v>
       </c>
       <c r="E150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F150" t="s">
         <v>40</v>
@@ -14360,7 +14360,7 @@
         <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -14532,7 +14532,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6867976</v>
+        <v>6871116</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14541,10 +14541,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -14556,67 +14556,67 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="s">
         <v>54</v>
       </c>
       <c r="L153">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="M153">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N153">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O153">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="P153">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="R153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T153">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>1.075</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
       </c>
-      <c r="AB153">
-        <v>0.4</v>
-      </c>
-      <c r="AC153">
-        <v>0</v>
-      </c>
       <c r="AD153">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14624,7 +14624,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6871116</v>
+        <v>6867976</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14633,10 +14633,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -14648,67 +14648,67 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="s">
         <v>54</v>
       </c>
       <c r="L154">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="M154">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N154">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O154">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q154">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="R154">
+        <v>-0.25</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>1.8</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>1.975</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>2.2</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
         <v>-0.5</v>
       </c>
-      <c r="S154">
-        <v>1.725</v>
-      </c>
-      <c r="T154">
-        <v>2.075</v>
-      </c>
-      <c r="U154">
-        <v>2.25</v>
-      </c>
-      <c r="V154">
-        <v>1.925</v>
-      </c>
-      <c r="W154">
-        <v>1.875</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>2.6</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
       <c r="AB154">
-        <v>1.075</v>
+        <v>0.4</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD154">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -14728,7 +14728,7 @@
         <v>46</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -14820,7 +14820,7 @@
         <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -14912,7 +14912,7 @@
         <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -15093,10 +15093,10 @@
         <v>45270.375</v>
       </c>
       <c r="E159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -15185,10 +15185,10 @@
         <v>45270.54166666666</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -15369,10 +15369,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -15461,7 +15461,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
         <v>47</v>
@@ -15740,7 +15740,7 @@
         <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -15829,10 +15829,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -16105,7 +16105,7 @@
         <v>45327.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
         <v>41</v>
@@ -16197,7 +16197,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F171" t="s">
         <v>32</v>
@@ -16381,7 +16381,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
         <v>40</v>
@@ -16473,7 +16473,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F174" t="s">
         <v>33</v>
@@ -16565,10 +16565,10 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -16752,7 +16752,7 @@
         <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -16936,7 +16936,7 @@
         <v>49</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -17028,7 +17028,7 @@
         <v>42</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -17209,10 +17209,10 @@
         <v>45336.54166666666</v>
       </c>
       <c r="E182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -17396,7 +17396,7 @@
         <v>48</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -17580,7 +17580,7 @@
         <v>34</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -17669,10 +17669,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -17853,7 +17853,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F189" t="s">
         <v>46</v>
@@ -18028,7 +18028,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6871112</v>
+        <v>6867555</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18037,16 +18037,16 @@
         <v>45340.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -18055,64 +18055,64 @@
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L191">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="M191">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N191">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O191">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="P191">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q191">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="R191">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V191">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W191">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC191">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD191">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18120,7 +18120,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6867555</v>
+        <v>6871112</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18129,16 +18129,16 @@
         <v>45340.54166666666</v>
       </c>
       <c r="E192" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G192">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -18147,64 +18147,64 @@
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L192">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="M192">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N192">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O192">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="P192">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q192">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R192">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T192">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U192">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z192">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB192">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC192">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD192">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18221,10 +18221,10 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E193" t="s">
+        <v>39</v>
+      </c>
+      <c r="F193" t="s">
         <v>35</v>
-      </c>
-      <c r="F193" t="s">
-        <v>36</v>
       </c>
       <c r="G193">
         <v>4</v>
@@ -18313,7 +18313,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F194" t="s">
         <v>47</v>
@@ -18405,7 +18405,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F195" t="s">
         <v>50</v>
@@ -18500,7 +18500,7 @@
         <v>42</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -18589,7 +18589,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F197" t="s">
         <v>33</v>
@@ -18681,10 +18681,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -18776,7 +18776,7 @@
         <v>40</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -19141,10 +19141,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -19236,7 +19236,7 @@
         <v>47</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -19328,7 +19328,7 @@
         <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -19420,7 +19420,7 @@
         <v>33</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -19512,7 +19512,7 @@
         <v>49</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -19785,7 +19785,7 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F210" t="s">
         <v>40</v>
@@ -19969,7 +19969,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F212" t="s">
         <v>50</v>
@@ -20061,7 +20061,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F213" t="s">
         <v>32</v>
@@ -20156,7 +20156,7 @@
         <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -20429,10 +20429,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E217" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -20613,7 +20613,7 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F219" t="s">
         <v>34</v>
@@ -20708,7 +20708,7 @@
         <v>46</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -20889,10 +20889,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -20984,7 +20984,7 @@
         <v>47</v>
       </c>
       <c r="F223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -21076,7 +21076,7 @@
         <v>33</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -21165,7 +21165,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F225" t="s">
         <v>42</v>
@@ -21352,7 +21352,7 @@
         <v>50</v>
       </c>
       <c r="F227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -21536,7 +21536,7 @@
         <v>48</v>
       </c>
       <c r="F229" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -21625,7 +21625,7 @@
         <v>45381.5</v>
       </c>
       <c r="E230" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F230" t="s">
         <v>32</v>
@@ -21708,7 +21708,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6867567</v>
+        <v>6871107</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -21717,16 +21717,16 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E231" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G231">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -21735,64 +21735,64 @@
         <v>0</v>
       </c>
       <c r="K231" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L231">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="M231">
         <v>3.25</v>
       </c>
       <c r="N231">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O231">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="P231">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q231">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R231">
         <v>0</v>
       </c>
       <c r="S231">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T231">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U231">
         <v>2.5</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y231">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
         <v>-1</v>
       </c>
       <c r="AD231">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -21800,7 +21800,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6871107</v>
+        <v>6867567</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
@@ -21809,16 +21809,16 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E232" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F232" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G232">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -21827,64 +21827,64 @@
         <v>0</v>
       </c>
       <c r="K232" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L232">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="M232">
         <v>3.25</v>
       </c>
       <c r="N232">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O232">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="P232">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q232">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R232">
         <v>0</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U232">
         <v>2.5</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W232">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X232">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC232">
         <v>-1</v>
       </c>
       <c r="AD232">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:30">
@@ -21892,7 +21892,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7978504</v>
+        <v>7978503</v>
       </c>
       <c r="C233" t="s">
         <v>29</v>
@@ -21901,82 +21901,82 @@
         <v>45382.5</v>
       </c>
       <c r="E233" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F233" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K233" t="s">
         <v>54</v>
       </c>
       <c r="L233">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="M233">
         <v>3.2</v>
       </c>
       <c r="N233">
+        <v>2.5</v>
+      </c>
+      <c r="O233">
         <v>2.625</v>
       </c>
-      <c r="O233">
-        <v>2.3</v>
-      </c>
       <c r="P233">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q233">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="R233">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S233">
         <v>1.975</v>
       </c>
       <c r="T233">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="U233">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB233">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD233">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:30">
@@ -21993,7 +21993,7 @@
         <v>45382.5</v>
       </c>
       <c r="E234" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F234" t="s">
         <v>33</v>
@@ -22076,7 +22076,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7978503</v>
+        <v>7978504</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22085,82 +22085,82 @@
         <v>45382.5</v>
       </c>
       <c r="E235" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K235" t="s">
         <v>54</v>
       </c>
       <c r="L235">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="M235">
         <v>3.2</v>
       </c>
       <c r="N235">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O235">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="P235">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="R235">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S235">
         <v>1.975</v>
       </c>
       <c r="T235">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V235">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W235">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AC235">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD235">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22269,7 +22269,7 @@
         <v>45382.5</v>
       </c>
       <c r="E237" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F237" t="s">
         <v>34</v>
@@ -22444,7 +22444,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6871106</v>
+        <v>6867569</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22453,16 +22453,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E239" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -22474,40 +22474,40 @@
         <v>52</v>
       </c>
       <c r="L239">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M239">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O239">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P239">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q239">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="R239">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U239">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V239">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -22516,19 +22516,19 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD239">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22536,7 +22536,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6867569</v>
+        <v>6871106</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22545,16 +22545,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -22566,40 +22566,40 @@
         <v>52</v>
       </c>
       <c r="L240">
+        <v>2.6</v>
+      </c>
+      <c r="M240">
         <v>2.8</v>
       </c>
-      <c r="M240">
-        <v>3.2</v>
-      </c>
       <c r="N240">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O240">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P240">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q240">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="R240">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U240">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -22608,19 +22608,19 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC240">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD240">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22640,7 +22640,7 @@
         <v>34</v>
       </c>
       <c r="F241" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -22824,7 +22824,7 @@
         <v>49</v>
       </c>
       <c r="F243" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -22916,7 +22916,7 @@
         <v>50</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -23008,7 +23008,7 @@
         <v>32</v>
       </c>
       <c r="F245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -23097,7 +23097,7 @@
         <v>45396.5</v>
       </c>
       <c r="E246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F246" t="s">
         <v>50</v>
@@ -23180,7 +23180,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6867694</v>
+        <v>6867571</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23189,19 +23189,19 @@
         <v>45396.5</v>
       </c>
       <c r="E247" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F247" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G247">
         <v>2</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -23210,43 +23210,43 @@
         <v>53</v>
       </c>
       <c r="L247">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M247">
+        <v>3.3</v>
+      </c>
+      <c r="N247">
+        <v>2.875</v>
+      </c>
+      <c r="O247">
+        <v>1.85</v>
+      </c>
+      <c r="P247">
+        <v>3.4</v>
+      </c>
+      <c r="Q247">
         <v>3.5</v>
       </c>
-      <c r="N247">
-        <v>4.333</v>
-      </c>
-      <c r="O247">
-        <v>2.05</v>
-      </c>
-      <c r="P247">
-        <v>3.25</v>
-      </c>
-      <c r="Q247">
-        <v>3.3</v>
-      </c>
       <c r="R247">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S247">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U247">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V247">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W247">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X247">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -23255,16 +23255,16 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD247">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23272,7 +23272,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6867570</v>
+        <v>6871105</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23281,16 +23281,16 @@
         <v>45396.5</v>
       </c>
       <c r="E248" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F248" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -23299,64 +23299,64 @@
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L248">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="M248">
+        <v>3.4</v>
+      </c>
+      <c r="N248">
+        <v>1.909</v>
+      </c>
+      <c r="O248">
         <v>3.6</v>
       </c>
-      <c r="N248">
-        <v>4.75</v>
-      </c>
-      <c r="O248">
-        <v>1.666</v>
-      </c>
       <c r="P248">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q248">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="R248">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S248">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U248">
         <v>2.25</v>
       </c>
       <c r="V248">
+        <v>1.925</v>
+      </c>
+      <c r="W248">
         <v>1.875</v>
       </c>
-      <c r="W248">
-        <v>1.925</v>
-      </c>
       <c r="X248">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA248">
+        <v>-1</v>
+      </c>
+      <c r="AB248">
+        <v>0.95</v>
+      </c>
+      <c r="AC248">
+        <v>-0.5</v>
+      </c>
+      <c r="AD248">
         <v>0.4375</v>
-      </c>
-      <c r="AB248">
-        <v>-0.5</v>
-      </c>
-      <c r="AC248">
-        <v>0.875</v>
-      </c>
-      <c r="AD248">
-        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23364,7 +23364,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6867571</v>
+        <v>6867570</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23373,82 +23373,82 @@
         <v>45396.5</v>
       </c>
       <c r="E249" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F249" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G249">
         <v>2</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K249" t="s">
         <v>53</v>
       </c>
       <c r="L249">
+        <v>1.666</v>
+      </c>
+      <c r="M249">
+        <v>3.6</v>
+      </c>
+      <c r="N249">
+        <v>4.75</v>
+      </c>
+      <c r="O249">
+        <v>1.666</v>
+      </c>
+      <c r="P249">
+        <v>3.6</v>
+      </c>
+      <c r="Q249">
+        <v>4.75</v>
+      </c>
+      <c r="R249">
+        <v>-0.75</v>
+      </c>
+      <c r="S249">
+        <v>1.875</v>
+      </c>
+      <c r="T249">
+        <v>1.925</v>
+      </c>
+      <c r="U249">
         <v>2.25</v>
       </c>
-      <c r="M249">
-        <v>3.3</v>
-      </c>
-      <c r="N249">
-        <v>2.875</v>
-      </c>
-      <c r="O249">
-        <v>1.85</v>
-      </c>
-      <c r="P249">
-        <v>3.4</v>
-      </c>
-      <c r="Q249">
-        <v>3.5</v>
-      </c>
-      <c r="R249">
+      <c r="V249">
+        <v>1.875</v>
+      </c>
+      <c r="W249">
+        <v>1.925</v>
+      </c>
+      <c r="X249">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Y249">
+        <v>-1</v>
+      </c>
+      <c r="Z249">
+        <v>-1</v>
+      </c>
+      <c r="AA249">
+        <v>0.4375</v>
+      </c>
+      <c r="AB249">
         <v>-0.5</v>
       </c>
-      <c r="S249">
-        <v>1.95</v>
-      </c>
-      <c r="T249">
-        <v>1.85</v>
-      </c>
-      <c r="U249">
-        <v>2.5</v>
-      </c>
-      <c r="V249">
-        <v>1.95</v>
-      </c>
-      <c r="W249">
-        <v>1.85</v>
-      </c>
-      <c r="X249">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y249">
-        <v>-1</v>
-      </c>
-      <c r="Z249">
-        <v>-1</v>
-      </c>
-      <c r="AA249">
-        <v>0.95</v>
-      </c>
-      <c r="AB249">
-        <v>-1</v>
-      </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD249">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23456,7 +23456,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6867519</v>
+        <v>6867694</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23465,13 +23465,13 @@
         <v>45396.5</v>
       </c>
       <c r="E250" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F250" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23480,67 +23480,67 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K250" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L250">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="M250">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N250">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="O250">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="P250">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q250">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="R250">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S250">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T250">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U250">
         <v>2.25</v>
       </c>
       <c r="V250">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB250">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD250">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -23548,7 +23548,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6867258</v>
+        <v>6867519</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23557,13 +23557,13 @@
         <v>45396.5</v>
       </c>
       <c r="E251" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -23572,40 +23572,40 @@
         <v>0</v>
       </c>
       <c r="J251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L251">
+        <v>3.6</v>
+      </c>
+      <c r="M251">
         <v>3.4</v>
       </c>
-      <c r="M251">
-        <v>3.3</v>
-      </c>
       <c r="N251">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O251">
+        <v>4.5</v>
+      </c>
+      <c r="P251">
         <v>3.4</v>
       </c>
-      <c r="P251">
-        <v>3.3</v>
-      </c>
       <c r="Q251">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="R251">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S251">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T251">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U251">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V251">
         <v>2</v>
@@ -23614,25 +23614,25 @@
         <v>1.8</v>
       </c>
       <c r="X251">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA251">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD251">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -23640,7 +23640,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6867206</v>
+        <v>6867258</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23649,19 +23649,19 @@
         <v>45396.5</v>
       </c>
       <c r="E252" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F252" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252">
         <v>0</v>
@@ -23670,34 +23670,34 @@
         <v>53</v>
       </c>
       <c r="L252">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M252">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N252">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O252">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="P252">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q252">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="R252">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S252">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T252">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V252">
         <v>2</v>
@@ -23706,7 +23706,7 @@
         <v>1.8</v>
       </c>
       <c r="X252">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y252">
         <v>-1</v>
@@ -23715,16 +23715,16 @@
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -23732,7 +23732,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6871105</v>
+        <v>6867206</v>
       </c>
       <c r="C253" t="s">
         <v>29</v>
@@ -23741,82 +23741,82 @@
         <v>45396.5</v>
       </c>
       <c r="E253" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F253" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K253" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L253">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="M253">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N253">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O253">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="P253">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q253">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="R253">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T253">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U253">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V253">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W253">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB253">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD253">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="254" spans="1:30">
@@ -23833,10 +23833,10 @@
         <v>45397.625</v>
       </c>
       <c r="E254" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F254" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -23928,7 +23928,7 @@
         <v>32</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G255">
         <v>3</v>
@@ -24020,7 +24020,7 @@
         <v>49</v>
       </c>
       <c r="F256" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -24204,7 +24204,7 @@
         <v>42</v>
       </c>
       <c r="F258" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G258">
         <v>3</v>
@@ -24385,10 +24385,10 @@
         <v>45403.5</v>
       </c>
       <c r="E260" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G260">
         <v>4</v>
@@ -24477,10 +24477,10 @@
         <v>45403.5</v>
       </c>
       <c r="E261" t="s">
+        <v>38</v>
+      </c>
+      <c r="F261" t="s">
         <v>37</v>
-      </c>
-      <c r="F261" t="s">
-        <v>38</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -24744,7 +24744,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6867698</v>
+        <v>6871103</v>
       </c>
       <c r="C264" t="s">
         <v>29</v>
@@ -24753,11 +24753,11 @@
         <v>45410.5</v>
       </c>
       <c r="E264" t="s">
+        <v>40</v>
+      </c>
+      <c r="F264" t="s">
         <v>45</v>
       </c>
-      <c r="F264" t="s">
-        <v>47</v>
-      </c>
       <c r="G264">
         <v>1</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>0</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264">
         <v>0</v>
@@ -24774,34 +24774,34 @@
         <v>53</v>
       </c>
       <c r="L264">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="M264">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N264">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O264">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="P264">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q264">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="R264">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S264">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T264">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U264">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V264">
         <v>1.925</v>
@@ -24810,7 +24810,7 @@
         <v>1.875</v>
       </c>
       <c r="X264">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Y264">
         <v>-1</v>
@@ -24819,7 +24819,7 @@
         <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB264">
         <v>-1</v>
@@ -24836,7 +24836,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6871103</v>
+        <v>6867977</v>
       </c>
       <c r="C265" t="s">
         <v>29</v>
@@ -24845,82 +24845,82 @@
         <v>45410.5</v>
       </c>
       <c r="E265" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F265" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K265" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L265">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="M265">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N265">
-        <v>2.625</v>
+        <v>3.7</v>
       </c>
       <c r="O265">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P265">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q265">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="R265">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S265">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T265">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U265">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X265">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA265">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:30">
@@ -24928,7 +24928,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6867977</v>
+        <v>6867698</v>
       </c>
       <c r="C266" t="s">
         <v>29</v>
@@ -24937,82 +24937,82 @@
         <v>45410.5</v>
       </c>
       <c r="E266" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F266" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K266" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L266">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M266">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N266">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O266">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="P266">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q266">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="R266">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S266">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T266">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U266">
         <v>2.5</v>
       </c>
       <c r="V266">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W266">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB266">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD266">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="267" spans="1:30">
@@ -25029,7 +25029,7 @@
         <v>45410.5</v>
       </c>
       <c r="E267" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F267" t="s">
         <v>49</v>
@@ -25213,7 +25213,7 @@
         <v>45410.5</v>
       </c>
       <c r="E269" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F269" t="s">
         <v>48</v>
@@ -25305,7 +25305,7 @@
         <v>45410.5</v>
       </c>
       <c r="E270" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F270" t="s">
         <v>46</v>
@@ -25489,7 +25489,7 @@
         <v>45411.625</v>
       </c>
       <c r="E272" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F272" t="s">
         <v>32</v>
@@ -25584,7 +25584,7 @@
         <v>48</v>
       </c>
       <c r="F273" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -25765,7 +25765,7 @@
         <v>45417.5</v>
       </c>
       <c r="E275" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F275" t="s">
         <v>34</v>
@@ -26044,7 +26044,7 @@
         <v>42</v>
       </c>
       <c r="F278" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G278">
         <v>3</v>
@@ -26136,7 +26136,7 @@
         <v>46</v>
       </c>
       <c r="F279" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G279">
         <v>3</v>
@@ -26225,7 +26225,7 @@
         <v>45417.5</v>
       </c>
       <c r="E280" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F280" t="s">
         <v>41</v>
@@ -26317,10 +26317,10 @@
         <v>45418.625</v>
       </c>
       <c r="E281" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F281" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -26409,7 +26409,7 @@
         <v>45423.5</v>
       </c>
       <c r="E282" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F282" t="s">
         <v>42</v>
@@ -26685,10 +26685,10 @@
         <v>45424.5</v>
       </c>
       <c r="E285" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F285" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -26768,7 +26768,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6868487</v>
+        <v>6867905</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
@@ -26777,82 +26777,82 @@
         <v>45424.5</v>
       </c>
       <c r="E286" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F286" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286">
         <v>0</v>
       </c>
       <c r="K286" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L286">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="M286">
+        <v>4.2</v>
+      </c>
+      <c r="N286">
+        <v>5.5</v>
+      </c>
+      <c r="O286">
+        <v>1.45</v>
+      </c>
+      <c r="P286">
+        <v>4.2</v>
+      </c>
+      <c r="Q286">
+        <v>5.5</v>
+      </c>
+      <c r="R286">
+        <v>-1</v>
+      </c>
+      <c r="S286">
+        <v>1.8</v>
+      </c>
+      <c r="T286">
+        <v>2</v>
+      </c>
+      <c r="U286">
+        <v>2.25</v>
+      </c>
+      <c r="V286">
+        <v>1.825</v>
+      </c>
+      <c r="W286">
+        <v>1.975</v>
+      </c>
+      <c r="X286">
+        <v>-1</v>
+      </c>
+      <c r="Y286">
         <v>3.2</v>
       </c>
-      <c r="N286">
-        <v>2.625</v>
-      </c>
-      <c r="O286">
-        <v>2.8</v>
-      </c>
-      <c r="P286">
-        <v>3.1</v>
-      </c>
-      <c r="Q286">
-        <v>2.25</v>
-      </c>
-      <c r="R286">
-        <v>0.25</v>
-      </c>
-      <c r="S286">
-        <v>1.775</v>
-      </c>
-      <c r="T286">
-        <v>2.025</v>
-      </c>
-      <c r="U286">
-        <v>2.5</v>
-      </c>
-      <c r="V286">
-        <v>1.9</v>
-      </c>
-      <c r="W286">
-        <v>1.9</v>
-      </c>
-      <c r="X286">
-        <v>1.8</v>
-      </c>
-      <c r="Y286">
-        <v>-1</v>
-      </c>
       <c r="Z286">
         <v>-1</v>
       </c>
       <c r="AA286">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC286">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD286">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="287" spans="1:30">
@@ -26860,7 +26860,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6867905</v>
+        <v>6867904</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -26869,82 +26869,82 @@
         <v>45424.5</v>
       </c>
       <c r="E287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F287" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K287" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L287">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="M287">
+        <v>3.5</v>
+      </c>
+      <c r="N287">
+        <v>1.8</v>
+      </c>
+      <c r="O287">
         <v>4.2</v>
       </c>
-      <c r="N287">
-        <v>5.5</v>
-      </c>
-      <c r="O287">
-        <v>1.45</v>
-      </c>
       <c r="P287">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q287">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="R287">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="S287">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T287">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U287">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V287">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W287">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB287">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC287">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AD287">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:30">
@@ -26952,7 +26952,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6867904</v>
+        <v>6867902</v>
       </c>
       <c r="C288" t="s">
         <v>29</v>
@@ -26961,40 +26961,40 @@
         <v>45424.5</v>
       </c>
       <c r="E288" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F288" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H288">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J288">
         <v>1</v>
       </c>
       <c r="K288" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L288">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M288">
+        <v>3.2</v>
+      </c>
+      <c r="N288">
+        <v>2</v>
+      </c>
+      <c r="O288">
+        <v>4.5</v>
+      </c>
+      <c r="P288">
         <v>3.5</v>
-      </c>
-      <c r="N288">
-        <v>1.8</v>
-      </c>
-      <c r="O288">
-        <v>4.2</v>
-      </c>
-      <c r="P288">
-        <v>3.75</v>
       </c>
       <c r="Q288">
         <v>1.65</v>
@@ -27003,40 +27003,40 @@
         <v>0.75</v>
       </c>
       <c r="S288">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T288">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U288">
         <v>2.5</v>
       </c>
       <c r="V288">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W288">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z288">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB288">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD288">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:30">
@@ -27044,7 +27044,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6867902</v>
+        <v>6868487</v>
       </c>
       <c r="C289" t="s">
         <v>29</v>
@@ -27053,13 +27053,13 @@
         <v>45424.5</v>
       </c>
       <c r="E289" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F289" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -27068,67 +27068,67 @@
         <v>1</v>
       </c>
       <c r="J289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K289" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L289">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="M289">
         <v>3.2</v>
       </c>
       <c r="N289">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O289">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="P289">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q289">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="R289">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S289">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T289">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U289">
         <v>2.5</v>
       </c>
       <c r="V289">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W289">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y289">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
         <v>-1</v>
       </c>
       <c r="AA289">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB289">
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD289">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:30">
@@ -27145,7 +27145,7 @@
         <v>45425.625</v>
       </c>
       <c r="E290" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F290" t="s">
         <v>49</v>
@@ -27332,7 +27332,7 @@
         <v>41</v>
       </c>
       <c r="F292" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G292">
         <v>3</v>
@@ -27424,7 +27424,7 @@
         <v>47</v>
       </c>
       <c r="F293" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -27504,7 +27504,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8214050</v>
+        <v>8214046</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27513,16 +27513,16 @@
         <v>45431.5</v>
       </c>
       <c r="E294" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F294" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -27531,37 +27531,37 @@
         <v>0</v>
       </c>
       <c r="K294" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L294">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="M294">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N294">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O294">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="P294">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q294">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="R294">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S294">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T294">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U294">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V294">
         <v>1.85</v>
@@ -27570,25 +27570,25 @@
         <v>1.95</v>
       </c>
       <c r="X294">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC294">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD294">
-        <v>0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -27596,7 +27596,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8214049</v>
+        <v>8214047</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -27605,55 +27605,55 @@
         <v>45431.5</v>
       </c>
       <c r="E295" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F295" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G295">
+        <v>2</v>
+      </c>
+      <c r="H295">
+        <v>2</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+      <c r="K295" t="s">
+        <v>54</v>
+      </c>
+      <c r="L295">
+        <v>2.3</v>
+      </c>
+      <c r="M295">
         <v>3</v>
       </c>
-      <c r="H295">
-        <v>1</v>
-      </c>
-      <c r="I295">
-        <v>2</v>
-      </c>
-      <c r="J295">
-        <v>0</v>
-      </c>
-      <c r="K295" t="s">
-        <v>53</v>
-      </c>
-      <c r="L295">
-        <v>2.2</v>
-      </c>
-      <c r="M295">
-        <v>3.25</v>
-      </c>
       <c r="N295">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O295">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P295">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q295">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R295">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S295">
+        <v>2</v>
+      </c>
+      <c r="T295">
         <v>1.8</v>
       </c>
-      <c r="T295">
-        <v>2</v>
-      </c>
       <c r="U295">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V295">
         <v>1.825</v>
@@ -27662,19 +27662,19 @@
         <v>1.975</v>
       </c>
       <c r="X295">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y295">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
+        <v>-1</v>
+      </c>
+      <c r="AB295">
         <v>0.8</v>
-      </c>
-      <c r="AB295">
-        <v>-1</v>
       </c>
       <c r="AC295">
         <v>0.825</v>
@@ -27700,7 +27700,7 @@
         <v>49</v>
       </c>
       <c r="F296" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -27780,7 +27780,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>8214047</v>
+        <v>8214049</v>
       </c>
       <c r="C297" t="s">
         <v>29</v>
@@ -27789,55 +27789,55 @@
         <v>45431.5</v>
       </c>
       <c r="E297" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F297" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K297" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L297">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M297">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N297">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O297">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P297">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q297">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R297">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S297">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T297">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U297">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V297">
         <v>1.825</v>
@@ -27846,19 +27846,19 @@
         <v>1.975</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y297">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
         <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB297">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
         <v>0.825</v>
@@ -27872,7 +27872,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>8214046</v>
+        <v>8214050</v>
       </c>
       <c r="C298" t="s">
         <v>29</v>
@@ -27881,16 +27881,16 @@
         <v>45431.5</v>
       </c>
       <c r="E298" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F298" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298">
         <v>0</v>
@@ -27899,37 +27899,37 @@
         <v>0</v>
       </c>
       <c r="K298" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L298">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="M298">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N298">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O298">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="P298">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q298">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="R298">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S298">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T298">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U298">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V298">
         <v>1.85</v>
@@ -27938,25 +27938,25 @@
         <v>1.95</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y298">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB298">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD298">
-        <v>0.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:30">
@@ -27976,7 +27976,7 @@
         <v>46</v>
       </c>
       <c r="F299" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G299">
         <v>3</v>
@@ -28065,7 +28065,7 @@
         <v>45437.5</v>
       </c>
       <c r="E300" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F300" t="s">
         <v>32</v>
@@ -28246,7 +28246,7 @@
         <v>34</v>
       </c>
       <c r="F302" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -28320,7 +28320,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6869722</v>
+        <v>6870614</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28329,49 +28329,49 @@
         <v>45438.5</v>
       </c>
       <c r="E303" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F303" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303">
+        <v>1</v>
+      </c>
+      <c r="K303" t="s">
+        <v>53</v>
+      </c>
+      <c r="L303">
+        <v>1.7</v>
+      </c>
+      <c r="M303">
+        <v>3.5</v>
+      </c>
+      <c r="N303">
+        <v>4.2</v>
+      </c>
+      <c r="O303">
+        <v>1.533</v>
+      </c>
+      <c r="P303">
+        <v>4.2</v>
+      </c>
+      <c r="Q303">
+        <v>4.5</v>
+      </c>
+      <c r="R303">
+        <v>-1</v>
+      </c>
+      <c r="S303">
+        <v>1.85</v>
+      </c>
+      <c r="T303">
+        <v>1.95</v>
+      </c>
+      <c r="U303">
         <v>3</v>
-      </c>
-      <c r="K303" t="s">
-        <v>52</v>
-      </c>
-      <c r="L303">
-        <v>2.4</v>
-      </c>
-      <c r="M303">
-        <v>3.2</v>
-      </c>
-      <c r="N303">
-        <v>2.6</v>
-      </c>
-      <c r="O303">
-        <v>2.8</v>
-      </c>
-      <c r="P303">
-        <v>3.4</v>
-      </c>
-      <c r="Q303">
-        <v>2.15</v>
-      </c>
-      <c r="R303">
-        <v>0.25</v>
-      </c>
-      <c r="S303">
-        <v>1.825</v>
-      </c>
-      <c r="T303">
-        <v>1.975</v>
-      </c>
-      <c r="U303">
-        <v>2.75</v>
       </c>
       <c r="V303">
         <v>1.975</v>
@@ -28380,25 +28380,25 @@
         <v>1.825</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB303">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC303">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD303">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28406,7 +28406,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6869718</v>
+        <v>6869722</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28415,40 +28415,40 @@
         <v>45438.5</v>
       </c>
       <c r="E304" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F304" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G304">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K304" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L304">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M304">
         <v>3.2</v>
       </c>
       <c r="N304">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O304">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P304">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q304">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="R304">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S304">
         <v>1.825</v>
@@ -28457,7 +28457,7 @@
         <v>1.975</v>
       </c>
       <c r="U304">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V304">
         <v>1.975</v>
@@ -28469,22 +28469,22 @@
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA304">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC304">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD304">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28492,7 +28492,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6869719</v>
+        <v>6869718</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28501,10 +28501,10 @@
         <v>45438.5</v>
       </c>
       <c r="E305" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F305" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -28516,61 +28516,61 @@
         <v>54</v>
       </c>
       <c r="L305">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M305">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N305">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O305">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="P305">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q305">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="R305">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S305">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U305">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V305">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W305">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Z305">
         <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB305">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD305">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -28578,7 +28578,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6870614</v>
+        <v>6869719</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28587,76 +28587,76 @@
         <v>45438.5</v>
       </c>
       <c r="E306" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F306" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="K306" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L306">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="M306">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N306">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O306">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="P306">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q306">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="R306">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S306">
+        <v>1.875</v>
+      </c>
+      <c r="T306">
+        <v>1.925</v>
+      </c>
+      <c r="U306">
+        <v>2.5</v>
+      </c>
+      <c r="V306">
+        <v>1.95</v>
+      </c>
+      <c r="W306">
         <v>1.85</v>
       </c>
-      <c r="T306">
-        <v>1.95</v>
-      </c>
-      <c r="U306">
-        <v>3</v>
-      </c>
-      <c r="V306">
-        <v>1.975</v>
-      </c>
-      <c r="W306">
-        <v>1.825</v>
-      </c>
       <c r="X306">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB306">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD306">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -28673,7 +28673,7 @@
         <v>45438.52083333334</v>
       </c>
       <c r="E307" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F307" t="s">
         <v>46</v>
@@ -28759,7 +28759,7 @@
         <v>45438.52083333334</v>
       </c>
       <c r="E308" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F308" t="s">
         <v>42</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -121,22 +121,22 @@
     <t>BVSC Zuglo</t>
   </si>
   <si>
-    <t>Pecsi MFC</t>
+    <t>Kozarmisleny SE</t>
+  </si>
+  <si>
+    <t>FC Ajka</t>
+  </si>
+  <si>
+    <t>Kazincbarcikai BSC</t>
   </si>
   <si>
     <t>Csakvari Tk</t>
   </si>
   <si>
-    <t>FC Ajka</t>
-  </si>
-  <si>
-    <t>Kozarmisleny SE</t>
+    <t>Pecsi MFC</t>
   </si>
   <si>
     <t>Vasas SC</t>
-  </si>
-  <si>
-    <t>Kazincbarcikai BSC</t>
   </si>
   <si>
     <t>SzegedCsanad Grosics</t>
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6867575</v>
+        <v>6867521</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1017,19 +1017,19 @@
         <v>45137.52083333334</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1038,25 +1038,25 @@
         <v>53</v>
       </c>
       <c r="L6">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>3.5</v>
       </c>
       <c r="N6">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O6">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="R6">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S6">
         <v>1.8</v>
@@ -1065,16 +1065,16 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X6">
-        <v>0.6499999999999999</v>
+        <v>1.875</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1089,10 +1089,10 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD6">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6867521</v>
+        <v>6867575</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1109,19 +1109,19 @@
         <v>45137.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         <v>53</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M7">
         <v>3.5</v>
       </c>
       <c r="N7">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O7">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="P7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q7">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S7">
         <v>1.8</v>
@@ -1157,16 +1157,16 @@
         <v>2</v>
       </c>
       <c r="U7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>1.875</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1181,10 +1181,10 @@
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD7">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1192,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6867180</v>
+        <v>6867868</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1204,52 +1204,52 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M8">
+        <v>3.3</v>
+      </c>
+      <c r="N8">
+        <v>2.75</v>
+      </c>
+      <c r="O8">
+        <v>2.1</v>
+      </c>
+      <c r="P8">
         <v>3.5</v>
       </c>
-      <c r="N8">
-        <v>3.75</v>
-      </c>
-      <c r="O8">
-        <v>1.95</v>
-      </c>
-      <c r="P8">
-        <v>3.6</v>
-      </c>
       <c r="Q8">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="R8">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V8">
         <v>1.85</v>
@@ -1258,25 +1258,25 @@
         <v>1.95</v>
       </c>
       <c r="X8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6871132</v>
+        <v>6867734</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1296,79 +1296,79 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N9">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="P9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q9">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="R9">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z9">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD9">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6867734</v>
+        <v>6867664</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1388,79 +1388,79 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M10">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N10">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="P10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q10">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="R10">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="U10">
         <v>2.25</v>
       </c>
       <c r="V10">
+        <v>1.975</v>
+      </c>
+      <c r="W10">
         <v>1.825</v>
       </c>
-      <c r="W10">
-        <v>1.975</v>
-      </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD10">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1468,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6867868</v>
+        <v>6871132</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1480,7 +1480,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1498,41 +1498,41 @@
         <v>52</v>
       </c>
       <c r="L11">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O11">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q11">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="R11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V11">
+        <v>1.95</v>
+      </c>
+      <c r="W11">
         <v>1.85</v>
       </c>
-      <c r="W11">
-        <v>1.95</v>
-      </c>
       <c r="X11">
         <v>-1</v>
       </c>
@@ -1540,16 +1540,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>2.4</v>
+        <v>0.909</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD11">
         <v>-1</v>
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6867869</v>
+        <v>6867180</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1572,79 +1572,79 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N12">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O12">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="P12">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q12">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S12">
+        <v>1.95</v>
+      </c>
+      <c r="T12">
         <v>1.85</v>
       </c>
-      <c r="T12">
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>1.85</v>
+      </c>
+      <c r="W12">
         <v>1.95</v>
       </c>
-      <c r="U12">
-        <v>2.25</v>
-      </c>
-      <c r="V12">
-        <v>1.875</v>
-      </c>
-      <c r="W12">
-        <v>1.925</v>
-      </c>
       <c r="X12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
+        <v>-1</v>
+      </c>
+      <c r="AD12">
         <v>0.95</v>
-      </c>
-      <c r="AC12">
-        <v>-1</v>
-      </c>
-      <c r="AD12">
-        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1652,7 +1652,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6867664</v>
+        <v>6867869</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1664,7 +1664,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1682,40 +1682,40 @@
         <v>52</v>
       </c>
       <c r="L13">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="M13">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="O13">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="P13">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q13">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="U13">
         <v>2.25</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1724,19 +1724,19 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
         <v>-1</v>
       </c>
       <c r="AD13">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1756,7 +1756,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1940,7 +1940,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2124,7 +2124,7 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>45144.58333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
@@ -2857,7 +2857,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
@@ -2949,7 +2949,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
         <v>46</v>
@@ -3032,7 +3032,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867524</v>
+        <v>6867182</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3041,13 +3041,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3059,64 +3059,64 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L28">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="M28">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O28">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
         <v>3.25</v>
       </c>
       <c r="Q28">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U28">
         <v>2.25</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="X28">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD28">
-        <v>0.5</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3124,7 +3124,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6867182</v>
+        <v>6867524</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3133,13 +3133,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L29">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="M29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N29">
+        <v>2.9</v>
+      </c>
+      <c r="O29">
         <v>2.3</v>
-      </c>
-      <c r="O29">
-        <v>3.1</v>
       </c>
       <c r="P29">
         <v>3.25</v>
       </c>
       <c r="Q29">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U29">
         <v>2.25</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y29">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD29">
-        <v>0.7250000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3225,7 +3225,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
         <v>43</v>
@@ -3504,7 +3504,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3777,10 +3777,10 @@
         <v>45154.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4145,7 +4145,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
         <v>47</v>
@@ -4228,7 +4228,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6867238</v>
+        <v>6867669</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4237,82 +4237,82 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41">
         <v>3</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>53</v>
-      </c>
-      <c r="L41">
-        <v>2.75</v>
       </c>
       <c r="M41">
         <v>3.3</v>
       </c>
       <c r="N41">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O41">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P41">
         <v>3.5</v>
       </c>
       <c r="Q41">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U41">
         <v>2.25</v>
       </c>
       <c r="V41">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X41">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4320,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6867581</v>
+        <v>6867238</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4329,13 +4329,13 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4344,64 +4344,64 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L42">
+        <v>2.75</v>
+      </c>
+      <c r="M42">
+        <v>3.3</v>
+      </c>
+      <c r="N42">
+        <v>2.25</v>
+      </c>
+      <c r="O42">
+        <v>2.6</v>
+      </c>
+      <c r="P42">
+        <v>3.5</v>
+      </c>
+      <c r="Q42">
+        <v>2.6</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1.9</v>
+      </c>
+      <c r="T42">
+        <v>1.9</v>
+      </c>
+      <c r="U42">
+        <v>2.25</v>
+      </c>
+      <c r="V42">
         <v>1.75</v>
       </c>
-      <c r="M42">
-        <v>3.6</v>
-      </c>
-      <c r="N42">
-        <v>3.75</v>
-      </c>
-      <c r="O42">
-        <v>1.615</v>
-      </c>
-      <c r="P42">
-        <v>4.2</v>
-      </c>
-      <c r="Q42">
-        <v>4.75</v>
-      </c>
-      <c r="R42">
-        <v>-1</v>
-      </c>
-      <c r="S42">
-        <v>1.95</v>
-      </c>
-      <c r="T42">
-        <v>1.75</v>
-      </c>
-      <c r="U42">
-        <v>2.5</v>
-      </c>
-      <c r="V42">
-        <v>1.925</v>
-      </c>
       <c r="W42">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y42">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>0.75</v>
-      </c>
-      <c r="AC42">
-        <v>0.925</v>
       </c>
       <c r="AD42">
         <v>-1</v>
@@ -4412,7 +4412,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6867669</v>
+        <v>6867581</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4421,82 +4421,82 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="M43">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O43">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="P43">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q43">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="R43">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z43">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4605,7 +4605,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
         <v>44</v>
@@ -4697,10 +4697,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4780,7 +4780,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6867528</v>
+        <v>6867529</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4789,25 +4789,25 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L47">
         <v>2.4</v>
@@ -4819,49 +4819,49 @@
         <v>2.6</v>
       </c>
       <c r="O47">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P47">
         <v>3.5</v>
       </c>
       <c r="Q47">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R47">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U47">
         <v>2.5</v>
       </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X47">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
         <v>1.025</v>
-      </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
-      <c r="AC47">
-        <v>0.825</v>
       </c>
       <c r="AD47">
         <v>-1</v>
@@ -4872,7 +4872,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6867529</v>
+        <v>6867528</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4881,25 +4881,25 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L48">
         <v>2.4</v>
@@ -4911,49 +4911,49 @@
         <v>2.6</v>
       </c>
       <c r="O48">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P48">
         <v>3.5</v>
       </c>
       <c r="Q48">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U48">
         <v>2.5</v>
       </c>
       <c r="V48">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AD48">
         <v>-1</v>
@@ -4973,10 +4973,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5332,7 +5332,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867239</v>
+        <v>6867670</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5341,19 +5341,19 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5362,31 +5362,31 @@
         <v>53</v>
       </c>
       <c r="L53">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N53">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O53">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="P53">
         <v>4</v>
       </c>
       <c r="Q53">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R53">
         <v>-0.75</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U53">
         <v>2.5</v>
@@ -5398,7 +5398,7 @@
         <v>1.95</v>
       </c>
       <c r="X53">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5407,16 +5407,16 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5433,10 +5433,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5516,7 +5516,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6867670</v>
+        <v>6867239</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5525,19 +5525,19 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -5546,31 +5546,31 @@
         <v>53</v>
       </c>
       <c r="L55">
+        <v>1.8</v>
+      </c>
+      <c r="M55">
+        <v>3.6</v>
+      </c>
+      <c r="N55">
+        <v>3.6</v>
+      </c>
+      <c r="O55">
         <v>1.615</v>
-      </c>
-      <c r="M55">
-        <v>3.75</v>
-      </c>
-      <c r="N55">
-        <v>4.333</v>
-      </c>
-      <c r="O55">
-        <v>1.65</v>
       </c>
       <c r="P55">
         <v>4</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="R55">
         <v>-0.75</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U55">
         <v>2.5</v>
@@ -5582,7 +5582,7 @@
         <v>1.95</v>
       </c>
       <c r="X55">
-        <v>0.6499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5591,16 +5591,16 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5608,7 +5608,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867671</v>
+        <v>6867185</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -5617,16 +5617,16 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5635,64 +5635,64 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N56">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O56">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="P56">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q56">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="R56">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S56">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U56">
         <v>2.25</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z56">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD56">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5700,7 +5700,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6867185</v>
+        <v>6867671</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5709,16 +5709,16 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5727,64 +5727,64 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="M57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="P57">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q57">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="R57">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T57">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U57">
         <v>2.25</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
+        <v>0.95</v>
+      </c>
+      <c r="AC57">
         <v>-0.5</v>
       </c>
-      <c r="AB57">
-        <v>0.4375</v>
-      </c>
-      <c r="AC57">
-        <v>-1</v>
-      </c>
       <c r="AD57">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -5896,7 +5896,7 @@
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -6353,7 +6353,7 @@
         <v>45172.5</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
@@ -6436,7 +6436,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867673</v>
+        <v>6867585</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6445,82 +6445,82 @@
         <v>45172.5</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="M65">
         <v>3.25</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="P65">
         <v>3.4</v>
       </c>
       <c r="Q65">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="R65">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB65">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6528,7 +6528,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6867585</v>
+        <v>6867532</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6537,25 +6537,25 @@
         <v>45172.5</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -6567,52 +6567,52 @@
         <v>3.25</v>
       </c>
       <c r="O66">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P66">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q66">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="R66">
         <v>-0.25</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V66">
+        <v>1.875</v>
+      </c>
+      <c r="W66">
         <v>1.925</v>
       </c>
-      <c r="W66">
-        <v>1.775</v>
-      </c>
       <c r="X66">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC66">
         <v>-1</v>
       </c>
       <c r="AD66">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6620,7 +6620,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6867532</v>
+        <v>6867673</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6629,82 +6629,82 @@
         <v>45172.5</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="M67">
         <v>3.25</v>
       </c>
       <c r="N67">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O67">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q67">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R67">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U67">
         <v>2.5</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD67">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6724,7 +6724,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6997,10 +6997,10 @@
         <v>45193.5</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7089,7 +7089,7 @@
         <v>45193.5</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
         <v>34</v>
@@ -7181,7 +7181,7 @@
         <v>45193.5</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
         <v>47</v>
@@ -7273,7 +7273,7 @@
         <v>45193.5</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
         <v>33</v>
@@ -7540,7 +7540,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867741</v>
+        <v>6867589</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7549,19 +7549,19 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -7570,25 +7570,25 @@
         <v>53</v>
       </c>
       <c r="L77">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N77">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="O77">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="R77">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S77">
         <v>2</v>
@@ -7600,13 +7600,13 @@
         <v>2.5</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X77">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="Y77">
         <v>-1</v>
@@ -7621,10 +7621,10 @@
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7632,7 +7632,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867589</v>
+        <v>6867741</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7641,19 +7641,19 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -7662,25 +7662,25 @@
         <v>53</v>
       </c>
       <c r="L78">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="M78">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="O78">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q78">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="R78">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S78">
         <v>2</v>
@@ -7692,13 +7692,13 @@
         <v>2.5</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X78">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7713,10 +7713,10 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -7736,7 +7736,7 @@
         <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6867534</v>
+        <v>6867590</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7825,82 +7825,82 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L80">
+        <v>2.1</v>
+      </c>
+      <c r="M80">
+        <v>3.2</v>
+      </c>
+      <c r="N80">
+        <v>3.1</v>
+      </c>
+      <c r="O80">
+        <v>2.4</v>
+      </c>
+      <c r="P80">
+        <v>3.25</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>-0.25</v>
+      </c>
+      <c r="S80">
+        <v>2.05</v>
+      </c>
+      <c r="T80">
+        <v>1.75</v>
+      </c>
+      <c r="U80">
         <v>2.25</v>
       </c>
-      <c r="M80">
-        <v>3.3</v>
-      </c>
-      <c r="N80">
-        <v>2.75</v>
-      </c>
-      <c r="O80">
-        <v>2</v>
-      </c>
-      <c r="P80">
-        <v>3.5</v>
-      </c>
-      <c r="Q80">
-        <v>3.75</v>
-      </c>
-      <c r="R80">
+      <c r="V80">
+        <v>1.8</v>
+      </c>
+      <c r="W80">
+        <v>2</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>2.25</v>
+      </c>
+      <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
         <v>-0.5</v>
       </c>
-      <c r="S80">
-        <v>2</v>
-      </c>
-      <c r="T80">
-        <v>1.8</v>
-      </c>
-      <c r="U80">
-        <v>2.5</v>
-      </c>
-      <c r="V80">
-        <v>1.875</v>
-      </c>
-      <c r="W80">
-        <v>1.925</v>
-      </c>
-      <c r="X80">
-        <v>1</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>-1</v>
-      </c>
-      <c r="AA80">
-        <v>1</v>
-      </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD80">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -7908,7 +7908,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867590</v>
+        <v>6867677</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -7917,61 +7917,61 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="s">
         <v>54</v>
       </c>
       <c r="L81">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="M81">
         <v>3.2</v>
       </c>
       <c r="N81">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="O81">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="P81">
         <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R81">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U81">
         <v>2.25</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7983,16 +7983,16 @@
         <v>-1</v>
       </c>
       <c r="AA81">
+        <v>0.4125</v>
+      </c>
+      <c r="AB81">
         <v>-0.5</v>
       </c>
-      <c r="AB81">
-        <v>0.375</v>
-      </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -8000,7 +8000,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867677</v>
+        <v>6867188</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -8009,79 +8009,79 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L82">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M82">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O82">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="P82">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q82">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="R82">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U82">
         <v>2.25</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y82">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD82">
         <v>-1</v>
@@ -8092,7 +8092,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867188</v>
+        <v>6867241</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
@@ -8101,79 +8101,79 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83" t="s">
+        <v>52</v>
+      </c>
+      <c r="L83">
         <v>3</v>
       </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83" t="s">
-        <v>53</v>
-      </c>
-      <c r="L83">
-        <v>2.4</v>
-      </c>
       <c r="M83">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N83">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O83">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="P83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="R83">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S83">
+        <v>2.05</v>
+      </c>
+      <c r="T83">
+        <v>1.75</v>
+      </c>
+      <c r="U83">
+        <v>2.5</v>
+      </c>
+      <c r="V83">
         <v>1.95</v>
       </c>
-      <c r="T83">
+      <c r="W83">
         <v>1.85</v>
       </c>
-      <c r="U83">
-        <v>2.25</v>
-      </c>
-      <c r="V83">
-        <v>2</v>
-      </c>
-      <c r="W83">
-        <v>1.8</v>
-      </c>
       <c r="X83">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
+        <v>0.75</v>
+      </c>
+      <c r="AC83">
         <v>0.95</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
-      <c r="AC83">
-        <v>1</v>
       </c>
       <c r="AD83">
         <v>-1</v>
@@ -8184,7 +8184,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6867241</v>
+        <v>6867534</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8193,79 +8193,79 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G84">
         <v>2</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="M84">
         <v>3.3</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O84">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q84">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="R84">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U84">
         <v>2.5</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AD84">
         <v>-1</v>
@@ -8745,7 +8745,7 @@
         <v>45200.49652777778</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
         <v>34</v>
@@ -8837,10 +8837,10 @@
         <v>45200.5</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -9021,10 +9021,10 @@
         <v>45200.5</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -9113,7 +9113,7 @@
         <v>45201.625</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
         <v>32</v>
@@ -9205,10 +9205,10 @@
         <v>45207.41319444445</v>
       </c>
       <c r="E95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" t="s">
         <v>36</v>
-      </c>
-      <c r="F95" t="s">
-        <v>37</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9392,7 +9392,7 @@
         <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9573,10 +9573,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -9668,7 +9668,7 @@
         <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -10036,7 +10036,7 @@
         <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -10217,7 +10217,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
         <v>48</v>
@@ -10576,7 +10576,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6867680</v>
+        <v>6867873</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
@@ -10585,79 +10585,79 @@
         <v>45221.5</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>3</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L110">
+        <v>2.9</v>
+      </c>
+      <c r="M110">
+        <v>3.25</v>
+      </c>
+      <c r="N110">
         <v>2.25</v>
       </c>
-      <c r="M110">
-        <v>3.4</v>
-      </c>
-      <c r="N110">
-        <v>2.8</v>
-      </c>
       <c r="O110">
+        <v>2.5</v>
+      </c>
+      <c r="P110">
+        <v>3.25</v>
+      </c>
+      <c r="Q110">
+        <v>2.9</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>1.75</v>
+      </c>
+      <c r="T110">
+        <v>2.05</v>
+      </c>
+      <c r="U110">
         <v>2.25</v>
       </c>
-      <c r="P110">
-        <v>3.5</v>
-      </c>
-      <c r="Q110">
-        <v>3.1</v>
-      </c>
-      <c r="R110">
-        <v>-0.25</v>
-      </c>
-      <c r="S110">
-        <v>1.975</v>
-      </c>
-      <c r="T110">
-        <v>1.825</v>
-      </c>
-      <c r="U110">
-        <v>2.5</v>
-      </c>
       <c r="V110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X110">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AD110">
         <v>-1</v>
@@ -10668,7 +10668,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867873</v>
+        <v>6871121</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -10677,82 +10677,82 @@
         <v>45221.5</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L111">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="M111">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O111">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="P111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="R111">
         <v>0</v>
       </c>
       <c r="S111">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U111">
         <v>2.25</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB111">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -10760,7 +10760,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6871121</v>
+        <v>6867680</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10769,82 +10769,82 @@
         <v>45221.5</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L112">
+        <v>2.25</v>
+      </c>
+      <c r="M112">
+        <v>3.4</v>
+      </c>
+      <c r="N112">
+        <v>2.8</v>
+      </c>
+      <c r="O112">
+        <v>2.25</v>
+      </c>
+      <c r="P112">
+        <v>3.5</v>
+      </c>
+      <c r="Q112">
+        <v>3.1</v>
+      </c>
+      <c r="R112">
+        <v>-0.25</v>
+      </c>
+      <c r="S112">
+        <v>1.975</v>
+      </c>
+      <c r="T112">
+        <v>1.825</v>
+      </c>
+      <c r="U112">
         <v>2.5</v>
       </c>
-      <c r="M112">
-        <v>3.2</v>
-      </c>
-      <c r="N112">
-        <v>2.6</v>
-      </c>
-      <c r="O112">
-        <v>2.625</v>
-      </c>
-      <c r="P112">
-        <v>3.3</v>
-      </c>
-      <c r="Q112">
-        <v>2.75</v>
-      </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-      <c r="S112">
-        <v>1.875</v>
-      </c>
-      <c r="T112">
-        <v>1.925</v>
-      </c>
-      <c r="U112">
-        <v>2.25</v>
-      </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y112">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -10956,7 +10956,7 @@
         <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -11137,7 +11137,7 @@
         <v>45228.375</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
         <v>34</v>
@@ -11321,7 +11321,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
         <v>33</v>
@@ -11416,7 +11416,7 @@
         <v>48</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -11508,7 +11508,7 @@
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -11689,7 +11689,7 @@
         <v>45235.375</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
         <v>49</v>
@@ -11784,7 +11784,7 @@
         <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -12057,7 +12057,7 @@
         <v>45235.375</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
         <v>46</v>
@@ -12241,7 +12241,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
         <v>47</v>
@@ -12333,7 +12333,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
         <v>48</v>
@@ -12425,7 +12425,7 @@
         <v>45236.66666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
         <v>45</v>
@@ -12508,7 +12508,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867595</v>
+        <v>6867193</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12517,82 +12517,82 @@
         <v>45242.375</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K131" t="s">
         <v>54</v>
       </c>
       <c r="L131">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="M131">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N131">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="O131">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="P131">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q131">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="R131">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T131">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U131">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V131">
+        <v>1.95</v>
+      </c>
+      <c r="W131">
         <v>1.85</v>
       </c>
-      <c r="W131">
-        <v>1.95</v>
-      </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC131">
+        <v>-1</v>
+      </c>
+      <c r="AD131">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -12600,7 +12600,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867683</v>
+        <v>6867595</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -12609,82 +12609,82 @@
         <v>45242.375</v>
       </c>
       <c r="E132" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K132" t="s">
         <v>54</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="M132">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="P132">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q132">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="R132">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U132">
         <v>2.25</v>
       </c>
       <c r="V132">
+        <v>1.85</v>
+      </c>
+      <c r="W132">
         <v>1.95</v>
       </c>
-      <c r="W132">
-        <v>1.85</v>
-      </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -12692,7 +12692,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6867973</v>
+        <v>6867683</v>
       </c>
       <c r="C133" t="s">
         <v>29</v>
@@ -12701,82 +12701,82 @@
         <v>45242.375</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L133">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N133">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q133">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="R133">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S133">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X133">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.75</v>
+        <v>0.4625</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
         <v>-1</v>
       </c>
       <c r="AD133">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -12784,7 +12784,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6867193</v>
+        <v>6867973</v>
       </c>
       <c r="C134" t="s">
         <v>29</v>
@@ -12793,46 +12793,46 @@
         <v>45242.375</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L134">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="M134">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="O134">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="P134">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q134">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="R134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S134">
         <v>1.75</v>
@@ -12841,34 +12841,34 @@
         <v>2.05</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
         <v>-1</v>
       </c>
       <c r="AD134">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -12876,7 +12876,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6867974</v>
+        <v>6871118</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12885,82 +12885,82 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L135">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="M135">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N135">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O135">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="P135">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q135">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="R135">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U135">
         <v>2.25</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
         <v>-1</v>
       </c>
       <c r="AD135">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -12968,7 +12968,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6867246</v>
+        <v>6867974</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12977,82 +12977,82 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L136">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N136">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O136">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q136">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="R136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S136">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V136">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X136">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA136">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
         <v>-1</v>
       </c>
       <c r="AD136">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13060,7 +13060,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6867544</v>
+        <v>6867246</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13069,82 +13069,82 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="M137">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N137">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="O137">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="P137">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q137">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="R137">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U137">
         <v>2.5</v>
       </c>
       <c r="V137">
+        <v>1.775</v>
+      </c>
+      <c r="W137">
         <v>1.925</v>
       </c>
-      <c r="W137">
-        <v>1.875</v>
-      </c>
       <c r="X137">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y137">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
+        <v>-1</v>
+      </c>
+      <c r="AD137">
         <v>0.925</v>
-      </c>
-      <c r="AD137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13152,7 +13152,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6871118</v>
+        <v>6867877</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13161,40 +13161,40 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L138">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="M138">
+        <v>3.2</v>
+      </c>
+      <c r="N138">
         <v>3.3</v>
       </c>
-      <c r="N138">
-        <v>4</v>
-      </c>
       <c r="O138">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P138">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -13203,40 +13203,40 @@
         <v>-0.5</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T138">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X138">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC138">
         <v>-1</v>
       </c>
       <c r="AD138">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13244,7 +13244,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6867877</v>
+        <v>6867544</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13253,19 +13253,19 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13274,61 +13274,61 @@
         <v>54</v>
       </c>
       <c r="L139">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="M139">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139">
         <v>3.3</v>
       </c>
-      <c r="O139">
-        <v>2</v>
-      </c>
       <c r="P139">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q139">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="R139">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U139">
         <v>2.5</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB139">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13336,7 +13336,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6867975</v>
+        <v>6867596</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13345,52 +13345,52 @@
         <v>45256.375</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L140">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O140">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="P140">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="R140">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U140">
         <v>2.25</v>
@@ -13405,16 +13405,16 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13529,7 +13529,7 @@
         <v>45256.375</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
         <v>42</v>
@@ -13612,7 +13612,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6867878</v>
+        <v>6867194</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13621,82 +13621,82 @@
         <v>45256.375</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="M143">
+        <v>3.1</v>
+      </c>
+      <c r="N143">
         <v>3.2</v>
       </c>
-      <c r="N143">
-        <v>2</v>
-      </c>
       <c r="O143">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="P143">
+        <v>3.2</v>
+      </c>
+      <c r="Q143">
         <v>3.4</v>
       </c>
-      <c r="Q143">
-        <v>2</v>
-      </c>
       <c r="R143">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U143">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13704,7 +13704,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6867194</v>
+        <v>6867878</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13713,82 +13713,82 @@
         <v>45256.375</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G144">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L144">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O144">
+        <v>3.8</v>
+      </c>
+      <c r="P144">
+        <v>3.4</v>
+      </c>
+      <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>0.5</v>
+      </c>
+      <c r="S144">
+        <v>1.8</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
         <v>2.25</v>
       </c>
-      <c r="P144">
-        <v>3.2</v>
-      </c>
-      <c r="Q144">
-        <v>3.4</v>
-      </c>
-      <c r="R144">
-        <v>-0.25</v>
-      </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
-      <c r="T144">
-        <v>1.925</v>
-      </c>
-      <c r="U144">
-        <v>2</v>
-      </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X144">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -13796,7 +13796,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6867596</v>
+        <v>6867975</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13805,52 +13805,52 @@
         <v>45256.375</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O145">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="P145">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q145">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="R145">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T145">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U145">
         <v>2.25</v>
@@ -13865,16 +13865,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z145">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB145">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13888,7 +13888,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6867545</v>
+        <v>6867684</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13897,19 +13897,19 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -13918,43 +13918,43 @@
         <v>53</v>
       </c>
       <c r="L146">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="M146">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N146">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O146">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P146">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R146">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V146">
+        <v>1.95</v>
+      </c>
+      <c r="W146">
         <v>1.85</v>
       </c>
-      <c r="W146">
-        <v>1.95</v>
-      </c>
       <c r="X146">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13963,13 +13963,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD146">
         <v>-1</v>
@@ -13980,7 +13980,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6867684</v>
+        <v>6867545</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13989,19 +13989,19 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G147">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -14010,43 +14010,43 @@
         <v>53</v>
       </c>
       <c r="L147">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="M147">
+        <v>3.2</v>
+      </c>
+      <c r="N147">
+        <v>2.75</v>
+      </c>
+      <c r="O147">
+        <v>2</v>
+      </c>
+      <c r="P147">
         <v>3.5</v>
       </c>
-      <c r="N147">
+      <c r="Q147">
         <v>4</v>
       </c>
-      <c r="O147">
-        <v>1.75</v>
-      </c>
-      <c r="P147">
-        <v>3.6</v>
-      </c>
-      <c r="Q147">
-        <v>5</v>
-      </c>
       <c r="R147">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V147">
+        <v>1.85</v>
+      </c>
+      <c r="W147">
         <v>1.95</v>
       </c>
-      <c r="W147">
-        <v>1.85</v>
-      </c>
       <c r="X147">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
@@ -14055,13 +14055,13 @@
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD147">
         <v>-1</v>
@@ -14081,7 +14081,7 @@
         <v>45257.66666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s">
         <v>46</v>
@@ -14268,7 +14268,7 @@
         <v>44</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -14360,7 +14360,7 @@
         <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -14532,7 +14532,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6871116</v>
+        <v>6867248</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14541,55 +14541,55 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L153">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="M153">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N153">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O153">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q153">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="R153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S153">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="U153">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V153">
         <v>1.925</v>
@@ -14598,25 +14598,25 @@
         <v>1.875</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y153">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB153">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD153">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14624,7 +14624,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6867976</v>
+        <v>6871116</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14633,10 +14633,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -14648,67 +14648,67 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="s">
         <v>54</v>
       </c>
       <c r="L154">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="M154">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N154">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O154">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="P154">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="R154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T154">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>1.075</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
       </c>
-      <c r="AB154">
-        <v>0.4</v>
-      </c>
-      <c r="AC154">
-        <v>0</v>
-      </c>
       <c r="AD154">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -14716,7 +14716,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6867248</v>
+        <v>6867976</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14725,16 +14725,16 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G155">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14743,64 +14743,64 @@
         <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L155">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M155">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N155">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O155">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="P155">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q155">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="R155">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U155">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X155">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD155">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14820,7 +14820,7 @@
         <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -14912,7 +14912,7 @@
         <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -15096,7 +15096,7 @@
         <v>43</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -15188,7 +15188,7 @@
         <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -15280,7 +15280,7 @@
         <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -15369,7 +15369,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F162" t="s">
         <v>45</v>
@@ -15452,7 +15452,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6867197</v>
+        <v>6867551</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15461,82 +15461,82 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L163">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M163">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N163">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O163">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="P163">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q163">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="R163">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S163">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T163">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U163">
         <v>2.25</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y163">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15544,7 +15544,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6867551</v>
+        <v>6867250</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15553,10 +15553,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -15574,43 +15574,43 @@
         <v>53</v>
       </c>
       <c r="L164">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N164">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O164">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="P164">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q164">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="R164">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U164">
         <v>2.25</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W164">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="X164">
-        <v>0.8500000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15619,7 +15619,7 @@
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB164">
         <v>-1</v>
@@ -15628,7 +15628,7 @@
         <v>-1</v>
       </c>
       <c r="AD164">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15636,7 +15636,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6867250</v>
+        <v>6867601</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15645,10 +15645,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -15657,7 +15657,7 @@
         <v>0</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -15666,43 +15666,43 @@
         <v>53</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="M165">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N165">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O165">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="P165">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="R165">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="S165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U165">
         <v>2.25</v>
       </c>
       <c r="V165">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X165">
-        <v>3.75</v>
+        <v>0.55</v>
       </c>
       <c r="Y165">
         <v>-1</v>
@@ -15711,16 +15711,16 @@
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC165">
         <v>-1</v>
       </c>
       <c r="AD165">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -15728,7 +15728,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6867601</v>
+        <v>6867197</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15737,82 +15737,82 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L166">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M166">
         <v>3.4</v>
       </c>
       <c r="N166">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O166">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="P166">
         <v>3.8</v>
       </c>
       <c r="Q166">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="R166">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U166">
         <v>2.25</v>
       </c>
       <c r="V166">
+        <v>2</v>
+      </c>
+      <c r="W166">
         <v>1.8</v>
       </c>
-      <c r="W166">
-        <v>2</v>
-      </c>
       <c r="X166">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD166">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -15829,7 +15829,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
         <v>44</v>
@@ -16105,7 +16105,7 @@
         <v>45327.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F170" t="s">
         <v>41</v>
@@ -16381,10 +16381,10 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -16568,7 +16568,7 @@
         <v>43</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -16752,7 +16752,7 @@
         <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -16936,7 +16936,7 @@
         <v>49</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -17028,7 +17028,7 @@
         <v>42</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -17200,7 +17200,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7820057</v>
+        <v>7820058</v>
       </c>
       <c r="C182" t="s">
         <v>29</v>
@@ -17209,13 +17209,13 @@
         <v>45336.54166666666</v>
       </c>
       <c r="E182" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -17227,37 +17227,37 @@
         <v>0</v>
       </c>
       <c r="K182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L182">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="M182">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N182">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="O182">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="P182">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q182">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="R182">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U182">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V182">
         <v>2</v>
@@ -17266,16 +17266,16 @@
         <v>1.8</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y182">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
         <v>-1</v>
@@ -17292,7 +17292,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7820058</v>
+        <v>7820057</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17301,13 +17301,13 @@
         <v>45336.54166666666</v>
       </c>
       <c r="E183" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -17319,37 +17319,37 @@
         <v>0</v>
       </c>
       <c r="K183" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L183">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="M183">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N183">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="O183">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="P183">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q183">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="R183">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U183">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V183">
         <v>2</v>
@@ -17358,16 +17358,16 @@
         <v>1.8</v>
       </c>
       <c r="X183">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB183">
         <v>-1</v>
@@ -17396,7 +17396,7 @@
         <v>48</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -17669,7 +17669,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F187" t="s">
         <v>43</v>
@@ -17853,7 +17853,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F189" t="s">
         <v>46</v>
@@ -17948,7 +17948,7 @@
         <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -18028,7 +18028,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6867555</v>
+        <v>6871112</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18037,16 +18037,16 @@
         <v>45340.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -18055,64 +18055,64 @@
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L191">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="M191">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O191">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="P191">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q191">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R191">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U191">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V191">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z191">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB191">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC191">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD191">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18120,7 +18120,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6871112</v>
+        <v>6867555</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18129,16 +18129,16 @@
         <v>45340.54166666666</v>
       </c>
       <c r="E192" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G192">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -18147,64 +18147,64 @@
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L192">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="M192">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N192">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O192">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="P192">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q192">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="R192">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S192">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W192">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC192">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD192">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18221,10 +18221,10 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E193" t="s">
+        <v>40</v>
+      </c>
+      <c r="F193" t="s">
         <v>39</v>
-      </c>
-      <c r="F193" t="s">
-        <v>35</v>
       </c>
       <c r="G193">
         <v>4</v>
@@ -18500,7 +18500,7 @@
         <v>42</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -18681,10 +18681,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -18773,10 +18773,10 @@
         <v>45347.54166666666</v>
       </c>
       <c r="E199" t="s">
+        <v>37</v>
+      </c>
+      <c r="F199" t="s">
         <v>40</v>
-      </c>
-      <c r="F199" t="s">
-        <v>39</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -19141,7 +19141,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F203" t="s">
         <v>44</v>
@@ -19236,7 +19236,7 @@
         <v>47</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -19420,7 +19420,7 @@
         <v>33</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -19785,10 +19785,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E210" t="s">
+        <v>36</v>
+      </c>
+      <c r="F210" t="s">
         <v>37</v>
-      </c>
-      <c r="F210" t="s">
-        <v>40</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -20156,7 +20156,7 @@
         <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -20245,7 +20245,7 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E215" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F215" t="s">
         <v>33</v>
@@ -20429,10 +20429,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E217" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -20613,7 +20613,7 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F219" t="s">
         <v>34</v>
@@ -20800,7 +20800,7 @@
         <v>34</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G221">
         <v>3</v>
@@ -20889,7 +20889,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F222" t="s">
         <v>43</v>
@@ -20984,7 +20984,7 @@
         <v>47</v>
       </c>
       <c r="F223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -21076,7 +21076,7 @@
         <v>33</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -21352,7 +21352,7 @@
         <v>50</v>
       </c>
       <c r="F227" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -21901,10 +21901,10 @@
         <v>45382.5</v>
       </c>
       <c r="E233" t="s">
+        <v>39</v>
+      </c>
+      <c r="F233" t="s">
         <v>35</v>
-      </c>
-      <c r="F233" t="s">
-        <v>38</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -21984,7 +21984,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7978506</v>
+        <v>7978504</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -21996,13 +21996,13 @@
         <v>37</v>
       </c>
       <c r="F234" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G234">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -22011,64 +22011,64 @@
         <v>0</v>
       </c>
       <c r="K234" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L234">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="M234">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N234">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O234">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P234">
         <v>3.1</v>
       </c>
       <c r="Q234">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="R234">
         <v>-0.25</v>
       </c>
       <c r="S234">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T234">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="U234">
         <v>2.25</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W234">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X234">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD234">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="235" spans="1:30">
@@ -22076,7 +22076,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7978504</v>
+        <v>7978506</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22085,16 +22085,16 @@
         <v>45382.5</v>
       </c>
       <c r="E235" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F235" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G235">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -22103,64 +22103,64 @@
         <v>0</v>
       </c>
       <c r="K235" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L235">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="M235">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N235">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O235">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P235">
         <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="R235">
         <v>-0.25</v>
       </c>
       <c r="S235">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T235">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="U235">
         <v>2.25</v>
       </c>
       <c r="V235">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y235">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB235">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD235">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22269,7 +22269,7 @@
         <v>45382.5</v>
       </c>
       <c r="E237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F237" t="s">
         <v>34</v>
@@ -22640,7 +22640,7 @@
         <v>34</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -22916,7 +22916,7 @@
         <v>50</v>
       </c>
       <c r="F244" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -23008,7 +23008,7 @@
         <v>32</v>
       </c>
       <c r="F245" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -23097,7 +23097,7 @@
         <v>45396.5</v>
       </c>
       <c r="E246" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F246" t="s">
         <v>50</v>
@@ -23364,7 +23364,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6867570</v>
+        <v>6867694</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23373,10 +23373,10 @@
         <v>45396.5</v>
       </c>
       <c r="E249" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F249" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -23388,49 +23388,49 @@
         <v>0</v>
       </c>
       <c r="J249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K249" t="s">
         <v>53</v>
       </c>
       <c r="L249">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="M249">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N249">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="O249">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="P249">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q249">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="R249">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S249">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T249">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U249">
         <v>2.25</v>
       </c>
       <c r="V249">
+        <v>1.925</v>
+      </c>
+      <c r="W249">
         <v>1.875</v>
       </c>
-      <c r="W249">
-        <v>1.925</v>
-      </c>
       <c r="X249">
-        <v>0.6659999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Y249">
         <v>-1</v>
@@ -23439,13 +23439,13 @@
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB249">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD249">
         <v>-1</v>
@@ -23456,7 +23456,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6867694</v>
+        <v>6867570</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23465,10 +23465,10 @@
         <v>45396.5</v>
       </c>
       <c r="E250" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -23480,49 +23480,49 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K250" t="s">
         <v>53</v>
       </c>
       <c r="L250">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="M250">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N250">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O250">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="P250">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q250">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="R250">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S250">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T250">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U250">
         <v>2.25</v>
       </c>
       <c r="V250">
+        <v>1.875</v>
+      </c>
+      <c r="W250">
         <v>1.925</v>
       </c>
-      <c r="W250">
-        <v>1.875</v>
-      </c>
       <c r="X250">
-        <v>1.05</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y250">
         <v>-1</v>
@@ -23531,13 +23531,13 @@
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC250">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD250">
         <v>-1</v>
@@ -23548,7 +23548,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6867519</v>
+        <v>6867258</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23557,13 +23557,13 @@
         <v>45396.5</v>
       </c>
       <c r="E251" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -23572,40 +23572,40 @@
         <v>0</v>
       </c>
       <c r="J251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K251" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M251">
+        <v>3.3</v>
+      </c>
+      <c r="N251">
+        <v>2</v>
+      </c>
+      <c r="O251">
         <v>3.4</v>
       </c>
-      <c r="N251">
-        <v>1.909</v>
-      </c>
-      <c r="O251">
-        <v>4.5</v>
-      </c>
       <c r="P251">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q251">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="R251">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S251">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T251">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U251">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V251">
         <v>2</v>
@@ -23614,25 +23614,25 @@
         <v>1.8</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB251">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -23640,7 +23640,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6867258</v>
+        <v>6867206</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23649,19 +23649,19 @@
         <v>45396.5</v>
       </c>
       <c r="E252" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252">
         <v>0</v>
@@ -23670,34 +23670,34 @@
         <v>53</v>
       </c>
       <c r="L252">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="M252">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N252">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O252">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="P252">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q252">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R252">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S252">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T252">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U252">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V252">
         <v>2</v>
@@ -23706,7 +23706,7 @@
         <v>1.8</v>
       </c>
       <c r="X252">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
@@ -23715,16 +23715,16 @@
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -23732,7 +23732,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6867206</v>
+        <v>6867519</v>
       </c>
       <c r="C253" t="s">
         <v>29</v>
@@ -23741,46 +23741,46 @@
         <v>45396.5</v>
       </c>
       <c r="E253" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F253" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L253">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="M253">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N253">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O253">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="P253">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q253">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="R253">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S253">
         <v>1.825</v>
@@ -23789,7 +23789,7 @@
         <v>1.975</v>
       </c>
       <c r="U253">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V253">
         <v>2</v>
@@ -23798,19 +23798,19 @@
         <v>1.8</v>
       </c>
       <c r="X253">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA253">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23833,10 +23833,10 @@
         <v>45397.625</v>
       </c>
       <c r="E254" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F254" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -23928,7 +23928,7 @@
         <v>32</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G255">
         <v>3</v>
@@ -24112,7 +24112,7 @@
         <v>48</v>
       </c>
       <c r="F257" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G257">
         <v>2</v>
@@ -24388,7 +24388,7 @@
         <v>45</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G260">
         <v>4</v>
@@ -24477,10 +24477,10 @@
         <v>45403.5</v>
       </c>
       <c r="E261" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -24744,7 +24744,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6871103</v>
+        <v>6867698</v>
       </c>
       <c r="C264" t="s">
         <v>29</v>
@@ -24753,10 +24753,10 @@
         <v>45410.5</v>
       </c>
       <c r="E264" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F264" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -24765,7 +24765,7 @@
         <v>0</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264">
         <v>0</v>
@@ -24774,34 +24774,34 @@
         <v>53</v>
       </c>
       <c r="L264">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="M264">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N264">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O264">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="P264">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q264">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="R264">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S264">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T264">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U264">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V264">
         <v>1.925</v>
@@ -24810,7 +24810,7 @@
         <v>1.875</v>
       </c>
       <c r="X264">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Y264">
         <v>-1</v>
@@ -24819,7 +24819,7 @@
         <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB264">
         <v>-1</v>
@@ -24836,7 +24836,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6867977</v>
+        <v>6871103</v>
       </c>
       <c r="C265" t="s">
         <v>29</v>
@@ -24845,82 +24845,82 @@
         <v>45410.5</v>
       </c>
       <c r="E265" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265" t="s">
+        <v>53</v>
+      </c>
+      <c r="L265">
+        <v>2.8</v>
+      </c>
+      <c r="M265">
         <v>3</v>
       </c>
-      <c r="H265">
-        <v>5</v>
-      </c>
-      <c r="I265">
+      <c r="N265">
+        <v>2.625</v>
+      </c>
+      <c r="O265">
         <v>3</v>
       </c>
-      <c r="J265">
-        <v>1</v>
-      </c>
-      <c r="K265" t="s">
-        <v>52</v>
-      </c>
-      <c r="L265">
-        <v>1.95</v>
-      </c>
-      <c r="M265">
-        <v>3.5</v>
-      </c>
-      <c r="N265">
-        <v>3.7</v>
-      </c>
-      <c r="O265">
-        <v>1.95</v>
-      </c>
       <c r="P265">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q265">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="R265">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S265">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T265">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U265">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB265">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD265">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="266" spans="1:30">
@@ -24928,7 +24928,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6867698</v>
+        <v>6867977</v>
       </c>
       <c r="C266" t="s">
         <v>29</v>
@@ -24937,82 +24937,82 @@
         <v>45410.5</v>
       </c>
       <c r="E266" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F266" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K266" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L266">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M266">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N266">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O266">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="P266">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q266">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="R266">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S266">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T266">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U266">
         <v>2.5</v>
       </c>
       <c r="V266">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W266">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X266">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA266">
+        <v>-1</v>
+      </c>
+      <c r="AB266">
+        <v>0.825</v>
+      </c>
+      <c r="AC266">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB266">
-        <v>-1</v>
-      </c>
-      <c r="AC266">
-        <v>-1</v>
-      </c>
       <c r="AD266">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:30">
@@ -25029,7 +25029,7 @@
         <v>45410.5</v>
       </c>
       <c r="E267" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F267" t="s">
         <v>49</v>
@@ -25213,7 +25213,7 @@
         <v>45410.5</v>
       </c>
       <c r="E269" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F269" t="s">
         <v>48</v>
@@ -25489,7 +25489,7 @@
         <v>45411.625</v>
       </c>
       <c r="E272" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F272" t="s">
         <v>32</v>
@@ -25584,7 +25584,7 @@
         <v>48</v>
       </c>
       <c r="F273" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -25765,7 +25765,7 @@
         <v>45417.5</v>
       </c>
       <c r="E275" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F275" t="s">
         <v>34</v>
@@ -25952,7 +25952,7 @@
         <v>49</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -26136,7 +26136,7 @@
         <v>46</v>
       </c>
       <c r="F279" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G279">
         <v>3</v>
@@ -26320,7 +26320,7 @@
         <v>45</v>
       </c>
       <c r="F281" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -26409,7 +26409,7 @@
         <v>45423.5</v>
       </c>
       <c r="E282" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F282" t="s">
         <v>42</v>
@@ -26685,7 +26685,7 @@
         <v>45424.5</v>
       </c>
       <c r="E285" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F285" t="s">
         <v>45</v>
@@ -26768,7 +26768,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6867905</v>
+        <v>6868487</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
@@ -26777,82 +26777,82 @@
         <v>45424.5</v>
       </c>
       <c r="E286" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286">
         <v>0</v>
       </c>
       <c r="K286" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L286">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="M286">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N286">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="O286">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="P286">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q286">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="R286">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S286">
+        <v>1.775</v>
+      </c>
+      <c r="T286">
+        <v>2.025</v>
+      </c>
+      <c r="U286">
+        <v>2.5</v>
+      </c>
+      <c r="V286">
+        <v>1.9</v>
+      </c>
+      <c r="W286">
+        <v>1.9</v>
+      </c>
+      <c r="X286">
         <v>1.8</v>
       </c>
-      <c r="T286">
-        <v>2</v>
-      </c>
-      <c r="U286">
-        <v>2.25</v>
-      </c>
-      <c r="V286">
-        <v>1.825</v>
-      </c>
-      <c r="W286">
-        <v>1.975</v>
-      </c>
-      <c r="X286">
-        <v>-1</v>
-      </c>
       <c r="Y286">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
         <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB286">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD286">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:30">
@@ -26860,7 +26860,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6867904</v>
+        <v>6867905</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -26869,82 +26869,82 @@
         <v>45424.5</v>
       </c>
       <c r="E287" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F287" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K287" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L287">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="M287">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N287">
+        <v>5.5</v>
+      </c>
+      <c r="O287">
+        <v>1.45</v>
+      </c>
+      <c r="P287">
+        <v>4.2</v>
+      </c>
+      <c r="Q287">
+        <v>5.5</v>
+      </c>
+      <c r="R287">
+        <v>-1</v>
+      </c>
+      <c r="S287">
         <v>1.8</v>
       </c>
-      <c r="O287">
-        <v>4.2</v>
-      </c>
-      <c r="P287">
-        <v>3.75</v>
-      </c>
-      <c r="Q287">
-        <v>1.65</v>
-      </c>
-      <c r="R287">
-        <v>0.75</v>
-      </c>
-      <c r="S287">
-        <v>1.925</v>
-      </c>
       <c r="T287">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U287">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V287">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W287">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z287">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
+        <v>-1</v>
+      </c>
+      <c r="AB287">
+        <v>1</v>
+      </c>
+      <c r="AC287">
         <v>-0.5</v>
       </c>
-      <c r="AB287">
-        <v>0.4375</v>
-      </c>
-      <c r="AC287">
-        <v>1.025</v>
-      </c>
       <c r="AD287">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="288" spans="1:30">
@@ -26952,7 +26952,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6867902</v>
+        <v>6867904</v>
       </c>
       <c r="C288" t="s">
         <v>29</v>
@@ -26961,40 +26961,40 @@
         <v>45424.5</v>
       </c>
       <c r="E288" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F288" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J288">
         <v>1</v>
       </c>
       <c r="K288" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L288">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M288">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N288">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O288">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P288">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q288">
         <v>1.65</v>
@@ -27003,40 +27003,40 @@
         <v>0.75</v>
       </c>
       <c r="S288">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T288">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U288">
         <v>2.5</v>
       </c>
       <c r="V288">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W288">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA288">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD288">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:30">
@@ -27044,7 +27044,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6868487</v>
+        <v>6867902</v>
       </c>
       <c r="C289" t="s">
         <v>29</v>
@@ -27053,13 +27053,13 @@
         <v>45424.5</v>
       </c>
       <c r="E289" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F289" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -27068,67 +27068,67 @@
         <v>1</v>
       </c>
       <c r="J289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K289" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L289">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="M289">
         <v>3.2</v>
       </c>
       <c r="N289">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O289">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="P289">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q289">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="R289">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S289">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T289">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U289">
         <v>2.5</v>
       </c>
       <c r="V289">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W289">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X289">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y289">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z289">
         <v>-1</v>
       </c>
       <c r="AA289">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB289">
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD289">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="290" spans="1:30">
@@ -27145,7 +27145,7 @@
         <v>45425.625</v>
       </c>
       <c r="E290" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F290" t="s">
         <v>49</v>
@@ -27424,7 +27424,7 @@
         <v>47</v>
       </c>
       <c r="F293" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -27700,7 +27700,7 @@
         <v>49</v>
       </c>
       <c r="F296" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -27792,7 +27792,7 @@
         <v>42</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G297">
         <v>3</v>
@@ -27884,7 +27884,7 @@
         <v>44</v>
       </c>
       <c r="F298" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G298">
         <v>2</v>
@@ -27976,7 +27976,7 @@
         <v>46</v>
       </c>
       <c r="F299" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G299">
         <v>3</v>
@@ -28065,7 +28065,7 @@
         <v>45437.5</v>
       </c>
       <c r="E300" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F300" t="s">
         <v>32</v>
@@ -28320,7 +28320,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6870614</v>
+        <v>6869722</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28329,49 +28329,49 @@
         <v>45438.5</v>
       </c>
       <c r="E303" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F303" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K303" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L303">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="M303">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N303">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O303">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="P303">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q303">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="R303">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S303">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T303">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U303">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V303">
         <v>1.975</v>
@@ -28380,25 +28380,25 @@
         <v>1.825</v>
       </c>
       <c r="X303">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA303">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC303">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD303">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28406,7 +28406,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6869722</v>
+        <v>6869718</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28415,40 +28415,40 @@
         <v>45438.5</v>
       </c>
       <c r="E304" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F304" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G304">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K304" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L304">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M304">
         <v>3.2</v>
       </c>
       <c r="N304">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O304">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P304">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q304">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="R304">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S304">
         <v>1.825</v>
@@ -28457,7 +28457,7 @@
         <v>1.975</v>
       </c>
       <c r="U304">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V304">
         <v>1.975</v>
@@ -28469,22 +28469,22 @@
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z304">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB304">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC304">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD304">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28492,7 +28492,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6869718</v>
+        <v>6870614</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28501,49 +28501,49 @@
         <v>45438.5</v>
       </c>
       <c r="E305" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F305" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H305">
         <v>1</v>
       </c>
       <c r="K305" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L305">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="M305">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N305">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O305">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="P305">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q305">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="R305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S305">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T305">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V305">
         <v>1.975</v>
@@ -28552,10 +28552,10 @@
         <v>1.825</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y305">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
         <v>-1</v>
@@ -28587,7 +28587,7 @@
         <v>45438.5</v>
       </c>
       <c r="E306" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F306" t="s">
         <v>44</v>
@@ -28673,7 +28673,7 @@
         <v>45438.52083333334</v>
       </c>
       <c r="E307" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F307" t="s">
         <v>46</v>
@@ -28759,7 +28759,7 @@
         <v>45438.52083333334</v>
       </c>
       <c r="E308" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F308" t="s">
         <v>42</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -115,10 +115,10 @@
     <t>Nyiregyhaza Spartacus</t>
   </si>
   <si>
-    <t>Gyirmot SE</t>
+    <t>BVSC Zuglo</t>
   </si>
   <si>
-    <t>BVSC Zuglo</t>
+    <t>Gyirmot SE</t>
   </si>
   <si>
     <t>Kozarmisleny SE</t>
@@ -744,7 +744,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6867230</v>
+        <v>6867521</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -928,79 +928,79 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N5">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O5">
+        <v>2.875</v>
+      </c>
+      <c r="P5">
+        <v>3.75</v>
+      </c>
+      <c r="Q5">
         <v>2.3</v>
       </c>
-      <c r="P5">
-        <v>3.4</v>
-      </c>
-      <c r="Q5">
-        <v>3.1</v>
-      </c>
       <c r="R5">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2.5</v>
+      </c>
+      <c r="V5">
+        <v>1.85</v>
+      </c>
+      <c r="W5">
+        <v>1.95</v>
+      </c>
+      <c r="X5">
         <v>1.875</v>
       </c>
-      <c r="U5">
-        <v>2.25</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>1.925</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6867521</v>
+        <v>6867575</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1017,19 +1017,19 @@
         <v>45137.52083333334</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1038,25 +1038,25 @@
         <v>53</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M6">
         <v>3.5</v>
       </c>
       <c r="N6">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O6">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="P6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S6">
         <v>1.8</v>
@@ -1065,16 +1065,16 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>1.875</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1089,10 +1089,10 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD6">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6867575</v>
+        <v>6867230</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1109,82 +1109,82 @@
         <v>45137.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N7">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O7">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="R7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U7">
         <v>2.25</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X7">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD7">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1848,7 +1848,7 @@
         <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2216,7 +2216,7 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2673,7 +2673,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2765,7 +2765,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
         <v>44</v>
@@ -3032,7 +3032,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867182</v>
+        <v>6867524</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3041,13 +3041,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3059,64 +3059,64 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L28">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N28">
+        <v>2.9</v>
+      </c>
+      <c r="O28">
         <v>2.3</v>
-      </c>
-      <c r="O28">
-        <v>3.1</v>
       </c>
       <c r="P28">
         <v>3.25</v>
       </c>
       <c r="Q28">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U28">
         <v>2.25</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y28">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD28">
-        <v>0.7250000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3124,7 +3124,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6867524</v>
+        <v>6867182</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3133,13 +3133,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L29">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="M29">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O29">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
         <v>3.25</v>
       </c>
       <c r="Q29">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T29">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U29">
         <v>2.25</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="X29">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD29">
-        <v>0.5</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3412,7 +3412,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3872,7 +3872,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6867669</v>
+        <v>6867238</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4237,82 +4237,82 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M41">
         <v>3.3</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P41">
         <v>3.5</v>
       </c>
       <c r="Q41">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="R41">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U41">
         <v>2.25</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W41">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4320,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6867238</v>
+        <v>6867581</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4329,13 +4329,13 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4344,64 +4344,64 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L42">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="M42">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N42">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O42">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q42">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V42">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="X42">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC42">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AD42">
         <v>-1</v>
@@ -4412,7 +4412,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6867581</v>
+        <v>6867669</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4424,79 +4424,79 @@
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L43">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N43">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O43">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q43">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="R43">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4780,7 +4780,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6867529</v>
+        <v>6867528</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4789,25 +4789,25 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L47">
         <v>2.4</v>
@@ -4819,49 +4819,49 @@
         <v>2.6</v>
       </c>
       <c r="O47">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P47">
         <v>3.5</v>
       </c>
       <c r="Q47">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U47">
         <v>2.5</v>
       </c>
       <c r="V47">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W47">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AD47">
         <v>-1</v>
@@ -4872,7 +4872,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6867528</v>
+        <v>6867529</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4881,25 +4881,25 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L48">
         <v>2.4</v>
@@ -4911,49 +4911,49 @@
         <v>2.6</v>
       </c>
       <c r="O48">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P48">
         <v>3.5</v>
       </c>
       <c r="Q48">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R48">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U48">
         <v>2.5</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W48">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X48">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA48">
+        <v>-1</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
         <v>1.025</v>
-      </c>
-      <c r="AB48">
-        <v>-1</v>
-      </c>
-      <c r="AC48">
-        <v>0.825</v>
       </c>
       <c r="AD48">
         <v>-1</v>
@@ -5160,7 +5160,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5332,7 +5332,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867670</v>
+        <v>6867239</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5341,19 +5341,19 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5362,31 +5362,31 @@
         <v>53</v>
       </c>
       <c r="L53">
+        <v>1.8</v>
+      </c>
+      <c r="M53">
+        <v>3.6</v>
+      </c>
+      <c r="N53">
+        <v>3.6</v>
+      </c>
+      <c r="O53">
         <v>1.615</v>
-      </c>
-      <c r="M53">
-        <v>3.75</v>
-      </c>
-      <c r="N53">
-        <v>4.333</v>
-      </c>
-      <c r="O53">
-        <v>1.65</v>
       </c>
       <c r="P53">
         <v>4</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="R53">
         <v>-0.75</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U53">
         <v>2.5</v>
@@ -5398,7 +5398,7 @@
         <v>1.95</v>
       </c>
       <c r="X53">
-        <v>0.6499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5407,16 +5407,16 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5516,7 +5516,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6867239</v>
+        <v>6867670</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5525,19 +5525,19 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -5546,31 +5546,31 @@
         <v>53</v>
       </c>
       <c r="L55">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="M55">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N55">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O55">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="P55">
         <v>4</v>
       </c>
       <c r="Q55">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R55">
         <v>-0.75</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U55">
         <v>2.5</v>
@@ -5582,7 +5582,7 @@
         <v>1.95</v>
       </c>
       <c r="X55">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5591,16 +5591,16 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5608,7 +5608,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867185</v>
+        <v>6867671</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -5617,16 +5617,16 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5635,64 +5635,64 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="M56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O56">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="P56">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q56">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="R56">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T56">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U56">
         <v>2.25</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>0.95</v>
+      </c>
+      <c r="AC56">
         <v>-0.5</v>
       </c>
-      <c r="AB56">
-        <v>0.4375</v>
-      </c>
-      <c r="AC56">
-        <v>-1</v>
-      </c>
       <c r="AD56">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5700,7 +5700,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6867671</v>
+        <v>6867185</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5709,16 +5709,16 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5727,64 +5727,64 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L57">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N57">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O57">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="P57">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q57">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="R57">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S57">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U57">
         <v>2.25</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z57">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD57">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -5893,7 +5893,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -6077,7 +6077,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
         <v>37</v>
@@ -6436,7 +6436,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867585</v>
+        <v>6867673</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6445,82 +6445,82 @@
         <v>45172.5</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L65">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
         <v>3.25</v>
       </c>
       <c r="N65">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O65">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
         <v>3.4</v>
       </c>
       <c r="Q65">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="R65">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
         <v>1.8</v>
       </c>
-      <c r="T65">
-        <v>2</v>
-      </c>
       <c r="U65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
         <v>1.1</v>
       </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
       <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
         <v>0.8</v>
       </c>
-      <c r="AB65">
-        <v>-1</v>
-      </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6528,7 +6528,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6867532</v>
+        <v>6867585</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6537,25 +6537,25 @@
         <v>45172.5</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -6567,52 +6567,52 @@
         <v>3.25</v>
       </c>
       <c r="O66">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="R66">
         <v>-0.25</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y66">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
         <v>-1</v>
       </c>
       <c r="AD66">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6620,7 +6620,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6867673</v>
+        <v>6867532</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6629,82 +6629,82 @@
         <v>45172.5</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L67">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="M67">
         <v>3.25</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O67">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="P67">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q67">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="R67">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T67">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U67">
         <v>2.5</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z67">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -7092,7 +7092,7 @@
         <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -7264,7 +7264,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6867674</v>
+        <v>6867675</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7273,82 +7273,82 @@
         <v>45193.5</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L74">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="M74">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O74">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="P74">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q74">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="R74">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="U74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X74">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD74">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7356,7 +7356,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867675</v>
+        <v>6867674</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7365,82 +7365,82 @@
         <v>45193.5</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L75">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N75">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O75">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="P75">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q75">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="R75">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
+        <v>1.85</v>
+      </c>
+      <c r="U75">
+        <v>2.5</v>
+      </c>
+      <c r="V75">
         <v>1.975</v>
       </c>
-      <c r="T75">
-        <v>1.725</v>
-      </c>
-      <c r="U75">
-        <v>2.25</v>
-      </c>
-      <c r="V75">
-        <v>1.875</v>
-      </c>
       <c r="W75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y75">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD75">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7641,7 +7641,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
         <v>36</v>
@@ -7733,7 +7733,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
         <v>40</v>
@@ -8368,7 +8368,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6867592</v>
+        <v>6867536</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8377,61 +8377,61 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
         <v>52</v>
       </c>
       <c r="L86">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="M86">
         <v>3.2</v>
       </c>
       <c r="N86">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O86">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="P86">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q86">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="R86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V86">
         <v>1.95</v>
       </c>
       <c r="W86">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8440,19 +8440,19 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD86">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -8460,7 +8460,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6867536</v>
+        <v>6867592</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8469,61 +8469,61 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="s">
         <v>52</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="M87">
         <v>3.2</v>
       </c>
       <c r="N87">
+        <v>2.4</v>
+      </c>
+      <c r="O87">
+        <v>2.7</v>
+      </c>
+      <c r="P87">
         <v>3.4</v>
       </c>
-      <c r="O87">
+      <c r="Q87">
+        <v>2.55</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>1.95</v>
+      </c>
+      <c r="T87">
+        <v>1.85</v>
+      </c>
+      <c r="U87">
         <v>2.25</v>
-      </c>
-      <c r="P87">
-        <v>3.25</v>
-      </c>
-      <c r="Q87">
-        <v>3.3</v>
-      </c>
-      <c r="R87">
-        <v>-0.25</v>
-      </c>
-      <c r="S87">
-        <v>1.9</v>
-      </c>
-      <c r="T87">
-        <v>1.9</v>
-      </c>
-      <c r="U87">
-        <v>2.5</v>
       </c>
       <c r="V87">
         <v>1.95</v>
       </c>
       <c r="W87">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8532,19 +8532,19 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD87">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8552,7 +8552,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6867535</v>
+        <v>6867242</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8561,82 +8561,82 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L88">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="M88">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N88">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O88">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="P88">
         <v>3.6</v>
       </c>
       <c r="Q88">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="R88">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8644,7 +8644,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6867242</v>
+        <v>6867535</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8653,82 +8653,82 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L89">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="M89">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N89">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="P89">
         <v>3.6</v>
       </c>
       <c r="Q89">
+        <v>4.5</v>
+      </c>
+      <c r="R89">
+        <v>-0.5</v>
+      </c>
+      <c r="S89">
+        <v>1.8</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
+        <v>2.5</v>
+      </c>
+      <c r="V89">
         <v>1.95</v>
       </c>
-      <c r="R89">
-        <v>0.5</v>
-      </c>
-      <c r="S89">
+      <c r="W89">
         <v>1.85</v>
       </c>
-      <c r="T89">
-        <v>1.95</v>
-      </c>
-      <c r="U89">
-        <v>2.75</v>
-      </c>
-      <c r="V89">
-        <v>1.925</v>
-      </c>
-      <c r="W89">
-        <v>1.875</v>
-      </c>
       <c r="X89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8748,7 +8748,7 @@
         <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -9757,10 +9757,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E101" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" t="s">
         <v>34</v>
-      </c>
-      <c r="F101" t="s">
-        <v>33</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6867537</v>
+        <v>6867243</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9849,82 +9849,82 @@
         <v>45207.5</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L102">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="M102">
         <v>3.3</v>
       </c>
       <c r="N102">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O102">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="P102">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q102">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R102">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U102">
         <v>2.25</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W102">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y102">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB102">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AD102">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9932,7 +9932,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6867243</v>
+        <v>6867537</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9941,82 +9941,82 @@
         <v>45207.5</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L103">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="M103">
         <v>3.3</v>
       </c>
       <c r="N103">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O103">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q103">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R103">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="U103">
         <v>2.25</v>
       </c>
       <c r="V103">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X103">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AC103">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AD103">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10033,7 +10033,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
         <v>38</v>
@@ -10125,7 +10125,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
         <v>47</v>
@@ -10576,7 +10576,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6867873</v>
+        <v>6867680</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
@@ -10585,79 +10585,79 @@
         <v>45221.5</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L110">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="M110">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N110">
+        <v>2.8</v>
+      </c>
+      <c r="O110">
         <v>2.25</v>
       </c>
-      <c r="O110">
+      <c r="P110">
+        <v>3.5</v>
+      </c>
+      <c r="Q110">
+        <v>3.1</v>
+      </c>
+      <c r="R110">
+        <v>-0.25</v>
+      </c>
+      <c r="S110">
+        <v>1.975</v>
+      </c>
+      <c r="T110">
+        <v>1.825</v>
+      </c>
+      <c r="U110">
         <v>2.5</v>
       </c>
-      <c r="P110">
-        <v>3.25</v>
-      </c>
-      <c r="Q110">
-        <v>2.9</v>
-      </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-      <c r="S110">
-        <v>1.75</v>
-      </c>
-      <c r="T110">
-        <v>2.05</v>
-      </c>
-      <c r="U110">
-        <v>2.25</v>
-      </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AD110">
         <v>-1</v>
@@ -10668,7 +10668,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6871121</v>
+        <v>6867873</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -10677,82 +10677,82 @@
         <v>45221.5</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K111" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L111">
+        <v>2.9</v>
+      </c>
+      <c r="M111">
+        <v>3.25</v>
+      </c>
+      <c r="N111">
+        <v>2.25</v>
+      </c>
+      <c r="O111">
         <v>2.5</v>
       </c>
-      <c r="M111">
-        <v>3.2</v>
-      </c>
-      <c r="N111">
-        <v>2.6</v>
-      </c>
-      <c r="O111">
-        <v>2.625</v>
-      </c>
       <c r="P111">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q111">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="R111">
         <v>0</v>
       </c>
       <c r="S111">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T111">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U111">
         <v>2.25</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -10760,7 +10760,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867680</v>
+        <v>6871121</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10769,82 +10769,82 @@
         <v>45221.5</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L112">
+        <v>2.5</v>
+      </c>
+      <c r="M112">
+        <v>3.2</v>
+      </c>
+      <c r="N112">
+        <v>2.6</v>
+      </c>
+      <c r="O112">
+        <v>2.625</v>
+      </c>
+      <c r="P112">
+        <v>3.3</v>
+      </c>
+      <c r="Q112">
+        <v>2.75</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>1.875</v>
+      </c>
+      <c r="T112">
+        <v>1.925</v>
+      </c>
+      <c r="U112">
         <v>2.25</v>
       </c>
-      <c r="M112">
-        <v>3.4</v>
-      </c>
-      <c r="N112">
-        <v>2.8</v>
-      </c>
-      <c r="O112">
-        <v>2.25</v>
-      </c>
-      <c r="P112">
-        <v>3.5</v>
-      </c>
-      <c r="Q112">
-        <v>3.1</v>
-      </c>
-      <c r="R112">
-        <v>-0.25</v>
-      </c>
-      <c r="S112">
+      <c r="V112">
         <v>1.975</v>
       </c>
-      <c r="T112">
+      <c r="W112">
         <v>1.825</v>
       </c>
-      <c r="U112">
-        <v>2.5</v>
-      </c>
-      <c r="V112">
-        <v>2</v>
-      </c>
-      <c r="W112">
-        <v>1.8</v>
-      </c>
       <c r="X112">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -11140,7 +11140,7 @@
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -11496,7 +11496,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6867191</v>
+        <v>6871120</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11505,10 +11505,10 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E120" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -11526,40 +11526,40 @@
         <v>52</v>
       </c>
       <c r="L120">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="M120">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O120">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="P120">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q120">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="R120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S120">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11568,19 +11568,19 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
       </c>
       <c r="AD120">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11588,7 +11588,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6871120</v>
+        <v>6867191</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11597,10 +11597,10 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -11618,40 +11618,40 @@
         <v>52</v>
       </c>
       <c r="L121">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N121">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O121">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="P121">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q121">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="R121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T121">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11660,19 +11660,19 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC121">
         <v>-1</v>
       </c>
       <c r="AD121">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11781,7 +11781,7 @@
         <v>45235.375</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
         <v>35</v>
@@ -11873,7 +11873,7 @@
         <v>45235.375</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
         <v>32</v>
@@ -12232,7 +12232,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6867875</v>
+        <v>6867876</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12241,10 +12241,10 @@
         <v>45235.54166666666</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -12262,43 +12262,43 @@
         <v>53</v>
       </c>
       <c r="L128">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="M128">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N128">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O128">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P128">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q128">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R128">
         <v>-0.25</v>
       </c>
       <c r="S128">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U128">
         <v>2.25</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X128">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Y128">
         <v>-1</v>
@@ -12307,7 +12307,7 @@
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -12316,7 +12316,7 @@
         <v>-1</v>
       </c>
       <c r="AD128">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12324,7 +12324,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867876</v>
+        <v>6867875</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12333,10 +12333,10 @@
         <v>45235.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -12354,43 +12354,43 @@
         <v>53</v>
       </c>
       <c r="L129">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M129">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N129">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O129">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P129">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q129">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R129">
         <v>-0.25</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T129">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U129">
         <v>2.25</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X129">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
@@ -12399,7 +12399,7 @@
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -12408,7 +12408,7 @@
         <v>-1</v>
       </c>
       <c r="AD129">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12796,7 +12796,7 @@
         <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12980,7 +12980,7 @@
         <v>48</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -13437,7 +13437,7 @@
         <v>45256.375</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s">
         <v>45</v>
@@ -13612,7 +13612,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6867194</v>
+        <v>6867975</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13621,82 +13621,82 @@
         <v>45256.375</v>
       </c>
       <c r="E143" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L143">
         <v>2.1</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O143">
+        <v>2.5</v>
+      </c>
+      <c r="P143">
+        <v>3.3</v>
+      </c>
+      <c r="Q143">
+        <v>2.875</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>1.775</v>
+      </c>
+      <c r="T143">
+        <v>2.025</v>
+      </c>
+      <c r="U143">
         <v>2.25</v>
       </c>
-      <c r="P143">
-        <v>3.2</v>
-      </c>
-      <c r="Q143">
-        <v>3.4</v>
-      </c>
-      <c r="R143">
-        <v>-0.25</v>
-      </c>
-      <c r="S143">
-        <v>1.875</v>
-      </c>
-      <c r="T143">
-        <v>1.925</v>
-      </c>
-      <c r="U143">
-        <v>2</v>
-      </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X143">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC143">
         <v>-1</v>
       </c>
       <c r="AD143">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13704,7 +13704,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6867878</v>
+        <v>6867194</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13713,82 +13713,82 @@
         <v>45256.375</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G144">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="M144">
+        <v>3.1</v>
+      </c>
+      <c r="N144">
         <v>3.2</v>
       </c>
-      <c r="N144">
-        <v>2</v>
-      </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="P144">
+        <v>3.2</v>
+      </c>
+      <c r="Q144">
         <v>3.4</v>
       </c>
-      <c r="Q144">
-        <v>2</v>
-      </c>
       <c r="R144">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -13796,7 +13796,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6867975</v>
+        <v>6867878</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13805,82 +13805,82 @@
         <v>45256.375</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K145" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L145">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O145">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q145">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S145">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U145">
         <v>2.25</v>
       </c>
       <c r="V145">
+        <v>1.825</v>
+      </c>
+      <c r="W145">
         <v>1.975</v>
       </c>
-      <c r="W145">
-        <v>1.825</v>
-      </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -14452,7 +14452,7 @@
         <v>49</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -14532,7 +14532,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6867248</v>
+        <v>6867976</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14541,16 +14541,16 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14559,64 +14559,64 @@
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L153">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M153">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N153">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O153">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="P153">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q153">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="R153">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T153">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U153">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X153">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD153">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14636,7 +14636,7 @@
         <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -14716,7 +14716,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6867976</v>
+        <v>6867248</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14725,16 +14725,16 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G155">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14743,64 +14743,64 @@
         <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L155">
+        <v>1.5</v>
+      </c>
+      <c r="M155">
+        <v>4</v>
+      </c>
+      <c r="N155">
+        <v>5</v>
+      </c>
+      <c r="O155">
+        <v>1.533</v>
+      </c>
+      <c r="P155">
+        <v>4.2</v>
+      </c>
+      <c r="Q155">
+        <v>6</v>
+      </c>
+      <c r="R155">
+        <v>-1</v>
+      </c>
+      <c r="S155">
+        <v>1.9</v>
+      </c>
+      <c r="T155">
+        <v>1.9</v>
+      </c>
+      <c r="U155">
         <v>2.5</v>
       </c>
-      <c r="M155">
-        <v>3.2</v>
-      </c>
-      <c r="N155">
-        <v>2.5</v>
-      </c>
-      <c r="O155">
-        <v>2.375</v>
-      </c>
-      <c r="P155">
-        <v>3.2</v>
-      </c>
-      <c r="Q155">
-        <v>3.2</v>
-      </c>
-      <c r="R155">
-        <v>-0.25</v>
-      </c>
-      <c r="S155">
-        <v>2</v>
-      </c>
-      <c r="T155">
-        <v>1.8</v>
-      </c>
-      <c r="U155">
-        <v>2</v>
-      </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W155">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y155">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB155">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD155">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -15461,7 +15461,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F163" t="s">
         <v>42</v>
@@ -15553,7 +15553,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
         <v>46</v>
@@ -16476,7 +16476,7 @@
         <v>44</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -16660,7 +16660,7 @@
         <v>42</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -17120,7 +17120,7 @@
         <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -17212,7 +17212,7 @@
         <v>49</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -17485,7 +17485,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F185" t="s">
         <v>41</v>
@@ -17577,7 +17577,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F186" t="s">
         <v>44</v>
@@ -18592,7 +18592,7 @@
         <v>43</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -18960,7 +18960,7 @@
         <v>41</v>
       </c>
       <c r="F201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -19325,7 +19325,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F205" t="s">
         <v>43</v>
@@ -19417,7 +19417,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F206" t="s">
         <v>39</v>
@@ -20248,7 +20248,7 @@
         <v>37</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -20616,7 +20616,7 @@
         <v>39</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -20797,7 +20797,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F221" t="s">
         <v>37</v>
@@ -21073,7 +21073,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F224" t="s">
         <v>40</v>
@@ -21892,7 +21892,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7978503</v>
+        <v>7978504</v>
       </c>
       <c r="C233" t="s">
         <v>29</v>
@@ -21901,82 +21901,82 @@
         <v>45382.5</v>
       </c>
       <c r="E233" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K233" t="s">
         <v>54</v>
       </c>
       <c r="L233">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="M233">
         <v>3.2</v>
       </c>
       <c r="N233">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O233">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="P233">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q233">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="R233">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S233">
         <v>1.975</v>
       </c>
       <c r="T233">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W233">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB233">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD233">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="234" spans="1:30">
@@ -21984,7 +21984,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7978504</v>
+        <v>7978506</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -21993,16 +21993,16 @@
         <v>45382.5</v>
       </c>
       <c r="E234" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F234" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G234">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -22011,64 +22011,64 @@
         <v>0</v>
       </c>
       <c r="K234" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L234">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="M234">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N234">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O234">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P234">
         <v>3.1</v>
       </c>
       <c r="Q234">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="R234">
         <v>-0.25</v>
       </c>
       <c r="S234">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T234">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="U234">
         <v>2.25</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y234">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB234">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD234">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:30">
@@ -22076,7 +22076,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7978506</v>
+        <v>7978503</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22085,82 +22085,82 @@
         <v>45382.5</v>
       </c>
       <c r="E235" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K235" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L235">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M235">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N235">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O235">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q235">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="R235">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S235">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V235">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W235">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X235">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD235">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22272,7 +22272,7 @@
         <v>40</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -22444,7 +22444,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6867569</v>
+        <v>6871106</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22453,16 +22453,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -22474,40 +22474,40 @@
         <v>52</v>
       </c>
       <c r="L239">
+        <v>2.6</v>
+      </c>
+      <c r="M239">
         <v>2.8</v>
       </c>
-      <c r="M239">
-        <v>3.2</v>
-      </c>
       <c r="N239">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P239">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q239">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="R239">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U239">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W239">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -22516,19 +22516,19 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD239">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22536,7 +22536,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6871106</v>
+        <v>6867569</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22545,16 +22545,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -22566,40 +22566,40 @@
         <v>52</v>
       </c>
       <c r="L240">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M240">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N240">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O240">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P240">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q240">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="R240">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S240">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U240">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -22608,19 +22608,19 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD240">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22637,7 +22637,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F241" t="s">
         <v>36</v>
@@ -23373,10 +23373,10 @@
         <v>45396.5</v>
       </c>
       <c r="E249" t="s">
+        <v>34</v>
+      </c>
+      <c r="F249" t="s">
         <v>33</v>
-      </c>
-      <c r="F249" t="s">
-        <v>34</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -24296,7 +24296,7 @@
         <v>47</v>
       </c>
       <c r="F259" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -24572,7 +24572,7 @@
         <v>50</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>45410.5</v>
       </c>
       <c r="E266" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F266" t="s">
         <v>35</v>
@@ -25121,7 +25121,7 @@
         <v>45410.5</v>
       </c>
       <c r="E268" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F268" t="s">
         <v>50</v>
@@ -25768,7 +25768,7 @@
         <v>35</v>
       </c>
       <c r="F275" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -25860,7 +25860,7 @@
         <v>32</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G276">
         <v>3</v>
@@ -26501,7 +26501,7 @@
         <v>45424.5</v>
       </c>
       <c r="E283" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F283" t="s">
         <v>32</v>
@@ -26593,7 +26593,7 @@
         <v>45424.5</v>
       </c>
       <c r="E284" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F284" t="s">
         <v>48</v>
@@ -27516,7 +27516,7 @@
         <v>48</v>
       </c>
       <c r="F294" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -27608,7 +27608,7 @@
         <v>45</v>
       </c>
       <c r="F295" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G295">
         <v>2</v>
@@ -28243,7 +28243,7 @@
         <v>45438.5</v>
       </c>
       <c r="E302" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F302" t="s">
         <v>45</v>
@@ -28492,7 +28492,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6870614</v>
+        <v>6869719</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28501,76 +28501,76 @@
         <v>45438.5</v>
       </c>
       <c r="E305" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F305" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305">
         <v>1</v>
       </c>
       <c r="K305" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L305">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="M305">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N305">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O305">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="P305">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q305">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="R305">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S305">
+        <v>1.875</v>
+      </c>
+      <c r="T305">
+        <v>1.925</v>
+      </c>
+      <c r="U305">
+        <v>2.5</v>
+      </c>
+      <c r="V305">
+        <v>1.95</v>
+      </c>
+      <c r="W305">
         <v>1.85</v>
       </c>
-      <c r="T305">
-        <v>1.95</v>
-      </c>
-      <c r="U305">
-        <v>3</v>
-      </c>
-      <c r="V305">
-        <v>1.975</v>
-      </c>
-      <c r="W305">
-        <v>1.825</v>
-      </c>
       <c r="X305">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z305">
         <v>-1</v>
       </c>
       <c r="AA305">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB305">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD305">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -28578,7 +28578,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6869719</v>
+        <v>6870614</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28587,76 +28587,76 @@
         <v>45438.5</v>
       </c>
       <c r="E306" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F306" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="K306" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L306">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="M306">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N306">
+        <v>4.2</v>
+      </c>
+      <c r="O306">
+        <v>1.533</v>
+      </c>
+      <c r="P306">
+        <v>4.2</v>
+      </c>
+      <c r="Q306">
+        <v>4.5</v>
+      </c>
+      <c r="R306">
+        <v>-1</v>
+      </c>
+      <c r="S306">
+        <v>1.85</v>
+      </c>
+      <c r="T306">
+        <v>1.95</v>
+      </c>
+      <c r="U306">
         <v>3</v>
       </c>
-      <c r="O306">
-        <v>2.1</v>
-      </c>
-      <c r="P306">
-        <v>3.4</v>
-      </c>
-      <c r="Q306">
-        <v>2.9</v>
-      </c>
-      <c r="R306">
-        <v>-0.25</v>
-      </c>
-      <c r="S306">
-        <v>1.875</v>
-      </c>
-      <c r="T306">
-        <v>1.925</v>
-      </c>
-      <c r="U306">
-        <v>2.5</v>
-      </c>
       <c r="V306">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W306">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y306">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB306">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD306">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:30">

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -3032,7 +3032,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867524</v>
+        <v>6867182</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3041,13 +3041,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3059,64 +3059,64 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L28">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="M28">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O28">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
         <v>3.25</v>
       </c>
       <c r="Q28">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U28">
         <v>2.25</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="X28">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD28">
-        <v>0.5</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3124,7 +3124,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6867182</v>
+        <v>6867524</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3133,13 +3133,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L29">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="M29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N29">
+        <v>2.9</v>
+      </c>
+      <c r="O29">
         <v>2.3</v>
-      </c>
-      <c r="O29">
-        <v>3.1</v>
       </c>
       <c r="P29">
         <v>3.25</v>
       </c>
       <c r="Q29">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U29">
         <v>2.25</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y29">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD29">
-        <v>0.7250000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3400,7 +3400,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6867736</v>
+        <v>6867526</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3409,10 +3409,10 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3430,25 +3430,25 @@
         <v>53</v>
       </c>
       <c r="L32">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="M32">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N32">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O32">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="P32">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q32">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3457,16 +3457,16 @@
         <v>1.8</v>
       </c>
       <c r="U32">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="V32">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X32">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3481,10 +3481,10 @@
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3676,7 +3676,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6867526</v>
+        <v>6867736</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3685,10 +3685,10 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3706,25 +3706,25 @@
         <v>53</v>
       </c>
       <c r="L35">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="M35">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O35">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q35">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="R35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S35">
         <v>2</v>
@@ -3733,16 +3733,16 @@
         <v>1.8</v>
       </c>
       <c r="U35">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X35">
-        <v>0.95</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y35">
         <v>-1</v>
@@ -3757,10 +3757,10 @@
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD35">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3860,7 +3860,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6867668</v>
+        <v>6871129</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3869,82 +3869,82 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L37">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="M37">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N37">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="O37">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q37">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="R37">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W37">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD37">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -3952,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6871129</v>
+        <v>6867237</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -3961,10 +3961,10 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3991,52 +3991,52 @@
         <v>4.25</v>
       </c>
       <c r="O38">
+        <v>1.571</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <v>6.5</v>
+      </c>
+      <c r="R38">
+        <v>-1</v>
+      </c>
+      <c r="S38">
+        <v>1.8</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>2.75</v>
+      </c>
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="P38">
-        <v>3.75</v>
-      </c>
-      <c r="Q38">
-        <v>3.8</v>
-      </c>
-      <c r="R38">
+      <c r="W38">
+        <v>1.85</v>
+      </c>
+      <c r="X38">
+        <v>0.571</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0.475</v>
+      </c>
+      <c r="AD38">
         <v>-0.5</v>
-      </c>
-      <c r="S38">
-        <v>1.95</v>
-      </c>
-      <c r="T38">
-        <v>1.85</v>
-      </c>
-      <c r="U38">
-        <v>2.5</v>
-      </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
-      <c r="W38">
-        <v>1.95</v>
-      </c>
-      <c r="X38">
-        <v>0.95</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>0.95</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AD38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4044,7 +4044,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6867237</v>
+        <v>6867579</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4053,46 +4053,46 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L39">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="M39">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="O39">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q39">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="R39">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S39">
         <v>1.8</v>
@@ -4101,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="U39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V39">
         <v>1.95</v>
@@ -4110,25 +4110,25 @@
         <v>1.85</v>
       </c>
       <c r="X39">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC39">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AD39">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4136,7 +4136,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6867579</v>
+        <v>6867668</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4145,10 +4145,10 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4160,25 +4160,25 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
         <v>54</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M40">
         <v>3.5</v>
       </c>
       <c r="N40">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O40">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P40">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -4187,25 +4187,25 @@
         <v>-0.25</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U40">
         <v>2.25</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z40">
         <v>-1</v>
@@ -4214,13 +4214,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AC40">
         <v>-0.5</v>
       </c>
       <c r="AD40">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4780,7 +4780,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6867528</v>
+        <v>6867529</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4789,25 +4789,25 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L47">
         <v>2.4</v>
@@ -4819,49 +4819,49 @@
         <v>2.6</v>
       </c>
       <c r="O47">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P47">
         <v>3.5</v>
       </c>
       <c r="Q47">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R47">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U47">
         <v>2.5</v>
       </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X47">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
         <v>1.025</v>
-      </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
-      <c r="AC47">
-        <v>0.825</v>
       </c>
       <c r="AD47">
         <v>-1</v>
@@ -4872,7 +4872,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6867529</v>
+        <v>6867184</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4881,19 +4881,19 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -4902,40 +4902,40 @@
         <v>52</v>
       </c>
       <c r="L48">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M48">
         <v>3.2</v>
       </c>
       <c r="N48">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O48">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P48">
         <v>3.5</v>
       </c>
       <c r="Q48">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
         <v>1.8</v>
       </c>
-      <c r="T48">
-        <v>2</v>
-      </c>
       <c r="U48">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4944,19 +4944,19 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -4964,7 +4964,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6867184</v>
+        <v>6867528</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4973,55 +4973,55 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L49">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M49">
         <v>3.2</v>
       </c>
       <c r="N49">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P49">
         <v>3.5</v>
       </c>
       <c r="Q49">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R49">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V49">
         <v>1.825</v>
@@ -5030,25 +5030,25 @@
         <v>1.975</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -6436,7 +6436,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867673</v>
+        <v>6867585</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6445,82 +6445,82 @@
         <v>45172.5</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="M65">
         <v>3.25</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="P65">
         <v>3.4</v>
       </c>
       <c r="Q65">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="R65">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB65">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6528,7 +6528,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6867585</v>
+        <v>6867532</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6537,25 +6537,25 @@
         <v>45172.5</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -6567,52 +6567,52 @@
         <v>3.25</v>
       </c>
       <c r="O66">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P66">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q66">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="R66">
         <v>-0.25</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V66">
+        <v>1.875</v>
+      </c>
+      <c r="W66">
         <v>1.925</v>
       </c>
-      <c r="W66">
-        <v>1.775</v>
-      </c>
       <c r="X66">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC66">
         <v>-1</v>
       </c>
       <c r="AD66">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6620,7 +6620,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6867532</v>
+        <v>6867673</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6629,82 +6629,82 @@
         <v>45172.5</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="M67">
         <v>3.25</v>
       </c>
       <c r="N67">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O67">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q67">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R67">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U67">
         <v>2.5</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD67">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -10576,7 +10576,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6867680</v>
+        <v>6867873</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
@@ -10585,79 +10585,79 @@
         <v>45221.5</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>3</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L110">
+        <v>2.9</v>
+      </c>
+      <c r="M110">
+        <v>3.25</v>
+      </c>
+      <c r="N110">
         <v>2.25</v>
       </c>
-      <c r="M110">
-        <v>3.4</v>
-      </c>
-      <c r="N110">
-        <v>2.8</v>
-      </c>
       <c r="O110">
+        <v>2.5</v>
+      </c>
+      <c r="P110">
+        <v>3.25</v>
+      </c>
+      <c r="Q110">
+        <v>2.9</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>1.75</v>
+      </c>
+      <c r="T110">
+        <v>2.05</v>
+      </c>
+      <c r="U110">
         <v>2.25</v>
       </c>
-      <c r="P110">
-        <v>3.5</v>
-      </c>
-      <c r="Q110">
-        <v>3.1</v>
-      </c>
-      <c r="R110">
-        <v>-0.25</v>
-      </c>
-      <c r="S110">
-        <v>1.975</v>
-      </c>
-      <c r="T110">
-        <v>1.825</v>
-      </c>
-      <c r="U110">
-        <v>2.5</v>
-      </c>
       <c r="V110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X110">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AD110">
         <v>-1</v>
@@ -10668,7 +10668,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867873</v>
+        <v>6871121</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -10677,82 +10677,82 @@
         <v>45221.5</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L111">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="M111">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O111">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="P111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="R111">
         <v>0</v>
       </c>
       <c r="S111">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U111">
         <v>2.25</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB111">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -10760,7 +10760,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6871121</v>
+        <v>6867680</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10769,82 +10769,82 @@
         <v>45221.5</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L112">
+        <v>2.25</v>
+      </c>
+      <c r="M112">
+        <v>3.4</v>
+      </c>
+      <c r="N112">
+        <v>2.8</v>
+      </c>
+      <c r="O112">
+        <v>2.25</v>
+      </c>
+      <c r="P112">
+        <v>3.5</v>
+      </c>
+      <c r="Q112">
+        <v>3.1</v>
+      </c>
+      <c r="R112">
+        <v>-0.25</v>
+      </c>
+      <c r="S112">
+        <v>1.975</v>
+      </c>
+      <c r="T112">
+        <v>1.825</v>
+      </c>
+      <c r="U112">
         <v>2.5</v>
       </c>
-      <c r="M112">
-        <v>3.2</v>
-      </c>
-      <c r="N112">
-        <v>2.6</v>
-      </c>
-      <c r="O112">
-        <v>2.625</v>
-      </c>
-      <c r="P112">
-        <v>3.3</v>
-      </c>
-      <c r="Q112">
-        <v>2.75</v>
-      </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-      <c r="S112">
-        <v>1.875</v>
-      </c>
-      <c r="T112">
-        <v>1.925</v>
-      </c>
-      <c r="U112">
-        <v>2.25</v>
-      </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y112">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -10944,7 +10944,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6867874</v>
+        <v>6867744</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10953,46 +10953,46 @@
         <v>45228.375</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="s">
         <v>53</v>
       </c>
       <c r="L114">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="M114">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N114">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="P114">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q114">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="R114">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S114">
         <v>1.8</v>
@@ -11004,13 +11004,13 @@
         <v>2.25</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X114">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="Y114">
         <v>-1</v>
@@ -11019,13 +11019,13 @@
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AB114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD114">
         <v>-1</v>
@@ -11036,7 +11036,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6867744</v>
+        <v>6867908</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11045,82 +11045,82 @@
         <v>45228.375</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L115">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="M115">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N115">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O115">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P115">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q115">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="R115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U115">
         <v>2.25</v>
       </c>
       <c r="V115">
+        <v>1.825</v>
+      </c>
+      <c r="W115">
         <v>1.975</v>
       </c>
-      <c r="W115">
-        <v>1.825</v>
-      </c>
       <c r="X115">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC115">
+        <v>-1</v>
+      </c>
+      <c r="AD115">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD115">
-        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11128,7 +11128,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6867908</v>
+        <v>6867541</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11137,13 +11137,13 @@
         <v>45228.375</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11152,67 +11152,67 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L116">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="M116">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="P116">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q116">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U116">
         <v>2.25</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z116">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB116">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD116">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11220,7 +11220,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6867541</v>
+        <v>6867874</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -11229,13 +11229,13 @@
         <v>45228.375</v>
       </c>
       <c r="E117" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11247,64 +11247,64 @@
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L117">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N117">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="O117">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="P117">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q117">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="R117">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U117">
         <v>2.25</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y117">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD117">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11312,7 +11312,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6867970</v>
+        <v>6867681</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11321,79 +11321,79 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L118">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N118">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
         <v>3.5</v>
       </c>
       <c r="Q118">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="R118">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S118">
+        <v>1.825</v>
+      </c>
+      <c r="T118">
         <v>1.975</v>
       </c>
-      <c r="T118">
-        <v>1.725</v>
-      </c>
       <c r="U118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD118">
         <v>-1</v>
@@ -11404,7 +11404,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6867681</v>
+        <v>6867970</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -11413,79 +11413,79 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K119" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L119">
+        <v>2.25</v>
+      </c>
+      <c r="M119">
         <v>3.4</v>
       </c>
-      <c r="M119">
-        <v>3.75</v>
-      </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O119">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="P119">
         <v>3.5</v>
       </c>
       <c r="Q119">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="R119">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="U119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>0.3625</v>
       </c>
       <c r="AC119">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD119">
         <v>-1</v>
@@ -11680,7 +11680,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6867542</v>
+        <v>6867971</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11689,82 +11689,82 @@
         <v>45235.375</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122">
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L122">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="M122">
         <v>3.25</v>
       </c>
       <c r="N122">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O122">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="P122">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q122">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R122">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T122">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="U122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V122">
+        <v>1.95</v>
+      </c>
+      <c r="W122">
         <v>1.85</v>
       </c>
-      <c r="W122">
-        <v>1.95</v>
-      </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.3625</v>
+        <v>0.75</v>
       </c>
       <c r="AC122">
+        <v>-1</v>
+      </c>
+      <c r="AD122">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -11772,7 +11772,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867971</v>
+        <v>6867972</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11781,61 +11781,61 @@
         <v>45235.375</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" t="s">
         <v>52</v>
       </c>
       <c r="L123">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M123">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N123">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O123">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P123">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q123">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="R123">
         <v>0</v>
       </c>
       <c r="S123">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11844,19 +11844,19 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1.5</v>
+        <v>1.625</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -11864,7 +11864,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867972</v>
+        <v>6867543</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11873,52 +11873,52 @@
         <v>45235.375</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="s">
         <v>52</v>
       </c>
       <c r="L124">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M124">
+        <v>3.25</v>
+      </c>
+      <c r="N124">
+        <v>2.375</v>
+      </c>
+      <c r="O124">
         <v>3.2</v>
       </c>
-      <c r="N124">
-        <v>2.5</v>
-      </c>
-      <c r="O124">
-        <v>2.875</v>
-      </c>
       <c r="P124">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q124">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="R124">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U124">
         <v>2.25</v>
@@ -11936,19 +11936,19 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.625</v>
+        <v>1.3</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD124">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -11956,7 +11956,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867543</v>
+        <v>6867542</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11965,82 +11965,82 @@
         <v>45235.375</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L125">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="M125">
         <v>3.25</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="P125">
         <v>3.25</v>
       </c>
       <c r="Q125">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R125">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="U125">
         <v>2.25</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z125">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AC125">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD125">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -12232,7 +12232,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6867876</v>
+        <v>6867875</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12241,10 +12241,10 @@
         <v>45235.54166666666</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -12262,43 +12262,43 @@
         <v>53</v>
       </c>
       <c r="L128">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M128">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N128">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O128">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P128">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q128">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R128">
         <v>-0.25</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T128">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U128">
         <v>2.25</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X128">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
@@ -12307,7 +12307,7 @@
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -12316,7 +12316,7 @@
         <v>-1</v>
       </c>
       <c r="AD128">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12324,7 +12324,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867875</v>
+        <v>6867876</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12333,10 +12333,10 @@
         <v>45235.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -12354,43 +12354,43 @@
         <v>53</v>
       </c>
       <c r="L129">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="M129">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N129">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O129">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P129">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q129">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R129">
         <v>-0.25</v>
       </c>
       <c r="S129">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U129">
         <v>2.25</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X129">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Y129">
         <v>-1</v>
@@ -12399,7 +12399,7 @@
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -12408,7 +12408,7 @@
         <v>-1</v>
       </c>
       <c r="AD129">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12508,7 +12508,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867193</v>
+        <v>6867595</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12517,82 +12517,82 @@
         <v>45242.375</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K131" t="s">
         <v>54</v>
       </c>
       <c r="L131">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="M131">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N131">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="O131">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="P131">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q131">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="R131">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S131">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V131">
+        <v>1.85</v>
+      </c>
+      <c r="W131">
         <v>1.95</v>
       </c>
-      <c r="W131">
-        <v>1.85</v>
-      </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -12600,7 +12600,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867595</v>
+        <v>6867683</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -12609,82 +12609,82 @@
         <v>45242.375</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K132" t="s">
         <v>54</v>
       </c>
       <c r="L132">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N132">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q132">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="R132">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U132">
         <v>2.25</v>
       </c>
       <c r="V132">
+        <v>1.95</v>
+      </c>
+      <c r="W132">
         <v>1.85</v>
       </c>
-      <c r="W132">
-        <v>1.95</v>
-      </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC132">
+        <v>-1</v>
+      </c>
+      <c r="AD132">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD132">
-        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -12692,7 +12692,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6867683</v>
+        <v>6867973</v>
       </c>
       <c r="C133" t="s">
         <v>29</v>
@@ -12701,82 +12701,82 @@
         <v>45242.375</v>
       </c>
       <c r="E133" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M133">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="P133">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q133">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="R133">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S133">
+        <v>1.75</v>
+      </c>
+      <c r="T133">
+        <v>2.05</v>
+      </c>
+      <c r="U133">
+        <v>2.5</v>
+      </c>
+      <c r="V133">
+        <v>1.875</v>
+      </c>
+      <c r="W133">
         <v>1.925</v>
       </c>
-      <c r="T133">
-        <v>1.875</v>
-      </c>
-      <c r="U133">
-        <v>2.25</v>
-      </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
-      <c r="W133">
-        <v>1.85</v>
-      </c>
       <c r="X133">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y133">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.4625</v>
+        <v>0.75</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
       </c>
       <c r="AD133">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -12784,7 +12784,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6867973</v>
+        <v>6867193</v>
       </c>
       <c r="C134" t="s">
         <v>29</v>
@@ -12793,46 +12793,46 @@
         <v>45242.375</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L134">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N134">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="O134">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="P134">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q134">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="R134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S134">
         <v>1.75</v>
@@ -12841,34 +12841,34 @@
         <v>2.05</v>
       </c>
       <c r="U134">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X134">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC134">
         <v>-1</v>
       </c>
       <c r="AD134">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -14532,7 +14532,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6867976</v>
+        <v>6871116</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14541,10 +14541,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -14556,67 +14556,67 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="s">
         <v>54</v>
       </c>
       <c r="L153">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="M153">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N153">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O153">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="P153">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="R153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T153">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>1.075</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
       </c>
-      <c r="AB153">
-        <v>0.4</v>
-      </c>
-      <c r="AC153">
-        <v>0</v>
-      </c>
       <c r="AD153">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14624,7 +14624,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6871116</v>
+        <v>6867976</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14633,10 +14633,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -14648,67 +14648,67 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="s">
         <v>54</v>
       </c>
       <c r="L154">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="M154">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N154">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O154">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q154">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="R154">
+        <v>-0.25</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>1.8</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>1.975</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>2.2</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
         <v>-0.5</v>
       </c>
-      <c r="S154">
-        <v>1.725</v>
-      </c>
-      <c r="T154">
-        <v>2.075</v>
-      </c>
-      <c r="U154">
-        <v>2.25</v>
-      </c>
-      <c r="V154">
-        <v>1.925</v>
-      </c>
-      <c r="W154">
-        <v>1.875</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>2.6</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
       <c r="AB154">
-        <v>1.075</v>
+        <v>0.4</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD154">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -15452,7 +15452,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6867551</v>
+        <v>6867250</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15461,10 +15461,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -15473,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -15482,43 +15482,43 @@
         <v>53</v>
       </c>
       <c r="L163">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M163">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O163">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="P163">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q163">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="R163">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S163">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U163">
         <v>2.25</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W163">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="X163">
-        <v>0.8500000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15527,7 +15527,7 @@
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB163">
         <v>-1</v>
@@ -15536,7 +15536,7 @@
         <v>-1</v>
       </c>
       <c r="AD163">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15544,7 +15544,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6867250</v>
+        <v>6867601</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15553,10 +15553,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -15574,43 +15574,43 @@
         <v>53</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="M164">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N164">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O164">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="P164">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q164">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="R164">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="S164">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U164">
         <v>2.25</v>
       </c>
       <c r="V164">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W164">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X164">
-        <v>3.75</v>
+        <v>0.55</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15619,16 +15619,16 @@
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC164">
         <v>-1</v>
       </c>
       <c r="AD164">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15636,7 +15636,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6867601</v>
+        <v>6867197</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15645,82 +15645,82 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L165">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M165">
         <v>3.4</v>
       </c>
       <c r="N165">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O165">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="P165">
         <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="R165">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U165">
         <v>2.25</v>
       </c>
       <c r="V165">
+        <v>2</v>
+      </c>
+      <c r="W165">
         <v>1.8</v>
       </c>
-      <c r="W165">
-        <v>2</v>
-      </c>
       <c r="X165">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD165">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -15728,7 +15728,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6867197</v>
+        <v>6867551</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15737,82 +15737,82 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L166">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M166">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N166">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O166">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="P166">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q166">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="R166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U166">
         <v>2.25</v>
       </c>
       <c r="V166">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y166">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -16188,7 +16188,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6871113</v>
+        <v>6867746</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -16197,82 +16197,82 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G171">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171">
         <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L171">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="M171">
         <v>3.25</v>
       </c>
       <c r="N171">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P171">
         <v>3.3</v>
       </c>
       <c r="Q171">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R171">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S171">
         <v>1.75</v>
       </c>
       <c r="T171">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U171">
         <v>2.25</v>
       </c>
       <c r="V171">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W171">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA171">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC171">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AD171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16280,7 +16280,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6867251</v>
+        <v>6871113</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16289,82 +16289,82 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F172" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172">
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L172">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="M172">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N172">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="O172">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q172">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="R172">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T172">
         <v>1.95</v>
       </c>
       <c r="U172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X172">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
+        <v>0.75</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>-0.5</v>
       </c>
-      <c r="AB172">
-        <v>0.475</v>
-      </c>
-      <c r="AC172">
-        <v>0.825</v>
-      </c>
       <c r="AD172">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16372,7 +16372,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6867198</v>
+        <v>6867251</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16381,79 +16381,79 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L173">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="M173">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N173">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O173">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="P173">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q173">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="R173">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S173">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T173">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V173">
+        <v>1.825</v>
+      </c>
+      <c r="W173">
         <v>1.975</v>
       </c>
-      <c r="W173">
-        <v>1.725</v>
-      </c>
       <c r="X173">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC173">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD173">
         <v>-1</v>
@@ -16464,7 +16464,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6867746</v>
+        <v>6867198</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16473,61 +16473,61 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>3</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174" t="s">
         <v>52</v>
       </c>
       <c r="L174">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M174">
         <v>3.25</v>
       </c>
       <c r="N174">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O174">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="P174">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q174">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R174">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S174">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T174">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U174">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W174">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16536,16 +16536,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC174">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD174">
         <v>-1</v>
@@ -17660,7 +17660,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6867507</v>
+        <v>6867252</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17669,10 +17669,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -17681,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -17690,43 +17690,43 @@
         <v>53</v>
       </c>
       <c r="L187">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="M187">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N187">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="O187">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q187">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="R187">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T187">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U187">
         <v>2.25</v>
       </c>
       <c r="V187">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X187">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y187">
         <v>-1</v>
@@ -17735,16 +17735,16 @@
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
         <v>-1</v>
       </c>
       <c r="AD187">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17752,7 +17752,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6867556</v>
+        <v>6867604</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17761,64 +17761,64 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F188" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
         <v>1</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" t="s">
         <v>53</v>
       </c>
       <c r="L188">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N188">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O188">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="P188">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q188">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="R188">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T188">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X188">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y188">
         <v>-1</v>
@@ -17827,13 +17827,13 @@
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AD188">
         <v>-1</v>
@@ -17844,7 +17844,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6867252</v>
+        <v>6867556</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
@@ -17853,64 +17853,64 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
         <v>1</v>
       </c>
       <c r="J189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K189" t="s">
         <v>53</v>
       </c>
       <c r="L189">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="M189">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N189">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="P189">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q189">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="R189">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X189">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y189">
         <v>-1</v>
@@ -17919,16 +17919,16 @@
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD189">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:30">
@@ -17936,7 +17936,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6867604</v>
+        <v>6867507</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -17945,19 +17945,19 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -17966,43 +17966,43 @@
         <v>53</v>
       </c>
       <c r="L190">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="M190">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N190">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="O190">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="P190">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q190">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="R190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S190">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U190">
         <v>2.25</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X190">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="Y190">
         <v>-1</v>
@@ -18011,16 +18011,16 @@
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -18028,7 +18028,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6871112</v>
+        <v>6867555</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18037,16 +18037,16 @@
         <v>45340.54166666666</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -18055,64 +18055,64 @@
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L191">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="M191">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N191">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O191">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="P191">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q191">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="R191">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V191">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W191">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC191">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD191">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18120,7 +18120,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6867555</v>
+        <v>6871112</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18129,16 +18129,16 @@
         <v>45340.54166666666</v>
       </c>
       <c r="E192" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G192">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -18147,64 +18147,64 @@
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L192">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="M192">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N192">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O192">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="P192">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q192">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R192">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T192">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U192">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z192">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB192">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC192">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD192">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -19500,7 +19500,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7083112</v>
+        <v>6867509</v>
       </c>
       <c r="C207" t="s">
         <v>29</v>
@@ -19509,10 +19509,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -19521,7 +19521,7 @@
         <v>0</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -19530,25 +19530,25 @@
         <v>53</v>
       </c>
       <c r="L207">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M207">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N207">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="O207">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="P207">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q207">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="R207">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S207">
         <v>1.8</v>
@@ -19557,16 +19557,16 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W207">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X207">
-        <v>1.45</v>
+        <v>0.75</v>
       </c>
       <c r="Y207">
         <v>-1</v>
@@ -19584,7 +19584,7 @@
         <v>-1</v>
       </c>
       <c r="AD207">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -19592,7 +19592,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6867719</v>
+        <v>7083112</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -19601,82 +19601,82 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E208" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L208">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="M208">
         <v>3.25</v>
       </c>
       <c r="N208">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O208">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="P208">
         <v>3.25</v>
       </c>
       <c r="Q208">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="R208">
         <v>0</v>
       </c>
       <c r="S208">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T208">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U208">
         <v>2.25</v>
       </c>
       <c r="V208">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W208">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB208">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
         <v>-1</v>
       </c>
       <c r="AD208">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -19684,7 +19684,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6867254</v>
+        <v>6867719</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -19693,10 +19693,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E209" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -19708,46 +19708,46 @@
         <v>0</v>
       </c>
       <c r="J209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K209" t="s">
         <v>52</v>
       </c>
       <c r="L209">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M209">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N209">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P209">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q209">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="R209">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T209">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U209">
         <v>2.25</v>
       </c>
       <c r="V209">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W209">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19756,19 +19756,19 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8500000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC209">
         <v>-1</v>
       </c>
       <c r="AD209">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -19776,7 +19776,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6867509</v>
+        <v>6867254</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -19785,82 +19785,82 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>0</v>
       </c>
       <c r="J210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L210">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="M210">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N210">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="O210">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q210">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="R210">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S210">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U210">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V210">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W210">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X210">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC210">
         <v>-1</v>
       </c>
       <c r="AD210">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -20144,7 +20144,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6867720</v>
+        <v>6867512</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20153,19 +20153,19 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>0</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -20174,43 +20174,43 @@
         <v>53</v>
       </c>
       <c r="L214">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M214">
         <v>3.2</v>
       </c>
       <c r="N214">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="O214">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="P214">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q214">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="R214">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T214">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V214">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X214">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="Y214">
         <v>-1</v>
@@ -20219,16 +20219,16 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD214">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20236,7 +20236,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6867512</v>
+        <v>6867720</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -20245,19 +20245,19 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E215" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -20266,43 +20266,43 @@
         <v>53</v>
       </c>
       <c r="L215">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M215">
         <v>3.2</v>
       </c>
       <c r="N215">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O215">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="P215">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q215">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="R215">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
+        <v>1.825</v>
+      </c>
+      <c r="U215">
+        <v>2</v>
+      </c>
+      <c r="V215">
         <v>1.775</v>
       </c>
-      <c r="T215">
+      <c r="W215">
         <v>2.025</v>
       </c>
-      <c r="U215">
-        <v>2.25</v>
-      </c>
-      <c r="V215">
-        <v>1.95</v>
-      </c>
-      <c r="W215">
-        <v>1.85</v>
-      </c>
       <c r="X215">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y215">
         <v>-1</v>
@@ -20311,16 +20311,16 @@
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD215">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -20328,7 +20328,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6867565</v>
+        <v>6867564</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -20337,82 +20337,82 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E216" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216" t="s">
         <v>53</v>
       </c>
       <c r="L216">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="M216">
         <v>3.3</v>
       </c>
       <c r="N216">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O216">
+        <v>2.2</v>
+      </c>
+      <c r="P216">
+        <v>3.2</v>
+      </c>
+      <c r="Q216">
+        <v>2.875</v>
+      </c>
+      <c r="R216">
+        <v>-0.25</v>
+      </c>
+      <c r="S216">
+        <v>2</v>
+      </c>
+      <c r="T216">
+        <v>1.8</v>
+      </c>
+      <c r="U216">
+        <v>2.25</v>
+      </c>
+      <c r="V216">
+        <v>1.95</v>
+      </c>
+      <c r="W216">
         <v>1.85</v>
       </c>
-      <c r="P216">
-        <v>3.3</v>
-      </c>
-      <c r="Q216">
-        <v>3.75</v>
-      </c>
-      <c r="R216">
-        <v>-0.5</v>
-      </c>
-      <c r="S216">
-        <v>1.9</v>
-      </c>
-      <c r="T216">
-        <v>1.9</v>
-      </c>
-      <c r="U216">
-        <v>2.5</v>
-      </c>
-      <c r="V216">
-        <v>2</v>
-      </c>
-      <c r="W216">
-        <v>1.8</v>
-      </c>
       <c r="X216">
+        <v>1.2</v>
+      </c>
+      <c r="Y216">
+        <v>-1</v>
+      </c>
+      <c r="Z216">
+        <v>-1</v>
+      </c>
+      <c r="AA216">
+        <v>1</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
+        <v>-1</v>
+      </c>
+      <c r="AD216">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Y216">
-        <v>-1</v>
-      </c>
-      <c r="Z216">
-        <v>-1</v>
-      </c>
-      <c r="AA216">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB216">
-        <v>-1</v>
-      </c>
-      <c r="AC216">
-        <v>1</v>
-      </c>
-      <c r="AD216">
-        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20420,7 +20420,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6867691</v>
+        <v>6867565</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20429,55 +20429,55 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E217" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L217">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="M217">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N217">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O217">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="P217">
         <v>3.3</v>
       </c>
       <c r="Q217">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="R217">
         <v>-0.5</v>
       </c>
       <c r="S217">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U217">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V217">
         <v>2</v>
@@ -20486,25 +20486,25 @@
         <v>1.8</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y217">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB217">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD217">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20512,7 +20512,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6867564</v>
+        <v>6867691</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20521,13 +20521,13 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E218" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F218" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20539,64 +20539,64 @@
         <v>0</v>
       </c>
       <c r="K218" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L218">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M218">
+        <v>3.5</v>
+      </c>
+      <c r="N218">
+        <v>4</v>
+      </c>
+      <c r="O218">
+        <v>1.727</v>
+      </c>
+      <c r="P218">
         <v>3.3</v>
       </c>
-      <c r="N218">
-        <v>3.5</v>
-      </c>
-      <c r="O218">
-        <v>2.2</v>
-      </c>
-      <c r="P218">
-        <v>3.2</v>
-      </c>
       <c r="Q218">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="R218">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S218">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T218">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U218">
         <v>2.25</v>
       </c>
       <c r="V218">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W218">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X218">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC218">
         <v>-1</v>
       </c>
       <c r="AD218">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -21156,7 +21156,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6871108</v>
+        <v>6867722</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -21165,82 +21165,82 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F225" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G225">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J225">
         <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L225">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="M225">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N225">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O225">
         <v>1.909</v>
       </c>
       <c r="P225">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q225">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="R225">
         <v>-0.5</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T225">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U225">
         <v>2.25</v>
       </c>
       <c r="V225">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W225">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X225">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC225">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD225">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -21248,7 +21248,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6867722</v>
+        <v>6871108</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -21257,82 +21257,82 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J226">
         <v>0</v>
       </c>
       <c r="K226" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L226">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="M226">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N226">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O226">
         <v>1.909</v>
       </c>
       <c r="P226">
+        <v>3.6</v>
+      </c>
+      <c r="Q226">
         <v>3.2</v>
-      </c>
-      <c r="Q226">
-        <v>3.75</v>
       </c>
       <c r="R226">
         <v>-0.5</v>
       </c>
       <c r="S226">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T226">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U226">
         <v>2.25</v>
       </c>
       <c r="V226">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W226">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y226">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD226">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21892,7 +21892,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7978504</v>
+        <v>7978503</v>
       </c>
       <c r="C233" t="s">
         <v>29</v>
@@ -21901,82 +21901,82 @@
         <v>45382.5</v>
       </c>
       <c r="E233" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F233" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K233" t="s">
         <v>54</v>
       </c>
       <c r="L233">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="M233">
         <v>3.2</v>
       </c>
       <c r="N233">
+        <v>2.5</v>
+      </c>
+      <c r="O233">
         <v>2.625</v>
       </c>
-      <c r="O233">
-        <v>2.3</v>
-      </c>
       <c r="P233">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q233">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="R233">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S233">
         <v>1.975</v>
       </c>
       <c r="T233">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="U233">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB233">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD233">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:30">
@@ -21984,7 +21984,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7978506</v>
+        <v>7978504</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -21993,16 +21993,16 @@
         <v>45382.5</v>
       </c>
       <c r="E234" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G234">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -22011,64 +22011,64 @@
         <v>0</v>
       </c>
       <c r="K234" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L234">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="M234">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N234">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O234">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P234">
         <v>3.1</v>
       </c>
       <c r="Q234">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="R234">
         <v>-0.25</v>
       </c>
       <c r="S234">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T234">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="U234">
         <v>2.25</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W234">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X234">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD234">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="235" spans="1:30">
@@ -22076,7 +22076,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7978503</v>
+        <v>7978506</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22085,82 +22085,82 @@
         <v>45382.5</v>
       </c>
       <c r="E235" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K235" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L235">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M235">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O235">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="P235">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="R235">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S235">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T235">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V235">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y235">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD235">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22444,7 +22444,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6871106</v>
+        <v>6867569</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22453,16 +22453,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -22474,40 +22474,40 @@
         <v>52</v>
       </c>
       <c r="L239">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M239">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O239">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P239">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q239">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="R239">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U239">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V239">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -22516,19 +22516,19 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD239">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22536,7 +22536,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6867569</v>
+        <v>6871106</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22545,16 +22545,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -22566,40 +22566,40 @@
         <v>52</v>
       </c>
       <c r="L240">
+        <v>2.6</v>
+      </c>
+      <c r="M240">
         <v>2.8</v>
       </c>
-      <c r="M240">
-        <v>3.2</v>
-      </c>
       <c r="N240">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O240">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P240">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q240">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="R240">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U240">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -22608,19 +22608,19 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC240">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD240">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -23180,7 +23180,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6867571</v>
+        <v>6867694</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23189,19 +23189,19 @@
         <v>45396.5</v>
       </c>
       <c r="E247" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G247">
         <v>2</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -23210,43 +23210,43 @@
         <v>53</v>
       </c>
       <c r="L247">
+        <v>1.727</v>
+      </c>
+      <c r="M247">
+        <v>3.5</v>
+      </c>
+      <c r="N247">
+        <v>4.333</v>
+      </c>
+      <c r="O247">
+        <v>2.05</v>
+      </c>
+      <c r="P247">
+        <v>3.25</v>
+      </c>
+      <c r="Q247">
+        <v>3.3</v>
+      </c>
+      <c r="R247">
+        <v>-0.25</v>
+      </c>
+      <c r="S247">
+        <v>1.8</v>
+      </c>
+      <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
         <v>2.25</v>
       </c>
-      <c r="M247">
-        <v>3.3</v>
-      </c>
-      <c r="N247">
-        <v>2.875</v>
-      </c>
-      <c r="O247">
-        <v>1.85</v>
-      </c>
-      <c r="P247">
-        <v>3.4</v>
-      </c>
-      <c r="Q247">
-        <v>3.5</v>
-      </c>
-      <c r="R247">
-        <v>-0.5</v>
-      </c>
-      <c r="S247">
-        <v>1.95</v>
-      </c>
-      <c r="T247">
-        <v>1.85</v>
-      </c>
-      <c r="U247">
-        <v>2.5</v>
-      </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W247">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X247">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -23255,16 +23255,16 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD247">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23272,7 +23272,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6871105</v>
+        <v>6867570</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23281,16 +23281,16 @@
         <v>45396.5</v>
       </c>
       <c r="E248" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F248" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -23299,64 +23299,64 @@
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L248">
+        <v>1.666</v>
+      </c>
+      <c r="M248">
         <v>3.6</v>
       </c>
-      <c r="M248">
-        <v>3.4</v>
-      </c>
       <c r="N248">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O248">
+        <v>1.666</v>
+      </c>
+      <c r="P248">
         <v>3.6</v>
       </c>
-      <c r="P248">
-        <v>3.4</v>
-      </c>
       <c r="Q248">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="R248">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S248">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T248">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U248">
         <v>2.25</v>
       </c>
       <c r="V248">
+        <v>1.875</v>
+      </c>
+      <c r="W248">
         <v>1.925</v>
       </c>
-      <c r="W248">
-        <v>1.875</v>
-      </c>
       <c r="X248">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB248">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC248">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD248">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23364,7 +23364,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6867694</v>
+        <v>6867571</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23373,19 +23373,19 @@
         <v>45396.5</v>
       </c>
       <c r="E249" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G249">
         <v>2</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -23394,43 +23394,43 @@
         <v>53</v>
       </c>
       <c r="L249">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M249">
+        <v>3.3</v>
+      </c>
+      <c r="N249">
+        <v>2.875</v>
+      </c>
+      <c r="O249">
+        <v>1.85</v>
+      </c>
+      <c r="P249">
+        <v>3.4</v>
+      </c>
+      <c r="Q249">
         <v>3.5</v>
       </c>
-      <c r="N249">
-        <v>4.333</v>
-      </c>
-      <c r="O249">
-        <v>2.05</v>
-      </c>
-      <c r="P249">
-        <v>3.25</v>
-      </c>
-      <c r="Q249">
-        <v>3.3</v>
-      </c>
       <c r="R249">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S249">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T249">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U249">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X249">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y249">
         <v>-1</v>
@@ -23439,16 +23439,16 @@
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB249">
         <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD249">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23456,7 +23456,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6867570</v>
+        <v>6867519</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23465,13 +23465,13 @@
         <v>45396.5</v>
       </c>
       <c r="E250" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F250" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23483,64 +23483,64 @@
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L250">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="M250">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N250">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O250">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="P250">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q250">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="R250">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S250">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U250">
         <v>2.25</v>
       </c>
       <c r="V250">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W250">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X250">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA250">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AB250">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AC250">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD250">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -23732,7 +23732,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6867519</v>
+        <v>6871105</v>
       </c>
       <c r="C253" t="s">
         <v>29</v>
@@ -23741,16 +23741,16 @@
         <v>45396.5</v>
       </c>
       <c r="E253" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F253" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -23771,31 +23771,31 @@
         <v>1.909</v>
       </c>
       <c r="O253">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P253">
         <v>3.4</v>
       </c>
       <c r="Q253">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="R253">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S253">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T253">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U253">
         <v>2.25</v>
       </c>
       <c r="V253">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W253">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X253">
         <v>-1</v>
@@ -23804,19 +23804,19 @@
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="AA253">
+        <v>-1</v>
+      </c>
+      <c r="AB253">
+        <v>0.95</v>
+      </c>
+      <c r="AC253">
         <v>-0.5</v>
       </c>
-      <c r="AB253">
-        <v>0.4875</v>
-      </c>
-      <c r="AC253">
-        <v>-1</v>
-      </c>
       <c r="AD253">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="254" spans="1:30">
@@ -28320,7 +28320,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6869722</v>
+        <v>6870614</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28329,49 +28329,49 @@
         <v>45438.5</v>
       </c>
       <c r="E303" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F303" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303">
+        <v>1</v>
+      </c>
+      <c r="K303" t="s">
+        <v>53</v>
+      </c>
+      <c r="L303">
+        <v>1.7</v>
+      </c>
+      <c r="M303">
+        <v>3.5</v>
+      </c>
+      <c r="N303">
+        <v>4.2</v>
+      </c>
+      <c r="O303">
+        <v>1.533</v>
+      </c>
+      <c r="P303">
+        <v>4.2</v>
+      </c>
+      <c r="Q303">
+        <v>4.5</v>
+      </c>
+      <c r="R303">
+        <v>-1</v>
+      </c>
+      <c r="S303">
+        <v>1.85</v>
+      </c>
+      <c r="T303">
+        <v>1.95</v>
+      </c>
+      <c r="U303">
         <v>3</v>
-      </c>
-      <c r="K303" t="s">
-        <v>52</v>
-      </c>
-      <c r="L303">
-        <v>2.4</v>
-      </c>
-      <c r="M303">
-        <v>3.2</v>
-      </c>
-      <c r="N303">
-        <v>2.6</v>
-      </c>
-      <c r="O303">
-        <v>2.8</v>
-      </c>
-      <c r="P303">
-        <v>3.4</v>
-      </c>
-      <c r="Q303">
-        <v>2.15</v>
-      </c>
-      <c r="R303">
-        <v>0.25</v>
-      </c>
-      <c r="S303">
-        <v>1.825</v>
-      </c>
-      <c r="T303">
-        <v>1.975</v>
-      </c>
-      <c r="U303">
-        <v>2.75</v>
       </c>
       <c r="V303">
         <v>1.975</v>
@@ -28380,25 +28380,25 @@
         <v>1.825</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB303">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC303">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD303">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28406,7 +28406,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6869718</v>
+        <v>6869722</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28415,40 +28415,40 @@
         <v>45438.5</v>
       </c>
       <c r="E304" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F304" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G304">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K304" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L304">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M304">
         <v>3.2</v>
       </c>
       <c r="N304">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O304">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P304">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q304">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="R304">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S304">
         <v>1.825</v>
@@ -28457,7 +28457,7 @@
         <v>1.975</v>
       </c>
       <c r="U304">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V304">
         <v>1.975</v>
@@ -28469,22 +28469,22 @@
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA304">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC304">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD304">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28492,7 +28492,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6869719</v>
+        <v>6869718</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28501,10 +28501,10 @@
         <v>45438.5</v>
       </c>
       <c r="E305" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F305" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -28516,61 +28516,61 @@
         <v>54</v>
       </c>
       <c r="L305">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M305">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N305">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O305">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="P305">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q305">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="R305">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S305">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U305">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V305">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W305">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Z305">
         <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB305">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD305">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -28578,7 +28578,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6870614</v>
+        <v>6869719</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28587,76 +28587,76 @@
         <v>45438.5</v>
       </c>
       <c r="E306" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F306" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="K306" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L306">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="M306">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N306">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O306">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="P306">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q306">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="R306">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S306">
+        <v>1.875</v>
+      </c>
+      <c r="T306">
+        <v>1.925</v>
+      </c>
+      <c r="U306">
+        <v>2.5</v>
+      </c>
+      <c r="V306">
+        <v>1.95</v>
+      </c>
+      <c r="W306">
         <v>1.85</v>
       </c>
-      <c r="T306">
-        <v>1.95</v>
-      </c>
-      <c r="U306">
-        <v>3</v>
-      </c>
-      <c r="V306">
-        <v>1.975</v>
-      </c>
-      <c r="W306">
-        <v>1.825</v>
-      </c>
       <c r="X306">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB306">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD306">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:30">

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -115,13 +115,10 @@
     <t>Nyiregyhaza Spartacus</t>
   </si>
   <si>
-    <t>BVSC Zuglo</t>
-  </si>
-  <si>
     <t>Gyirmot SE</t>
   </si>
   <si>
-    <t>Kozarmisleny SE</t>
+    <t>BVSC Zuglo</t>
   </si>
   <si>
     <t>FC Ajka</t>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>Pecsi MFC</t>
+  </si>
+  <si>
+    <t>Kozarmisleny SE</t>
   </si>
   <si>
     <t>Vasas SC</t>
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6867521</v>
+        <v>6867230</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -928,79 +928,79 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O5">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="P5">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q5">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R5">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X5">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6867230</v>
+        <v>6867521</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1112,79 +1112,79 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
+        <v>2.875</v>
+      </c>
+      <c r="P7">
+        <v>3.75</v>
+      </c>
+      <c r="Q7">
         <v>2.3</v>
       </c>
-      <c r="P7">
-        <v>3.4</v>
-      </c>
-      <c r="Q7">
-        <v>3.1</v>
-      </c>
       <c r="R7">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>2.5</v>
+      </c>
+      <c r="V7">
+        <v>1.85</v>
+      </c>
+      <c r="W7">
+        <v>1.95</v>
+      </c>
+      <c r="X7">
         <v>1.875</v>
       </c>
-      <c r="U7">
-        <v>2.25</v>
-      </c>
-      <c r="V7">
-        <v>1.875</v>
-      </c>
-      <c r="W7">
-        <v>1.925</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1192,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6867868</v>
+        <v>6867734</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1204,79 +1204,79 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L8">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="O8">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q8">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="R8">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S8">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>2.25</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD8">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6867734</v>
+        <v>6867664</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1296,79 +1296,79 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M9">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N9">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="R9">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="U9">
         <v>2.25</v>
       </c>
       <c r="V9">
+        <v>1.975</v>
+      </c>
+      <c r="W9">
         <v>1.825</v>
       </c>
-      <c r="W9">
-        <v>1.975</v>
-      </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD9">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6867664</v>
+        <v>6871132</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1388,13 +1388,13 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1406,40 +1406,40 @@
         <v>52</v>
       </c>
       <c r="L10">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O10">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P10">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q10">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S10">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="U10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1448,19 +1448,19 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1468,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6871132</v>
+        <v>6867180</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1480,79 +1480,79 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
         <v>3.5</v>
       </c>
       <c r="N11">
+        <v>3.75</v>
+      </c>
+      <c r="O11">
+        <v>1.95</v>
+      </c>
+      <c r="P11">
+        <v>3.6</v>
+      </c>
+      <c r="Q11">
+        <v>3.8</v>
+      </c>
+      <c r="R11">
+        <v>-0.5</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
         <v>1.85</v>
       </c>
-      <c r="O11">
-        <v>3.75</v>
-      </c>
-      <c r="P11">
-        <v>3.75</v>
-      </c>
-      <c r="Q11">
-        <v>1.909</v>
-      </c>
-      <c r="R11">
-        <v>0.5</v>
-      </c>
-      <c r="S11">
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
         <v>1.85</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>1.95</v>
       </c>
-      <c r="U11">
-        <v>2.5</v>
-      </c>
-      <c r="V11">
-        <v>1.95</v>
-      </c>
-      <c r="W11">
-        <v>1.85</v>
-      </c>
       <c r="X11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
+        <v>-1</v>
+      </c>
+      <c r="AD11">
         <v>0.95</v>
-      </c>
-      <c r="AC11">
-        <v>0.95</v>
-      </c>
-      <c r="AD11">
-        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6867180</v>
+        <v>6867868</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1572,52 +1572,52 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M12">
+        <v>3.3</v>
+      </c>
+      <c r="N12">
+        <v>2.75</v>
+      </c>
+      <c r="O12">
+        <v>2.1</v>
+      </c>
+      <c r="P12">
         <v>3.5</v>
       </c>
-      <c r="N12">
-        <v>3.75</v>
-      </c>
-      <c r="O12">
-        <v>1.95</v>
-      </c>
-      <c r="P12">
-        <v>3.6</v>
-      </c>
       <c r="Q12">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="R12">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V12">
         <v>1.85</v>
@@ -1626,25 +1626,25 @@
         <v>1.95</v>
       </c>
       <c r="X12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1848,7 +1848,7 @@
         <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1940,7 +1940,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2124,7 +2124,7 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2216,7 +2216,7 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2308,7 +2308,7 @@
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6867523</v>
+        <v>6867666</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2397,55 +2397,55 @@
         <v>45144.58333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21">
+        <v>2.5</v>
+      </c>
+      <c r="M21">
         <v>2.8</v>
       </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
       <c r="N21">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="O21">
         <v>2.75</v>
       </c>
       <c r="P21">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q21">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V21">
         <v>1.95</v>
@@ -2454,25 +2454,25 @@
         <v>1.85</v>
       </c>
       <c r="X21">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD21">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2480,7 +2480,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6867666</v>
+        <v>6867523</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2489,55 +2489,55 @@
         <v>45144.58333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L22">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="O22">
         <v>2.75</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q22">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V22">
         <v>1.95</v>
@@ -2546,25 +2546,25 @@
         <v>1.85</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD22">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2673,7 +2673,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2765,7 +2765,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
         <v>44</v>
@@ -2857,7 +2857,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
@@ -2949,7 +2949,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
         <v>46</v>
@@ -3032,7 +3032,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867182</v>
+        <v>6867524</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3041,13 +3041,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3059,64 +3059,64 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L28">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N28">
+        <v>2.9</v>
+      </c>
+      <c r="O28">
         <v>2.3</v>
-      </c>
-      <c r="O28">
-        <v>3.1</v>
       </c>
       <c r="P28">
         <v>3.25</v>
       </c>
       <c r="Q28">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U28">
         <v>2.25</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y28">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD28">
-        <v>0.7250000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3124,7 +3124,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6867524</v>
+        <v>6867182</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3133,13 +3133,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L29">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="M29">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O29">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
         <v>3.25</v>
       </c>
       <c r="Q29">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T29">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U29">
         <v>2.25</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="X29">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD29">
-        <v>0.5</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3400,7 +3400,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6867526</v>
+        <v>6867736</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3409,10 +3409,10 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3430,25 +3430,25 @@
         <v>53</v>
       </c>
       <c r="L32">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="M32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N32">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O32">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q32">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="R32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3457,16 +3457,16 @@
         <v>1.8</v>
       </c>
       <c r="U32">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W32">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X32">
-        <v>0.95</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3481,10 +3481,10 @@
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD32">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3492,7 +3492,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6867580</v>
+        <v>6867527</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3501,82 +3501,82 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L33">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="M33">
         <v>3.25</v>
       </c>
       <c r="N33">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O33">
+        <v>2.7</v>
+      </c>
+      <c r="P33">
         <v>3.4</v>
       </c>
-      <c r="P33">
-        <v>3.3</v>
-      </c>
       <c r="Q33">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R33">
         <v>0.25</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T33">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB33">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD33">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3584,7 +3584,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6867527</v>
+        <v>6867526</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3593,16 +3593,16 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3611,64 +3611,64 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L34">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="M34">
+        <v>3.3</v>
+      </c>
+      <c r="N34">
+        <v>3.4</v>
+      </c>
+      <c r="O34">
+        <v>1.95</v>
+      </c>
+      <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="Q34">
+        <v>3.5</v>
+      </c>
+      <c r="R34">
+        <v>-0.5</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>1.8</v>
+      </c>
+      <c r="U34">
         <v>3.25</v>
       </c>
-      <c r="N34">
-        <v>2.6</v>
-      </c>
-      <c r="O34">
-        <v>2.7</v>
-      </c>
-      <c r="P34">
-        <v>3.4</v>
-      </c>
-      <c r="Q34">
-        <v>2.5</v>
-      </c>
-      <c r="R34">
-        <v>0.25</v>
-      </c>
-      <c r="S34">
-        <v>1.775</v>
-      </c>
-      <c r="T34">
-        <v>2.025</v>
-      </c>
-      <c r="U34">
-        <v>2.5</v>
-      </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y34">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
         <v>-1</v>
       </c>
       <c r="AD34">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3676,7 +3676,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6867736</v>
+        <v>6867580</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3685,82 +3685,82 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L35">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N35">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q35">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U35">
         <v>2.25</v>
       </c>
       <c r="V35">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X35">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC35">
         <v>-0.5</v>
       </c>
       <c r="AD35">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3777,7 +3777,7 @@
         <v>45154.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
         <v>40</v>
@@ -3964,7 +3964,7 @@
         <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -4053,7 +4053,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
@@ -4148,7 +4148,7 @@
         <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4329,7 +4329,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
@@ -4421,7 +4421,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
         <v>41</v>
@@ -4504,7 +4504,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6871128</v>
+        <v>6867737</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4513,82 +4513,82 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M44">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N44">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="P44">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q44">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="R44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V44">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="X44">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4596,7 +4596,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6867737</v>
+        <v>6871128</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4605,82 +4605,82 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L45">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N45">
+        <v>1.833</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <v>3.6</v>
+      </c>
+      <c r="Q45">
         <v>2.15</v>
       </c>
-      <c r="O45">
-        <v>2.55</v>
-      </c>
-      <c r="P45">
-        <v>3.3</v>
-      </c>
-      <c r="Q45">
-        <v>2.7</v>
-      </c>
       <c r="R45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4700,7 +4700,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4872,7 +4872,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6867184</v>
+        <v>6867528</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4881,55 +4881,55 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L48">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M48">
         <v>3.2</v>
       </c>
       <c r="N48">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O48">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P48">
         <v>3.5</v>
       </c>
       <c r="Q48">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R48">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V48">
         <v>1.825</v>
@@ -4938,25 +4938,25 @@
         <v>1.975</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -4964,7 +4964,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6867528</v>
+        <v>6867184</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4976,52 +4976,52 @@
         <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L49">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M49">
         <v>3.2</v>
       </c>
       <c r="N49">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O49">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P49">
         <v>3.5</v>
       </c>
       <c r="Q49">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="R49">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T49">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U49">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V49">
         <v>1.825</v>
@@ -5030,25 +5030,25 @@
         <v>1.975</v>
       </c>
       <c r="X49">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5068,7 +5068,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5160,7 +5160,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5332,7 +5332,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867239</v>
+        <v>6867670</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5341,19 +5341,19 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5362,31 +5362,31 @@
         <v>53</v>
       </c>
       <c r="L53">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N53">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O53">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="P53">
         <v>4</v>
       </c>
       <c r="Q53">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R53">
         <v>-0.75</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U53">
         <v>2.5</v>
@@ -5398,7 +5398,7 @@
         <v>1.95</v>
       </c>
       <c r="X53">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5407,16 +5407,16 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5433,10 +5433,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5516,7 +5516,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6867670</v>
+        <v>6867239</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5525,19 +5525,19 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -5546,31 +5546,31 @@
         <v>53</v>
       </c>
       <c r="L55">
+        <v>1.8</v>
+      </c>
+      <c r="M55">
+        <v>3.6</v>
+      </c>
+      <c r="N55">
+        <v>3.6</v>
+      </c>
+      <c r="O55">
         <v>1.615</v>
-      </c>
-      <c r="M55">
-        <v>3.75</v>
-      </c>
-      <c r="N55">
-        <v>4.333</v>
-      </c>
-      <c r="O55">
-        <v>1.65</v>
       </c>
       <c r="P55">
         <v>4</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="R55">
         <v>-0.75</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U55">
         <v>2.5</v>
@@ -5582,7 +5582,7 @@
         <v>1.95</v>
       </c>
       <c r="X55">
-        <v>0.6499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5591,16 +5591,16 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5608,7 +5608,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867671</v>
+        <v>6867185</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -5617,16 +5617,16 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5635,64 +5635,64 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N56">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O56">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="P56">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q56">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="R56">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S56">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U56">
         <v>2.25</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z56">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD56">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5700,7 +5700,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6867185</v>
+        <v>6867671</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5709,16 +5709,16 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5727,64 +5727,64 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="M57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="P57">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q57">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="R57">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T57">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U57">
         <v>2.25</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
+        <v>0.95</v>
+      </c>
+      <c r="AC57">
         <v>-0.5</v>
       </c>
-      <c r="AB57">
-        <v>0.4375</v>
-      </c>
-      <c r="AC57">
-        <v>-1</v>
-      </c>
       <c r="AD57">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -5893,10 +5893,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -6077,10 +6077,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -6353,7 +6353,7 @@
         <v>45172.5</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
@@ -6445,7 +6445,7 @@
         <v>45172.5</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
         <v>43</v>
@@ -6528,7 +6528,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6867532</v>
+        <v>6867673</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6537,82 +6537,82 @@
         <v>45172.5</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="M66">
         <v>3.25</v>
       </c>
       <c r="N66">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O66">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R66">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U66">
         <v>2.5</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD66">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6620,7 +6620,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6867673</v>
+        <v>6867532</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6629,82 +6629,82 @@
         <v>45172.5</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L67">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="M67">
         <v>3.25</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O67">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="P67">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q67">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="R67">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T67">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U67">
         <v>2.5</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z67">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6724,7 +6724,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6997,10 +6997,10 @@
         <v>45193.5</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7089,10 +7089,10 @@
         <v>45193.5</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -7181,7 +7181,7 @@
         <v>45193.5</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
         <v>47</v>
@@ -7368,7 +7368,7 @@
         <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7641,10 +7641,10 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7733,7 +7733,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
         <v>40</v>
@@ -7825,10 +7825,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -8009,10 +8009,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -8653,7 +8653,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
         <v>47</v>
@@ -8745,10 +8745,10 @@
         <v>45200.49652777778</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -9021,10 +9021,10 @@
         <v>45200.5</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -9113,7 +9113,7 @@
         <v>45201.625</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
         <v>32</v>
@@ -9205,10 +9205,10 @@
         <v>45207.41319444445</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9288,7 +9288,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6867538</v>
+        <v>6867190</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9297,82 +9297,82 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L96">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="M96">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N96">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="P96">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q96">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="R96">
         <v>-0.25</v>
       </c>
       <c r="S96">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W96">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z96">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AC96">
         <v>-1</v>
       </c>
       <c r="AD96">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9380,7 +9380,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6867190</v>
+        <v>6867538</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9389,82 +9389,82 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L97">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N97">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O97">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="P97">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q97">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="R97">
         <v>-0.25</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T97">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC97">
         <v>-1</v>
       </c>
       <c r="AD97">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9573,7 +9573,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
         <v>40</v>
@@ -9668,7 +9668,7 @@
         <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9757,10 +9757,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E101" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" t="s">
         <v>33</v>
-      </c>
-      <c r="F101" t="s">
-        <v>34</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6867243</v>
+        <v>6867537</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9849,82 +9849,82 @@
         <v>45207.5</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L102">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="M102">
         <v>3.3</v>
       </c>
       <c r="N102">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O102">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="P102">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R102">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="U102">
         <v>2.25</v>
       </c>
       <c r="V102">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X102">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AC102">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AD102">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9932,7 +9932,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6867537</v>
+        <v>6867243</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9941,82 +9941,82 @@
         <v>45207.5</v>
       </c>
       <c r="E103" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L103">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="M103">
         <v>3.3</v>
       </c>
       <c r="N103">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O103">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="P103">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R103">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U103">
         <v>2.25</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W103">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y103">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB103">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AD103">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10033,10 +10033,10 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -10125,7 +10125,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
         <v>47</v>
@@ -10217,7 +10217,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
         <v>48</v>
@@ -10576,7 +10576,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6867873</v>
+        <v>6867680</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
@@ -10585,79 +10585,79 @@
         <v>45221.5</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L110">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="M110">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N110">
+        <v>2.8</v>
+      </c>
+      <c r="O110">
         <v>2.25</v>
       </c>
-      <c r="O110">
+      <c r="P110">
+        <v>3.5</v>
+      </c>
+      <c r="Q110">
+        <v>3.1</v>
+      </c>
+      <c r="R110">
+        <v>-0.25</v>
+      </c>
+      <c r="S110">
+        <v>1.975</v>
+      </c>
+      <c r="T110">
+        <v>1.825</v>
+      </c>
+      <c r="U110">
         <v>2.5</v>
       </c>
-      <c r="P110">
-        <v>3.25</v>
-      </c>
-      <c r="Q110">
-        <v>2.9</v>
-      </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-      <c r="S110">
-        <v>1.75</v>
-      </c>
-      <c r="T110">
-        <v>2.05</v>
-      </c>
-      <c r="U110">
-        <v>2.25</v>
-      </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AD110">
         <v>-1</v>
@@ -10668,7 +10668,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6871121</v>
+        <v>6867873</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -10677,82 +10677,82 @@
         <v>45221.5</v>
       </c>
       <c r="E111" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" t="s">
         <v>39</v>
       </c>
-      <c r="F111" t="s">
-        <v>45</v>
-      </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K111" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L111">
+        <v>2.9</v>
+      </c>
+      <c r="M111">
+        <v>3.25</v>
+      </c>
+      <c r="N111">
+        <v>2.25</v>
+      </c>
+      <c r="O111">
         <v>2.5</v>
       </c>
-      <c r="M111">
-        <v>3.2</v>
-      </c>
-      <c r="N111">
-        <v>2.6</v>
-      </c>
-      <c r="O111">
-        <v>2.625</v>
-      </c>
       <c r="P111">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q111">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="R111">
         <v>0</v>
       </c>
       <c r="S111">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T111">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U111">
         <v>2.25</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -10760,7 +10760,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867680</v>
+        <v>6871121</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10769,82 +10769,82 @@
         <v>45221.5</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L112">
+        <v>2.5</v>
+      </c>
+      <c r="M112">
+        <v>3.2</v>
+      </c>
+      <c r="N112">
+        <v>2.6</v>
+      </c>
+      <c r="O112">
+        <v>2.625</v>
+      </c>
+      <c r="P112">
+        <v>3.3</v>
+      </c>
+      <c r="Q112">
+        <v>2.75</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>1.875</v>
+      </c>
+      <c r="T112">
+        <v>1.925</v>
+      </c>
+      <c r="U112">
         <v>2.25</v>
       </c>
-      <c r="M112">
-        <v>3.4</v>
-      </c>
-      <c r="N112">
-        <v>2.8</v>
-      </c>
-      <c r="O112">
-        <v>2.25</v>
-      </c>
-      <c r="P112">
-        <v>3.5</v>
-      </c>
-      <c r="Q112">
-        <v>3.1</v>
-      </c>
-      <c r="R112">
-        <v>-0.25</v>
-      </c>
-      <c r="S112">
+      <c r="V112">
         <v>1.975</v>
       </c>
-      <c r="T112">
+      <c r="W112">
         <v>1.825</v>
       </c>
-      <c r="U112">
-        <v>2.5</v>
-      </c>
-      <c r="V112">
-        <v>2</v>
-      </c>
-      <c r="W112">
-        <v>1.8</v>
-      </c>
       <c r="X112">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -10944,7 +10944,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6867744</v>
+        <v>6867874</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10953,46 +10953,46 @@
         <v>45228.375</v>
       </c>
       <c r="E114" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" t="s">
         <v>53</v>
       </c>
       <c r="L114">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="M114">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N114">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="O114">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="P114">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q114">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S114">
         <v>1.8</v>
@@ -11004,13 +11004,13 @@
         <v>2.25</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X114">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y114">
         <v>-1</v>
@@ -11019,13 +11019,13 @@
         <v>-1</v>
       </c>
       <c r="AA114">
+        <v>0.4</v>
+      </c>
+      <c r="AB114">
+        <v>-0.5</v>
+      </c>
+      <c r="AC114">
         <v>0.8</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
-      <c r="AC114">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AD114">
         <v>-1</v>
@@ -11036,7 +11036,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6867908</v>
+        <v>6867744</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11045,82 +11045,82 @@
         <v>45228.375</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L115">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="M115">
+        <v>3.2</v>
+      </c>
+      <c r="N115">
+        <v>2.375</v>
+      </c>
+      <c r="O115">
+        <v>2.5</v>
+      </c>
+      <c r="P115">
         <v>3.3</v>
       </c>
-      <c r="N115">
-        <v>3.5</v>
-      </c>
-      <c r="O115">
-        <v>2</v>
-      </c>
-      <c r="P115">
-        <v>3.5</v>
-      </c>
       <c r="Q115">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S115">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U115">
         <v>2.25</v>
       </c>
       <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
         <v>1.825</v>
       </c>
-      <c r="W115">
-        <v>1.975</v>
-      </c>
       <c r="X115">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11128,7 +11128,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6867541</v>
+        <v>6867908</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11137,13 +11137,13 @@
         <v>45228.375</v>
       </c>
       <c r="E116" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11152,67 +11152,67 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L116">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N116">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O116">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="P116">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q116">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="R116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U116">
         <v>2.25</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD116">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11220,7 +11220,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6867874</v>
+        <v>6867541</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -11229,13 +11229,13 @@
         <v>45228.375</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11247,64 +11247,64 @@
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L117">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="M117">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O117">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="P117">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q117">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="R117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U117">
         <v>2.25</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X117">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
         <v>-0.5</v>
       </c>
-      <c r="AC117">
-        <v>0.8</v>
-      </c>
       <c r="AD117">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11413,10 +11413,10 @@
         <v>45228.54166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -11508,7 +11508,7 @@
         <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -11680,7 +11680,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6867971</v>
+        <v>6867542</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11689,82 +11689,82 @@
         <v>45235.375</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122">
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L122">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="M122">
         <v>3.25</v>
       </c>
       <c r="N122">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O122">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="P122">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q122">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R122">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="U122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V122">
+        <v>1.85</v>
+      </c>
+      <c r="W122">
         <v>1.95</v>
       </c>
-      <c r="W122">
-        <v>1.85</v>
-      </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z122">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0.75</v>
+        <v>0.3625</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -11772,7 +11772,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867972</v>
+        <v>6867971</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11784,58 +11784,58 @@
         <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" t="s">
         <v>52</v>
       </c>
       <c r="L123">
+        <v>2.6</v>
+      </c>
+      <c r="M123">
+        <v>3.25</v>
+      </c>
+      <c r="N123">
+        <v>2.375</v>
+      </c>
+      <c r="O123">
+        <v>2.9</v>
+      </c>
+      <c r="P123">
+        <v>3.3</v>
+      </c>
+      <c r="Q123">
         <v>2.5</v>
       </c>
-      <c r="M123">
-        <v>3.2</v>
-      </c>
-      <c r="N123">
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>2.05</v>
+      </c>
+      <c r="T123">
+        <v>1.75</v>
+      </c>
+      <c r="U123">
         <v>2.5</v>
       </c>
-      <c r="O123">
-        <v>2.875</v>
-      </c>
-      <c r="P123">
-        <v>3.1</v>
-      </c>
-      <c r="Q123">
-        <v>2.625</v>
-      </c>
-      <c r="R123">
-        <v>0</v>
-      </c>
-      <c r="S123">
-        <v>1.975</v>
-      </c>
-      <c r="T123">
-        <v>1.825</v>
-      </c>
-      <c r="U123">
-        <v>2.25</v>
-      </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11844,19 +11844,19 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -11864,7 +11864,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867543</v>
+        <v>6867972</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11873,52 +11873,52 @@
         <v>45235.375</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" t="s">
         <v>52</v>
       </c>
       <c r="L124">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M124">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N124">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P124">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q124">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="R124">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U124">
         <v>2.25</v>
@@ -11936,19 +11936,19 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.3</v>
+        <v>1.625</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD124">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -11956,7 +11956,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867542</v>
+        <v>6867543</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11965,82 +11965,82 @@
         <v>45235.375</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125">
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L125">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="M125">
         <v>3.25</v>
       </c>
       <c r="N125">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O125">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
         <v>3.25</v>
       </c>
       <c r="Q125">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R125">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="U125">
         <v>2.25</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>0.95</v>
+      </c>
+      <c r="AC125">
         <v>-0.5</v>
       </c>
-      <c r="AB125">
-        <v>0.3625</v>
-      </c>
-      <c r="AC125">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AD125">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -12057,7 +12057,7 @@
         <v>45235.375</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
         <v>46</v>
@@ -12241,7 +12241,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
         <v>47</v>
@@ -12333,7 +12333,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
         <v>48</v>
@@ -12704,7 +12704,7 @@
         <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -12796,7 +12796,7 @@
         <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12876,7 +12876,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6871118</v>
+        <v>6867974</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12885,82 +12885,82 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L135">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="M135">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N135">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O135">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="P135">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q135">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="R135">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U135">
         <v>2.25</v>
       </c>
       <c r="V135">
+        <v>1.8</v>
+      </c>
+      <c r="W135">
+        <v>2</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
         <v>1.875</v>
       </c>
-      <c r="W135">
-        <v>1.925</v>
-      </c>
-      <c r="X135">
-        <v>1.05</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>-1</v>
-      </c>
       <c r="AA135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC135">
         <v>-1</v>
       </c>
       <c r="AD135">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -12968,7 +12968,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6867974</v>
+        <v>6871118</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12977,82 +12977,82 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L136">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="M136">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O136">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="P136">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q136">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="R136">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
         <v>2.25</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
         <v>-1</v>
       </c>
       <c r="AD136">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13060,7 +13060,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6867246</v>
+        <v>6867544</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13069,82 +13069,82 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L137">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N137">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="O137">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q137">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="R137">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S137">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U137">
         <v>2.5</v>
       </c>
       <c r="V137">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>2.4</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
         <v>0.45</v>
       </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
-      </c>
-      <c r="AA137">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13161,10 +13161,10 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -13244,7 +13244,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6867544</v>
+        <v>6867246</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13253,82 +13253,82 @@
         <v>45242.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L139">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="M139">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="P139">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="R139">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U139">
         <v>2.5</v>
       </c>
       <c r="V139">
+        <v>1.775</v>
+      </c>
+      <c r="W139">
         <v>1.925</v>
       </c>
-      <c r="W139">
-        <v>1.875</v>
-      </c>
       <c r="X139">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y139">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
+        <v>-1</v>
+      </c>
+      <c r="AD139">
         <v>0.925</v>
-      </c>
-      <c r="AD139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13437,7 +13437,7 @@
         <v>45256.375</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
         <v>45</v>
@@ -13529,7 +13529,7 @@
         <v>45256.375</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
         <v>42</v>
@@ -13621,7 +13621,7 @@
         <v>45256.375</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F143" t="s">
         <v>48</v>
@@ -13713,7 +13713,7 @@
         <v>45256.375</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
         <v>44</v>
@@ -13805,7 +13805,7 @@
         <v>45256.375</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
         <v>32</v>
@@ -13897,7 +13897,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F146" t="s">
         <v>47</v>
@@ -13989,7 +13989,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
         <v>49</v>
@@ -14268,7 +14268,7 @@
         <v>44</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -14452,7 +14452,7 @@
         <v>49</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -14532,7 +14532,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6871116</v>
+        <v>6867248</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14541,55 +14541,55 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L153">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="M153">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N153">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O153">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q153">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="R153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S153">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="U153">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V153">
         <v>1.925</v>
@@ -14598,25 +14598,25 @@
         <v>1.875</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y153">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB153">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD153">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14624,7 +14624,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6867976</v>
+        <v>6871116</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14633,10 +14633,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -14648,67 +14648,67 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="s">
         <v>54</v>
       </c>
       <c r="L154">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="M154">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N154">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O154">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="P154">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="R154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T154">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>1.075</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
       </c>
-      <c r="AB154">
-        <v>0.4</v>
-      </c>
-      <c r="AC154">
-        <v>0</v>
-      </c>
       <c r="AD154">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -14716,7 +14716,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6867248</v>
+        <v>6867976</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14725,16 +14725,16 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G155">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14743,64 +14743,64 @@
         <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L155">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M155">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N155">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O155">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="P155">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q155">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="R155">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U155">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X155">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD155">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14820,7 +14820,7 @@
         <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -14912,7 +14912,7 @@
         <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -15096,7 +15096,7 @@
         <v>43</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -15188,7 +15188,7 @@
         <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -15280,7 +15280,7 @@
         <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -15369,7 +15369,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F162" t="s">
         <v>45</v>
@@ -15452,7 +15452,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6867250</v>
+        <v>6867197</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15461,82 +15461,82 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>1</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="M163">
+        <v>3.4</v>
+      </c>
+      <c r="N163">
         <v>3.75</v>
       </c>
-      <c r="N163">
-        <v>1.666</v>
-      </c>
       <c r="O163">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="P163">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q163">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="R163">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S163">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T163">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U163">
         <v>2.25</v>
       </c>
       <c r="V163">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W163">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="X163">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD163">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15544,7 +15544,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6867601</v>
+        <v>6867551</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15553,10 +15553,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15574,25 +15574,25 @@
         <v>53</v>
       </c>
       <c r="L164">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M164">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164">
+        <v>1.85</v>
+      </c>
+      <c r="P164">
+        <v>3.5</v>
+      </c>
+      <c r="Q164">
         <v>4.2</v>
       </c>
-      <c r="O164">
-        <v>1.55</v>
-      </c>
-      <c r="P164">
-        <v>3.8</v>
-      </c>
-      <c r="Q164">
-        <v>6.5</v>
-      </c>
       <c r="R164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S164">
         <v>1.9</v>
@@ -15604,13 +15604,13 @@
         <v>2.25</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X164">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15619,16 +15619,16 @@
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
         <v>-1</v>
       </c>
       <c r="AD164">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15636,7 +15636,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6867197</v>
+        <v>6867250</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15645,82 +15645,82 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L165">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="M165">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N165">
+        <v>1.666</v>
+      </c>
+      <c r="O165">
+        <v>4.75</v>
+      </c>
+      <c r="P165">
         <v>3.75</v>
       </c>
-      <c r="O165">
-        <v>1.65</v>
-      </c>
-      <c r="P165">
-        <v>3.8</v>
-      </c>
       <c r="Q165">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="R165">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T165">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U165">
         <v>2.25</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W165">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y165">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD165">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -15728,7 +15728,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6867551</v>
+        <v>6867601</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15737,10 +15737,10 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -15758,25 +15758,25 @@
         <v>53</v>
       </c>
       <c r="L166">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M166">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N166">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O166">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="P166">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q166">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="R166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S166">
         <v>1.9</v>
@@ -15788,13 +15788,13 @@
         <v>2.25</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X166">
-        <v>0.8500000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="Y166">
         <v>-1</v>
@@ -15803,16 +15803,16 @@
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC166">
         <v>-1</v>
       </c>
       <c r="AD166">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -15829,7 +15829,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F167" t="s">
         <v>44</v>
@@ -16188,7 +16188,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6867746</v>
+        <v>6871113</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -16197,82 +16197,82 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G171">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171">
         <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L171">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="M171">
         <v>3.25</v>
       </c>
       <c r="N171">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O171">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P171">
         <v>3.3</v>
       </c>
       <c r="Q171">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R171">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S171">
         <v>1.75</v>
       </c>
       <c r="T171">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U171">
         <v>2.25</v>
       </c>
       <c r="V171">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z171">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB171">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AD171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16280,7 +16280,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6871113</v>
+        <v>6867251</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16289,82 +16289,82 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172">
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L172">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="M172">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N172">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="P172">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q172">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="R172">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S172">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T172">
         <v>1.95</v>
       </c>
       <c r="U172">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y172">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD172">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16372,7 +16372,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6867251</v>
+        <v>6867198</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16381,79 +16381,79 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L173">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="M173">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N173">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O173">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="P173">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q173">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="R173">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U173">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W173">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="X173">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD173">
         <v>-1</v>
@@ -16464,7 +16464,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6867198</v>
+        <v>6867746</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16473,61 +16473,61 @@
         <v>45333.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
         <v>3</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174" t="s">
         <v>52</v>
       </c>
       <c r="L174">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M174">
         <v>3.25</v>
       </c>
       <c r="N174">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O174">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="P174">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q174">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R174">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T174">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V174">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W174">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16536,16 +16536,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC174">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AD174">
         <v>-1</v>
@@ -16660,7 +16660,7 @@
         <v>42</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -16752,7 +16752,7 @@
         <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -16936,7 +16936,7 @@
         <v>49</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -17028,7 +17028,7 @@
         <v>42</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -17120,7 +17120,7 @@
         <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -17212,7 +17212,7 @@
         <v>49</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -17396,7 +17396,7 @@
         <v>48</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -17485,7 +17485,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F185" t="s">
         <v>41</v>
@@ -17577,7 +17577,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F186" t="s">
         <v>44</v>
@@ -17669,7 +17669,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s">
         <v>46</v>
@@ -17764,7 +17764,7 @@
         <v>47</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G188">
         <v>3</v>
@@ -17945,7 +17945,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
         <v>43</v>
@@ -18224,7 +18224,7 @@
         <v>40</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G193">
         <v>4</v>
@@ -18500,7 +18500,7 @@
         <v>42</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -18592,7 +18592,7 @@
         <v>43</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -18681,10 +18681,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -18773,7 +18773,7 @@
         <v>45347.54166666666</v>
       </c>
       <c r="E199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F199" t="s">
         <v>40</v>
@@ -18960,7 +18960,7 @@
         <v>41</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -19141,7 +19141,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F203" t="s">
         <v>44</v>
@@ -19325,7 +19325,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
         <v>43</v>
@@ -19417,10 +19417,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -19500,7 +19500,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6867509</v>
+        <v>7083112</v>
       </c>
       <c r="C207" t="s">
         <v>29</v>
@@ -19509,10 +19509,10 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -19521,7 +19521,7 @@
         <v>0</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -19530,25 +19530,25 @@
         <v>53</v>
       </c>
       <c r="L207">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M207">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N207">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="O207">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="P207">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q207">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="R207">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S207">
         <v>1.8</v>
@@ -19557,16 +19557,16 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V207">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X207">
-        <v>0.75</v>
+        <v>1.45</v>
       </c>
       <c r="Y207">
         <v>-1</v>
@@ -19584,7 +19584,7 @@
         <v>-1</v>
       </c>
       <c r="AD207">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -19592,7 +19592,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7083112</v>
+        <v>6867719</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -19601,82 +19601,82 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F208" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L208">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="M208">
         <v>3.25</v>
       </c>
       <c r="N208">
+        <v>2.375</v>
+      </c>
+      <c r="O208">
         <v>2.75</v>
-      </c>
-      <c r="O208">
-        <v>2.45</v>
       </c>
       <c r="P208">
         <v>3.25</v>
       </c>
       <c r="Q208">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="R208">
         <v>0</v>
       </c>
       <c r="S208">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U208">
         <v>2.25</v>
       </c>
       <c r="V208">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W208">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X208">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA208">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC208">
         <v>-1</v>
       </c>
       <c r="AD208">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -19684,7 +19684,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6867719</v>
+        <v>6867509</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -19693,16 +19693,16 @@
         <v>45354.54166666666</v>
       </c>
       <c r="E209" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -19711,64 +19711,64 @@
         <v>0</v>
       </c>
       <c r="K209" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L209">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="M209">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N209">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O209">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="P209">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q209">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="R209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S209">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T209">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V209">
+        <v>1.775</v>
+      </c>
+      <c r="W209">
         <v>2.025</v>
       </c>
-      <c r="W209">
-        <v>1.775</v>
-      </c>
       <c r="X209">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB209">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
         <v>-1</v>
       </c>
       <c r="AD209">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -20153,10 +20153,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -20248,7 +20248,7 @@
         <v>41</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -20524,7 +20524,7 @@
         <v>40</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -20613,10 +20613,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -20797,10 +20797,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G221">
         <v>3</v>
@@ -20889,7 +20889,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F222" t="s">
         <v>43</v>
@@ -20984,7 +20984,7 @@
         <v>47</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -21073,7 +21073,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F224" t="s">
         <v>40</v>
@@ -21352,7 +21352,7 @@
         <v>50</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -21708,7 +21708,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6871107</v>
+        <v>6867567</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -21717,16 +21717,16 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E231" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G231">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -21735,64 +21735,64 @@
         <v>0</v>
       </c>
       <c r="K231" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L231">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="M231">
         <v>3.25</v>
       </c>
       <c r="N231">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O231">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="P231">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q231">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R231">
         <v>0</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U231">
         <v>2.5</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X231">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC231">
         <v>-1</v>
       </c>
       <c r="AD231">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -21800,7 +21800,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6867567</v>
+        <v>6871107</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
@@ -21809,16 +21809,16 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E232" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F232" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G232">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -21827,64 +21827,64 @@
         <v>0</v>
       </c>
       <c r="K232" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L232">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="M232">
         <v>3.25</v>
       </c>
       <c r="N232">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O232">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="P232">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q232">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R232">
         <v>0</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U232">
         <v>2.5</v>
       </c>
       <c r="V232">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W232">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y232">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
         <v>-1</v>
       </c>
       <c r="AD232">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:30">
@@ -21901,10 +21901,10 @@
         <v>45382.5</v>
       </c>
       <c r="E233" t="s">
+        <v>38</v>
+      </c>
+      <c r="F233" t="s">
         <v>39</v>
-      </c>
-      <c r="F233" t="s">
-        <v>35</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -21993,7 +21993,7 @@
         <v>45382.5</v>
       </c>
       <c r="E234" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F234" t="s">
         <v>50</v>
@@ -22085,10 +22085,10 @@
         <v>45382.5</v>
       </c>
       <c r="E235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -22272,7 +22272,7 @@
         <v>40</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -22444,7 +22444,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6867569</v>
+        <v>6871106</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22453,16 +22453,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -22474,40 +22474,40 @@
         <v>52</v>
       </c>
       <c r="L239">
+        <v>2.6</v>
+      </c>
+      <c r="M239">
         <v>2.8</v>
       </c>
-      <c r="M239">
-        <v>3.2</v>
-      </c>
       <c r="N239">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P239">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q239">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="R239">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U239">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W239">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -22516,19 +22516,19 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD239">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22536,7 +22536,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6871106</v>
+        <v>6867569</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22545,16 +22545,16 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -22566,40 +22566,40 @@
         <v>52</v>
       </c>
       <c r="L240">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M240">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N240">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O240">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P240">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q240">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="R240">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S240">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U240">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -22608,19 +22608,19 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD240">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22637,10 +22637,10 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E241" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -23008,7 +23008,7 @@
         <v>32</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -23097,7 +23097,7 @@
         <v>45396.5</v>
       </c>
       <c r="E246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F246" t="s">
         <v>50</v>
@@ -23180,7 +23180,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6867694</v>
+        <v>6867571</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23189,19 +23189,19 @@
         <v>45396.5</v>
       </c>
       <c r="E247" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F247" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G247">
         <v>2</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -23210,43 +23210,43 @@
         <v>53</v>
       </c>
       <c r="L247">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M247">
+        <v>3.3</v>
+      </c>
+      <c r="N247">
+        <v>2.875</v>
+      </c>
+      <c r="O247">
+        <v>1.85</v>
+      </c>
+      <c r="P247">
+        <v>3.4</v>
+      </c>
+      <c r="Q247">
         <v>3.5</v>
       </c>
-      <c r="N247">
-        <v>4.333</v>
-      </c>
-      <c r="O247">
-        <v>2.05</v>
-      </c>
-      <c r="P247">
-        <v>3.25</v>
-      </c>
-      <c r="Q247">
-        <v>3.3</v>
-      </c>
       <c r="R247">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S247">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U247">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V247">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W247">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X247">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -23255,16 +23255,16 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD247">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23272,7 +23272,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6867570</v>
+        <v>6871105</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23281,16 +23281,16 @@
         <v>45396.5</v>
       </c>
       <c r="E248" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F248" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -23299,64 +23299,64 @@
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L248">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="M248">
+        <v>3.4</v>
+      </c>
+      <c r="N248">
+        <v>1.909</v>
+      </c>
+      <c r="O248">
         <v>3.6</v>
       </c>
-      <c r="N248">
-        <v>4.75</v>
-      </c>
-      <c r="O248">
-        <v>1.666</v>
-      </c>
       <c r="P248">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q248">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="R248">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S248">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U248">
         <v>2.25</v>
       </c>
       <c r="V248">
+        <v>1.925</v>
+      </c>
+      <c r="W248">
         <v>1.875</v>
       </c>
-      <c r="W248">
-        <v>1.925</v>
-      </c>
       <c r="X248">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA248">
+        <v>-1</v>
+      </c>
+      <c r="AB248">
+        <v>0.95</v>
+      </c>
+      <c r="AC248">
+        <v>-0.5</v>
+      </c>
+      <c r="AD248">
         <v>0.4375</v>
-      </c>
-      <c r="AB248">
-        <v>-0.5</v>
-      </c>
-      <c r="AC248">
-        <v>0.875</v>
-      </c>
-      <c r="AD248">
-        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23364,7 +23364,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6867571</v>
+        <v>6867570</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23373,82 +23373,82 @@
         <v>45396.5</v>
       </c>
       <c r="E249" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F249" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G249">
         <v>2</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K249" t="s">
         <v>53</v>
       </c>
       <c r="L249">
+        <v>1.666</v>
+      </c>
+      <c r="M249">
+        <v>3.6</v>
+      </c>
+      <c r="N249">
+        <v>4.75</v>
+      </c>
+      <c r="O249">
+        <v>1.666</v>
+      </c>
+      <c r="P249">
+        <v>3.6</v>
+      </c>
+      <c r="Q249">
+        <v>4.75</v>
+      </c>
+      <c r="R249">
+        <v>-0.75</v>
+      </c>
+      <c r="S249">
+        <v>1.875</v>
+      </c>
+      <c r="T249">
+        <v>1.925</v>
+      </c>
+      <c r="U249">
         <v>2.25</v>
       </c>
-      <c r="M249">
-        <v>3.3</v>
-      </c>
-      <c r="N249">
-        <v>2.875</v>
-      </c>
-      <c r="O249">
-        <v>1.85</v>
-      </c>
-      <c r="P249">
-        <v>3.4</v>
-      </c>
-      <c r="Q249">
-        <v>3.5</v>
-      </c>
-      <c r="R249">
+      <c r="V249">
+        <v>1.875</v>
+      </c>
+      <c r="W249">
+        <v>1.925</v>
+      </c>
+      <c r="X249">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Y249">
+        <v>-1</v>
+      </c>
+      <c r="Z249">
+        <v>-1</v>
+      </c>
+      <c r="AA249">
+        <v>0.4375</v>
+      </c>
+      <c r="AB249">
         <v>-0.5</v>
       </c>
-      <c r="S249">
-        <v>1.95</v>
-      </c>
-      <c r="T249">
-        <v>1.85</v>
-      </c>
-      <c r="U249">
-        <v>2.5</v>
-      </c>
-      <c r="V249">
-        <v>1.95</v>
-      </c>
-      <c r="W249">
-        <v>1.85</v>
-      </c>
-      <c r="X249">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y249">
-        <v>-1</v>
-      </c>
-      <c r="Z249">
-        <v>-1</v>
-      </c>
-      <c r="AA249">
-        <v>0.95</v>
-      </c>
-      <c r="AB249">
-        <v>-1</v>
-      </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD249">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23456,7 +23456,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6867519</v>
+        <v>6867694</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23465,13 +23465,13 @@
         <v>45396.5</v>
       </c>
       <c r="E250" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F250" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23480,67 +23480,67 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K250" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L250">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="M250">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N250">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="O250">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="P250">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q250">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="R250">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S250">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T250">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U250">
         <v>2.25</v>
       </c>
       <c r="V250">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB250">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD250">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -23548,7 +23548,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6867258</v>
+        <v>6867519</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23557,13 +23557,13 @@
         <v>45396.5</v>
       </c>
       <c r="E251" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -23572,40 +23572,40 @@
         <v>0</v>
       </c>
       <c r="J251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L251">
+        <v>3.6</v>
+      </c>
+      <c r="M251">
         <v>3.4</v>
       </c>
-      <c r="M251">
-        <v>3.3</v>
-      </c>
       <c r="N251">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O251">
+        <v>4.5</v>
+      </c>
+      <c r="P251">
         <v>3.4</v>
       </c>
-      <c r="P251">
-        <v>3.3</v>
-      </c>
       <c r="Q251">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="R251">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S251">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T251">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U251">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V251">
         <v>2</v>
@@ -23614,25 +23614,25 @@
         <v>1.8</v>
       </c>
       <c r="X251">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA251">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD251">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -23640,7 +23640,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6867206</v>
+        <v>6867258</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23649,19 +23649,19 @@
         <v>45396.5</v>
       </c>
       <c r="E252" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F252" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252">
         <v>0</v>
@@ -23670,34 +23670,34 @@
         <v>53</v>
       </c>
       <c r="L252">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M252">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N252">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O252">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="P252">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q252">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="R252">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S252">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T252">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V252">
         <v>2</v>
@@ -23706,7 +23706,7 @@
         <v>1.8</v>
       </c>
       <c r="X252">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y252">
         <v>-1</v>
@@ -23715,16 +23715,16 @@
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -23732,7 +23732,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6871105</v>
+        <v>6867206</v>
       </c>
       <c r="C253" t="s">
         <v>29</v>
@@ -23741,82 +23741,82 @@
         <v>45396.5</v>
       </c>
       <c r="E253" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F253" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K253" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L253">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="M253">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N253">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O253">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="P253">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q253">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="R253">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T253">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U253">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V253">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W253">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB253">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD253">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="254" spans="1:30">
@@ -23836,7 +23836,7 @@
         <v>40</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -24112,7 +24112,7 @@
         <v>48</v>
       </c>
       <c r="F257" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G257">
         <v>2</v>
@@ -24296,7 +24296,7 @@
         <v>47</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -24388,7 +24388,7 @@
         <v>45</v>
       </c>
       <c r="F260" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G260">
         <v>4</v>
@@ -24477,10 +24477,10 @@
         <v>45403.5</v>
       </c>
       <c r="E261" t="s">
+        <v>39</v>
+      </c>
+      <c r="F261" t="s">
         <v>35</v>
-      </c>
-      <c r="F261" t="s">
-        <v>36</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -24572,7 +24572,7 @@
         <v>50</v>
       </c>
       <c r="F262" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -24845,7 +24845,7 @@
         <v>45410.5</v>
       </c>
       <c r="E265" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F265" t="s">
         <v>45</v>
@@ -24937,10 +24937,10 @@
         <v>45410.5</v>
       </c>
       <c r="E266" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G266">
         <v>3</v>
@@ -25029,7 +25029,7 @@
         <v>45410.5</v>
       </c>
       <c r="E267" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F267" t="s">
         <v>49</v>
@@ -25121,7 +25121,7 @@
         <v>45410.5</v>
       </c>
       <c r="E268" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F268" t="s">
         <v>50</v>
@@ -25489,7 +25489,7 @@
         <v>45411.625</v>
       </c>
       <c r="E272" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F272" t="s">
         <v>32</v>
@@ -25584,7 +25584,7 @@
         <v>48</v>
       </c>
       <c r="F273" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -25765,10 +25765,10 @@
         <v>45417.5</v>
       </c>
       <c r="E275" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F275" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -25860,7 +25860,7 @@
         <v>32</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G276">
         <v>3</v>
@@ -25952,7 +25952,7 @@
         <v>49</v>
       </c>
       <c r="F277" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -26136,7 +26136,7 @@
         <v>46</v>
       </c>
       <c r="F279" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G279">
         <v>3</v>
@@ -26409,7 +26409,7 @@
         <v>45423.5</v>
       </c>
       <c r="E282" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F282" t="s">
         <v>42</v>
@@ -26501,7 +26501,7 @@
         <v>45424.5</v>
       </c>
       <c r="E283" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F283" t="s">
         <v>32</v>
@@ -26593,7 +26593,7 @@
         <v>45424.5</v>
       </c>
       <c r="E284" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F284" t="s">
         <v>48</v>
@@ -26685,7 +26685,7 @@
         <v>45424.5</v>
       </c>
       <c r="E285" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F285" t="s">
         <v>45</v>
@@ -26780,7 +26780,7 @@
         <v>50</v>
       </c>
       <c r="F286" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G286">
         <v>3</v>
@@ -26961,7 +26961,7 @@
         <v>45424.5</v>
       </c>
       <c r="E288" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F288" t="s">
         <v>46</v>
@@ -27424,7 +27424,7 @@
         <v>47</v>
       </c>
       <c r="F293" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -27516,7 +27516,7 @@
         <v>48</v>
       </c>
       <c r="F294" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -27608,7 +27608,7 @@
         <v>45</v>
       </c>
       <c r="F295" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G295">
         <v>2</v>
@@ -27700,7 +27700,7 @@
         <v>49</v>
       </c>
       <c r="F296" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -27792,7 +27792,7 @@
         <v>42</v>
       </c>
       <c r="F297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G297">
         <v>3</v>
@@ -27884,7 +27884,7 @@
         <v>44</v>
       </c>
       <c r="F298" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G298">
         <v>2</v>
@@ -28065,7 +28065,7 @@
         <v>45437.5</v>
       </c>
       <c r="E300" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F300" t="s">
         <v>32</v>
@@ -28243,7 +28243,7 @@
         <v>45438.5</v>
       </c>
       <c r="E302" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F302" t="s">
         <v>45</v>
@@ -28320,7 +28320,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6870614</v>
+        <v>6869722</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28329,49 +28329,49 @@
         <v>45438.5</v>
       </c>
       <c r="E303" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F303" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K303" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L303">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="M303">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N303">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O303">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="P303">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q303">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="R303">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S303">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T303">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U303">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V303">
         <v>1.975</v>
@@ -28380,25 +28380,25 @@
         <v>1.825</v>
       </c>
       <c r="X303">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA303">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC303">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD303">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28406,7 +28406,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6869722</v>
+        <v>6869718</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28415,40 +28415,40 @@
         <v>45438.5</v>
       </c>
       <c r="E304" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F304" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G304">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K304" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L304">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M304">
         <v>3.2</v>
       </c>
       <c r="N304">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O304">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P304">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q304">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="R304">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S304">
         <v>1.825</v>
@@ -28457,7 +28457,7 @@
         <v>1.975</v>
       </c>
       <c r="U304">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V304">
         <v>1.975</v>
@@ -28469,22 +28469,22 @@
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z304">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB304">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC304">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD304">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28492,7 +28492,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6869718</v>
+        <v>6870614</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28501,49 +28501,49 @@
         <v>45438.5</v>
       </c>
       <c r="E305" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F305" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H305">
         <v>1</v>
       </c>
       <c r="K305" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L305">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="M305">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N305">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O305">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="P305">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q305">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="R305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S305">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T305">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V305">
         <v>1.975</v>
@@ -28552,10 +28552,10 @@
         <v>1.825</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y305">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
         <v>-1</v>
@@ -28587,7 +28587,7 @@
         <v>45438.5</v>
       </c>
       <c r="E306" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F306" t="s">
         <v>44</v>
@@ -28673,7 +28673,7 @@
         <v>45438.52083333334</v>
       </c>
       <c r="E307" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F307" t="s">
         <v>46</v>

--- a/Hungary NB II/Hungary NB II.xlsx
+++ b/Hungary NB II/Hungary NB II.xlsx
@@ -121,22 +121,22 @@
     <t>BVSC Zuglo</t>
   </si>
   <si>
-    <t>Pecsi MFC</t>
+    <t>Kozarmisleny SE</t>
+  </si>
+  <si>
+    <t>Kazincbarcikai BSC</t>
   </si>
   <si>
     <t>Csakvari Tk</t>
   </si>
   <si>
-    <t>FC Ajka</t>
-  </si>
-  <si>
-    <t>Kozarmisleny SE</t>
+    <t>Pecsi MFC</t>
   </si>
   <si>
     <t>Vasas SC</t>
   </si>
   <si>
-    <t>Kazincbarcikai BSC</t>
+    <t>FC Ajka</t>
   </si>
   <si>
     <t>SzegedCsanad Grosics</t>
@@ -148,10 +148,10 @@
     <t>MTE 1904</t>
   </si>
   <si>
-    <t>Budafoki MTE</t>
+    <t>Budapest Honved</t>
   </si>
   <si>
-    <t>Budapest Honved</t>
+    <t>Budafoki MTE</t>
   </si>
   <si>
     <t>Gyori ETO</t>
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6867180</v>
+        <v>6867868</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1204,52 +1204,52 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M8">
+        <v>3.3</v>
+      </c>
+      <c r="N8">
+        <v>2.75</v>
+      </c>
+      <c r="O8">
+        <v>2.1</v>
+      </c>
+      <c r="P8">
         <v>3.5</v>
       </c>
-      <c r="N8">
-        <v>3.75</v>
-      </c>
-      <c r="O8">
-        <v>1.95</v>
-      </c>
-      <c r="P8">
-        <v>3.6</v>
-      </c>
       <c r="Q8">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="R8">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V8">
         <v>1.85</v>
@@ -1258,25 +1258,25 @@
         <v>1.95</v>
       </c>
       <c r="X8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6871132</v>
+        <v>6867664</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1296,13 +1296,13 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>52</v>
       </c>
       <c r="L9">
+        <v>2.75</v>
+      </c>
+      <c r="M9">
+        <v>3.3</v>
+      </c>
+      <c r="N9">
+        <v>2.25</v>
+      </c>
+      <c r="O9">
+        <v>2.9</v>
+      </c>
+      <c r="P9">
         <v>3.5</v>
       </c>
-      <c r="M9">
-        <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>1.85</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
-      <c r="P9">
-        <v>3.75</v>
-      </c>
       <c r="Q9">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="R9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="U9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1356,19 +1356,19 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6867734</v>
+        <v>6871132</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1388,79 +1388,79 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O10">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="P10">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q10">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="R10">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD10">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1468,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6867868</v>
+        <v>6867180</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1480,52 +1480,52 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O11">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P11">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q11">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="R11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U11">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <v>1.85</v>
@@ -1534,25 +1534,25 @@
         <v>1.95</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1572,7 +1572,7 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6867664</v>
+        <v>6867734</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1664,79 +1664,79 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L13">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O13">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="P13">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q13">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>2.25</v>
       </c>
       <c r="V13">
+        <v>1.825</v>
+      </c>
+      <c r="W13">
         <v>1.975</v>
       </c>
-      <c r="W13">
-        <v>1.825</v>
-      </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z13">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD13">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1940,7 +1940,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6867870</v>
+        <v>6871131</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2032,79 +2032,79 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="M17">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N17">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="O17">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q17">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S17">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V17">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W17">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X17">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA17">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2112,7 +2112,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6871131</v>
+        <v>6867870</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2124,79 +2124,79 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L18">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N18">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="P18">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q18">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T18">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U18">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2308,7 +2308,7 @@
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>45144.58333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
@@ -2584,7 +2584,7 @@
         <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2857,7 +2857,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
@@ -2949,7 +2949,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
         <v>46</v>
@@ -3032,7 +3032,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6867524</v>
+        <v>6867182</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3041,13 +3041,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
         <v>38</v>
       </c>
-      <c r="F28" t="s">
-        <v>49</v>
-      </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3059,64 +3059,64 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L28">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="M28">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O28">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
         <v>3.25</v>
       </c>
       <c r="Q28">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U28">
         <v>2.25</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="X28">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD28">
-        <v>0.5</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3124,7 +3124,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6867182</v>
+        <v>6867524</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3133,13 +3133,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L29">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="M29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N29">
+        <v>2.9</v>
+      </c>
+      <c r="O29">
         <v>2.3</v>
-      </c>
-      <c r="O29">
-        <v>3.1</v>
       </c>
       <c r="P29">
         <v>3.25</v>
       </c>
       <c r="Q29">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U29">
         <v>2.25</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y29">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD29">
-        <v>0.7250000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3400,7 +3400,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6867736</v>
+        <v>6867526</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3409,10 +3409,10 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3430,25 +3430,25 @@
         <v>53</v>
       </c>
       <c r="L32">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="M32">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N32">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O32">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="P32">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q32">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3457,16 +3457,16 @@
         <v>1.8</v>
       </c>
       <c r="U32">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="V32">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X32">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3481,10 +3481,10 @@
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3492,7 +3492,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6867580</v>
+        <v>6867527</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3501,82 +3501,82 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L33">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="M33">
         <v>3.25</v>
       </c>
       <c r="N33">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O33">
+        <v>2.7</v>
+      </c>
+      <c r="P33">
         <v>3.4</v>
       </c>
-      <c r="P33">
-        <v>3.3</v>
-      </c>
       <c r="Q33">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R33">
         <v>0.25</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T33">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB33">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD33">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3584,7 +3584,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6867527</v>
+        <v>6867736</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3593,16 +3593,16 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3611,64 +3611,64 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L34">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M34">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N34">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="O34">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q34">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="R34">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S34">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W34">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y34">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AB34">
+        <v>-1</v>
+      </c>
+      <c r="AC34">
         <v>-0.5</v>
       </c>
-      <c r="AC34">
-        <v>-1</v>
-      </c>
       <c r="AD34">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3676,7 +3676,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6867526</v>
+        <v>6867580</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3685,82 +3685,82 @@
         <v>45154.52083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L35">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="M35">
+        <v>3.25</v>
+      </c>
+      <c r="N35">
+        <v>2.25</v>
+      </c>
+      <c r="O35">
+        <v>3.4</v>
+      </c>
+      <c r="P35">
         <v>3.3</v>
       </c>
-      <c r="N35">
-        <v>3.4</v>
-      </c>
-      <c r="O35">
-        <v>1.95</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
       <c r="Q35">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="R35">
+        <v>0.25</v>
+      </c>
+      <c r="S35">
+        <v>1.975</v>
+      </c>
+      <c r="T35">
+        <v>1.825</v>
+      </c>
+      <c r="U35">
+        <v>2.25</v>
+      </c>
+      <c r="V35">
+        <v>1.975</v>
+      </c>
+      <c r="W35">
+        <v>1.825</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
+        <v>1.2</v>
+      </c>
+      <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
+        <v>0.825</v>
+      </c>
+      <c r="AC35">
         <v>-0.5</v>
       </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>1.8</v>
-      </c>
-      <c r="U35">
-        <v>3.25</v>
-      </c>
-      <c r="V35">
-        <v>1.925</v>
-      </c>
-      <c r="W35">
-        <v>1.875</v>
-      </c>
-      <c r="X35">
-        <v>0.95</v>
-      </c>
-      <c r="Y35">
-        <v>-1</v>
-      </c>
-      <c r="Z35">
-        <v>-1</v>
-      </c>
-      <c r="AA35">
-        <v>1</v>
-      </c>
-      <c r="AB35">
-        <v>-1</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
-      </c>
       <c r="AD35">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3777,7 +3777,7 @@
         <v>45154.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
         <v>39</v>
@@ -3961,7 +3961,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
         <v>48</v>
@@ -4056,7 +4056,7 @@
         <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4145,7 +4145,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
         <v>47</v>
@@ -4516,7 +4516,7 @@
         <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4605,10 +4605,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4789,7 +4789,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -4973,10 +4973,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>45165.52083333334</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5332,7 +5332,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867239</v>
+        <v>6867583</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5341,13 +5341,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5362,43 +5362,43 @@
         <v>53</v>
       </c>
       <c r="L53">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N53">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O53">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="P53">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="R53">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U53">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X53">
-        <v>0.615</v>
+        <v>1.25</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5407,7 +5407,7 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5416,7 +5416,7 @@
         <v>-1</v>
       </c>
       <c r="AD53">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5424,7 +5424,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867583</v>
+        <v>6867239</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5433,13 +5433,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5454,43 +5454,43 @@
         <v>53</v>
       </c>
       <c r="L54">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M54">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O54">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="P54">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="R54">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S54">
+        <v>1.8</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <v>2.5</v>
+      </c>
+      <c r="V54">
+        <v>1.85</v>
+      </c>
+      <c r="W54">
         <v>1.95</v>
       </c>
-      <c r="T54">
-        <v>1.85</v>
-      </c>
-      <c r="U54">
-        <v>2</v>
-      </c>
-      <c r="V54">
-        <v>1.775</v>
-      </c>
-      <c r="W54">
-        <v>2.025</v>
-      </c>
       <c r="X54">
-        <v>1.25</v>
+        <v>0.615</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5499,16 +5499,16 @@
         <v>-1</v>
       </c>
       <c r="AA54">
+        <v>0.8</v>
+      </c>
+      <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
+        <v>-1</v>
+      </c>
+      <c r="AD54">
         <v>0.95</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
-      </c>
-      <c r="AD54">
-        <v>1.025</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5608,7 +5608,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867671</v>
+        <v>6867185</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -5617,16 +5617,16 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5635,64 +5635,64 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N56">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O56">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="P56">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q56">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="R56">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S56">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U56">
         <v>2.25</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z56">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD56">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5700,7 +5700,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6867185</v>
+        <v>6867671</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5709,16 +5709,16 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5727,64 +5727,64 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="M57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="P57">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q57">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="R57">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T57">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U57">
         <v>2.25</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
+        <v>0.95</v>
+      </c>
+      <c r="AC57">
         <v>-0.5</v>
       </c>
-      <c r="AB57">
-        <v>0.4375</v>
-      </c>
-      <c r="AC57">
-        <v>-1</v>
-      </c>
       <c r="AD57">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -5801,7 +5801,7 @@
         <v>45166.625</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
         <v>49</v>
@@ -5896,7 +5896,7 @@
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
         <v>46</v>
@@ -6080,7 +6080,7 @@
         <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -6172,7 +6172,7 @@
         <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6353,7 +6353,7 @@
         <v>45172.5</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
@@ -6445,7 +6445,7 @@
         <v>45172.5</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s">
         <v>39</v>
@@ -6537,7 +6537,7 @@
         <v>45172.5</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
         <v>43</v>
@@ -6724,7 +6724,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6816,7 +6816,7 @@
         <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6905,7 +6905,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
         <v>48</v>
@@ -6997,10 +6997,10 @@
         <v>45193.5</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7089,7 +7089,7 @@
         <v>45193.5</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
         <v>34</v>
@@ -7181,7 +7181,7 @@
         <v>45193.5</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
         <v>47</v>
@@ -7540,7 +7540,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867741</v>
+        <v>6867589</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7549,19 +7549,19 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -7570,25 +7570,25 @@
         <v>53</v>
       </c>
       <c r="L77">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N77">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="O77">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="R77">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S77">
         <v>2</v>
@@ -7600,13 +7600,13 @@
         <v>2.5</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X77">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="Y77">
         <v>-1</v>
@@ -7621,10 +7621,10 @@
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7632,7 +7632,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867589</v>
+        <v>6867741</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7641,19 +7641,19 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -7662,25 +7662,25 @@
         <v>53</v>
       </c>
       <c r="L78">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="M78">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="O78">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q78">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="R78">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S78">
         <v>2</v>
@@ -7692,13 +7692,13 @@
         <v>2.5</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X78">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7713,10 +7713,10 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -7917,10 +7917,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s">
         <v>36</v>
-      </c>
-      <c r="F81" t="s">
-        <v>40</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -8101,10 +8101,10 @@
         <v>45196.54166666666</v>
       </c>
       <c r="E83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" t="s">
         <v>38</v>
-      </c>
-      <c r="F83" t="s">
-        <v>35</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -8285,10 +8285,10 @@
         <v>45197.61458333334</v>
       </c>
       <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
         <v>45</v>
-      </c>
-      <c r="F85" t="s">
-        <v>44</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8469,7 +8469,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
         <v>49</v>
@@ -8745,7 +8745,7 @@
         <v>45200.49652777778</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
         <v>34</v>
@@ -8840,7 +8840,7 @@
         <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -9021,10 +9021,10 @@
         <v>45200.5</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -9113,7 +9113,7 @@
         <v>45201.625</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
         <v>32</v>
@@ -9205,10 +9205,10 @@
         <v>45207.41319444445</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9288,7 +9288,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6867538</v>
+        <v>6867190</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9297,82 +9297,82 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L96">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="M96">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N96">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="P96">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q96">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="R96">
         <v>-0.25</v>
       </c>
       <c r="S96">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W96">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z96">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AC96">
         <v>-1</v>
       </c>
       <c r="AD96">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9380,7 +9380,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6867190</v>
+        <v>6867538</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9389,82 +9389,82 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L97">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N97">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O97">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="P97">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q97">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="R97">
         <v>-0.25</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T97">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>